--- a/$SHOP.xlsx
+++ b/$SHOP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1E37C0-DF8F-4BB2-B416-916514CB82C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF2C2C1-71E0-455D-8062-83F6F1B2D196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DD3A8C14-BBF5-4F78-B1B7-C8887875BE33}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="138">
   <si>
     <t>$SHOP</t>
   </si>
@@ -239,13 +239,218 @@
   </si>
   <si>
     <t>Ottowa, Canada</t>
+  </si>
+  <si>
+    <t>Subscription Revenue</t>
+  </si>
+  <si>
+    <t>Merchant Revenue</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Subscription COGS</t>
+  </si>
+  <si>
+    <t>Merchant COGS</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Transaction &amp; Loan Losses</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Other Income, Net</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Revenue Y/Y</t>
+  </si>
+  <si>
+    <t>Subscription Y/Y</t>
+  </si>
+  <si>
+    <t>Merchant Y/Y</t>
+  </si>
+  <si>
+    <t>Revenue Q/Q</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>R&amp;D Budget</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Cashflow Statement</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>Shopify POS</t>
+  </si>
+  <si>
+    <t>SaaS Model</t>
+  </si>
+  <si>
+    <t>Merchant Sales</t>
+  </si>
+  <si>
+    <t>Business Model</t>
+  </si>
+  <si>
+    <t>In-person physical retail POS system</t>
+  </si>
+  <si>
+    <t>connected to the Shopify platform</t>
+  </si>
+  <si>
+    <t>Subscription Gross Margin</t>
+  </si>
+  <si>
+    <t>Merchant Gross Margin</t>
+  </si>
+  <si>
+    <t>Marketable Securities</t>
+  </si>
+  <si>
+    <t>Trade &amp; A/R</t>
+  </si>
+  <si>
+    <t>Merchant Cash Advances</t>
+  </si>
+  <si>
+    <t>Income Tax Receivables</t>
+  </si>
+  <si>
+    <t>Other Current Assets</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>Deferred Taxes</t>
+  </si>
+  <si>
+    <t>Equity &amp; Other Investments</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>A/P</t>
+  </si>
+  <si>
+    <t>Income Tax Payable</t>
+  </si>
+  <si>
+    <t>Deferred Revenues</t>
+  </si>
+  <si>
+    <t>Lease Liabilities</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>Convertible Senior Notes</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>S/E+L</t>
+  </si>
+  <si>
+    <t>Book Value</t>
+  </si>
+  <si>
+    <t>Book Value per Share</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>MCAP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0\x"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +489,36 @@
       <b/>
       <sz val="8"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -403,13 +638,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,6 +661,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,9 +684,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -483,8 +721,59 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,6 +850,61 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C126BAFA-615E-48E1-B724-44563A8700E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13477875" y="9525"/>
+          <a:ext cx="0" cy="20135850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -863,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F6E83-3251-4909-AC6D-F91B7A570587}">
-  <dimension ref="A2:Q38"/>
+  <dimension ref="A2:Y38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D25"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -874,530 +1218,622 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="G5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6"/>
+      <c r="T5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>52.93</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="D6" s="30"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="23"/>
+      <c r="T6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="26">
-        <v>1190</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="20"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="C7" s="28">
+        <f>'Financial Model'!U22</f>
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="D7" s="30" t="str">
+        <f>$C$28</f>
+        <v>Q322</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23"/>
+      <c r="T7" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="28">
         <f>C6*C7</f>
-        <v>62986.7</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+        <v>67190.677212180002</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="23"/>
+      <c r="T8" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="28"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="C9" s="28">
+        <f>'Financial Model'!U73</f>
+        <v>4941.4319999999998</v>
+      </c>
+      <c r="D9" s="30" t="str">
+        <f t="shared" ref="D9:D11" si="0">$C$28</f>
+        <v>Q322</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="23"/>
+      <c r="T9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="28"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="20"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="C10" s="28">
+        <f>'Financial Model'!U74</f>
+        <v>912.72400000000005</v>
+      </c>
+      <c r="D10" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Q322</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="23"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="28">
         <f>C9-C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="20"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+        <v>4028.7079999999996</v>
+      </c>
+      <c r="D11" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>Q322</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="23"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="29">
         <f>C8-C11</f>
-        <v>62986.7</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G13" s="34"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G14" s="34"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="20"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+        <v>63161.969212180004</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="23"/>
+      <c r="T12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G13" s="36"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="23"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G14" s="36"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="23"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="20"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="20"/>
+      <c r="D16" s="39"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="23"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="20"/>
+      <c r="D17" s="39"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20"/>
+      <c r="D18" s="39"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="20"/>
+      <c r="D19" s="27"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="23"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G20" s="34"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="20"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G21" s="34"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="20"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="20"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="20"/>
+      <c r="D23" s="39"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="38">
         <v>2004</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="20"/>
+      <c r="D24" s="39"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="20"/>
+      <c r="C25" s="38">
+        <v>2015</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="20"/>
+      <c r="C28" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="61">
+        <f>'Financial Model'!U3</f>
+        <v>46661</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="18"/>
+      <c r="D29" s="41"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="62">
+        <f>C6/'Financial Model'!U71</f>
+        <v>7.729278198315245</v>
+      </c>
+      <c r="D33" s="63"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="T5:W5"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
@@ -1416,148 +1852,1623 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{2A54B12F-EBE0-4DCB-A8AD-3BBE3B84923D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123EB027-C354-42BF-BB7E-A89113FA6041}">
-  <dimension ref="B1:AO3"/>
+  <dimension ref="B1:AO97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="U91" sqref="U91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="31" t="s">
+    <row r="1" spans="2:41" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="V1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="Z1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" s="31" t="s">
+      <c r="AD1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AE1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="31" t="s">
+      <c r="AF1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="31" t="s">
+      <c r="AG1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="31" t="s">
+      <c r="AH1" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="31" t="s">
+      <c r="AI1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="31" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" s="31" t="s">
+      <c r="AK1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="31" t="s">
+      <c r="AL1" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="31" t="s">
+      <c r="AM1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" s="31" t="s">
+      <c r="AN1" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="AO1" s="31" t="s">
+      <c r="AO1" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:41" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="2:41" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="32"/>
+    <row r="2" spans="2:41" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="34"/>
+      <c r="Q2" s="44">
+        <v>44469</v>
+      </c>
+      <c r="R2" s="44">
+        <v>44561</v>
+      </c>
+      <c r="U2" s="44">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="3" spans="2:41" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="34"/>
+      <c r="U3" s="43">
+        <v>46661</v>
+      </c>
+    </row>
+    <row r="4" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="49">
+        <v>336.20800000000003</v>
+      </c>
+      <c r="U4" s="49">
+        <v>376.30099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="49">
+        <v>787.53200000000004</v>
+      </c>
+      <c r="U5" s="49">
+        <v>989.899</v>
+      </c>
+    </row>
+    <row r="6" spans="2:41" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="50">
+        <f t="shared" ref="C6:T6" si="0">C4+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="50">
+        <f t="shared" si="0"/>
+        <v>1123.74</v>
+      </c>
+      <c r="R6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="50">
+        <f>U4+U5</f>
+        <v>1366.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="49">
+        <v>67.355000000000004</v>
+      </c>
+      <c r="U7" s="49">
+        <v>82.313000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="49">
+        <v>447.476</v>
+      </c>
+      <c r="U8" s="49">
+        <v>621.55499999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="2:41" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="51">
+        <f t="shared" ref="C9:T9" si="1">C7+C8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="51">
+        <f t="shared" si="1"/>
+        <v>514.83100000000002</v>
+      </c>
+      <c r="R9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="51">
+        <f>U7+U8</f>
+        <v>703.86799999999994</v>
+      </c>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+    </row>
+    <row r="10" spans="2:41" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="50">
+        <f t="shared" ref="C10:T10" si="2">C6-C9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="50">
+        <f t="shared" si="2"/>
+        <v>608.90899999999999</v>
+      </c>
+      <c r="R10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="50">
+        <f>U6-U9</f>
+        <v>662.33200000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="2:41" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="51">
+        <v>237.94900000000001</v>
+      </c>
+      <c r="U11" s="51">
+        <v>302.476</v>
+      </c>
+    </row>
+    <row r="12" spans="2:41" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="51">
+        <v>221.02799999999999</v>
+      </c>
+      <c r="U12" s="51">
+        <v>412.35899999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:41" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="51">
+        <v>128.72200000000001</v>
+      </c>
+      <c r="U13" s="51">
+        <v>255.125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:41" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="51">
+        <v>25.311</v>
+      </c>
+      <c r="U14" s="51">
+        <v>37.738</v>
+      </c>
+    </row>
+    <row r="15" spans="2:41" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="51">
+        <f t="shared" ref="C15:T15" si="3">SUM(C11:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="51">
+        <f t="shared" si="3"/>
+        <v>613.01</v>
+      </c>
+      <c r="R15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="51">
+        <f>SUM(U11:U14)</f>
+        <v>1007.6980000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:41" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="50">
+        <f t="shared" ref="C16:T16" si="4">C10-C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="50">
+        <f t="shared" si="4"/>
+        <v>-4.1009999999999991</v>
+      </c>
+      <c r="R16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="50">
+        <f>U10-U15</f>
+        <v>-345.36599999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="51">
+        <v>1344.5530000000001</v>
+      </c>
+      <c r="U17" s="51">
+        <v>188.233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="51">
+        <f t="shared" ref="C18:T18" si="5">C16+C17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="51">
+        <f t="shared" si="5"/>
+        <v>1340.4520000000002</v>
+      </c>
+      <c r="R18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="51">
+        <f>U16+U17</f>
+        <v>-157.13299999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" s="51">
+        <v>192.02</v>
+      </c>
+      <c r="U19" s="51">
+        <v>1.276</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="50">
+        <f t="shared" ref="C20:T20" si="6">C18-C19</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="50">
+        <f t="shared" si="6"/>
+        <v>1148.4320000000002</v>
+      </c>
+      <c r="R20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="50">
+        <f>U18-U19</f>
+        <v>-158.40899999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q21" s="54">
+        <f>Q20/Q22</f>
+        <v>0.91822067160645615</v>
+      </c>
+      <c r="U21" s="47">
+        <f>U20/U22</f>
+        <v>-0.12478797234804595</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="51">
+        <v>1250.7146</v>
+      </c>
+      <c r="U22" s="51">
+        <v>1269.4252260000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U24" s="52">
+        <f>U6/Q6-1</f>
+        <v>0.2157616530514177</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="U25" s="53">
+        <f>U4/Q4-1</f>
+        <v>0.11925058297244551</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B26" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="U26" s="53">
+        <f>U5/Q5-1</f>
+        <v>0.25696352656146026</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q29" s="52">
+        <f>Q10/Q6</f>
+        <v>0.54185932689056182</v>
+      </c>
+      <c r="U29" s="52">
+        <f>U10/U6</f>
+        <v>0.48479871175523354</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q30" s="60">
+        <f>(Q4-Q7)/Q4</f>
+        <v>0.79966270879931467</v>
+      </c>
+      <c r="U30" s="60">
+        <f>(U4-U7)/U4</f>
+        <v>0.78125755711518174</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q31" s="60">
+        <f>(Q5-Q8)/Q5</f>
+        <v>0.43179959671480017</v>
+      </c>
+      <c r="U31" s="60">
+        <f>(U5-U8)/U5</f>
+        <v>0.37210260844793264</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q32" s="53">
+        <f>Q16/Q6</f>
+        <v>-3.6494206844999723E-3</v>
+      </c>
+      <c r="U32" s="53">
+        <f>U16/U6</f>
+        <v>-0.2527931488801054</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q33" s="53">
+        <f>Q20/Q6</f>
+        <v>1.0219730542652217</v>
+      </c>
+      <c r="U33" s="53">
+        <f>U20/U6</f>
+        <v>-0.11594861660079051</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q34" s="53">
+        <f>Q19/Q18</f>
+        <v>0.14325018725027078</v>
+      </c>
+      <c r="U34" s="53">
+        <f>U19/U18</f>
+        <v>-8.1205093774064027E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q36" s="53">
+        <f>Q12/Q6</f>
+        <v>0.19668962571413315</v>
+      </c>
+      <c r="U36" s="53">
+        <f>U12/U6</f>
+        <v>0.30182916117698722</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B40" s="55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U41" s="50">
+        <v>1378.251</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U42" s="50">
+        <v>3563.181</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U43" s="51">
+        <v>241.18299999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="U44" s="51">
+        <v>666.053</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U45" s="51">
+        <v>11.996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U46" s="51">
+        <v>152.322</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" ref="C47:T47" si="7">SUM(C41:C46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="51">
+        <f>SUM(U41:U46)</f>
+        <v>6012.9859999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U48" s="51">
+        <v>128.46100000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U49" s="51">
+        <v>349.74</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U50" s="51">
+        <v>410.81900000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U51" s="51">
+        <v>43.25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U52" s="51">
+        <v>2421.7469999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U53" s="51">
+        <v>1836.2819999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" ref="C54:T54" si="8">SUM(C48:C53)+C47</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="51">
+        <f>SUM(U48:U53)+U47</f>
+        <v>11203.285</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U55" s="51"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U56" s="51">
+        <v>596.11400000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U57" s="51">
+        <v>4.4580000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U58" s="51">
+        <v>287.625</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U59" s="51">
+        <v>17.024000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" ref="C60:T60" si="9">SUM(C56:C59)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="51">
+        <f>SUM(U56:U59)</f>
+        <v>905.221</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U61" s="51">
+        <v>299.625</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U62" s="51">
+        <v>369.13099999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U63" s="50">
+        <v>912.72400000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U64" s="51">
+        <v>23.576000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" ref="C65:T65" si="10">SUM(C61:C64)+C60</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="51">
+        <f>SUM(U61:U64)+U60</f>
+        <v>2510.277</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U66" s="51"/>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U67" s="51">
+        <v>8693.0079999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U68" s="51">
+        <f>U67+U65</f>
+        <v>11203.285</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U70" s="51">
+        <f>U54-U65</f>
+        <v>8693.0079999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U71" s="1">
+        <f>U70/U22</f>
+        <v>6.8479874371111631</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="U73" s="49">
+        <f>U41+U42</f>
+        <v>4941.4319999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="U74" s="49">
+        <f>U63</f>
+        <v>912.72400000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U75" s="51">
+        <f>U73-U74</f>
+        <v>4028.7079999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U1" r:id="rId1" xr:uid="{230A06CC-0E7F-450B-8B83-E730E533289E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/$SHOP.xlsx
+++ b/$SHOP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF2C2C1-71E0-455D-8062-83F6F1B2D196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DD1D5A-7127-416F-AE4C-F2532E2EF599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{DD3A8C14-BBF5-4F78-B1B7-C8887875BE33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{DD3A8C14-BBF5-4F78-B1B7-C8887875BE33}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="145">
   <si>
     <t>$SHOP</t>
   </si>
@@ -440,15 +440,37 @@
   </si>
   <si>
     <t>MCAP</t>
+  </si>
+  <si>
+    <t>3-Tier subscription model to host eCommerce</t>
+  </si>
+  <si>
+    <t>Purchase of Marketable Securities</t>
+  </si>
+  <si>
+    <t>Matuirity of Marketable Securities</t>
+  </si>
+  <si>
+    <t>Purchase of Equity &amp; Other Investments</t>
+  </si>
+  <si>
+    <t>Acquistiions of PP&amp;E</t>
+  </si>
+  <si>
+    <t>Acquistiions of Businesses</t>
+  </si>
+  <si>
+    <t>Shopify complete a 10:1 share split after share price touches $1,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
     <numFmt numFmtId="172" formatCode="0.0\x"/>
+    <numFmt numFmtId="174" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -642,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -713,8 +735,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -771,6 +791,11 @@
     <xf numFmtId="172" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -867,7 +892,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -884,6 +909,56 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13477875" y="9525"/>
+          <a:ext cx="0" cy="20135850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF274CF-C328-4A6B-8D83-99EBC85C9CF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18964275" y="0"/>
           <a:ext cx="0" cy="20135850"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1209,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F6E83-3251-4909-AC6D-F91B7A570587}">
   <dimension ref="A2:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1254,8 +1329,8 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="54"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
@@ -1265,7 +1340,7 @@
         <v>52.93</v>
       </c>
       <c r="D6" s="30"/>
-      <c r="G6" s="36"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -1282,6 +1357,7 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
@@ -1295,7 +1371,7 @@
         <f>$C$28</f>
         <v>Q322</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -1306,12 +1382,13 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="23"/>
-      <c r="T7" s="57" t="s">
+      <c r="T7" s="55" t="s">
         <v>108</v>
       </c>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
@@ -1322,7 +1399,7 @@
         <v>67190.677212180002</v>
       </c>
       <c r="D8" s="30"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -1333,12 +1410,13 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="23"/>
-      <c r="T8" s="58" t="s">
+      <c r="T8" s="56" t="s">
         <v>109</v>
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
@@ -1352,7 +1430,7 @@
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>Q322</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -1369,6 +1447,7 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
@@ -1382,7 +1461,7 @@
         <f t="shared" si="0"/>
         <v>Q322</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -1397,6 +1476,7 @@
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
@@ -1410,7 +1490,7 @@
         <f t="shared" si="0"/>
         <v>Q322</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -1425,6 +1505,7 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
@@ -1435,8 +1516,12 @@
         <v>63161.969212180004</v>
       </c>
       <c r="D12" s="31"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="22"/>
+      <c r="G12" s="63">
+        <v>44713</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>144</v>
+      </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
@@ -1452,9 +1537,10 @@
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G13" s="36"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
@@ -1465,13 +1551,16 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="23"/>
-      <c r="T13" s="10"/>
+      <c r="T13" s="55" t="s">
+        <v>138</v>
+      </c>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G14" s="36"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -1486,6 +1575,7 @@
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
@@ -1493,7 +1583,7 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
-      <c r="G15" s="36"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -1508,6 +1598,7 @@
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
@@ -1516,11 +1607,11 @@
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="G16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -1535,16 +1626,17 @@
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="G17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -1560,11 +1652,11 @@
       <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="G18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -1584,7 +1676,7 @@
         <v>67</v>
       </c>
       <c r="D19" s="27"/>
-      <c r="G19" s="36"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -1597,7 +1689,7 @@
       <c r="Q19" s="23"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G20" s="36"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -1610,7 +1702,7 @@
       <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G21" s="36"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -1628,7 +1720,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
-      <c r="G22" s="36"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -1644,11 +1736,11 @@
       <c r="B23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="G23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -1664,11 +1756,11 @@
       <c r="B24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="36">
         <v>2004</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="G24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -1684,11 +1776,11 @@
       <c r="B25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="36">
         <v>2015</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="G25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
@@ -1704,7 +1796,7 @@
       <c r="B26" s="18"/>
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
-      <c r="G26" s="36"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -1720,7 +1812,7 @@
       <c r="B27" s="18"/>
       <c r="C27" s="13"/>
       <c r="D27" s="14"/>
-      <c r="G27" s="36"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -1739,11 +1831,11 @@
       <c r="C28" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="59">
         <f>'Financial Model'!U3</f>
         <v>46661</v>
       </c>
-      <c r="G28" s="36"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -1759,11 +1851,11 @@
       <c r="B29" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="G29" s="37"/>
+      <c r="D29" s="39"/>
+      <c r="G29" s="19"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -1786,11 +1878,11 @@
       <c r="B33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="62">
+      <c r="C33" s="60">
         <f>C6/'Financial Model'!U71</f>
         <v>7.729278198315245</v>
       </c>
-      <c r="D33" s="63"/>
+      <c r="D33" s="61"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
@@ -1833,7 +1925,7 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="T5:X5"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
@@ -1863,13 +1955,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123EB027-C354-42BF-BB7E-A89113FA6041}">
-  <dimension ref="B1:AO97"/>
+  <dimension ref="B1:AO102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U91" sqref="U91"/>
+      <selection pane="bottomRight" activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1928,13 +2020,13 @@
       <c r="R1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="40" t="s">
         <v>47</v>
       </c>
       <c r="V1" s="33" t="s">
@@ -1994,697 +2086,835 @@
     </row>
     <row r="2" spans="2:41" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="34"/>
-      <c r="Q2" s="44">
+      <c r="O2" s="42">
+        <v>44286</v>
+      </c>
+      <c r="P2" s="42">
+        <v>44377</v>
+      </c>
+      <c r="Q2" s="42">
         <v>44469</v>
       </c>
-      <c r="R2" s="44">
+      <c r="R2" s="42">
         <v>44561</v>
       </c>
-      <c r="U2" s="44">
+      <c r="S2" s="42">
+        <v>44651</v>
+      </c>
+      <c r="T2" s="42">
+        <v>44742</v>
+      </c>
+      <c r="U2" s="42">
         <v>44834</v>
       </c>
     </row>
     <row r="3" spans="2:41" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="34"/>
-      <c r="U3" s="43">
+      <c r="S3" s="41">
+        <v>38473</v>
+      </c>
+      <c r="T3" s="41">
+        <v>46569</v>
+      </c>
+      <c r="U3" s="41">
         <v>46661</v>
       </c>
     </row>
-    <row r="4" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="48" t="s">
+    <row r="4" spans="2:41" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="O4" s="47">
+        <v>320.68099999999998</v>
+      </c>
+      <c r="P4" s="47">
+        <v>334.23700000000002</v>
+      </c>
+      <c r="Q4" s="47">
         <v>336.20800000000003</v>
       </c>
-      <c r="U4" s="49">
+      <c r="S4" s="47">
+        <v>344.76100000000002</v>
+      </c>
+      <c r="T4" s="47">
+        <v>366.44299999999998</v>
+      </c>
+      <c r="U4" s="47">
         <v>376.30099999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="2:41" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="O5" s="47">
+        <v>667.96600000000001</v>
+      </c>
+      <c r="P5" s="47">
+        <v>785.20799999999997</v>
+      </c>
+      <c r="Q5" s="47">
         <v>787.53200000000004</v>
       </c>
-      <c r="U5" s="49">
+      <c r="S5" s="47">
+        <v>858.86199999999997</v>
+      </c>
+      <c r="T5" s="47">
+        <v>928.62</v>
+      </c>
+      <c r="U5" s="47">
         <v>989.899</v>
       </c>
     </row>
-    <row r="6" spans="2:41" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="50" t="s">
+    <row r="6" spans="2:41" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="48">
         <f t="shared" ref="C6:T6" si="0">C4+C5</f>
         <v>0</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="50">
+      <c r="L6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="50">
+      <c r="N6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O6" s="50">
+      <c r="O6" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="50">
+        <v>988.64699999999993</v>
+      </c>
+      <c r="P6" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="50">
+        <v>1119.4449999999999</v>
+      </c>
+      <c r="Q6" s="48">
         <f t="shared" si="0"/>
         <v>1123.74</v>
       </c>
-      <c r="R6" s="50">
+      <c r="R6" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6" s="50">
+      <c r="S6" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="50">
+        <v>1203.623</v>
+      </c>
+      <c r="T6" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="50">
+        <v>1295.0630000000001</v>
+      </c>
+      <c r="U6" s="48">
         <f>U4+U5</f>
         <v>1366.2</v>
       </c>
     </row>
-    <row r="7" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="48" t="s">
+    <row r="7" spans="2:41" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="O7" s="47">
+        <v>58.381999999999998</v>
+      </c>
+      <c r="P7" s="47">
+        <v>63.027000000000001</v>
+      </c>
+      <c r="Q7" s="47">
         <v>67.355000000000004</v>
       </c>
-      <c r="U7" s="49">
+      <c r="S7" s="47">
+        <v>77.545000000000002</v>
+      </c>
+      <c r="T7" s="47">
+        <v>85.238</v>
+      </c>
+      <c r="U7" s="47">
         <v>82.313000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="48" t="s">
+    <row r="8" spans="2:41" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="49">
+      <c r="O8" s="47">
+        <v>371.54899999999998</v>
+      </c>
+      <c r="P8" s="47">
+        <v>435.55799999999999</v>
+      </c>
+      <c r="Q8" s="47">
         <v>447.476</v>
       </c>
-      <c r="U8" s="49">
+      <c r="S8" s="47">
+        <v>488.44099999999997</v>
+      </c>
+      <c r="T8" s="47">
+        <v>554.18299999999999</v>
+      </c>
+      <c r="U8" s="47">
         <v>621.55499999999995</v>
       </c>
     </row>
-    <row r="9" spans="2:41" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51" t="s">
+    <row r="9" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="49">
         <f t="shared" ref="C9:T9" si="1">C7+C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="51">
+      <c r="L9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N9" s="51">
+      <c r="N9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="51">
+      <c r="O9" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="51">
+        <v>429.93099999999998</v>
+      </c>
+      <c r="P9" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="51">
+        <v>498.58499999999998</v>
+      </c>
+      <c r="Q9" s="49">
         <f t="shared" si="1"/>
         <v>514.83100000000002</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S9" s="51">
+      <c r="S9" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="51">
+        <v>565.98599999999999</v>
+      </c>
+      <c r="T9" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="51">
+        <v>639.42100000000005</v>
+      </c>
+      <c r="U9" s="49">
         <f>U7+U8</f>
         <v>703.86799999999994</v>
       </c>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-    </row>
-    <row r="10" spans="2:41" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="50" t="s">
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+    </row>
+    <row r="10" spans="2:41" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="48">
         <f t="shared" ref="C10:T10" si="2">C6-C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="50">
+      <c r="L10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="50">
+      <c r="N10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="50">
+      <c r="O10" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="50">
+        <v>558.71599999999989</v>
+      </c>
+      <c r="P10" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="50">
+        <v>620.8599999999999</v>
+      </c>
+      <c r="Q10" s="48">
         <f t="shared" si="2"/>
         <v>608.90899999999999</v>
       </c>
-      <c r="R10" s="50">
+      <c r="R10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S10" s="50">
+      <c r="S10" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="50">
+        <v>637.63700000000006</v>
+      </c>
+      <c r="T10" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="50">
+        <v>655.64200000000005</v>
+      </c>
+      <c r="U10" s="48">
         <f>U6-U9</f>
         <v>662.33200000000011</v>
       </c>
     </row>
-    <row r="11" spans="2:41" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="51" t="s">
+    <row r="11" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="O11" s="49">
+        <v>186.22300000000001</v>
+      </c>
+      <c r="P11" s="49">
+        <v>201.91</v>
+      </c>
+      <c r="Q11" s="49">
         <v>237.94900000000001</v>
       </c>
-      <c r="U11" s="51">
+      <c r="S11" s="49">
+        <v>303.37099999999998</v>
+      </c>
+      <c r="T11" s="49">
+        <v>326.90199999999999</v>
+      </c>
+      <c r="U11" s="49">
         <v>302.476</v>
       </c>
     </row>
-    <row r="12" spans="2:41" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="51" t="s">
+    <row r="12" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="O12" s="49">
+        <v>175.886</v>
+      </c>
+      <c r="P12" s="49">
+        <v>183.55699999999999</v>
+      </c>
+      <c r="Q12" s="49">
         <v>221.02799999999999</v>
       </c>
-      <c r="U12" s="51">
+      <c r="S12" s="49">
+        <v>303.661</v>
+      </c>
+      <c r="T12" s="49">
+        <v>346.66699999999997</v>
+      </c>
+      <c r="U12" s="49">
         <v>412.35899999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:41" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="51" t="s">
+    <row r="13" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="O13" s="49">
+        <v>67.102000000000004</v>
+      </c>
+      <c r="P13" s="49">
+        <v>77.965999999999994</v>
+      </c>
+      <c r="Q13" s="49">
         <v>128.72200000000001</v>
       </c>
-      <c r="U13" s="51">
+      <c r="S13" s="49">
+        <v>108.08799999999999</v>
+      </c>
+      <c r="T13" s="49">
+        <v>129.90100000000001</v>
+      </c>
+      <c r="U13" s="49">
         <v>255.125</v>
       </c>
     </row>
-    <row r="14" spans="2:41" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51" t="s">
+    <row r="14" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="Q14" s="51">
+      <c r="O14" s="49">
+        <v>10.606</v>
+      </c>
+      <c r="P14" s="49">
+        <v>17.986000000000001</v>
+      </c>
+      <c r="Q14" s="49">
         <v>25.311</v>
       </c>
-      <c r="U14" s="51">
+      <c r="S14" s="49">
+        <v>20.492999999999999</v>
+      </c>
+      <c r="T14" s="49">
+        <v>42.38</v>
+      </c>
+      <c r="U14" s="49">
         <v>37.738</v>
       </c>
     </row>
-    <row r="15" spans="2:41" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="51" t="s">
+    <row r="15" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="49">
         <f t="shared" ref="C15:T15" si="3">SUM(C11:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="51">
+      <c r="L15" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="51">
+      <c r="N15" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="51">
+      <c r="O15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="51">
+        <v>439.81700000000001</v>
+      </c>
+      <c r="P15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="51">
+        <v>481.41899999999998</v>
+      </c>
+      <c r="Q15" s="49">
         <f t="shared" si="3"/>
         <v>613.01</v>
       </c>
-      <c r="R15" s="51">
+      <c r="R15" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S15" s="51">
+      <c r="S15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="51">
+        <v>735.61299999999994</v>
+      </c>
+      <c r="T15" s="49">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="51">
+        <v>845.85</v>
+      </c>
+      <c r="U15" s="49">
         <f>SUM(U11:U14)</f>
         <v>1007.6980000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:41" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="50" t="s">
+    <row r="16" spans="2:41" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="48">
         <f t="shared" ref="C16:T16" si="4">C10-C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L16" s="50">
+      <c r="L16" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M16" s="50">
+      <c r="M16" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N16" s="50">
+      <c r="N16" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O16" s="50">
+      <c r="O16" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="50">
+        <v>118.89899999999989</v>
+      </c>
+      <c r="P16" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="50">
+        <v>139.44099999999992</v>
+      </c>
+      <c r="Q16" s="48">
         <f t="shared" si="4"/>
         <v>-4.1009999999999991</v>
       </c>
-      <c r="R16" s="50">
+      <c r="R16" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S16" s="50">
+      <c r="S16" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="50">
+        <v>-97.975999999999885</v>
+      </c>
+      <c r="T16" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="50">
+        <v>-190.20799999999997</v>
+      </c>
+      <c r="U16" s="48">
         <f>U10-U15</f>
         <v>-345.36599999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="51" t="s">
+    <row r="17" spans="2:21" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="O17" s="49">
+        <v>1250.645</v>
+      </c>
+      <c r="P17" s="49">
+        <v>779.87400000000002</v>
+      </c>
+      <c r="Q17" s="49">
         <v>1344.5530000000001</v>
       </c>
-      <c r="U17" s="51">
+      <c r="S17" s="49">
+        <v>-1554.8810000000001</v>
+      </c>
+      <c r="T17" s="49">
+        <v>-1008.042</v>
+      </c>
+      <c r="U17" s="49">
         <v>188.233</v>
       </c>
     </row>
-    <row r="18" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="51" t="s">
+    <row r="18" spans="2:21" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="49">
         <f t="shared" ref="C18:T18" si="5">C16+C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L18" s="51">
+      <c r="L18" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N18" s="51">
+      <c r="N18" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="49">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="51">
+        <v>1369.5439999999999</v>
+      </c>
+      <c r="P18" s="49">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="51">
+        <v>919.31499999999994</v>
+      </c>
+      <c r="Q18" s="49">
         <f t="shared" si="5"/>
         <v>1340.4520000000002</v>
       </c>
-      <c r="R18" s="51">
+      <c r="R18" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S18" s="51">
+      <c r="S18" s="49">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="51">
+        <v>-1652.857</v>
+      </c>
+      <c r="T18" s="49">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="51">
+        <v>-1198.25</v>
+      </c>
+      <c r="U18" s="49">
         <f>U16+U17</f>
         <v>-157.13299999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="51" t="s">
+    <row r="19" spans="2:21" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="O19" s="49">
+        <v>111.099</v>
+      </c>
+      <c r="P19" s="49">
+        <v>-40.222000000000001</v>
+      </c>
+      <c r="Q19" s="49">
         <v>192.02</v>
       </c>
-      <c r="U19" s="51">
+      <c r="S19" s="49">
+        <v>-178.44900000000001</v>
+      </c>
+      <c r="T19" s="49">
+        <v>5.657</v>
+      </c>
+      <c r="U19" s="49">
         <v>1.276</v>
       </c>
     </row>
-    <row r="20" spans="2:21" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="50" t="s">
+    <row r="20" spans="2:21" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="48">
         <f t="shared" ref="C20:T20" si="6">C18-C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K20" s="50">
+      <c r="K20" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L20" s="50">
+      <c r="L20" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M20" s="50">
+      <c r="M20" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N20" s="50">
+      <c r="N20" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O20" s="50">
+      <c r="O20" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="50">
+        <v>1258.4449999999999</v>
+      </c>
+      <c r="P20" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="50">
+        <v>959.53699999999992</v>
+      </c>
+      <c r="Q20" s="48">
         <f t="shared" si="6"/>
         <v>1148.4320000000002</v>
       </c>
-      <c r="R20" s="50">
+      <c r="R20" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S20" s="50">
+      <c r="S20" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="50">
+        <v>-1474.4079999999999</v>
+      </c>
+      <c r="T20" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="50">
+        <v>-1203.9069999999999</v>
+      </c>
+      <c r="U20" s="48">
         <f>U18-U19</f>
         <v>-158.40899999999999</v>
       </c>
@@ -2693,11 +2923,27 @@
       <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q21" s="54">
+      <c r="O21" s="52">
+        <f t="shared" ref="O21:P21" si="7">O20/O22</f>
+        <v>10.211033185076877</v>
+      </c>
+      <c r="P21" s="52">
+        <f t="shared" si="7"/>
+        <v>0.77041832326648041</v>
+      </c>
+      <c r="Q21" s="52">
         <f>Q20/Q22</f>
         <v>0.91822067160645615</v>
       </c>
-      <c r="U21" s="47">
+      <c r="S21" s="45">
+        <f>S20/S22</f>
+        <v>-11.700437476856566</v>
+      </c>
+      <c r="T21" s="45">
+        <f>T20/T22</f>
+        <v>-0.95395869419321089</v>
+      </c>
+      <c r="U21" s="45">
         <f>U20/U22</f>
         <v>-0.12478797234804595</v>
       </c>
@@ -2706,10 +2952,35 @@
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="51">
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49">
+        <v>123.24365</v>
+      </c>
+      <c r="P22" s="49">
+        <v>1245.47531</v>
+      </c>
+      <c r="Q22" s="49">
         <v>1250.7146</v>
       </c>
-      <c r="U22" s="51">
+      <c r="R22" s="49"/>
+      <c r="S22" s="49">
+        <v>126.01306599999999</v>
+      </c>
+      <c r="T22" s="49">
+        <v>1262.011665</v>
+      </c>
+      <c r="U22" s="49">
         <v>1269.4252260000001</v>
       </c>
     </row>
@@ -2717,25 +2988,49 @@
       <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="U24" s="52">
+      <c r="S24" s="50">
+        <f t="shared" ref="S24" si="8">S6/O6-1</f>
+        <v>0.2174446491012465</v>
+      </c>
+      <c r="T24" s="50">
+        <f t="shared" ref="T24" si="9">T6/P6-1</f>
+        <v>0.15687952512182401</v>
+      </c>
+      <c r="U24" s="50">
         <f>U6/Q6-1</f>
         <v>0.2157616530514177</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="U25" s="53">
+      <c r="S25" s="51">
+        <f t="shared" ref="S25:S26" si="10">S4/O4-1</f>
+        <v>7.5090198670953567E-2</v>
+      </c>
+      <c r="T25" s="51">
+        <f t="shared" ref="T25:T26" si="11">T4/P4-1</f>
+        <v>9.6356776778154352E-2</v>
+      </c>
+      <c r="U25" s="51">
         <f>U4/Q4-1</f>
         <v>0.11925058297244551</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="U26" s="53">
+      <c r="S26" s="51">
+        <f t="shared" si="10"/>
+        <v>0.28578700113478828</v>
+      </c>
+      <c r="T26" s="51">
+        <f t="shared" si="11"/>
+        <v>0.18264205153284241</v>
+      </c>
+      <c r="U26" s="51">
         <f>U5/Q5-1</f>
         <v>0.25696352656146026</v>
       </c>
@@ -2744,100 +3039,228 @@
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="2:21" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="52" t="s">
+      <c r="P27" s="51">
+        <f t="shared" ref="P27:Q27" si="12">P6/O6-1</f>
+        <v>0.13230000192181834</v>
+      </c>
+      <c r="Q27" s="51">
+        <f t="shared" si="12"/>
+        <v>3.8367226616762284E-3</v>
+      </c>
+      <c r="T27" s="51">
+        <f>T6/S6-1</f>
+        <v>7.5970632000219362E-2</v>
+      </c>
+      <c r="U27" s="51">
+        <f>U6/T6-1</f>
+        <v>5.4929374092225647E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="Q29" s="52">
+      <c r="O29" s="50">
+        <f t="shared" ref="O29:P29" si="13">O10/O6</f>
+        <v>0.56513194294829194</v>
+      </c>
+      <c r="P29" s="50">
+        <f t="shared" ref="P29:Q29" si="14">P10/P6</f>
+        <v>0.55461411681681538</v>
+      </c>
+      <c r="Q29" s="50">
         <f>Q10/Q6</f>
         <v>0.54185932689056182</v>
       </c>
-      <c r="U29" s="52">
+      <c r="S29" s="50">
+        <f t="shared" ref="S29:T29" si="15">S10/S6</f>
+        <v>0.52976471868683139</v>
+      </c>
+      <c r="T29" s="50">
+        <f t="shared" ref="T29:U29" si="16">T10/T6</f>
+        <v>0.50626262969446278</v>
+      </c>
+      <c r="U29" s="50">
         <f>U10/U6</f>
         <v>0.48479871175523354</v>
       </c>
     </row>
-    <row r="30" spans="2:21" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="59" t="s">
+    <row r="30" spans="2:21" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="Q30" s="60">
+      <c r="O30" s="58">
+        <f t="shared" ref="O30:P30" si="17">(O4-O7)/O4</f>
+        <v>0.81794368858772426</v>
+      </c>
+      <c r="P30" s="58">
+        <f t="shared" ref="P30:Q30" si="18">(P4-P7)/P4</f>
+        <v>0.81143021269338833</v>
+      </c>
+      <c r="Q30" s="58">
         <f>(Q4-Q7)/Q4</f>
         <v>0.79966270879931467</v>
       </c>
-      <c r="U30" s="60">
+      <c r="S30" s="58">
+        <f t="shared" ref="S30:T30" si="19">(S4-S7)/S4</f>
+        <v>0.77507606718857414</v>
+      </c>
+      <c r="T30" s="58">
+        <f t="shared" ref="T30:U30" si="20">(T4-T7)/T4</f>
+        <v>0.76739083568249356</v>
+      </c>
+      <c r="U30" s="58">
         <f>(U4-U7)/U4</f>
         <v>0.78125755711518174</v>
       </c>
     </row>
-    <row r="31" spans="2:21" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="59" t="s">
+    <row r="31" spans="2:21" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="Q31" s="60">
+      <c r="O31" s="58">
+        <f t="shared" ref="O31:P31" si="21">(O5-O8)/O5</f>
+        <v>0.4437606105699991</v>
+      </c>
+      <c r="P31" s="58">
+        <f t="shared" ref="P31:Q31" si="22">(P5-P8)/P5</f>
+        <v>0.44529602347403491</v>
+      </c>
+      <c r="Q31" s="58">
         <f>(Q5-Q8)/Q5</f>
         <v>0.43179959671480017</v>
       </c>
-      <c r="U31" s="60">
+      <c r="S31" s="58">
+        <f t="shared" ref="S31:T31" si="23">(S5-S8)/S5</f>
+        <v>0.43129280373331225</v>
+      </c>
+      <c r="T31" s="58">
+        <f t="shared" ref="T31:U31" si="24">(T5-T8)/T5</f>
+        <v>0.40321875471129204</v>
+      </c>
+      <c r="U31" s="58">
         <f>(U5-U8)/U5</f>
         <v>0.37210260844793264</v>
       </c>
     </row>
-    <row r="32" spans="2:21" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="53" t="s">
+    <row r="32" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="Q32" s="53">
+      <c r="O32" s="51">
+        <f t="shared" ref="O32:P32" si="25">O16/O6</f>
+        <v>0.12026436129376804</v>
+      </c>
+      <c r="P32" s="51">
+        <f t="shared" ref="P32:Q32" si="26">P16/P6</f>
+        <v>0.12456261808306789</v>
+      </c>
+      <c r="Q32" s="51">
         <f>Q16/Q6</f>
         <v>-3.6494206844999723E-3</v>
       </c>
-      <c r="U32" s="53">
+      <c r="S32" s="51">
+        <f t="shared" ref="S32:T32" si="27">S16/S6</f>
+        <v>-8.1400903771363525E-2</v>
+      </c>
+      <c r="T32" s="51">
+        <f t="shared" ref="T32:U32" si="28">T16/T6</f>
+        <v>-0.14687161937295712</v>
+      </c>
+      <c r="U32" s="51">
         <f>U16/U6</f>
         <v>-0.2527931488801054</v>
       </c>
     </row>
-    <row r="33" spans="2:21" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="53" t="s">
+    <row r="33" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="Q33" s="53">
+      <c r="O33" s="51">
+        <f t="shared" ref="O33:P33" si="29">O20/O6</f>
+        <v>1.272896190450181</v>
+      </c>
+      <c r="P33" s="51">
+        <f t="shared" ref="P33:Q33" si="30">P20/P6</f>
+        <v>0.85715421481180409</v>
+      </c>
+      <c r="Q33" s="51">
         <f>Q20/Q6</f>
         <v>1.0219730542652217</v>
       </c>
-      <c r="U33" s="53">
+      <c r="S33" s="51">
+        <f t="shared" ref="S33:T33" si="31">S20/S6</f>
+        <v>-1.2249749298576047</v>
+      </c>
+      <c r="T33" s="51">
+        <f t="shared" ref="T33:U33" si="32">T20/T6</f>
+        <v>-0.9296126906567479</v>
+      </c>
+      <c r="U33" s="51">
         <f>U20/U6</f>
         <v>-0.11594861660079051</v>
       </c>
     </row>
-    <row r="34" spans="2:21" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="53" t="s">
+    <row r="34" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="Q34" s="53">
+      <c r="O34" s="51">
+        <f t="shared" ref="O34:P34" si="33">O19/O18</f>
+        <v>8.1121161496089222E-2</v>
+      </c>
+      <c r="P34" s="51">
+        <f t="shared" ref="P34:Q34" si="34">P19/P18</f>
+        <v>-4.3752141540168502E-2</v>
+      </c>
+      <c r="Q34" s="51">
         <f>Q19/Q18</f>
         <v>0.14325018725027078</v>
       </c>
-      <c r="U34" s="53">
+      <c r="S34" s="51">
+        <f t="shared" ref="S34:T34" si="35">S19/S18</f>
+        <v>0.10796396784476819</v>
+      </c>
+      <c r="T34" s="51">
+        <f t="shared" ref="T34:U34" si="36">T19/T18</f>
+        <v>-4.7210515334863345E-3</v>
+      </c>
+      <c r="U34" s="51">
         <f>U19/U18</f>
         <v>-8.1205093774064027E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:21" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="53" t="s">
+    <row r="36" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="Q36" s="53">
+      <c r="O36" s="51">
+        <f t="shared" ref="O36:P36" si="37">O12/O6</f>
+        <v>0.17790576414028467</v>
+      </c>
+      <c r="P36" s="51">
+        <f>P12/P6</f>
+        <v>0.16397143227224203</v>
+      </c>
+      <c r="Q36" s="51">
         <f>Q12/Q6</f>
         <v>0.19668962571413315</v>
       </c>
-      <c r="U36" s="53">
+      <c r="S36" s="51">
+        <f t="shared" ref="S36:T36" si="38">S12/S6</f>
+        <v>0.25228913040046591</v>
+      </c>
+      <c r="T36" s="51">
+        <f t="shared" ref="T36:U36" si="39">T12/T6</f>
+        <v>0.26768350265585533</v>
+      </c>
+      <c r="U36" s="51">
         <f>U12/U6</f>
         <v>0.30182916117698722</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="53" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2845,7 +3268,13 @@
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U41" s="50">
+      <c r="S41" s="48">
+        <v>2451.5450000000001</v>
+      </c>
+      <c r="T41" s="48">
+        <v>3350.7809999999999</v>
+      </c>
+      <c r="U41" s="48">
         <v>1378.251</v>
       </c>
     </row>
@@ -2853,7 +3282,13 @@
       <c r="B42" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="U42" s="50">
+      <c r="S42" s="48">
+        <v>4795.1450000000004</v>
+      </c>
+      <c r="T42" s="48">
+        <v>3604.01</v>
+      </c>
+      <c r="U42" s="48">
         <v>3563.181</v>
       </c>
     </row>
@@ -2861,7 +3296,13 @@
       <c r="B43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="U43" s="51">
+      <c r="S43" s="49">
+        <v>225.25200000000001</v>
+      </c>
+      <c r="T43" s="49">
+        <v>238.72300000000001</v>
+      </c>
+      <c r="U43" s="49">
         <v>241.18299999999999</v>
       </c>
     </row>
@@ -2869,7 +3310,13 @@
       <c r="B44" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="U44" s="51">
+      <c r="S44" s="49">
+        <v>486.50700000000001</v>
+      </c>
+      <c r="T44" s="49">
+        <v>537.79</v>
+      </c>
+      <c r="U44" s="49">
         <v>666.053</v>
       </c>
     </row>
@@ -2877,7 +3324,13 @@
       <c r="B45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="U45" s="51">
+      <c r="S45" s="49">
+        <v>3.3690000000000002</v>
+      </c>
+      <c r="T45" s="49">
+        <v>13.212999999999999</v>
+      </c>
+      <c r="U45" s="49">
         <v>11.996</v>
       </c>
     </row>
@@ -2885,7 +3338,13 @@
       <c r="B46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="U46" s="51">
+      <c r="S46" s="49">
+        <v>113.063</v>
+      </c>
+      <c r="T46" s="49">
+        <v>113.247</v>
+      </c>
+      <c r="U46" s="49">
         <v>152.322</v>
       </c>
     </row>
@@ -2894,78 +3353,78 @@
         <v>117</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" ref="C47:T47" si="7">SUM(C41:C46)</f>
+        <f t="shared" ref="C47:T47" si="40">SUM(C41:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="51">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="49">
+        <f t="shared" si="40"/>
+        <v>8074.8810000000003</v>
+      </c>
+      <c r="T47" s="49">
+        <f t="shared" si="40"/>
+        <v>7857.7640000000001</v>
+      </c>
+      <c r="U47" s="49">
         <f>SUM(U41:U46)</f>
         <v>6012.9859999999999</v>
       </c>
@@ -2974,7 +3433,13 @@
       <c r="B48" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U48" s="51">
+      <c r="S48" s="49">
+        <v>109.57</v>
+      </c>
+      <c r="T48" s="49">
+        <v>114.20699999999999</v>
+      </c>
+      <c r="U48" s="49">
         <v>128.46100000000001</v>
       </c>
     </row>
@@ -2982,7 +3447,13 @@
       <c r="B49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="U49" s="51">
+      <c r="S49" s="49">
+        <v>220.20500000000001</v>
+      </c>
+      <c r="T49" s="49">
+        <v>224.55500000000001</v>
+      </c>
+      <c r="U49" s="49">
         <v>349.74</v>
       </c>
     </row>
@@ -2990,7 +3461,13 @@
       <c r="B50" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="U50" s="51">
+      <c r="S50" s="49">
+        <v>131.608</v>
+      </c>
+      <c r="T50" s="49">
+        <v>133.12899999999999</v>
+      </c>
+      <c r="U50" s="49">
         <v>410.81900000000002</v>
       </c>
     </row>
@@ -2998,7 +3475,13 @@
       <c r="B51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U51" s="51">
+      <c r="S51" s="49">
+        <v>47.064</v>
+      </c>
+      <c r="T51" s="49">
+        <v>44.762999999999998</v>
+      </c>
+      <c r="U51" s="49">
         <v>43.25</v>
       </c>
     </row>
@@ -3006,7 +3489,13 @@
       <c r="B52" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="U52" s="51">
+      <c r="S52" s="49">
+        <v>2894.6010000000001</v>
+      </c>
+      <c r="T52" s="49">
+        <v>1993.867</v>
+      </c>
+      <c r="U52" s="49">
         <v>2421.7469999999998</v>
       </c>
     </row>
@@ -3014,7 +3503,13 @@
       <c r="B53" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="U53" s="51">
+      <c r="S53" s="49">
+        <v>356.52800000000002</v>
+      </c>
+      <c r="T53" s="49">
+        <v>379.34500000000003</v>
+      </c>
+      <c r="U53" s="49">
         <v>1836.2819999999999</v>
       </c>
     </row>
@@ -3023,90 +3518,98 @@
         <v>124</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" ref="C54:T54" si="8">SUM(C48:C53)+C47</f>
+        <f t="shared" ref="C54:T54" si="41">SUM(C48:C53)+C47</f>
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="51">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="49">
+        <f t="shared" si="41"/>
+        <v>11834.457</v>
+      </c>
+      <c r="T54" s="49">
+        <f t="shared" si="41"/>
+        <v>10747.630000000001</v>
+      </c>
+      <c r="U54" s="49">
         <f>SUM(U48:U53)+U47</f>
         <v>11203.285</v>
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="U55" s="51"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="U56" s="51">
+      <c r="S56" s="49">
+        <v>406.64699999999999</v>
+      </c>
+      <c r="T56" s="49">
+        <v>419.40800000000002</v>
+      </c>
+      <c r="U56" s="49">
         <v>596.11400000000003</v>
       </c>
     </row>
@@ -3114,7 +3617,13 @@
       <c r="B57" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="U57" s="51">
+      <c r="S57" s="49">
+        <v>8.2940000000000005</v>
+      </c>
+      <c r="T57" s="49">
+        <v>4.125</v>
+      </c>
+      <c r="U57" s="49">
         <v>4.4580000000000002</v>
       </c>
     </row>
@@ -3122,7 +3631,13 @@
       <c r="B58" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="U58" s="51">
+      <c r="S58" s="49">
+        <v>247.64699999999999</v>
+      </c>
+      <c r="T58" s="49">
+        <v>254.00700000000001</v>
+      </c>
+      <c r="U58" s="49">
         <v>287.625</v>
       </c>
     </row>
@@ -3130,7 +3645,13 @@
       <c r="B59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="U59" s="51">
+      <c r="S59" s="49">
+        <v>19.344000000000001</v>
+      </c>
+      <c r="T59" s="49">
+        <v>25.667999999999999</v>
+      </c>
+      <c r="U59" s="49">
         <v>17.024000000000001</v>
       </c>
     </row>
@@ -3139,78 +3660,78 @@
         <v>129</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" ref="C60:T60" si="9">SUM(C56:C59)</f>
+        <f t="shared" ref="C60:T60" si="42">SUM(C56:C59)</f>
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T60" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U60" s="51">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="49">
+        <f t="shared" si="42"/>
+        <v>681.93200000000002</v>
+      </c>
+      <c r="T60" s="49">
+        <f t="shared" si="42"/>
+        <v>703.20799999999997</v>
+      </c>
+      <c r="U60" s="49">
         <f>SUM(U56:U59)</f>
         <v>905.221</v>
       </c>
@@ -3219,7 +3740,13 @@
       <c r="B61" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="U61" s="51">
+      <c r="S61" s="49">
+        <v>186.636</v>
+      </c>
+      <c r="T61" s="49">
+        <v>159.405</v>
+      </c>
+      <c r="U61" s="49">
         <v>299.625</v>
       </c>
     </row>
@@ -3227,7 +3754,13 @@
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="U62" s="51">
+      <c r="S62" s="49">
+        <v>264.53399999999999</v>
+      </c>
+      <c r="T62" s="49">
+        <v>254.417</v>
+      </c>
+      <c r="U62" s="49">
         <v>369.13099999999997</v>
       </c>
     </row>
@@ -3235,7 +3768,13 @@
       <c r="B63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="U63" s="50">
+      <c r="S63" s="48">
+        <v>911.54899999999998</v>
+      </c>
+      <c r="T63" s="48">
+        <v>912.13699999999994</v>
+      </c>
+      <c r="U63" s="48">
         <v>912.72400000000005</v>
       </c>
     </row>
@@ -3243,7 +3782,13 @@
       <c r="B64" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U64" s="51">
+      <c r="S64" s="49">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="T64" s="49">
+        <v>1.335</v>
+      </c>
+      <c r="U64" s="49">
         <v>23.576000000000001</v>
       </c>
     </row>
@@ -3252,90 +3797,98 @@
         <v>131</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:T65" si="10">SUM(C61:C64)+C60</f>
+        <f t="shared" ref="C65:T65" si="43">SUM(C61:C64)+C60</f>
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="51">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="49">
+        <f t="shared" si="43"/>
+        <v>2044.8620000000001</v>
+      </c>
+      <c r="T65" s="49">
+        <f t="shared" si="43"/>
+        <v>2030.502</v>
+      </c>
+      <c r="U65" s="49">
         <f>SUM(U61:U64)+U60</f>
         <v>2510.277</v>
       </c>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="U66" s="51"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="49"/>
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="U67" s="51">
+      <c r="S67" s="49">
+        <v>9789.5949999999993</v>
+      </c>
+      <c r="T67" s="49">
+        <v>8717.1280000000006</v>
+      </c>
+      <c r="U67" s="49">
         <v>8693.0079999999998</v>
       </c>
     </row>
@@ -3343,7 +3896,15 @@
       <c r="B68" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="U68" s="51">
+      <c r="S68" s="49">
+        <f>S67+S65</f>
+        <v>11834.456999999999</v>
+      </c>
+      <c r="T68" s="49">
+        <f>T67+T65</f>
+        <v>10747.630000000001</v>
+      </c>
+      <c r="U68" s="49">
         <f>U67+U65</f>
         <v>11203.285</v>
       </c>
@@ -3352,7 +3913,15 @@
       <c r="B70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="U70" s="51">
+      <c r="S70" s="49">
+        <f t="shared" ref="S70:T70" si="44">S54-S65</f>
+        <v>9789.5950000000012</v>
+      </c>
+      <c r="T70" s="49">
+        <f t="shared" si="44"/>
+        <v>8717.1280000000006</v>
+      </c>
+      <c r="U70" s="49">
         <f>U54-U65</f>
         <v>8693.0079999999998</v>
       </c>
@@ -3361,25 +3930,49 @@
       <c r="B71" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="S71" s="1">
+        <f t="shared" ref="S71" si="45">S70/S22</f>
+        <v>77.687142379346611</v>
+      </c>
+      <c r="T71" s="1">
+        <f t="shared" ref="T71" si="46">T70/T22</f>
+        <v>6.9073275958982521</v>
+      </c>
       <c r="U71" s="1">
         <f>U70/U22</f>
         <v>6.8479874371111631</v>
       </c>
     </row>
-    <row r="73" spans="2:21" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="46" t="s">
+    <row r="73" spans="2:21" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="U73" s="49">
+      <c r="S73" s="47">
+        <f t="shared" ref="S73:T73" si="47">S41+S42</f>
+        <v>7246.6900000000005</v>
+      </c>
+      <c r="T73" s="47">
+        <f t="shared" ref="T73:U73" si="48">T41+T42</f>
+        <v>6954.7910000000002</v>
+      </c>
+      <c r="U73" s="47">
         <f>U41+U42</f>
         <v>4941.4319999999998</v>
       </c>
     </row>
-    <row r="74" spans="2:21" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="46" t="s">
+    <row r="74" spans="2:21" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="U74" s="49">
+      <c r="S74" s="47">
+        <f t="shared" ref="S74:T74" si="49">S63</f>
+        <v>911.54899999999998</v>
+      </c>
+      <c r="T74" s="47">
+        <f t="shared" ref="T74:U74" si="50">T63</f>
+        <v>912.13699999999994</v>
+      </c>
+      <c r="U74" s="47">
         <f>U63</f>
         <v>912.72400000000005</v>
       </c>
@@ -3388,7 +3981,15 @@
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U75" s="51">
+      <c r="S75" s="49">
+        <f t="shared" ref="S75" si="51">S73-S74</f>
+        <v>6335.1410000000005</v>
+      </c>
+      <c r="T75" s="49">
+        <f t="shared" ref="T75" si="52">T73-T74</f>
+        <v>6042.6540000000005</v>
+      </c>
+      <c r="U75" s="49">
         <f>U73-U74</f>
         <v>4028.7079999999996</v>
       </c>
@@ -3397,78 +3998,524 @@
       <c r="B77" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="S77" s="1">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="T77" s="1">
+        <v>31.24</v>
+      </c>
+      <c r="U77" s="1">
+        <v>26.94</v>
+      </c>
     </row>
     <row r="78" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="S78" s="49">
+        <f>S77*(10*S22)</f>
+        <v>85184.832616</v>
+      </c>
+      <c r="T78" s="49">
+        <f t="shared" ref="T78" si="53">T77*T22</f>
+        <v>39425.244414599998</v>
+      </c>
+      <c r="U78" s="49">
+        <f>U77*U22</f>
+        <v>34198.315588440004</v>
+      </c>
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="S79" s="49">
+        <f t="shared" ref="S79" si="54">S78-S75</f>
+        <v>78849.691615999996</v>
+      </c>
+      <c r="T79" s="49">
+        <f t="shared" ref="T79" si="55">T78-T75</f>
+        <v>33382.590414599996</v>
+      </c>
+      <c r="U79" s="49">
+        <f>U78-U75</f>
+        <v>30169.607588440005</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="S81" s="62">
+        <f>S77/(S71/10)</f>
+        <v>8.701568616066341</v>
+      </c>
+      <c r="T81" s="62">
+        <f t="shared" ref="S81:U81" si="56">T77/T71</f>
+        <v>4.5227332229835326</v>
+      </c>
+      <c r="U81" s="62">
+        <f>U77/U71</f>
+        <v>3.9340025441642301</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="55" t="s">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B88" s="53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
+    <row r="91" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="2">
+        <v>0</v>
+      </c>
+      <c r="O91" s="48">
+        <v>135.68299999999999</v>
+      </c>
+      <c r="P91" s="64">
+        <f>202.104-O91</f>
+        <v>66.421000000000021</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>0</v>
+      </c>
+      <c r="R91" s="2">
+        <v>0</v>
+      </c>
+      <c r="S91" s="48">
+        <v>-53.56</v>
+      </c>
+      <c r="T91" s="64">
+        <f>-177.727-S91</f>
+        <v>-124.167</v>
+      </c>
+      <c r="U91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="O92" s="49"/>
+      <c r="S92" s="49"/>
+      <c r="T92" s="49"/>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O93" s="49">
+        <v>-2444.9549999999999</v>
+      </c>
+      <c r="P93" s="49">
+        <f>-4149.857-O93</f>
+        <v>-1704.902</v>
+      </c>
+      <c r="S93" s="49">
+        <v>-1463.7049999999999</v>
+      </c>
+      <c r="T93" s="49">
+        <f>-2033.09-S93</f>
+        <v>-569.38499999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O94" s="49">
+        <v>1038.316</v>
+      </c>
+      <c r="P94" s="49">
+        <f>2437.951-O94</f>
+        <v>1399.635</v>
+      </c>
+      <c r="S94" s="49">
+        <v>1929.395</v>
+      </c>
+      <c r="T94" s="49">
+        <f>3689.564-S94</f>
+        <v>1760.1689999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O95" s="49">
+        <v>-206.55199999999999</v>
+      </c>
+      <c r="P95" s="49">
+        <f>-401.874-O95</f>
+        <v>-195.32200000000003</v>
+      </c>
+      <c r="S95" s="49">
+        <v>453.94499999999999</v>
+      </c>
+      <c r="T95" s="49">
+        <f>569.649-S95</f>
+        <v>115.70400000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O96" s="49">
+        <v>5.1879999999999997</v>
+      </c>
+      <c r="P96" s="49">
+        <f>-13.451+O96</f>
+        <v>-8.2630000000000017</v>
+      </c>
+      <c r="S96" s="49">
+        <v>15.94</v>
+      </c>
+      <c r="T96" s="49">
+        <f>28.489-S96</f>
+        <v>12.549000000000001</v>
+      </c>
+      <c r="W96" s="49"/>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O97" s="49">
+        <v>0</v>
+      </c>
+      <c r="P97" s="49">
+        <v>0</v>
+      </c>
+      <c r="S97" s="49">
+        <v>0</v>
+      </c>
+      <c r="T97" s="49">
+        <v>30.007999999999999</v>
+      </c>
+      <c r="V97" s="49"/>
+    </row>
+    <row r="98" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
+      <c r="C98" s="2">
+        <f t="shared" ref="C98:T98" si="57">SUM(C93:C97)</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="48">
+        <f t="shared" si="57"/>
+        <v>-1608.0029999999997</v>
+      </c>
+      <c r="P98" s="48">
+        <f t="shared" si="57"/>
+        <v>-508.85200000000003</v>
+      </c>
+      <c r="Q98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="R98" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="S98" s="48">
+        <f t="shared" si="57"/>
+        <v>935.57500000000005</v>
+      </c>
+      <c r="T98" s="48">
+        <f t="shared" si="57"/>
+        <v>1349.0449999999998</v>
+      </c>
+      <c r="U98" s="2">
+        <f>SUM(U93:U97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="O99" s="49"/>
+      <c r="P99" s="49"/>
+      <c r="S99" s="49"/>
+      <c r="T99" s="49"/>
+    </row>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="2" t="s">
+      <c r="C100" s="1">
+        <f t="shared" ref="C100:U100" si="58">C96+C97</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="L100" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="49">
+        <f t="shared" si="58"/>
+        <v>5.1879999999999997</v>
+      </c>
+      <c r="P100" s="49">
+        <f t="shared" si="58"/>
+        <v>-8.2630000000000017</v>
+      </c>
+      <c r="Q100" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="R100" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="S100" s="49">
+        <f t="shared" si="58"/>
+        <v>15.94</v>
+      </c>
+      <c r="T100" s="49">
+        <f t="shared" si="58"/>
+        <v>42.557000000000002</v>
+      </c>
+      <c r="U100" s="1">
+        <f>U96+U97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="O101" s="49"/>
+      <c r="P101" s="49"/>
+      <c r="S101" s="49"/>
+      <c r="T101" s="49"/>
+    </row>
+    <row r="102" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="C102" s="48">
+        <f t="shared" ref="C102:S102" si="59">C100-C91</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="O102" s="48">
+        <f t="shared" si="59"/>
+        <v>-130.495</v>
+      </c>
+      <c r="P102" s="48">
+        <f t="shared" si="59"/>
+        <v>-74.684000000000026</v>
+      </c>
+      <c r="Q102" s="48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="R102" s="48">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="S102" s="48">
+        <f>S100-S91</f>
+        <v>69.5</v>
+      </c>
+      <c r="T102" s="48">
+        <f t="shared" ref="T102:U102" si="60">T100-T91</f>
+        <v>166.72399999999999</v>
+      </c>
+      <c r="U102" s="48">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U1" r:id="rId1" xr:uid="{230A06CC-0E7F-450B-8B83-E730E533289E}"/>
+    <hyperlink ref="T1" r:id="rId2" xr:uid="{335B983C-A4C2-42BB-8F6F-7630B3853F22}"/>
+    <hyperlink ref="S1" r:id="rId3" xr:uid="{885FA998-5ED9-44A3-A0F1-8874199F4566}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/$SHOP.xlsx
+++ b/$SHOP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DD1D5A-7127-416F-AE4C-F2532E2EF599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F91B51C-C789-8445-8A95-FBFB98FEEAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{DD3A8C14-BBF5-4F78-B1B7-C8887875BE33}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20700" windowHeight="18900" activeTab="1" xr2:uid="{DD3A8C14-BBF5-4F78-B1B7-C8887875BE33}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,65 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Charlie George</author>
+  </authors>
+  <commentList>
+    <comment ref="T22" authorId="0" shapeId="0" xr:uid="{F295F52E-E1C1-874B-B243-216813FEA568}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Charlie George:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10:1 Stock Split</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="152">
   <si>
     <t>$SHOP</t>
   </si>
@@ -461,6 +514,27 @@
   </si>
   <si>
     <t>Shopify complete a 10:1 share split after share price touches $1,000</t>
+  </si>
+  <si>
+    <t>Maturity Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Per Share</t>
+  </si>
+  <si>
+    <t>Current Share Price</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
@@ -468,11 +542,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0\x"/>
-    <numFmt numFmtId="174" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,8 +618,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +670,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,31 +773,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -701,21 +796,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -735,18 +820,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -761,17 +834,16 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -785,17 +857,86 @@
     <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -934,13 +1075,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>129</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -983,6 +1124,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1282,645 +1427,662 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F6E83-3251-4909-AC6D-F91B7A570587}">
-  <dimension ref="A2:Y38"/>
+  <dimension ref="A2:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C36" sqref="C36:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="14" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="G5" s="4" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="G5" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="6"/>
-      <c r="T5" s="3" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52"/>
+      <c r="T5" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="54"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="1">
         <v>52.93</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
-      <c r="T6" s="11" t="s">
+      <c r="D6" s="18"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="8"/>
+      <c r="T6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="16">
         <f>'Financial Model'!U22</f>
         <v>1269.4252260000001</v>
       </c>
-      <c r="D7" s="30" t="str">
+      <c r="D7" s="18" t="str">
         <f>$C$28</f>
         <v>Q322</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="23"/>
-      <c r="T7" s="55" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="8"/>
+      <c r="T7" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="16">
         <f>C6*C7</f>
         <v>67190.677212180002</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
-      <c r="T8" s="56" t="s">
+      <c r="D8" s="18"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="8"/>
+      <c r="T8" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="16">
         <f>'Financial Model'!U73</f>
         <v>4941.4319999999998</v>
       </c>
-      <c r="D9" s="30" t="str">
+      <c r="D9" s="18" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
         <v>Q322</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
-      <c r="T9" s="11" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="8"/>
+      <c r="T9" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="16">
         <f>'Financial Model'!U74</f>
         <v>912.72400000000005</v>
       </c>
-      <c r="D10" s="30" t="str">
+      <c r="D10" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Q322</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="23"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="8"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="16">
         <f>C9-C10</f>
         <v>4028.7079999999996</v>
       </c>
-      <c r="D11" s="30" t="str">
+      <c r="D11" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Q322</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="8"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="17">
         <f>C8-C11</f>
         <v>63161.969212180004</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="G12" s="63">
+      <c r="D12" s="19"/>
+      <c r="G12" s="44">
         <v>44713</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
-      <c r="T12" s="11" t="s">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="8"/>
+      <c r="T12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G13" s="18"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
-      <c r="T13" s="55" t="s">
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="G13" s="12"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="8"/>
+      <c r="T13" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G14" s="18"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="23"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="G14" s="12"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="8"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B15" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="8"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A16" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+      <c r="D16" s="59"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="8"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
+      <c r="D17" s="59"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="23"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
+      <c r="D18" s="59"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="23"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G20" s="18"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G21" s="18"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="23"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="D19" s="61"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="G20" s="12"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="G21" s="12"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="18" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="18" t="s">
+      <c r="D23" s="59"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="58">
         <v>2004</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="23"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="18" t="s">
+      <c r="D24" s="59"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="58">
         <v>2015</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="23"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="18"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="23"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="18"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="23"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="18" t="s">
+      <c r="D25" s="59"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B26" s="12"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B27" s="12"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="42">
         <f>'Financial Model'!U3</f>
         <v>46661</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="23"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="19" t="s">
+      <c r="G28" s="12"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="21"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="4" t="s">
+      <c r="D29" s="55"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="11"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B32" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="18" t="s">
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="60">
+      <c r="C33" s="56">
         <f>C6/'Financial Model'!U71</f>
         <v>7.729278198315245</v>
       </c>
-      <c r="D33" s="61"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="18" t="s">
+      <c r="D33" s="57"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="18" t="s">
+      <c r="C34" s="56">
+        <f>C8/SUM('Financial Model'!R6:U6)</f>
+        <v>12.810644455706582</v>
+      </c>
+      <c r="D34" s="57"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="18" t="s">
+      <c r="C35" s="56">
+        <f>C12/SUM('Financial Model'!R6:U6)</f>
+        <v>12.042526794965024</v>
+      </c>
+      <c r="D35" s="57"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="18" t="s">
+      <c r="C36" s="56">
+        <f>C6/SUM('Financial Model'!R21:U21)</f>
+        <v>-3.3644129896469788</v>
+      </c>
+      <c r="D36" s="57"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="19" t="s">
+      <c r="C37" s="56">
+        <f>C12/SUM('Financial Model'!R20:U20)</f>
+        <v>-19.688678338041829</v>
+      </c>
+      <c r="D37" s="57"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1937,12 +2099,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{2A54B12F-EBE0-4DCB-A8AD-3BBE3B84923D}"/>
@@ -1954,1988 +2110,3641 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123EB027-C354-42BF-BB7E-A89113FA6041}">
-  <dimension ref="B1:AO102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123EB027-C354-42BF-BB7E-A89113FA6041}">
+  <dimension ref="B1:CI102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P97" sqref="P97"/>
+      <selection pane="bottomRight" activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="29" width="9.1640625" style="64"/>
+    <col min="30" max="39" width="9.1640625" style="28"/>
+    <col min="40" max="40" width="9.1640625" style="1"/>
+    <col min="41" max="41" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="33" t="s">
+    <row r="1" spans="2:39" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="V1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="Z1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AA1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AB1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD1" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AC1" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AD1" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AE1" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AF1" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AG1" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AH1" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AI1" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AJ1" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AK1" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AL1" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AM1" s="70" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:41" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="34"/>
-      <c r="O2" s="42">
+    <row r="2" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="22"/>
+      <c r="N2" s="26">
+        <v>44196</v>
+      </c>
+      <c r="O2" s="26">
         <v>44286</v>
       </c>
-      <c r="P2" s="42">
+      <c r="P2" s="26">
         <v>44377</v>
       </c>
-      <c r="Q2" s="42">
+      <c r="Q2" s="26">
         <v>44469</v>
       </c>
-      <c r="R2" s="42">
+      <c r="R2" s="26">
         <v>44561</v>
       </c>
-      <c r="S2" s="42">
+      <c r="S2" s="26">
         <v>44651</v>
       </c>
-      <c r="T2" s="42">
+      <c r="T2" s="26">
         <v>44742</v>
       </c>
-      <c r="U2" s="42">
+      <c r="U2" s="26">
         <v>44834</v>
       </c>
-    </row>
-    <row r="3" spans="2:41" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="34"/>
-      <c r="S3" s="41">
+      <c r="AB2" s="26">
+        <f>R2</f>
+        <v>44561</v>
+      </c>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+    </row>
+    <row r="3" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="22"/>
+      <c r="R3" s="25">
+        <v>42401</v>
+      </c>
+      <c r="S3" s="25">
         <v>38473</v>
       </c>
-      <c r="T3" s="41">
+      <c r="T3" s="25">
         <v>46569</v>
       </c>
-      <c r="U3" s="41">
+      <c r="U3" s="25">
         <v>46661</v>
       </c>
-    </row>
-    <row r="4" spans="2:41" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
+      <c r="AB3" s="25">
+        <f>R3</f>
+        <v>42401</v>
+      </c>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+    </row>
+    <row r="4" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="47">
+      <c r="N4" s="31">
+        <v>279.44</v>
+      </c>
+      <c r="O4" s="31">
         <v>320.68099999999998</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="31">
         <v>334.23700000000002</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="31">
         <v>336.20800000000003</v>
       </c>
-      <c r="S4" s="47">
+      <c r="R4" s="31">
+        <v>351.20800000000003</v>
+      </c>
+      <c r="S4" s="31">
         <v>344.76100000000002</v>
       </c>
-      <c r="T4" s="47">
+      <c r="T4" s="31">
         <v>366.44299999999998</v>
       </c>
-      <c r="U4" s="47">
+      <c r="U4" s="31">
         <v>376.30099999999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:41" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="46" t="s">
+      <c r="AB4" s="31">
+        <f>SUM(O4:R4)</f>
+        <v>1342.3340000000001</v>
+      </c>
+      <c r="AC4" s="62"/>
+    </row>
+    <row r="5" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="47">
+      <c r="N5" s="31">
+        <v>698.30399999999997</v>
+      </c>
+      <c r="O5" s="31">
         <v>667.96600000000001</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="31">
         <v>785.20799999999997</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q5" s="31">
         <v>787.53200000000004</v>
       </c>
-      <c r="S5" s="47">
+      <c r="R5" s="31">
+        <v>1028.816</v>
+      </c>
+      <c r="S5" s="31">
         <v>858.86199999999997</v>
       </c>
-      <c r="T5" s="47">
+      <c r="T5" s="31">
         <v>928.62</v>
       </c>
-      <c r="U5" s="47">
+      <c r="U5" s="31">
         <v>989.899</v>
       </c>
-    </row>
-    <row r="6" spans="2:41" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="48" t="s">
+      <c r="AB5" s="31">
+        <f t="shared" ref="AB5:AB8" si="0">SUM(O5:R5)</f>
+        <v>3269.5219999999999</v>
+      </c>
+      <c r="AC5" s="62"/>
+    </row>
+    <row r="6" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="48">
-        <f t="shared" ref="C6:T6" si="0">C4+C5</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="48">
-        <f t="shared" si="0"/>
+      <c r="C6" s="32">
+        <f t="shared" ref="C6:T6" si="1">C4+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="32">
+        <f t="shared" si="1"/>
+        <v>977.74399999999991</v>
+      </c>
+      <c r="O6" s="32">
+        <f t="shared" si="1"/>
         <v>988.64699999999993</v>
       </c>
-      <c r="P6" s="48">
-        <f t="shared" si="0"/>
+      <c r="P6" s="32">
+        <f t="shared" si="1"/>
         <v>1119.4449999999999</v>
       </c>
-      <c r="Q6" s="48">
-        <f t="shared" si="0"/>
+      <c r="Q6" s="32">
+        <f t="shared" si="1"/>
         <v>1123.74</v>
       </c>
-      <c r="R6" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="48">
-        <f t="shared" si="0"/>
+      <c r="R6" s="32">
+        <f t="shared" si="1"/>
+        <v>1380.0240000000001</v>
+      </c>
+      <c r="S6" s="32">
+        <f t="shared" si="1"/>
         <v>1203.623</v>
       </c>
-      <c r="T6" s="48">
-        <f t="shared" si="0"/>
+      <c r="T6" s="32">
+        <f t="shared" si="1"/>
         <v>1295.0630000000001</v>
       </c>
-      <c r="U6" s="48">
+      <c r="U6" s="32">
         <f>U4+U5</f>
         <v>1366.2</v>
       </c>
-    </row>
-    <row r="7" spans="2:41" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46" t="s">
+      <c r="V6" s="32">
+        <f>U6*(1+V27)</f>
+        <v>1707.75</v>
+      </c>
+      <c r="AA6" s="32">
+        <v>2929.491</v>
+      </c>
+      <c r="AB6" s="32">
+        <f>AB4+AB5</f>
+        <v>4611.8559999999998</v>
+      </c>
+      <c r="AC6" s="67">
+        <f>SUM(S6:V6)</f>
+        <v>5572.6360000000004</v>
+      </c>
+      <c r="AD6" s="72">
+        <f>AC6*(1+AD24)</f>
+        <v>7244.4268000000011</v>
+      </c>
+      <c r="AE6" s="72">
+        <f t="shared" ref="AE6:AM6" si="2">AD6*(1+AE24)</f>
+        <v>10142.197520000002</v>
+      </c>
+      <c r="AF6" s="72">
+        <f t="shared" si="2"/>
+        <v>15213.296280000002</v>
+      </c>
+      <c r="AG6" s="72">
+        <f t="shared" si="2"/>
+        <v>22059.279606000004</v>
+      </c>
+      <c r="AH6" s="72">
+        <f t="shared" si="2"/>
+        <v>30882.991448400004</v>
+      </c>
+      <c r="AI6" s="72">
+        <f t="shared" si="2"/>
+        <v>40147.888882920008</v>
+      </c>
+      <c r="AJ6" s="72">
+        <f t="shared" si="2"/>
+        <v>48177.466659504011</v>
+      </c>
+      <c r="AK6" s="72">
+        <f t="shared" si="2"/>
+        <v>56849.410658214729</v>
+      </c>
+      <c r="AL6" s="72">
+        <f t="shared" si="2"/>
+        <v>64239.834043782641</v>
+      </c>
+      <c r="AM6" s="72">
+        <f t="shared" si="2"/>
+        <v>69379.020767285256</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="O7" s="47">
+      <c r="N7" s="31">
+        <v>59.25</v>
+      </c>
+      <c r="O7" s="31">
         <v>58.381999999999998</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="31">
         <v>63.027000000000001</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="31">
         <v>67.355000000000004</v>
       </c>
-      <c r="S7" s="47">
+      <c r="R7" s="31">
+        <v>75.587000000000003</v>
+      </c>
+      <c r="S7" s="31">
         <v>77.545000000000002</v>
       </c>
-      <c r="T7" s="47">
+      <c r="T7" s="31">
         <v>85.238</v>
       </c>
-      <c r="U7" s="47">
+      <c r="U7" s="31">
         <v>82.313000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="2:41" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46" t="s">
+      <c r="AB7" s="31">
+        <f t="shared" si="0"/>
+        <v>264.351</v>
+      </c>
+      <c r="AC7" s="62"/>
+    </row>
+    <row r="8" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="47">
+      <c r="N8" s="31">
+        <v>414.10599999999999</v>
+      </c>
+      <c r="O8" s="31">
         <v>371.54899999999998</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="31">
         <v>435.55799999999999</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="31">
         <v>447.476</v>
       </c>
-      <c r="S8" s="47">
+      <c r="R8" s="31">
+        <v>611.77800000000002</v>
+      </c>
+      <c r="S8" s="31">
         <v>488.44099999999997</v>
       </c>
-      <c r="T8" s="47">
+      <c r="T8" s="31">
         <v>554.18299999999999</v>
       </c>
-      <c r="U8" s="47">
+      <c r="U8" s="31">
         <v>621.55499999999995</v>
       </c>
-    </row>
-    <row r="9" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="49" t="s">
+      <c r="AB8" s="31">
+        <f t="shared" si="0"/>
+        <v>1866.3610000000001</v>
+      </c>
+      <c r="AC8" s="62"/>
+    </row>
+    <row r="9" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="49">
-        <f t="shared" ref="C9:T9" si="1">C7+C8</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="49">
-        <f t="shared" si="1"/>
+      <c r="C9" s="33">
+        <f t="shared" ref="C9:T9" si="3">C7+C8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="33">
+        <f t="shared" si="3"/>
+        <v>473.35599999999999</v>
+      </c>
+      <c r="O9" s="33">
+        <f t="shared" si="3"/>
         <v>429.93099999999998</v>
       </c>
-      <c r="P9" s="49">
-        <f t="shared" si="1"/>
+      <c r="P9" s="33">
+        <f t="shared" si="3"/>
         <v>498.58499999999998</v>
       </c>
-      <c r="Q9" s="49">
-        <f t="shared" si="1"/>
+      <c r="Q9" s="33">
+        <f t="shared" si="3"/>
         <v>514.83100000000002</v>
       </c>
-      <c r="R9" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="49">
-        <f t="shared" si="1"/>
+      <c r="R9" s="33">
+        <f t="shared" si="3"/>
+        <v>687.36500000000001</v>
+      </c>
+      <c r="S9" s="33">
+        <f t="shared" si="3"/>
         <v>565.98599999999999</v>
       </c>
-      <c r="T9" s="49">
-        <f t="shared" si="1"/>
+      <c r="T9" s="33">
+        <f t="shared" si="3"/>
         <v>639.42100000000005</v>
       </c>
-      <c r="U9" s="49">
+      <c r="U9" s="33">
         <f>U7+U8</f>
         <v>703.86799999999994</v>
       </c>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-    </row>
-    <row r="10" spans="2:41" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="48" t="s">
+      <c r="V9" s="33">
+        <f>V6*(1-V29)</f>
+        <v>853.875</v>
+      </c>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="AA9" s="33">
+        <v>1387.971</v>
+      </c>
+      <c r="AB9" s="33">
+        <f>AB7+AB8</f>
+        <v>2130.712</v>
+      </c>
+      <c r="AC9" s="62">
+        <f>SUM(S9:V9)</f>
+        <v>2763.15</v>
+      </c>
+      <c r="AD9" s="33">
+        <f t="shared" ref="AD9:AM9" si="4">AD6*(1-AD29)</f>
+        <v>3477.3248640000006</v>
+      </c>
+      <c r="AE9" s="33">
+        <f t="shared" si="4"/>
+        <v>4969.6767848000009</v>
+      </c>
+      <c r="AF9" s="33">
+        <f t="shared" si="4"/>
+        <v>7454.5151772000008</v>
+      </c>
+      <c r="AG9" s="33">
+        <f t="shared" si="4"/>
+        <v>10588.454210880001</v>
+      </c>
+      <c r="AH9" s="33">
+        <f t="shared" si="4"/>
+        <v>14515.005980748001</v>
+      </c>
+      <c r="AI9" s="33">
+        <f t="shared" si="4"/>
+        <v>18066.549997314003</v>
+      </c>
+      <c r="AJ9" s="33">
+        <f t="shared" si="4"/>
+        <v>21679.859996776802</v>
+      </c>
+      <c r="AK9" s="33">
+        <f t="shared" si="4"/>
+        <v>25582.234796196626</v>
+      </c>
+      <c r="AL9" s="33">
+        <f t="shared" si="4"/>
+        <v>28907.925319702186</v>
+      </c>
+      <c r="AM9" s="33">
+        <f t="shared" si="4"/>
+        <v>31220.559345278361</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="48">
-        <f t="shared" ref="C10:T10" si="2">C6-C9</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="48">
-        <f t="shared" si="2"/>
+      <c r="C10" s="32">
+        <f t="shared" ref="C10:T10" si="5">C6-C9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="32">
+        <f t="shared" si="5"/>
+        <v>504.38799999999992</v>
+      </c>
+      <c r="O10" s="32">
+        <f t="shared" si="5"/>
         <v>558.71599999999989</v>
       </c>
-      <c r="P10" s="48">
-        <f t="shared" si="2"/>
+      <c r="P10" s="32">
+        <f t="shared" si="5"/>
         <v>620.8599999999999</v>
       </c>
-      <c r="Q10" s="48">
-        <f t="shared" si="2"/>
+      <c r="Q10" s="32">
+        <f t="shared" si="5"/>
         <v>608.90899999999999</v>
       </c>
-      <c r="R10" s="48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="48">
-        <f t="shared" si="2"/>
+      <c r="R10" s="32">
+        <f t="shared" si="5"/>
+        <v>692.65900000000011</v>
+      </c>
+      <c r="S10" s="32">
+        <f t="shared" si="5"/>
         <v>637.63700000000006</v>
       </c>
-      <c r="T10" s="48">
-        <f t="shared" si="2"/>
+      <c r="T10" s="32">
+        <f t="shared" si="5"/>
         <v>655.64200000000005</v>
       </c>
-      <c r="U10" s="48">
+      <c r="U10" s="32">
         <f>U6-U9</f>
         <v>662.33200000000011</v>
       </c>
-    </row>
-    <row r="11" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="49" t="s">
+      <c r="V10" s="32">
+        <f>V6-V9</f>
+        <v>853.875</v>
+      </c>
+      <c r="AA10" s="32">
+        <f>AA6-AA9</f>
+        <v>1541.52</v>
+      </c>
+      <c r="AB10" s="32">
+        <f>AB6-AB9</f>
+        <v>2481.1439999999998</v>
+      </c>
+      <c r="AC10" s="67">
+        <f>AC6-AC9</f>
+        <v>2809.4860000000003</v>
+      </c>
+      <c r="AD10" s="72">
+        <f>AD6-AD9</f>
+        <v>3767.1019360000005</v>
+      </c>
+      <c r="AE10" s="72">
+        <f t="shared" ref="AE10:AM10" si="6">AE6-AE9</f>
+        <v>5172.5207352000007</v>
+      </c>
+      <c r="AF10" s="72">
+        <f t="shared" si="6"/>
+        <v>7758.7811028000015</v>
+      </c>
+      <c r="AG10" s="72">
+        <f t="shared" si="6"/>
+        <v>11470.825395120002</v>
+      </c>
+      <c r="AH10" s="72">
+        <f t="shared" si="6"/>
+        <v>16367.985467652003</v>
+      </c>
+      <c r="AI10" s="72">
+        <f t="shared" si="6"/>
+        <v>22081.338885606005</v>
+      </c>
+      <c r="AJ10" s="72">
+        <f t="shared" si="6"/>
+        <v>26497.606662727208</v>
+      </c>
+      <c r="AK10" s="72">
+        <f t="shared" si="6"/>
+        <v>31267.175862018103</v>
+      </c>
+      <c r="AL10" s="72">
+        <f t="shared" si="6"/>
+        <v>35331.908724080451</v>
+      </c>
+      <c r="AM10" s="72">
+        <f t="shared" si="6"/>
+        <v>38158.461422006891</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="O11" s="49">
+      <c r="N11" s="33">
+        <v>154.72800000000001</v>
+      </c>
+      <c r="O11" s="33">
         <v>186.22300000000001</v>
       </c>
-      <c r="P11" s="49">
+      <c r="P11" s="33">
         <v>201.91</v>
       </c>
-      <c r="Q11" s="49">
+      <c r="Q11" s="33">
         <v>237.94900000000001</v>
       </c>
-      <c r="S11" s="49">
+      <c r="R11" s="33">
+        <v>275.47500000000002</v>
+      </c>
+      <c r="S11" s="33">
         <v>303.37099999999998</v>
       </c>
-      <c r="T11" s="49">
+      <c r="T11" s="33">
         <v>326.90199999999999</v>
       </c>
-      <c r="U11" s="49">
+      <c r="U11" s="33">
         <v>302.476</v>
       </c>
-    </row>
-    <row r="12" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="49" t="s">
+      <c r="V11" s="33">
+        <f>V6*0.23</f>
+        <v>392.78250000000003</v>
+      </c>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AB11" s="33">
+        <f>SUM(O11:R11)</f>
+        <v>901.55700000000013</v>
+      </c>
+      <c r="AC11" s="62">
+        <f>SUM(S11:V11)</f>
+        <v>1325.5315000000001</v>
+      </c>
+      <c r="AD11" s="33">
+        <f>AD6*0.18</f>
+        <v>1303.9968240000001</v>
+      </c>
+      <c r="AE11" s="33">
+        <f>AE6*0.15</f>
+        <v>1521.3296280000002</v>
+      </c>
+      <c r="AF11" s="33">
+        <f t="shared" ref="AF11:AM11" si="7">AF6*0.15</f>
+        <v>2281.9944420000002</v>
+      </c>
+      <c r="AG11" s="33">
+        <f t="shared" si="7"/>
+        <v>3308.8919409000005</v>
+      </c>
+      <c r="AH11" s="33">
+        <f>AH6*0.1</f>
+        <v>3088.2991448400007</v>
+      </c>
+      <c r="AI11" s="33">
+        <f t="shared" ref="AI11:AM11" si="8">AI6*0.1</f>
+        <v>4014.788888292001</v>
+      </c>
+      <c r="AJ11" s="33">
+        <f t="shared" si="8"/>
+        <v>4817.7466659504016</v>
+      </c>
+      <c r="AK11" s="33">
+        <f t="shared" si="8"/>
+        <v>5684.9410658214729</v>
+      </c>
+      <c r="AL11" s="33">
+        <f t="shared" si="8"/>
+        <v>6423.9834043782648</v>
+      </c>
+      <c r="AM11" s="33">
+        <f t="shared" si="8"/>
+        <v>6937.9020767285256</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="49">
+      <c r="N12" s="33">
+        <v>159.077</v>
+      </c>
+      <c r="O12" s="33">
         <v>175.886</v>
       </c>
-      <c r="P12" s="49">
+      <c r="P12" s="33">
         <v>183.55699999999999</v>
       </c>
-      <c r="Q12" s="49">
+      <c r="Q12" s="33">
         <v>221.02799999999999</v>
       </c>
-      <c r="S12" s="49">
+      <c r="R12" s="33">
+        <v>273.91199999999998</v>
+      </c>
+      <c r="S12" s="33">
         <v>303.661</v>
       </c>
-      <c r="T12" s="49">
+      <c r="T12" s="33">
         <v>346.66699999999997</v>
       </c>
-      <c r="U12" s="49">
+      <c r="U12" s="33">
         <v>412.35899999999998</v>
       </c>
-    </row>
-    <row r="13" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="49" t="s">
+      <c r="V12" s="33">
+        <f>V6*V36</f>
+        <v>512.32499999999993</v>
+      </c>
+      <c r="AB12" s="33">
+        <f t="shared" ref="AB12:AB14" si="9">SUM(O12:R12)</f>
+        <v>854.38300000000004</v>
+      </c>
+      <c r="AC12" s="62">
+        <f t="shared" ref="AC12:AC19" si="10">SUM(S12:V12)</f>
+        <v>1575.0119999999997</v>
+      </c>
+      <c r="AD12" s="31">
+        <f>AD6*AD36</f>
+        <v>1811.1067000000003</v>
+      </c>
+      <c r="AE12" s="31">
+        <f t="shared" ref="AE12:AM12" si="11">AE6*AE36</f>
+        <v>2028.4395040000004</v>
+      </c>
+      <c r="AF12" s="31">
+        <f t="shared" si="11"/>
+        <v>2738.3933304000002</v>
+      </c>
+      <c r="AG12" s="31">
+        <f t="shared" si="11"/>
+        <v>3970.6703290800006</v>
+      </c>
+      <c r="AH12" s="31">
+        <f t="shared" si="11"/>
+        <v>5558.9384607120001</v>
+      </c>
+      <c r="AI12" s="31">
+        <f t="shared" si="11"/>
+        <v>6022.1833324380013</v>
+      </c>
+      <c r="AJ12" s="31">
+        <f t="shared" si="11"/>
+        <v>7226.6199989256011</v>
+      </c>
+      <c r="AK12" s="31">
+        <f t="shared" si="11"/>
+        <v>8527.4115987322093</v>
+      </c>
+      <c r="AL12" s="31">
+        <f t="shared" si="11"/>
+        <v>9635.9751065673954</v>
+      </c>
+      <c r="AM12" s="31">
+        <f t="shared" si="11"/>
+        <v>10406.853115092788</v>
+      </c>
+    </row>
+    <row r="13" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="49">
+      <c r="N13" s="33">
+        <v>65.394999999999996</v>
+      </c>
+      <c r="O13" s="33">
         <v>67.102000000000004</v>
       </c>
-      <c r="P13" s="49">
+      <c r="P13" s="33">
         <v>77.965999999999994</v>
       </c>
-      <c r="Q13" s="49">
+      <c r="Q13" s="33">
         <v>128.72200000000001</v>
       </c>
-      <c r="S13" s="49">
+      <c r="R13" s="33">
+        <v>101.054</v>
+      </c>
+      <c r="S13" s="33">
         <v>108.08799999999999</v>
       </c>
-      <c r="T13" s="49">
+      <c r="T13" s="33">
         <v>129.90100000000001</v>
       </c>
-      <c r="U13" s="49">
+      <c r="U13" s="33">
         <v>255.125</v>
       </c>
-    </row>
-    <row r="14" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="49" t="s">
+      <c r="V13" s="33">
+        <f>V6*0.19</f>
+        <v>324.47250000000003</v>
+      </c>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="AB13" s="33">
+        <f t="shared" si="9"/>
+        <v>374.84399999999994</v>
+      </c>
+      <c r="AC13" s="62">
+        <f t="shared" si="10"/>
+        <v>817.58650000000011</v>
+      </c>
+      <c r="AD13" s="31">
+        <f>AD6*0.28</f>
+        <v>2028.4395040000004</v>
+      </c>
+      <c r="AE13" s="31">
+        <f>AE6*0.28</f>
+        <v>2839.8153056000006</v>
+      </c>
+      <c r="AF13" s="31">
+        <f>AF6*0.225</f>
+        <v>3422.9916630000007</v>
+      </c>
+      <c r="AG13" s="31">
+        <f t="shared" ref="AG13:AM13" si="12">AG6*0.225</f>
+        <v>4963.3379113500014</v>
+      </c>
+      <c r="AH13" s="31">
+        <f t="shared" si="12"/>
+        <v>6948.6730758900012</v>
+      </c>
+      <c r="AI13" s="31">
+        <f t="shared" si="12"/>
+        <v>9033.2749986570016</v>
+      </c>
+      <c r="AJ13" s="31">
+        <f t="shared" si="12"/>
+        <v>10839.929998388403</v>
+      </c>
+      <c r="AK13" s="31">
+        <f t="shared" si="12"/>
+        <v>12791.117398098315</v>
+      </c>
+      <c r="AL13" s="31">
+        <f t="shared" si="12"/>
+        <v>14453.962659851095</v>
+      </c>
+      <c r="AM13" s="31">
+        <f t="shared" si="12"/>
+        <v>15610.279672639183</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="49">
+      <c r="N14" s="33">
+        <v>12.647</v>
+      </c>
+      <c r="O14" s="33">
         <v>10.606</v>
       </c>
-      <c r="P14" s="49">
+      <c r="P14" s="33">
         <v>17.986000000000001</v>
       </c>
-      <c r="Q14" s="49">
+      <c r="Q14" s="33">
         <v>25.311</v>
       </c>
-      <c r="S14" s="49">
+      <c r="R14" s="33">
+        <v>27.814</v>
+      </c>
+      <c r="S14" s="33">
         <v>20.492999999999999</v>
       </c>
-      <c r="T14" s="49">
+      <c r="T14" s="33">
         <v>42.38</v>
       </c>
-      <c r="U14" s="49">
+      <c r="U14" s="33">
         <v>37.738</v>
       </c>
-    </row>
-    <row r="15" spans="2:41" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="49" t="s">
+      <c r="V14" s="33">
+        <f>AVERAGE(Q14:U14)</f>
+        <v>30.747199999999999</v>
+      </c>
+      <c r="AB14" s="33">
+        <f t="shared" si="9"/>
+        <v>81.716999999999999</v>
+      </c>
+      <c r="AC14" s="62">
+        <f t="shared" si="10"/>
+        <v>131.35820000000001</v>
+      </c>
+      <c r="AD14" s="31">
+        <f>AVERAGE(Y14:AC14)</f>
+        <v>106.5376</v>
+      </c>
+      <c r="AE14" s="31">
+        <f t="shared" ref="AE14:AM14" si="13">AVERAGE(Z14:AD14)</f>
+        <v>106.5376</v>
+      </c>
+      <c r="AF14" s="31">
+        <f t="shared" si="13"/>
+        <v>106.5376</v>
+      </c>
+      <c r="AG14" s="31">
+        <f t="shared" si="13"/>
+        <v>106.5376</v>
+      </c>
+      <c r="AH14" s="31">
+        <f t="shared" si="13"/>
+        <v>111.50172000000001</v>
+      </c>
+      <c r="AI14" s="31">
+        <f t="shared" si="13"/>
+        <v>107.530424</v>
+      </c>
+      <c r="AJ14" s="31">
+        <f t="shared" si="13"/>
+        <v>107.7289888</v>
+      </c>
+      <c r="AK14" s="31">
+        <f t="shared" si="13"/>
+        <v>107.96726655999998</v>
+      </c>
+      <c r="AL14" s="31">
+        <f t="shared" si="13"/>
+        <v>108.25319987200001</v>
+      </c>
+      <c r="AM14" s="31">
+        <f t="shared" si="13"/>
+        <v>108.59631984640001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="49">
-        <f t="shared" ref="C15:T15" si="3">SUM(C11:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="49">
-        <f t="shared" si="3"/>
+      <c r="C15" s="33">
+        <f t="shared" ref="C15:T15" si="14">SUM(C11:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <f t="shared" si="14"/>
+        <v>391.84699999999998</v>
+      </c>
+      <c r="O15" s="33">
+        <f t="shared" si="14"/>
         <v>439.81700000000001</v>
       </c>
-      <c r="P15" s="49">
-        <f t="shared" si="3"/>
+      <c r="P15" s="33">
+        <f t="shared" si="14"/>
         <v>481.41899999999998</v>
       </c>
-      <c r="Q15" s="49">
-        <f t="shared" si="3"/>
+      <c r="Q15" s="33">
+        <f t="shared" si="14"/>
         <v>613.01</v>
       </c>
-      <c r="R15" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="49">
-        <f t="shared" si="3"/>
+      <c r="R15" s="33">
+        <f t="shared" si="14"/>
+        <v>678.25499999999988</v>
+      </c>
+      <c r="S15" s="33">
+        <f t="shared" si="14"/>
         <v>735.61299999999994</v>
       </c>
-      <c r="T15" s="49">
-        <f t="shared" si="3"/>
+      <c r="T15" s="33">
+        <f t="shared" si="14"/>
         <v>845.85</v>
       </c>
-      <c r="U15" s="49">
+      <c r="U15" s="33">
         <f>SUM(U11:U14)</f>
         <v>1007.6980000000001</v>
       </c>
-    </row>
-    <row r="16" spans="2:41" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="48" t="s">
+      <c r="V15" s="33">
+        <f t="shared" ref="V15" si="15">SUM(V11:V14)</f>
+        <v>1260.3271999999999</v>
+      </c>
+      <c r="AB15" s="33">
+        <f>SUM(AB11:AB14)</f>
+        <v>2212.5010000000002</v>
+      </c>
+      <c r="AC15" s="62">
+        <f>SUM(AC11:AC14)</f>
+        <v>3849.4882000000002</v>
+      </c>
+      <c r="AD15" s="31">
+        <f t="shared" ref="AD15:AM15" si="16">SUM(AD11:AD14)</f>
+        <v>5250.0806279999997</v>
+      </c>
+      <c r="AE15" s="31">
+        <f t="shared" si="16"/>
+        <v>6496.1220376000001</v>
+      </c>
+      <c r="AF15" s="31">
+        <f t="shared" si="16"/>
+        <v>8549.9170354000016</v>
+      </c>
+      <c r="AG15" s="31">
+        <f t="shared" si="16"/>
+        <v>12349.437781330002</v>
+      </c>
+      <c r="AH15" s="31">
+        <f t="shared" si="16"/>
+        <v>15707.412401442001</v>
+      </c>
+      <c r="AI15" s="31">
+        <f t="shared" si="16"/>
+        <v>19177.777643387006</v>
+      </c>
+      <c r="AJ15" s="31">
+        <f t="shared" si="16"/>
+        <v>22992.025652064407</v>
+      </c>
+      <c r="AK15" s="31">
+        <f t="shared" si="16"/>
+        <v>27111.437329212</v>
+      </c>
+      <c r="AL15" s="31">
+        <f t="shared" si="16"/>
+        <v>30622.174370668756</v>
+      </c>
+      <c r="AM15" s="31">
+        <f t="shared" si="16"/>
+        <v>33063.631184306898</v>
+      </c>
+    </row>
+    <row r="16" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="48">
-        <f t="shared" ref="C16:T16" si="4">C10-C15</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="48">
-        <f t="shared" si="4"/>
+      <c r="C16" s="32">
+        <f t="shared" ref="C16:T16" si="17">C10-C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="32">
+        <f t="shared" si="17"/>
+        <v>112.54099999999994</v>
+      </c>
+      <c r="O16" s="32">
+        <f t="shared" si="17"/>
         <v>118.89899999999989</v>
       </c>
-      <c r="P16" s="48">
-        <f t="shared" si="4"/>
+      <c r="P16" s="32">
+        <f t="shared" si="17"/>
         <v>139.44099999999992</v>
       </c>
-      <c r="Q16" s="48">
-        <f t="shared" si="4"/>
+      <c r="Q16" s="32">
+        <f t="shared" si="17"/>
         <v>-4.1009999999999991</v>
       </c>
-      <c r="R16" s="48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="48">
-        <f t="shared" si="4"/>
+      <c r="R16" s="32">
+        <f t="shared" si="17"/>
+        <v>14.404000000000224</v>
+      </c>
+      <c r="S16" s="32">
+        <f t="shared" si="17"/>
         <v>-97.975999999999885</v>
       </c>
-      <c r="T16" s="48">
-        <f t="shared" si="4"/>
+      <c r="T16" s="32">
+        <f t="shared" si="17"/>
         <v>-190.20799999999997</v>
       </c>
-      <c r="U16" s="48">
+      <c r="U16" s="32">
         <f>U10-U15</f>
         <v>-345.36599999999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:21" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="49" t="s">
+      <c r="V16" s="32">
+        <f t="shared" ref="V16" si="18">V10-V15</f>
+        <v>-406.45219999999995</v>
+      </c>
+      <c r="AB16" s="32">
+        <f>AB10-AB15</f>
+        <v>268.64299999999957</v>
+      </c>
+      <c r="AC16" s="67">
+        <f>AC10-AC15</f>
+        <v>-1040.0021999999999</v>
+      </c>
+      <c r="AD16" s="72">
+        <f t="shared" ref="AD16:AM16" si="19">AD10-AD15</f>
+        <v>-1482.9786919999992</v>
+      </c>
+      <c r="AE16" s="72">
+        <f t="shared" si="19"/>
+        <v>-1323.6013023999994</v>
+      </c>
+      <c r="AF16" s="72">
+        <f t="shared" si="19"/>
+        <v>-791.13593260000016</v>
+      </c>
+      <c r="AG16" s="72">
+        <f t="shared" si="19"/>
+        <v>-878.61238620999939</v>
+      </c>
+      <c r="AH16" s="72">
+        <f t="shared" si="19"/>
+        <v>660.57306621000134</v>
+      </c>
+      <c r="AI16" s="72">
+        <f t="shared" si="19"/>
+        <v>2903.5612422189988</v>
+      </c>
+      <c r="AJ16" s="72">
+        <f t="shared" si="19"/>
+        <v>3505.5810106628014</v>
+      </c>
+      <c r="AK16" s="72">
+        <f t="shared" si="19"/>
+        <v>4155.7385328061027</v>
+      </c>
+      <c r="AL16" s="72">
+        <f t="shared" si="19"/>
+        <v>4709.7343534116953</v>
+      </c>
+      <c r="AM16" s="72">
+        <f t="shared" si="19"/>
+        <v>5094.8302376999927</v>
+      </c>
+    </row>
+    <row r="17" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="O17" s="49">
+      <c r="N17" s="33">
+        <v>-2.7879999999999998</v>
+      </c>
+      <c r="O17" s="33">
         <v>1250.645</v>
       </c>
-      <c r="P17" s="49">
+      <c r="P17" s="33">
         <v>779.87400000000002</v>
       </c>
-      <c r="Q17" s="49">
+      <c r="Q17" s="33">
         <v>1344.5530000000001</v>
       </c>
-      <c r="S17" s="49">
+      <c r="R17" s="33">
+        <v>-503.12299999999999</v>
+      </c>
+      <c r="S17" s="33">
         <v>-1554.8810000000001</v>
       </c>
-      <c r="T17" s="49">
+      <c r="T17" s="33">
         <v>-1008.042</v>
       </c>
-      <c r="U17" s="49">
+      <c r="U17" s="33">
         <v>188.233</v>
       </c>
-    </row>
-    <row r="18" spans="2:21" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="49" t="s">
+      <c r="V17" s="33">
+        <f>AVERAGE(R17:U17)</f>
+        <v>-719.45324999999991</v>
+      </c>
+      <c r="AB17" s="33">
+        <f t="shared" ref="AB17" si="20">SUM(O17:R17)</f>
+        <v>2871.9490000000001</v>
+      </c>
+      <c r="AC17" s="62">
+        <f t="shared" si="10"/>
+        <v>-3094.1432500000001</v>
+      </c>
+      <c r="AD17" s="31">
+        <f>AVERAGE(Y17:AC17)</f>
+        <v>-111.09712500000001</v>
+      </c>
+      <c r="AE17" s="31">
+        <f t="shared" ref="AE17:AM17" si="21">AVERAGE(Z17:AD17)</f>
+        <v>-111.09712500000001</v>
+      </c>
+      <c r="AF17" s="31">
+        <f t="shared" si="21"/>
+        <v>-111.09712500000001</v>
+      </c>
+      <c r="AG17" s="31">
+        <f t="shared" si="21"/>
+        <v>-111.09712500000001</v>
+      </c>
+      <c r="AH17" s="31">
+        <f t="shared" si="21"/>
+        <v>-707.70635000000016</v>
+      </c>
+      <c r="AI17" s="31">
+        <f t="shared" si="21"/>
+        <v>-230.41897000000003</v>
+      </c>
+      <c r="AJ17" s="31">
+        <f t="shared" si="21"/>
+        <v>-254.28333900000001</v>
+      </c>
+      <c r="AK17" s="31">
+        <f t="shared" si="21"/>
+        <v>-282.92058180000004</v>
+      </c>
+      <c r="AL17" s="31">
+        <f t="shared" si="21"/>
+        <v>-317.28527316000003</v>
+      </c>
+      <c r="AM17" s="31">
+        <f t="shared" si="21"/>
+        <v>-358.52290279200008</v>
+      </c>
+    </row>
+    <row r="18" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="49">
-        <f t="shared" ref="C18:T18" si="5">C16+C17</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="49">
-        <f t="shared" si="5"/>
+      <c r="C18" s="33">
+        <f t="shared" ref="C18:T18" si="22">C16+C17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="33">
+        <f t="shared" si="22"/>
+        <v>109.75299999999994</v>
+      </c>
+      <c r="O18" s="33">
+        <f t="shared" si="22"/>
         <v>1369.5439999999999</v>
       </c>
-      <c r="P18" s="49">
-        <f t="shared" si="5"/>
+      <c r="P18" s="33">
+        <f t="shared" si="22"/>
         <v>919.31499999999994</v>
       </c>
-      <c r="Q18" s="49">
-        <f t="shared" si="5"/>
+      <c r="Q18" s="33">
+        <f t="shared" si="22"/>
         <v>1340.4520000000002</v>
       </c>
-      <c r="R18" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="49">
-        <f t="shared" si="5"/>
+      <c r="R18" s="33">
+        <f t="shared" si="22"/>
+        <v>-488.71899999999977</v>
+      </c>
+      <c r="S18" s="33">
+        <f t="shared" si="22"/>
         <v>-1652.857</v>
       </c>
-      <c r="T18" s="49">
-        <f t="shared" si="5"/>
+      <c r="T18" s="33">
+        <f t="shared" si="22"/>
         <v>-1198.25</v>
       </c>
-      <c r="U18" s="49">
+      <c r="U18" s="33">
         <f>U16+U17</f>
         <v>-157.13299999999998</v>
       </c>
-    </row>
-    <row r="19" spans="2:21" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="49" t="s">
+      <c r="V18" s="33">
+        <f t="shared" ref="V18" si="23">V16+V17</f>
+        <v>-1125.9054499999997</v>
+      </c>
+      <c r="AB18" s="33">
+        <f>AB16+AB17</f>
+        <v>3140.5919999999996</v>
+      </c>
+      <c r="AC18" s="62">
+        <f>AC16+AC17</f>
+        <v>-4134.14545</v>
+      </c>
+      <c r="AD18" s="31">
+        <f t="shared" ref="AD18:AM18" si="24">AD16+AD17</f>
+        <v>-1594.0758169999992</v>
+      </c>
+      <c r="AE18" s="31">
+        <f t="shared" si="24"/>
+        <v>-1434.6984273999994</v>
+      </c>
+      <c r="AF18" s="31">
+        <f t="shared" si="24"/>
+        <v>-902.23305760000017</v>
+      </c>
+      <c r="AG18" s="31">
+        <f t="shared" si="24"/>
+        <v>-989.70951120999939</v>
+      </c>
+      <c r="AH18" s="31">
+        <f t="shared" si="24"/>
+        <v>-47.133283789998814</v>
+      </c>
+      <c r="AI18" s="31">
+        <f t="shared" si="24"/>
+        <v>2673.1422722189986</v>
+      </c>
+      <c r="AJ18" s="31">
+        <f t="shared" si="24"/>
+        <v>3251.2976716628013</v>
+      </c>
+      <c r="AK18" s="31">
+        <f t="shared" si="24"/>
+        <v>3872.8179510061027</v>
+      </c>
+      <c r="AL18" s="31">
+        <f t="shared" si="24"/>
+        <v>4392.4490802516957</v>
+      </c>
+      <c r="AM18" s="31">
+        <f t="shared" si="24"/>
+        <v>4736.3073349079923</v>
+      </c>
+    </row>
+    <row r="19" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="49">
+      <c r="N19" s="33">
+        <v>-14.119</v>
+      </c>
+      <c r="O19" s="33">
         <v>111.099</v>
       </c>
-      <c r="P19" s="49">
-        <v>-40.222000000000001</v>
-      </c>
-      <c r="Q19" s="49">
+      <c r="P19" s="33">
+        <v>40.222000000000001</v>
+      </c>
+      <c r="Q19" s="33">
         <v>192.02</v>
       </c>
-      <c r="S19" s="49">
+      <c r="R19" s="33">
+        <v>-117.408</v>
+      </c>
+      <c r="S19" s="33">
         <v>-178.44900000000001</v>
       </c>
-      <c r="T19" s="49">
+      <c r="T19" s="33">
         <v>5.657</v>
       </c>
-      <c r="U19" s="49">
+      <c r="U19" s="33">
         <v>1.276</v>
       </c>
-    </row>
-    <row r="20" spans="2:21" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="48" t="s">
+      <c r="V19" s="33">
+        <f>V18*V34</f>
+        <v>-281.47636249999994</v>
+      </c>
+      <c r="AB19" s="33">
+        <f t="shared" ref="AB19" si="25">SUM(O19:R19)</f>
+        <v>225.93299999999999</v>
+      </c>
+      <c r="AC19" s="62">
+        <f t="shared" si="10"/>
+        <v>-452.9923624999999</v>
+      </c>
+      <c r="AD19" s="31">
+        <f>AD18*AD36</f>
+        <v>-398.51895424999981</v>
+      </c>
+      <c r="AE19" s="31">
+        <f t="shared" ref="AE19:AM19" si="26">AE18*AE36</f>
+        <v>-286.93968547999992</v>
+      </c>
+      <c r="AF19" s="31">
+        <f t="shared" si="26"/>
+        <v>-162.40195036800003</v>
+      </c>
+      <c r="AG19" s="31">
+        <f t="shared" si="26"/>
+        <v>-178.14771201779988</v>
+      </c>
+      <c r="AH19" s="31">
+        <f t="shared" si="26"/>
+        <v>-8.4839910821997861</v>
+      </c>
+      <c r="AI19" s="31">
+        <f t="shared" si="26"/>
+        <v>400.97134083284976</v>
+      </c>
+      <c r="AJ19" s="31">
+        <f t="shared" si="26"/>
+        <v>487.69465074942019</v>
+      </c>
+      <c r="AK19" s="31">
+        <f t="shared" si="26"/>
+        <v>580.92269265091534</v>
+      </c>
+      <c r="AL19" s="31">
+        <f t="shared" si="26"/>
+        <v>658.86736203775433</v>
+      </c>
+      <c r="AM19" s="31">
+        <f t="shared" si="26"/>
+        <v>710.44610023619884</v>
+      </c>
+    </row>
+    <row r="20" spans="2:87" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="48">
-        <f t="shared" ref="C20:T20" si="6">C18-C19</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="48">
-        <f t="shared" si="6"/>
+      <c r="C20" s="32">
+        <f t="shared" ref="C20:T20" si="27">C18-C19</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="32">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="32">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="32">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="32">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="32">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="32">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="32">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="32">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="32">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="32">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="32">
+        <f t="shared" si="27"/>
+        <v>123.87199999999994</v>
+      </c>
+      <c r="O20" s="32">
+        <f t="shared" si="27"/>
         <v>1258.4449999999999</v>
       </c>
-      <c r="P20" s="48">
-        <f t="shared" si="6"/>
-        <v>959.53699999999992</v>
-      </c>
-      <c r="Q20" s="48">
-        <f t="shared" si="6"/>
+      <c r="P20" s="32">
+        <f t="shared" si="27"/>
+        <v>879.09299999999996</v>
+      </c>
+      <c r="Q20" s="32">
+        <f t="shared" si="27"/>
         <v>1148.4320000000002</v>
       </c>
-      <c r="R20" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="48">
-        <f t="shared" si="6"/>
+      <c r="R20" s="32">
+        <f t="shared" si="27"/>
+        <v>-371.31099999999975</v>
+      </c>
+      <c r="S20" s="32">
+        <f t="shared" si="27"/>
         <v>-1474.4079999999999</v>
       </c>
-      <c r="T20" s="48">
-        <f t="shared" si="6"/>
+      <c r="T20" s="32">
+        <f t="shared" si="27"/>
         <v>-1203.9069999999999</v>
       </c>
-      <c r="U20" s="48">
+      <c r="U20" s="32">
         <f>U18-U19</f>
         <v>-158.40899999999999</v>
       </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="32">
+        <f t="shared" ref="V20" si="28">V18-V19</f>
+        <v>-844.42908749999981</v>
+      </c>
+      <c r="AB20" s="32">
+        <f>AB18-AB19</f>
+        <v>2914.6589999999997</v>
+      </c>
+      <c r="AC20" s="67">
+        <f>AC18-AC19</f>
+        <v>-3681.1530874999999</v>
+      </c>
+      <c r="AD20" s="72">
+        <f t="shared" ref="AD20:AM20" si="29">AD18-AD19</f>
+        <v>-1195.5568627499995</v>
+      </c>
+      <c r="AE20" s="72">
+        <f t="shared" si="29"/>
+        <v>-1147.7587419199995</v>
+      </c>
+      <c r="AF20" s="72">
+        <f t="shared" si="29"/>
+        <v>-739.83110723200014</v>
+      </c>
+      <c r="AG20" s="72">
+        <f t="shared" si="29"/>
+        <v>-811.56179919219949</v>
+      </c>
+      <c r="AH20" s="72">
+        <f t="shared" si="29"/>
+        <v>-38.649292707799027</v>
+      </c>
+      <c r="AI20" s="72">
+        <f t="shared" si="29"/>
+        <v>2272.1709313861488</v>
+      </c>
+      <c r="AJ20" s="72">
+        <f t="shared" si="29"/>
+        <v>2763.603020913381</v>
+      </c>
+      <c r="AK20" s="72">
+        <f t="shared" si="29"/>
+        <v>3291.8952583551873</v>
+      </c>
+      <c r="AL20" s="72">
+        <f t="shared" si="29"/>
+        <v>3733.5817182139413</v>
+      </c>
+      <c r="AM20" s="72">
+        <f t="shared" si="29"/>
+        <v>4025.8612346717937</v>
+      </c>
+      <c r="AN20" s="32">
+        <f>AM20*(1+$AP$23)</f>
+        <v>4106.3784593652299</v>
+      </c>
+      <c r="AO20" s="32">
+        <f t="shared" ref="AO20:CI20" si="30">AN20*(1+$AP$23)</f>
+        <v>4188.5060285525342</v>
+      </c>
+      <c r="AP20" s="32">
+        <f t="shared" si="30"/>
+        <v>4272.2761491235851</v>
+      </c>
+      <c r="AQ20" s="32">
+        <f t="shared" si="30"/>
+        <v>4357.7216721060568</v>
+      </c>
+      <c r="AR20" s="32">
+        <f t="shared" si="30"/>
+        <v>4444.8761055481782</v>
+      </c>
+      <c r="AS20" s="32">
+        <f t="shared" si="30"/>
+        <v>4533.7736276591422</v>
+      </c>
+      <c r="AT20" s="32">
+        <f t="shared" si="30"/>
+        <v>4624.449100212325</v>
+      </c>
+      <c r="AU20" s="32">
+        <f t="shared" si="30"/>
+        <v>4716.9380822165713</v>
+      </c>
+      <c r="AV20" s="32">
+        <f t="shared" si="30"/>
+        <v>4811.2768438609028</v>
+      </c>
+      <c r="AW20" s="32">
+        <f t="shared" si="30"/>
+        <v>4907.5023807381212</v>
+      </c>
+      <c r="AX20" s="32">
+        <f t="shared" si="30"/>
+        <v>5005.6524283528834</v>
+      </c>
+      <c r="AY20" s="32">
+        <f t="shared" si="30"/>
+        <v>5105.7654769199407</v>
+      </c>
+      <c r="AZ20" s="32">
+        <f t="shared" si="30"/>
+        <v>5207.8807864583396</v>
+      </c>
+      <c r="BA20" s="32">
+        <f t="shared" si="30"/>
+        <v>5312.0384021875061</v>
+      </c>
+      <c r="BB20" s="32">
+        <f t="shared" si="30"/>
+        <v>5418.2791702312561</v>
+      </c>
+      <c r="BC20" s="32">
+        <f t="shared" si="30"/>
+        <v>5526.644753635881</v>
+      </c>
+      <c r="BD20" s="32">
+        <f t="shared" si="30"/>
+        <v>5637.177648708599</v>
+      </c>
+      <c r="BE20" s="32">
+        <f t="shared" si="30"/>
+        <v>5749.9212016827714</v>
+      </c>
+      <c r="BF20" s="32">
+        <f t="shared" si="30"/>
+        <v>5864.9196257164267</v>
+      </c>
+      <c r="BG20" s="32">
+        <f t="shared" si="30"/>
+        <v>5982.2180182307557</v>
+      </c>
+      <c r="BH20" s="32">
+        <f t="shared" si="30"/>
+        <v>6101.8623785953705</v>
+      </c>
+      <c r="BI20" s="32">
+        <f t="shared" si="30"/>
+        <v>6223.8996261672783</v>
+      </c>
+      <c r="BJ20" s="32">
+        <f t="shared" si="30"/>
+        <v>6348.3776186906243</v>
+      </c>
+      <c r="BK20" s="32">
+        <f t="shared" si="30"/>
+        <v>6475.3451710644367</v>
+      </c>
+      <c r="BL20" s="32">
+        <f t="shared" si="30"/>
+        <v>6604.852074485726</v>
+      </c>
+      <c r="BM20" s="32">
+        <f t="shared" si="30"/>
+        <v>6736.9491159754407</v>
+      </c>
+      <c r="BN20" s="32">
+        <f t="shared" si="30"/>
+        <v>6871.6880982949497</v>
+      </c>
+      <c r="BO20" s="32">
+        <f t="shared" si="30"/>
+        <v>7009.1218602608487</v>
+      </c>
+      <c r="BP20" s="32">
+        <f t="shared" si="30"/>
+        <v>7149.3042974660657</v>
+      </c>
+      <c r="BQ20" s="32">
+        <f t="shared" si="30"/>
+        <v>7292.2903834153867</v>
+      </c>
+      <c r="BR20" s="32">
+        <f t="shared" si="30"/>
+        <v>7438.1361910836949</v>
+      </c>
+      <c r="BS20" s="32">
+        <f t="shared" si="30"/>
+        <v>7586.8989149053687</v>
+      </c>
+      <c r="BT20" s="32">
+        <f t="shared" si="30"/>
+        <v>7738.6368932034766</v>
+      </c>
+      <c r="BU20" s="32">
+        <f t="shared" si="30"/>
+        <v>7893.4096310675459</v>
+      </c>
+      <c r="BV20" s="32">
+        <f t="shared" si="30"/>
+        <v>8051.2778236888971</v>
+      </c>
+      <c r="BW20" s="32">
+        <f t="shared" si="30"/>
+        <v>8212.3033801626752</v>
+      </c>
+      <c r="BX20" s="32">
+        <f t="shared" si="30"/>
+        <v>8376.5494477659286</v>
+      </c>
+      <c r="BY20" s="32">
+        <f t="shared" si="30"/>
+        <v>8544.0804367212477</v>
+      </c>
+      <c r="BZ20" s="32">
+        <f t="shared" si="30"/>
+        <v>8714.9620454556734</v>
+      </c>
+      <c r="CA20" s="32">
+        <f t="shared" si="30"/>
+        <v>8889.2612863647864</v>
+      </c>
+      <c r="CB20" s="32">
+        <f t="shared" si="30"/>
+        <v>9067.0465120920817</v>
+      </c>
+      <c r="CC20" s="32">
+        <f t="shared" si="30"/>
+        <v>9248.3874423339239</v>
+      </c>
+      <c r="CD20" s="32">
+        <f t="shared" si="30"/>
+        <v>9433.3551911806026</v>
+      </c>
+      <c r="CE20" s="32">
+        <f t="shared" si="30"/>
+        <v>9622.0222950042153</v>
+      </c>
+      <c r="CF20" s="32">
+        <f t="shared" si="30"/>
+        <v>9814.4627409043005</v>
+      </c>
+      <c r="CG20" s="32">
+        <f t="shared" si="30"/>
+        <v>10010.751995722387</v>
+      </c>
+      <c r="CH20" s="32">
+        <f t="shared" si="30"/>
+        <v>10210.967035636835</v>
+      </c>
+      <c r="CI20" s="32">
+        <f t="shared" si="30"/>
+        <v>10415.186376349571</v>
+      </c>
+    </row>
+    <row r="21" spans="2:87" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O21" s="52">
-        <f t="shared" ref="O21:P21" si="7">O20/O22</f>
+      <c r="N21" s="36">
+        <f t="shared" ref="N21:P21" si="31">N20/N22</f>
+        <v>1.0138395664853699</v>
+      </c>
+      <c r="O21" s="36">
+        <f t="shared" si="31"/>
         <v>10.211033185076877</v>
       </c>
-      <c r="P21" s="52">
-        <f t="shared" si="7"/>
-        <v>0.77041832326648041</v>
-      </c>
-      <c r="Q21" s="52">
+      <c r="P21" s="36">
+        <f t="shared" si="31"/>
+        <v>7.058293271184958</v>
+      </c>
+      <c r="Q21" s="36">
         <f>Q20/Q22</f>
-        <v>0.91822067160645615</v>
-      </c>
-      <c r="S21" s="45">
+        <v>9.1822067160645613</v>
+      </c>
+      <c r="R21" s="29">
+        <f>R20/R22</f>
+        <v>-2.9531293873360611</v>
+      </c>
+      <c r="S21" s="29">
         <f>S20/S22</f>
         <v>-11.700437476856566</v>
       </c>
-      <c r="T21" s="45">
+      <c r="T21" s="29">
         <f>T20/T22</f>
         <v>-0.95395869419321089</v>
       </c>
-      <c r="U21" s="45">
+      <c r="U21" s="29">
         <f>U20/U22</f>
         <v>-0.12478797234804595</v>
       </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="29">
+        <f>V20/V22</f>
+        <v>-0.66520585080920691</v>
+      </c>
+      <c r="X21" s="33"/>
+      <c r="AB21" s="33">
+        <f>AB20/AB22</f>
+        <v>23.181013077887648</v>
+      </c>
+      <c r="AC21" s="75">
+        <f>AC20/AC22</f>
+        <v>-2.8998581500538099</v>
+      </c>
+      <c r="AD21" s="76">
+        <f>AD20/AD22</f>
+        <v>-0.94180959875615344</v>
+      </c>
+      <c r="AE21" s="76">
+        <f t="shared" ref="AE21:AM21" si="32">AE20/AE22</f>
+        <v>-0.90415624206289358</v>
+      </c>
+      <c r="AF21" s="76">
+        <f t="shared" si="32"/>
+        <v>-0.5828079449494098</v>
+      </c>
+      <c r="AG21" s="76">
+        <f t="shared" si="32"/>
+        <v>-0.63931437832652571</v>
+      </c>
+      <c r="AH21" s="76">
+        <f t="shared" si="32"/>
+        <v>-3.0446293264223368E-2</v>
+      </c>
+      <c r="AI21" s="76">
+        <f t="shared" si="32"/>
+        <v>1.7899210483990717</v>
+      </c>
+      <c r="AJ21" s="76">
+        <f t="shared" si="32"/>
+        <v>2.177050655926843</v>
+      </c>
+      <c r="AK21" s="76">
+        <f t="shared" si="32"/>
+        <v>2.5932171434217168</v>
+      </c>
+      <c r="AL21" s="76">
+        <f t="shared" si="32"/>
+        <v>2.9411592284002248</v>
+      </c>
+      <c r="AM21" s="76">
+        <f t="shared" si="32"/>
+        <v>3.1714047840040274</v>
+      </c>
+    </row>
+    <row r="22" spans="2:87" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33">
+        <v>122.181067</v>
+      </c>
+      <c r="O22" s="33">
         <v>123.24365</v>
       </c>
-      <c r="P22" s="49">
-        <v>1245.47531</v>
-      </c>
-      <c r="Q22" s="49">
-        <v>1250.7146</v>
-      </c>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49">
+      <c r="P22" s="33">
+        <f>1245.47531/10</f>
+        <v>124.54753100000001</v>
+      </c>
+      <c r="Q22" s="33">
+        <f>1250.7146/10</f>
+        <v>125.07146</v>
+      </c>
+      <c r="R22" s="33">
+        <v>125.73475500000001</v>
+      </c>
+      <c r="S22" s="33">
         <v>126.01306599999999</v>
       </c>
-      <c r="T22" s="49">
+      <c r="T22" s="33">
         <v>1262.011665</v>
       </c>
-      <c r="U22" s="49">
+      <c r="U22" s="33">
         <v>1269.4252260000001</v>
       </c>
-    </row>
-    <row r="24" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V22" s="33">
+        <f>U22</f>
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="X22" s="33"/>
+      <c r="AB22" s="33">
+        <f>R22</f>
+        <v>125.73475500000001</v>
+      </c>
+      <c r="AC22" s="62">
+        <f>V22</f>
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="AD22" s="31">
+        <f>AC22</f>
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="AE22" s="31">
+        <f t="shared" ref="AE22:AM22" si="33">AD22</f>
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="AF22" s="31">
+        <f t="shared" si="33"/>
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="AG22" s="31">
+        <f t="shared" si="33"/>
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="AH22" s="31">
+        <f t="shared" si="33"/>
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="AI22" s="31">
+        <f t="shared" si="33"/>
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="AJ22" s="31">
+        <f t="shared" si="33"/>
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="AK22" s="31">
+        <f t="shared" si="33"/>
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="AL22" s="31">
+        <f t="shared" si="33"/>
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="AM22" s="31">
+        <f t="shared" si="33"/>
+        <v>1269.4252260000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:87" x14ac:dyDescent="0.15">
+      <c r="AO23" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP23" s="83">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S24" s="50">
-        <f t="shared" ref="S24" si="8">S6/O6-1</f>
+      <c r="R24" s="34">
+        <f t="shared" ref="R24" si="34">R6/N6-1</f>
+        <v>0.4114369405488556</v>
+      </c>
+      <c r="S24" s="34">
+        <f t="shared" ref="S24" si="35">S6/O6-1</f>
         <v>0.2174446491012465</v>
       </c>
-      <c r="T24" s="50">
-        <f t="shared" ref="T24" si="9">T6/P6-1</f>
+      <c r="T24" s="34">
+        <f t="shared" ref="T24" si="36">T6/P6-1</f>
         <v>0.15687952512182401</v>
       </c>
-      <c r="U24" s="50">
+      <c r="U24" s="34">
         <f>U6/Q6-1</f>
         <v>0.2157616530514177</v>
       </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B25" s="43" t="s">
+      <c r="V24" s="34">
+        <f>V6/R6-1</f>
+        <v>0.23747847863515403</v>
+      </c>
+      <c r="AB24" s="34">
+        <f>AB6/AA6-1</f>
+        <v>0.57428577182862139</v>
+      </c>
+      <c r="AC24" s="69">
+        <f>AC6/AB6-1</f>
+        <v>0.2083282739096799</v>
+      </c>
+      <c r="AD24" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="AE24" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="AF24" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="AG24" s="73">
+        <v>0.45</v>
+      </c>
+      <c r="AH24" s="73">
+        <v>0.4</v>
+      </c>
+      <c r="AI24" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="AJ24" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="AK24" s="73">
+        <v>0.18</v>
+      </c>
+      <c r="AL24" s="73">
+        <v>0.13</v>
+      </c>
+      <c r="AM24" s="73">
+        <v>0.08</v>
+      </c>
+      <c r="AO24" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP24" s="80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:87" x14ac:dyDescent="0.15">
+      <c r="B25" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="S25" s="51">
-        <f t="shared" ref="S25:S26" si="10">S4/O4-1</f>
+      <c r="R25" s="35">
+        <f t="shared" ref="R25:R26" si="37">R4/N4-1</f>
+        <v>0.25682794159748079</v>
+      </c>
+      <c r="S25" s="35">
+        <f t="shared" ref="S25:S26" si="38">S4/O4-1</f>
         <v>7.5090198670953567E-2</v>
       </c>
-      <c r="T25" s="51">
-        <f t="shared" ref="T25:T26" si="11">T4/P4-1</f>
+      <c r="T25" s="35">
+        <f t="shared" ref="T25:T26" si="39">T4/P4-1</f>
         <v>9.6356776778154352E-2</v>
       </c>
-      <c r="U25" s="51">
+      <c r="U25" s="35">
         <f>U4/Q4-1</f>
         <v>0.11925058297244551</v>
       </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="43" t="s">
+      <c r="V25" s="35"/>
+      <c r="AO25" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP25" s="84">
+        <f>NPV(AP24,AC20:CI20)</f>
+        <v>37129.233000094056</v>
+      </c>
+    </row>
+    <row r="26" spans="2:87" x14ac:dyDescent="0.15">
+      <c r="B26" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="S26" s="51">
-        <f t="shared" si="10"/>
+      <c r="R26" s="35">
+        <f t="shared" si="37"/>
+        <v>0.47330675465126948</v>
+      </c>
+      <c r="S26" s="35">
+        <f t="shared" si="38"/>
         <v>0.28578700113478828</v>
       </c>
-      <c r="T26" s="51">
-        <f t="shared" si="11"/>
+      <c r="T26" s="35">
+        <f t="shared" si="39"/>
         <v>0.18264205153284241</v>
       </c>
-      <c r="U26" s="51">
+      <c r="U26" s="35">
         <f>U5/Q5-1</f>
         <v>0.25696352656146026</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="35"/>
+      <c r="AO26" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP26" s="85">
+        <f>Main!C11</f>
+        <v>4028.7079999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:87" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P27" s="51">
-        <f t="shared" ref="P27:Q27" si="12">P6/O6-1</f>
+      <c r="O27" s="35">
+        <f t="shared" ref="O27:Q27" si="40">O6/N6-1</f>
+        <v>1.1151180677150707E-2</v>
+      </c>
+      <c r="P27" s="35">
+        <f t="shared" si="40"/>
         <v>0.13230000192181834</v>
       </c>
-      <c r="Q27" s="51">
-        <f t="shared" si="12"/>
+      <c r="Q27" s="35">
+        <f t="shared" si="40"/>
         <v>3.8367226616762284E-3</v>
       </c>
-      <c r="T27" s="51">
+      <c r="R27" s="35">
+        <f t="shared" ref="R27:S27" si="41">R6/Q6-1</f>
+        <v>0.22806343104276805</v>
+      </c>
+      <c r="S27" s="35">
+        <f t="shared" si="41"/>
+        <v>-0.12782458855788015</v>
+      </c>
+      <c r="T27" s="35">
         <f>T6/S6-1</f>
         <v>7.5970632000219362E-2</v>
       </c>
-      <c r="U27" s="51">
+      <c r="U27" s="35">
         <f>U6/T6-1</f>
         <v>5.4929374092225647E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:21" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="50" t="s">
+      <c r="V27" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="AO27" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP27" s="84">
+        <f>AP25-AP26</f>
+        <v>33100.525000094058</v>
+      </c>
+    </row>
+    <row r="28" spans="2:87" x14ac:dyDescent="0.15">
+      <c r="AO28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP28" s="86">
+        <f>AP27/Main!C7</f>
+        <v>26.075206575494708</v>
+      </c>
+    </row>
+    <row r="29" spans="2:87" s="34" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="O29" s="50">
-        <f t="shared" ref="O29:P29" si="13">O10/O6</f>
+      <c r="N29" s="34">
+        <f t="shared" ref="N29:O29" si="42">N10/N6</f>
+        <v>0.51586918457183062</v>
+      </c>
+      <c r="O29" s="34">
+        <f t="shared" si="42"/>
         <v>0.56513194294829194</v>
       </c>
-      <c r="P29" s="50">
-        <f t="shared" ref="P29:Q29" si="14">P10/P6</f>
+      <c r="P29" s="34">
+        <f t="shared" ref="P29" si="43">P10/P6</f>
         <v>0.55461411681681538</v>
       </c>
-      <c r="Q29" s="50">
+      <c r="Q29" s="34">
         <f>Q10/Q6</f>
         <v>0.54185932689056182</v>
       </c>
-      <c r="S29" s="50">
-        <f t="shared" ref="S29:T29" si="15">S10/S6</f>
+      <c r="R29" s="34">
+        <f t="shared" ref="R29" si="44">R10/R6</f>
+        <v>0.501918082584071</v>
+      </c>
+      <c r="S29" s="34">
+        <f t="shared" ref="S29" si="45">S10/S6</f>
         <v>0.52976471868683139</v>
       </c>
-      <c r="T29" s="50">
-        <f t="shared" ref="T29:U29" si="16">T10/T6</f>
+      <c r="T29" s="34">
+        <f t="shared" ref="T29" si="46">T10/T6</f>
         <v>0.50626262969446278</v>
       </c>
-      <c r="U29" s="50">
+      <c r="U29" s="34">
         <f>U10/U6</f>
         <v>0.48479871175523354</v>
       </c>
-    </row>
-    <row r="30" spans="2:21" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="57" t="s">
+      <c r="V29" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="AB29" s="34">
+        <f>AB10/AB6</f>
+        <v>0.53799251320943231</v>
+      </c>
+      <c r="AC29" s="69">
+        <f>AC10/AC6</f>
+        <v>0.50415745797859401</v>
+      </c>
+      <c r="AD29" s="73">
+        <v>0.52</v>
+      </c>
+      <c r="AE29" s="73">
+        <v>0.51</v>
+      </c>
+      <c r="AF29" s="73">
+        <v>0.51</v>
+      </c>
+      <c r="AG29" s="73">
+        <v>0.52</v>
+      </c>
+      <c r="AH29" s="73">
+        <v>0.53</v>
+      </c>
+      <c r="AI29" s="73">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ29" s="73">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AK29" s="73">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AL29" s="73">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AM29" s="73">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AO29" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP29" s="87">
+        <f>Main!C6</f>
+        <v>52.93</v>
+      </c>
+    </row>
+    <row r="30" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="O30" s="58">
-        <f t="shared" ref="O30:P30" si="17">(O4-O7)/O4</f>
+      <c r="N30" s="41">
+        <f t="shared" ref="N30:O30" si="47">(N4-N7)/N4</f>
+        <v>0.78796879473232173</v>
+      </c>
+      <c r="O30" s="41">
+        <f t="shared" si="47"/>
         <v>0.81794368858772426</v>
       </c>
-      <c r="P30" s="58">
-        <f t="shared" ref="P30:Q30" si="18">(P4-P7)/P4</f>
+      <c r="P30" s="41">
+        <f t="shared" ref="P30" si="48">(P4-P7)/P4</f>
         <v>0.81143021269338833</v>
       </c>
-      <c r="Q30" s="58">
+      <c r="Q30" s="41">
         <f>(Q4-Q7)/Q4</f>
         <v>0.79966270879931467</v>
       </c>
-      <c r="S30" s="58">
-        <f t="shared" ref="S30:T30" si="19">(S4-S7)/S4</f>
+      <c r="R30" s="41">
+        <f t="shared" ref="R30:R31" si="49">(R4-R7)/R4</f>
+        <v>0.78477995945422663</v>
+      </c>
+      <c r="S30" s="41">
+        <f t="shared" ref="S30" si="50">(S4-S7)/S4</f>
         <v>0.77507606718857414</v>
       </c>
-      <c r="T30" s="58">
-        <f t="shared" ref="T30:U30" si="20">(T4-T7)/T4</f>
+      <c r="T30" s="41">
+        <f t="shared" ref="T30" si="51">(T4-T7)/T4</f>
         <v>0.76739083568249356</v>
       </c>
-      <c r="U30" s="58">
+      <c r="U30" s="41">
         <f>(U4-U7)/U4</f>
         <v>0.78125755711518174</v>
       </c>
-    </row>
-    <row r="31" spans="2:21" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="57" t="s">
+      <c r="AB30" s="41">
+        <f>(AB4-AB7)/AB4</f>
+        <v>0.80306615194132025</v>
+      </c>
+      <c r="AC30" s="63"/>
+      <c r="AO30" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP30" s="82">
+        <f>AP28/AP29-1</f>
+        <v>-0.50736431937474569</v>
+      </c>
+    </row>
+    <row r="31" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="O31" s="58">
-        <f t="shared" ref="O31:P31" si="21">(O5-O8)/O5</f>
+      <c r="N31" s="41">
+        <f t="shared" ref="N31:O31" si="52">(N5-N8)/N5</f>
+        <v>0.40698320502245439</v>
+      </c>
+      <c r="O31" s="41">
+        <f t="shared" si="52"/>
         <v>0.4437606105699991</v>
       </c>
-      <c r="P31" s="58">
-        <f t="shared" ref="P31:Q31" si="22">(P5-P8)/P5</f>
+      <c r="P31" s="41">
+        <f t="shared" ref="P31" si="53">(P5-P8)/P5</f>
         <v>0.44529602347403491</v>
       </c>
-      <c r="Q31" s="58">
+      <c r="Q31" s="41">
         <f>(Q5-Q8)/Q5</f>
         <v>0.43179959671480017</v>
       </c>
-      <c r="S31" s="58">
-        <f t="shared" ref="S31:T31" si="23">(S5-S8)/S5</f>
+      <c r="R31" s="41">
+        <f t="shared" si="49"/>
+        <v>0.40535722617066611</v>
+      </c>
+      <c r="S31" s="41">
+        <f t="shared" ref="S31" si="54">(S5-S8)/S5</f>
         <v>0.43129280373331225</v>
       </c>
-      <c r="T31" s="58">
-        <f t="shared" ref="T31:U31" si="24">(T5-T8)/T5</f>
+      <c r="T31" s="41">
+        <f t="shared" ref="T31" si="55">(T5-T8)/T5</f>
         <v>0.40321875471129204</v>
       </c>
-      <c r="U31" s="58">
+      <c r="U31" s="41">
         <f>(U5-U8)/U5</f>
         <v>0.37210260844793264</v>
       </c>
-    </row>
-    <row r="32" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="51" t="s">
+      <c r="AB31" s="41">
+        <f>(AB5-AB8)/AB5</f>
+        <v>0.42916395730018025</v>
+      </c>
+      <c r="AC31" s="63"/>
+    </row>
+    <row r="32" spans="2:87" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="O32" s="51">
-        <f t="shared" ref="O32:P32" si="25">O16/O6</f>
+      <c r="N32" s="35">
+        <f t="shared" ref="N32:O32" si="56">N16/N6</f>
+        <v>0.11510272627599857</v>
+      </c>
+      <c r="O32" s="35">
+        <f t="shared" si="56"/>
         <v>0.12026436129376804</v>
       </c>
-      <c r="P32" s="51">
-        <f t="shared" ref="P32:Q32" si="26">P16/P6</f>
+      <c r="P32" s="35">
+        <f t="shared" ref="P32" si="57">P16/P6</f>
         <v>0.12456261808306789</v>
       </c>
-      <c r="Q32" s="51">
+      <c r="Q32" s="35">
         <f>Q16/Q6</f>
         <v>-3.6494206844999723E-3</v>
       </c>
-      <c r="S32" s="51">
-        <f t="shared" ref="S32:T32" si="27">S16/S6</f>
+      <c r="R32" s="35">
+        <f t="shared" ref="R32" si="58">R16/R6</f>
+        <v>1.0437499637687623E-2</v>
+      </c>
+      <c r="S32" s="35">
+        <f t="shared" ref="S32" si="59">S16/S6</f>
         <v>-8.1400903771363525E-2</v>
       </c>
-      <c r="T32" s="51">
-        <f t="shared" ref="T32:U32" si="28">T16/T6</f>
+      <c r="T32" s="35">
+        <f t="shared" ref="T32" si="60">T16/T6</f>
         <v>-0.14687161937295712</v>
       </c>
-      <c r="U32" s="51">
+      <c r="U32" s="35">
         <f>U16/U6</f>
         <v>-0.2527931488801054</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="51" t="s">
+      <c r="V32" s="35">
+        <f t="shared" ref="V32" si="61">V16/V6</f>
+        <v>-0.23800450885668273</v>
+      </c>
+      <c r="AB32" s="35">
+        <f>AB16/AB6</f>
+        <v>5.8250517795872113E-2</v>
+      </c>
+      <c r="AC32" s="63">
+        <f>AC16/AC6</f>
+        <v>-0.18662661620102225</v>
+      </c>
+      <c r="AD32" s="41">
+        <f>AD16/AD6</f>
+        <v>-0.2047061462474849</v>
+      </c>
+      <c r="AE32" s="41">
+        <f t="shared" ref="AE32:AM32" si="62">AE16/AE6</f>
+        <v>-0.13050439017677495</v>
+      </c>
+      <c r="AF32" s="41">
+        <f t="shared" si="62"/>
+        <v>-5.2002926784516686E-2</v>
+      </c>
+      <c r="AG32" s="41">
+        <f t="shared" si="62"/>
+        <v>-3.982960467897699E-2</v>
+      </c>
+      <c r="AH32" s="41">
+        <f t="shared" si="62"/>
+        <v>2.1389542762193282E-2</v>
+      </c>
+      <c r="AI32" s="41">
+        <f t="shared" si="62"/>
+        <v>7.2321641884743076E-2</v>
+      </c>
+      <c r="AJ32" s="41">
+        <f t="shared" si="62"/>
+        <v>7.2763913375491956E-2</v>
+      </c>
+      <c r="AK32" s="41">
+        <f t="shared" si="62"/>
+        <v>7.3100819950287374E-2</v>
+      </c>
+      <c r="AL32" s="41">
+        <f t="shared" si="62"/>
+        <v>7.3314858662333671E-2</v>
+      </c>
+      <c r="AM32" s="41">
+        <f t="shared" si="62"/>
+        <v>7.3434738359731813E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="O33" s="51">
-        <f t="shared" ref="O33:P33" si="29">O20/O6</f>
+      <c r="N33" s="35">
+        <f t="shared" ref="N33:O33" si="63">N20/N6</f>
+        <v>0.12669164934788651</v>
+      </c>
+      <c r="O33" s="35">
+        <f t="shared" si="63"/>
         <v>1.272896190450181</v>
       </c>
-      <c r="P33" s="51">
-        <f t="shared" ref="P33:Q33" si="30">P20/P6</f>
-        <v>0.85715421481180409</v>
-      </c>
-      <c r="Q33" s="51">
+      <c r="P33" s="35">
+        <f t="shared" ref="P33" si="64">P20/P6</f>
+        <v>0.78529360531334724</v>
+      </c>
+      <c r="Q33" s="35">
         <f>Q20/Q6</f>
         <v>1.0219730542652217</v>
       </c>
-      <c r="S33" s="51">
-        <f t="shared" ref="S33:T33" si="31">S20/S6</f>
+      <c r="R33" s="35">
+        <f t="shared" ref="R33" si="65">R20/R6</f>
+        <v>-0.26906126270267744</v>
+      </c>
+      <c r="S33" s="35">
+        <f t="shared" ref="S33" si="66">S20/S6</f>
         <v>-1.2249749298576047</v>
       </c>
-      <c r="T33" s="51">
-        <f t="shared" ref="T33:U33" si="32">T20/T6</f>
+      <c r="T33" s="35">
+        <f t="shared" ref="T33" si="67">T20/T6</f>
         <v>-0.9296126906567479</v>
       </c>
-      <c r="U33" s="51">
+      <c r="U33" s="35">
         <f>U20/U6</f>
         <v>-0.11594861660079051</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="51" t="s">
+      <c r="V33" s="35">
+        <f t="shared" ref="V33" si="68">V20/V6</f>
+        <v>-0.49446879666227483</v>
+      </c>
+      <c r="AB33" s="35">
+        <f>AB20/AB6</f>
+        <v>0.63199262943162138</v>
+      </c>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="35">
+        <f t="shared" ref="AD33:AM33" si="69">AD20/AD6</f>
+        <v>-0.16503125723487183</v>
+      </c>
+      <c r="AE33" s="35">
+        <f t="shared" si="69"/>
+        <v>-0.11316667217894996</v>
+      </c>
+      <c r="AF33" s="35">
+        <f t="shared" si="69"/>
+        <v>-4.8630559322282524E-2</v>
+      </c>
+      <c r="AG33" s="35">
+        <f t="shared" si="69"/>
+        <v>-3.6790040911918953E-2</v>
+      </c>
+      <c r="AH33" s="35">
+        <f t="shared" si="69"/>
+        <v>-1.2514750318917496E-3</v>
+      </c>
+      <c r="AI33" s="35">
+        <f t="shared" si="69"/>
+        <v>5.6595028894602516E-2</v>
+      </c>
+      <c r="AJ33" s="35">
+        <f t="shared" si="69"/>
+        <v>5.7362979262592727E-2</v>
+      </c>
+      <c r="AK33" s="35">
+        <f t="shared" si="69"/>
+        <v>5.7905530070424906E-2</v>
+      </c>
+      <c r="AL33" s="35">
+        <f t="shared" si="69"/>
+        <v>5.8119417239921881E-2</v>
+      </c>
+      <c r="AM33" s="35">
+        <f t="shared" si="69"/>
+        <v>5.8027069136296232E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="O34" s="51">
-        <f t="shared" ref="O34:P34" si="33">O19/O18</f>
+      <c r="N34" s="35">
+        <f t="shared" ref="N34:O34" si="70">N19/N18</f>
+        <v>-0.12864340838063659</v>
+      </c>
+      <c r="O34" s="35">
+        <f t="shared" si="70"/>
         <v>8.1121161496089222E-2</v>
       </c>
-      <c r="P34" s="51">
-        <f t="shared" ref="P34:Q34" si="34">P19/P18</f>
-        <v>-4.3752141540168502E-2</v>
-      </c>
-      <c r="Q34" s="51">
+      <c r="P34" s="35">
+        <f t="shared" ref="P34" si="71">P19/P18</f>
+        <v>4.3752141540168502E-2</v>
+      </c>
+      <c r="Q34" s="35">
         <f>Q19/Q18</f>
         <v>0.14325018725027078</v>
       </c>
-      <c r="S34" s="51">
-        <f t="shared" ref="S34:T34" si="35">S19/S18</f>
+      <c r="R34" s="35">
+        <f t="shared" ref="R34" si="72">R19/R18</f>
+        <v>0.24023620935547843</v>
+      </c>
+      <c r="S34" s="35">
+        <f t="shared" ref="S34" si="73">S19/S18</f>
         <v>0.10796396784476819</v>
       </c>
-      <c r="T34" s="51">
-        <f t="shared" ref="T34:U34" si="36">T19/T18</f>
+      <c r="T34" s="35">
+        <f t="shared" ref="T34" si="74">T19/T18</f>
         <v>-4.7210515334863345E-3</v>
       </c>
-      <c r="U34" s="51">
+      <c r="U34" s="35">
         <f>U19/U18</f>
         <v>-8.1205093774064027E-3</v>
       </c>
-    </row>
-    <row r="36" spans="2:21" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="51" t="s">
+      <c r="V34" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="AB34" s="35">
+        <f>AB19/AB18</f>
+        <v>7.1939621574531182E-2</v>
+      </c>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE34" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="AF34" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="AG34" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="AH34" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="AI34" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="AJ34" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="AK34" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="AL34" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="AM34" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="AN34" s="41"/>
+    </row>
+    <row r="36" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="O36" s="51">
-        <f t="shared" ref="O36:P36" si="37">O12/O6</f>
+      <c r="N36" s="35">
+        <f t="shared" ref="N36:O36" si="75">N12/N6</f>
+        <v>0.1626980068402363</v>
+      </c>
+      <c r="O36" s="35">
+        <f t="shared" si="75"/>
         <v>0.17790576414028467</v>
       </c>
-      <c r="P36" s="51">
+      <c r="P36" s="35">
         <f>P12/P6</f>
         <v>0.16397143227224203</v>
       </c>
-      <c r="Q36" s="51">
+      <c r="Q36" s="35">
         <f>Q12/Q6</f>
         <v>0.19668962571413315</v>
       </c>
-      <c r="S36" s="51">
-        <f t="shared" ref="S36:T36" si="38">S12/S6</f>
+      <c r="R36" s="35">
+        <f t="shared" ref="R36" si="76">R12/R6</f>
+        <v>0.19848350463470196</v>
+      </c>
+      <c r="S36" s="35">
+        <f t="shared" ref="S36" si="77">S12/S6</f>
         <v>0.25228913040046591</v>
       </c>
-      <c r="T36" s="51">
-        <f t="shared" ref="T36:U36" si="39">T12/T6</f>
+      <c r="T36" s="35">
+        <f t="shared" ref="T36" si="78">T12/T6</f>
         <v>0.26768350265585533</v>
       </c>
-      <c r="U36" s="51">
+      <c r="U36" s="35">
         <f>U12/U6</f>
         <v>0.30182916117698722</v>
       </c>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="53" t="s">
+      <c r="V36" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="AB36" s="35">
+        <f>AB12/AB6</f>
+        <v>0.1852579525466537</v>
+      </c>
+      <c r="AC36" s="63">
+        <f>AC12/AC6</f>
+        <v>0.28263320984898344</v>
+      </c>
+      <c r="AD36" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="AE36" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="AF36" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AG36" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AH36" s="41">
+        <v>0.18</v>
+      </c>
+      <c r="AI36" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="AJ36" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="AK36" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="AL36" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="AM36" s="41">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="AI39" s="88"/>
+      <c r="AJ39" s="88"/>
+      <c r="AK39" s="88"/>
+      <c r="AL39" s="88"/>
+      <c r="AM39" s="88"/>
+    </row>
+    <row r="40" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B40" s="37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S41" s="48">
+      <c r="R41" s="32">
+        <v>2502.9920000000002</v>
+      </c>
+      <c r="S41" s="32">
         <v>2451.5450000000001</v>
       </c>
-      <c r="T41" s="48">
+      <c r="T41" s="32">
         <v>3350.7809999999999</v>
       </c>
-      <c r="U41" s="48">
+      <c r="U41" s="32">
         <v>1378.251</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="74"/>
+      <c r="AE41" s="74"/>
+      <c r="AF41" s="74"/>
+      <c r="AG41" s="74"/>
+      <c r="AH41" s="74"/>
+      <c r="AI41" s="74"/>
+      <c r="AJ41" s="74"/>
+      <c r="AK41" s="74"/>
+      <c r="AL41" s="74"/>
+      <c r="AM41" s="74"/>
+    </row>
+    <row r="42" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S42" s="48">
+      <c r="R42" s="32">
+        <v>5265.1009999999997</v>
+      </c>
+      <c r="S42" s="32">
         <v>4795.1450000000004</v>
       </c>
-      <c r="T42" s="48">
+      <c r="T42" s="32">
         <v>3604.01</v>
       </c>
-      <c r="U42" s="48">
+      <c r="U42" s="32">
         <v>3563.181</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="AC42" s="68"/>
+      <c r="AD42" s="74"/>
+      <c r="AE42" s="74"/>
+      <c r="AF42" s="74"/>
+      <c r="AG42" s="74"/>
+      <c r="AH42" s="74"/>
+      <c r="AI42" s="74"/>
+      <c r="AJ42" s="74"/>
+      <c r="AK42" s="74"/>
+      <c r="AL42" s="74"/>
+      <c r="AM42" s="74"/>
+    </row>
+    <row r="43" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="S43" s="49">
+      <c r="R43" s="33">
+        <v>192.209</v>
+      </c>
+      <c r="S43" s="33">
         <v>225.25200000000001</v>
       </c>
-      <c r="T43" s="49">
+      <c r="T43" s="33">
         <v>238.72300000000001</v>
       </c>
-      <c r="U43" s="49">
+      <c r="U43" s="33">
         <v>241.18299999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="S44" s="49">
+      <c r="R44" s="33">
+        <v>470.72199999999998</v>
+      </c>
+      <c r="S44" s="33">
         <v>486.50700000000001</v>
       </c>
-      <c r="T44" s="49">
+      <c r="T44" s="33">
         <v>537.79</v>
       </c>
-      <c r="U44" s="49">
+      <c r="U44" s="33">
         <v>666.053</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="S45" s="49">
+      <c r="R45" s="33">
+        <v>5.0229999999999997</v>
+      </c>
+      <c r="S45" s="33">
         <v>3.3690000000000002</v>
       </c>
-      <c r="T45" s="49">
+      <c r="T45" s="33">
         <v>13.212999999999999</v>
       </c>
-      <c r="U45" s="49">
+      <c r="U45" s="33">
         <v>11.996</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="S46" s="49">
+      <c r="R46" s="33">
+        <v>103.273</v>
+      </c>
+      <c r="S46" s="33">
         <v>113.063</v>
       </c>
-      <c r="T46" s="49">
+      <c r="T46" s="33">
         <v>113.247</v>
       </c>
-      <c r="U46" s="49">
+      <c r="U46" s="33">
         <v>152.322</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" ref="C47:T47" si="40">SUM(C41:C46)</f>
+        <f t="shared" ref="C47:T47" si="79">SUM(C41:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="49">
-        <f t="shared" si="40"/>
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="33">
+        <f t="shared" si="79"/>
+        <v>8539.3199999999979</v>
+      </c>
+      <c r="S47" s="33">
+        <f t="shared" si="79"/>
         <v>8074.8810000000003</v>
       </c>
-      <c r="T47" s="49">
-        <f t="shared" si="40"/>
+      <c r="T47" s="33">
+        <f t="shared" si="79"/>
         <v>7857.7640000000001</v>
       </c>
-      <c r="U47" s="49">
+      <c r="U47" s="33">
         <f>SUM(U41:U46)</f>
         <v>6012.9859999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S48" s="49">
+      <c r="R48" s="33">
+        <v>105.526</v>
+      </c>
+      <c r="S48" s="33">
         <v>109.57</v>
       </c>
-      <c r="T48" s="49">
+      <c r="T48" s="33">
         <v>114.20699999999999</v>
       </c>
-      <c r="U48" s="49">
+      <c r="U48" s="33">
         <v>128.46100000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="S49" s="49">
+      <c r="R49" s="33">
+        <v>196.38800000000001</v>
+      </c>
+      <c r="S49" s="33">
         <v>220.20500000000001</v>
       </c>
-      <c r="T49" s="49">
+      <c r="T49" s="33">
         <v>224.55500000000001</v>
       </c>
-      <c r="U49" s="49">
+      <c r="U49" s="33">
         <v>349.74</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S50" s="49">
+      <c r="R50" s="33">
+        <v>138.49600000000001</v>
+      </c>
+      <c r="S50" s="33">
         <v>131.608</v>
       </c>
-      <c r="T50" s="49">
+      <c r="T50" s="33">
         <v>133.12899999999999</v>
       </c>
-      <c r="U50" s="49">
+      <c r="U50" s="33">
         <v>410.81900000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="S51" s="49">
+      <c r="R51" s="33">
+        <v>48.369</v>
+      </c>
+      <c r="S51" s="33">
         <v>47.064</v>
       </c>
-      <c r="T51" s="49">
+      <c r="T51" s="33">
         <v>44.762999999999998</v>
       </c>
-      <c r="U51" s="49">
+      <c r="U51" s="33">
         <v>43.25</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="S52" s="49">
+      <c r="R52" s="33">
+        <v>3955.5450000000001</v>
+      </c>
+      <c r="S52" s="33">
         <v>2894.6010000000001</v>
       </c>
-      <c r="T52" s="49">
+      <c r="T52" s="33">
         <v>1993.867</v>
       </c>
-      <c r="U52" s="49">
+      <c r="U52" s="33">
         <v>2421.7469999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S53" s="49">
+      <c r="R53" s="33">
         <v>356.52800000000002</v>
       </c>
-      <c r="T53" s="49">
+      <c r="S53" s="33">
+        <v>356.52800000000002</v>
+      </c>
+      <c r="T53" s="33">
         <v>379.34500000000003</v>
       </c>
-      <c r="U53" s="49">
+      <c r="U53" s="33">
         <v>1836.2819999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" ref="C54:T54" si="41">SUM(C48:C53)+C47</f>
+        <f t="shared" ref="C54:T54" si="80">SUM(C48:C53)+C47</f>
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="49">
-        <f t="shared" si="41"/>
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="33">
+        <f t="shared" si="80"/>
+        <v>13340.171999999999</v>
+      </c>
+      <c r="S54" s="33">
+        <f t="shared" si="80"/>
         <v>11834.457</v>
       </c>
-      <c r="T54" s="49">
-        <f t="shared" si="41"/>
+      <c r="T54" s="33">
+        <f t="shared" si="80"/>
         <v>10747.630000000001</v>
       </c>
-      <c r="U54" s="49">
+      <c r="U54" s="33">
         <f>SUM(U48:U53)+U47</f>
         <v>11203.285</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
-    </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+    </row>
+    <row r="56" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="S56" s="49">
+      <c r="R56" s="33">
+        <v>456.68799999999999</v>
+      </c>
+      <c r="S56" s="33">
         <v>406.64699999999999</v>
       </c>
-      <c r="T56" s="49">
+      <c r="T56" s="33">
         <v>419.40800000000002</v>
       </c>
-      <c r="U56" s="49">
+      <c r="U56" s="33">
         <v>596.11400000000003</v>
       </c>
     </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="S57" s="49">
+      <c r="R57" s="33">
+        <v>13.505000000000001</v>
+      </c>
+      <c r="S57" s="33">
         <v>8.2940000000000005</v>
       </c>
-      <c r="T57" s="49">
+      <c r="T57" s="33">
         <v>4.125</v>
       </c>
-      <c r="U57" s="49">
+      <c r="U57" s="33">
         <v>4.4580000000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="S58" s="49">
+      <c r="R58" s="33">
+        <v>216.792</v>
+      </c>
+      <c r="S58" s="33">
         <v>247.64699999999999</v>
       </c>
-      <c r="T58" s="49">
+      <c r="T58" s="33">
         <v>254.00700000000001</v>
       </c>
-      <c r="U58" s="49">
+      <c r="U58" s="33">
         <v>287.625</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="S59" s="49">
+      <c r="R59" s="33">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="S59" s="33">
         <v>19.344000000000001</v>
       </c>
-      <c r="T59" s="49">
+      <c r="T59" s="33">
         <v>25.667999999999999</v>
       </c>
-      <c r="U59" s="49">
+      <c r="U59" s="33">
         <v>17.024000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" ref="C60:T60" si="42">SUM(C56:C59)</f>
+        <f t="shared" ref="C60:T60" si="81">SUM(C56:C59)</f>
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="R60" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="49">
-        <f t="shared" si="42"/>
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="33">
+        <f t="shared" si="81"/>
+        <v>702.73300000000006</v>
+      </c>
+      <c r="S60" s="33">
+        <f t="shared" si="81"/>
         <v>681.93200000000002</v>
       </c>
-      <c r="T60" s="49">
-        <f t="shared" si="42"/>
+      <c r="T60" s="33">
+        <f t="shared" si="81"/>
         <v>703.20799999999997</v>
       </c>
-      <c r="U60" s="49">
+      <c r="U60" s="33">
         <f>SUM(U56:U59)</f>
         <v>905.221</v>
       </c>
     </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="S61" s="49">
+      <c r="R61" s="33">
+        <v>162.93199999999999</v>
+      </c>
+      <c r="S61" s="33">
         <v>186.636</v>
       </c>
-      <c r="T61" s="49">
+      <c r="T61" s="33">
         <v>159.405</v>
       </c>
-      <c r="U61" s="49">
+      <c r="U61" s="33">
         <v>299.625</v>
       </c>
     </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="S62" s="49">
+      <c r="R62" s="33">
+        <v>246.77600000000001</v>
+      </c>
+      <c r="S62" s="33">
         <v>264.53399999999999</v>
       </c>
-      <c r="T62" s="49">
+      <c r="T62" s="33">
         <v>254.417</v>
       </c>
-      <c r="U62" s="49">
+      <c r="U62" s="33">
         <v>369.13099999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="S63" s="48">
+      <c r="R63" s="32">
+        <v>910.96299999999997</v>
+      </c>
+      <c r="S63" s="32">
         <v>911.54899999999998</v>
       </c>
-      <c r="T63" s="48">
+      <c r="T63" s="32">
         <v>912.13699999999994</v>
       </c>
-      <c r="U63" s="48">
+      <c r="U63" s="32">
         <v>912.72400000000005</v>
       </c>
-    </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="AC63" s="68"/>
+      <c r="AD63" s="74"/>
+      <c r="AE63" s="74"/>
+      <c r="AF63" s="74"/>
+      <c r="AG63" s="74"/>
+      <c r="AH63" s="74"/>
+      <c r="AI63" s="74"/>
+      <c r="AJ63" s="74"/>
+      <c r="AK63" s="74"/>
+      <c r="AL63" s="74"/>
+      <c r="AM63" s="74"/>
+    </row>
+    <row r="64" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="S64" s="49">
+      <c r="R64" s="33">
+        <v>183.42699999999999</v>
+      </c>
+      <c r="S64" s="33">
         <v>0.21099999999999999</v>
       </c>
-      <c r="T64" s="49">
+      <c r="T64" s="33">
         <v>1.335</v>
       </c>
-      <c r="U64" s="49">
+      <c r="U64" s="33">
         <v>23.576000000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:T65" si="43">SUM(C61:C64)+C60</f>
+        <f t="shared" ref="C65:T65" si="82">SUM(C61:C64)+C60</f>
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="49">
-        <f t="shared" si="43"/>
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="33">
+        <f t="shared" si="82"/>
+        <v>2206.8309999999997</v>
+      </c>
+      <c r="S65" s="33">
+        <f t="shared" si="82"/>
         <v>2044.8620000000001</v>
       </c>
-      <c r="T65" s="49">
-        <f t="shared" si="43"/>
+      <c r="T65" s="33">
+        <f t="shared" si="82"/>
         <v>2030.502</v>
       </c>
-      <c r="U65" s="49">
+      <c r="U65" s="33">
         <f>SUM(U61:U64)+U60</f>
         <v>2510.277</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="S66" s="49"/>
-      <c r="T66" s="49"/>
-      <c r="U66" s="49"/>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="S67" s="49">
+      <c r="R67" s="33">
+        <v>11133.341</v>
+      </c>
+      <c r="S67" s="33">
         <v>9789.5949999999993</v>
       </c>
-      <c r="T67" s="49">
+      <c r="T67" s="33">
         <v>8717.1280000000006</v>
       </c>
-      <c r="U67" s="49">
+      <c r="U67" s="33">
         <v>8693.0079999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="S68" s="49">
+      <c r="R68" s="33">
+        <f>R67+R65</f>
+        <v>13340.172</v>
+      </c>
+      <c r="S68" s="33">
         <f>S67+S65</f>
         <v>11834.456999999999</v>
       </c>
-      <c r="T68" s="49">
+      <c r="T68" s="33">
         <f>T67+T65</f>
         <v>10747.630000000001</v>
       </c>
-      <c r="U68" s="49">
+      <c r="U68" s="33">
         <f>U67+U65</f>
         <v>11203.285</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S70" s="49">
-        <f t="shared" ref="S70:T70" si="44">S54-S65</f>
+      <c r="R70" s="33">
+        <f t="shared" ref="R70:S70" si="83">R54-R65</f>
+        <v>11133.340999999999</v>
+      </c>
+      <c r="S70" s="33">
+        <f t="shared" ref="S70:T70" si="84">S54-S65</f>
         <v>9789.5950000000012</v>
       </c>
-      <c r="T70" s="49">
-        <f t="shared" si="44"/>
+      <c r="T70" s="33">
+        <f t="shared" si="84"/>
         <v>8717.1280000000006</v>
       </c>
-      <c r="U70" s="49">
+      <c r="U70" s="33">
         <f>U54-U65</f>
         <v>8693.0079999999998</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="R71" s="1">
+        <f t="shared" ref="R71:S71" si="85">R70/R22</f>
+        <v>88.546249602983664</v>
+      </c>
       <c r="S71" s="1">
-        <f t="shared" ref="S71" si="45">S70/S22</f>
+        <f t="shared" si="85"/>
         <v>77.687142379346611</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" ref="T71" si="46">T70/T22</f>
+        <f t="shared" ref="T71" si="86">T70/T22</f>
         <v>6.9073275958982521</v>
       </c>
       <c r="U71" s="1">
@@ -3943,153 +5752,264 @@
         <v>6.8479874371111631</v>
       </c>
     </row>
-    <row r="73" spans="2:21" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="44" t="s">
+    <row r="73" spans="2:29" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="S73" s="47">
-        <f t="shared" ref="S73:T73" si="47">S41+S42</f>
+      <c r="R73" s="31">
+        <f t="shared" ref="R73:S73" si="87">R41+R42</f>
+        <v>7768.0929999999998</v>
+      </c>
+      <c r="S73" s="31">
+        <f t="shared" si="87"/>
         <v>7246.6900000000005</v>
       </c>
-      <c r="T73" s="47">
-        <f t="shared" ref="T73:U73" si="48">T41+T42</f>
+      <c r="T73" s="31">
+        <f t="shared" ref="T73" si="88">T41+T42</f>
         <v>6954.7910000000002</v>
       </c>
-      <c r="U73" s="47">
+      <c r="U73" s="31">
         <f>U41+U42</f>
         <v>4941.4319999999998</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="44" t="s">
+      <c r="AC73" s="64"/>
+    </row>
+    <row r="74" spans="2:29" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="S74" s="47">
-        <f t="shared" ref="S74:T74" si="49">S63</f>
+      <c r="R74" s="31">
+        <f t="shared" ref="R74:S74" si="89">R63</f>
+        <v>910.96299999999997</v>
+      </c>
+      <c r="S74" s="31">
+        <f t="shared" si="89"/>
         <v>911.54899999999998</v>
       </c>
-      <c r="T74" s="47">
-        <f t="shared" ref="T74:U74" si="50">T63</f>
+      <c r="T74" s="31">
+        <f t="shared" ref="T74" si="90">T63</f>
         <v>912.13699999999994</v>
       </c>
-      <c r="U74" s="47">
+      <c r="U74" s="31">
         <f>U63</f>
         <v>912.72400000000005</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="AC74" s="64"/>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S75" s="49">
-        <f t="shared" ref="S75" si="51">S73-S74</f>
+      <c r="R75" s="33">
+        <f t="shared" ref="R75:S75" si="91">R73-R74</f>
+        <v>6857.13</v>
+      </c>
+      <c r="S75" s="33">
+        <f t="shared" si="91"/>
         <v>6335.1410000000005</v>
       </c>
-      <c r="T75" s="49">
-        <f t="shared" ref="T75" si="52">T73-T74</f>
+      <c r="T75" s="33">
+        <f t="shared" ref="T75" si="92">T73-T74</f>
         <v>6042.6540000000005</v>
       </c>
-      <c r="U75" s="49">
+      <c r="U75" s="33">
         <f>U73-U74</f>
         <v>4028.7079999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="S77" s="1">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="T77" s="1">
+      <c r="R77" s="36">
+        <f>137.743*10</f>
+        <v>1377.4299999999998</v>
+      </c>
+      <c r="S77" s="36">
+        <f>67.6*10</f>
+        <v>676</v>
+      </c>
+      <c r="T77" s="36">
         <v>31.24</v>
       </c>
-      <c r="U77" s="1">
+      <c r="U77" s="36">
         <v>26.94</v>
       </c>
-    </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="AB77" s="33">
+        <f>R77</f>
+        <v>1377.4299999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="S78" s="49">
-        <f>S77*(10*S22)</f>
+      <c r="R78" s="33">
+        <f t="shared" ref="R78:T78" si="93">R77*R22</f>
+        <v>173190.82357964999</v>
+      </c>
+      <c r="S78" s="33">
+        <f t="shared" ref="S78" si="94">S77*S22</f>
         <v>85184.832616</v>
       </c>
-      <c r="T78" s="49">
-        <f t="shared" ref="T78" si="53">T77*T22</f>
+      <c r="T78" s="33">
+        <f t="shared" si="93"/>
         <v>39425.244414599998</v>
       </c>
-      <c r="U78" s="49">
+      <c r="U78" s="33">
         <f>U77*U22</f>
         <v>34198.315588440004</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="AB78" s="33">
+        <f t="shared" ref="AB78" si="95">AB77*AB22</f>
+        <v>173190.82357964999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S79" s="49">
-        <f t="shared" ref="S79" si="54">S78-S75</f>
+      <c r="R79" s="33">
+        <f t="shared" ref="R79:T79" si="96">R78-R75</f>
+        <v>166333.69357964999</v>
+      </c>
+      <c r="S79" s="33">
+        <f t="shared" ref="S79" si="97">S78-S75</f>
         <v>78849.691615999996</v>
       </c>
-      <c r="T79" s="49">
-        <f t="shared" ref="T79" si="55">T78-T75</f>
+      <c r="T79" s="33">
+        <f t="shared" si="96"/>
         <v>33382.590414599996</v>
       </c>
-      <c r="U79" s="49">
+      <c r="U79" s="33">
         <f>U78-U75</f>
         <v>30169.607588440005</v>
       </c>
-    </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="AB79" s="33">
+        <f t="shared" ref="AB79" si="98">AB78-AB75</f>
+        <v>173190.82357964999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S81" s="62">
+      <c r="R81" s="43">
+        <f>R77/(R71/10)</f>
+        <v>155.56051285921271</v>
+      </c>
+      <c r="S81" s="43">
         <f>S77/(S71/10)</f>
-        <v>8.701568616066341</v>
-      </c>
-      <c r="T81" s="62">
-        <f t="shared" ref="S81:U81" si="56">T77/T71</f>
+        <v>87.015686160663421</v>
+      </c>
+      <c r="T81" s="43">
+        <f t="shared" ref="T81" si="99">T77/T71</f>
         <v>4.5227332229835326</v>
       </c>
-      <c r="U81" s="62">
+      <c r="U81" s="43">
         <f>U77/U71</f>
         <v>3.9340025441642301</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R82" s="43">
+        <f t="shared" ref="R82:T82" si="100">R78/SUM(O6:R6)</f>
+        <v>37.553389260126508</v>
+      </c>
+      <c r="S82" s="43">
+        <f t="shared" si="100"/>
+        <v>17.64818676432078</v>
+      </c>
+      <c r="T82" s="43">
+        <f t="shared" si="100"/>
+        <v>7.8811871012403909</v>
+      </c>
+      <c r="U82" s="43">
+        <f>U78/SUM(R6:U6)</f>
+        <v>6.5202864469437998</v>
+      </c>
+    </row>
+    <row r="83" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R83" s="43">
+        <f t="shared" ref="R83:T83" si="101">R79/SUM(O6:R6)</f>
+        <v>36.066541015081562</v>
+      </c>
+      <c r="S83" s="43">
+        <f t="shared" si="101"/>
+        <v>16.335702509637791</v>
+      </c>
+      <c r="T83" s="43">
+        <f t="shared" si="101"/>
+        <v>6.673248191306258</v>
+      </c>
+      <c r="U83" s="43">
+        <f>U79/SUM(R6:U6)</f>
+        <v>5.752168786202243</v>
+      </c>
+    </row>
+    <row r="84" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R84" s="43">
+        <f>R77/SUM(O21:R21)</f>
+        <v>58.618024126380732</v>
+      </c>
+      <c r="S84" s="43">
+        <f>S77/SUM(P21:S21)</f>
+        <v>425.97888353217269</v>
+      </c>
+      <c r="T84" s="43">
+        <f>T77/SUM(Q21:T21)</f>
+        <v>-4.8620155305341894</v>
+      </c>
+      <c r="U84" s="43">
+        <f>U77/SUM(R21:U21)</f>
+        <v>-1.7123991298146535</v>
+      </c>
+      <c r="AB84" s="43">
+        <f>AB77/AB21</f>
+        <v>59.42061269591057</v>
+      </c>
+    </row>
+    <row r="85" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R85" s="43">
+        <f t="shared" ref="R85:T85" si="102">R79/SUM(O20:R20)</f>
+        <v>57.067977276123884</v>
+      </c>
+      <c r="S85" s="43">
+        <f t="shared" si="102"/>
+        <v>433.7023619462492</v>
+      </c>
+      <c r="T85" s="43">
+        <f t="shared" si="102"/>
+        <v>-17.558750140490666</v>
+      </c>
+      <c r="U85" s="43">
+        <f>U79/SUM(R20:U20)</f>
+        <v>-9.4043885395390046</v>
+      </c>
+    </row>
+    <row r="86" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B88" s="53" t="s">
+    <row r="88" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="B88" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
         <v>100</v>
       </c>
@@ -4129,10 +6049,10 @@
       <c r="N91" s="2">
         <v>0</v>
       </c>
-      <c r="O91" s="48">
+      <c r="O91" s="32">
         <v>135.68299999999999</v>
       </c>
-      <c r="P91" s="64">
+      <c r="P91" s="45">
         <f>202.104-O91</f>
         <v>66.421000000000021</v>
       </c>
@@ -4142,278 +6062,300 @@
       <c r="R91" s="2">
         <v>0</v>
       </c>
-      <c r="S91" s="48">
+      <c r="S91" s="32">
         <v>-53.56</v>
       </c>
-      <c r="T91" s="64">
+      <c r="T91" s="45">
         <f>-177.727-S91</f>
         <v>-124.167</v>
       </c>
       <c r="U91" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="O92" s="49"/>
-      <c r="S92" s="49"/>
-      <c r="T92" s="49"/>
-    </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="AC91" s="68"/>
+      <c r="AD91" s="74"/>
+      <c r="AE91" s="74"/>
+      <c r="AF91" s="74"/>
+      <c r="AG91" s="74"/>
+      <c r="AH91" s="74"/>
+      <c r="AI91" s="74"/>
+      <c r="AJ91" s="74"/>
+      <c r="AK91" s="74"/>
+      <c r="AL91" s="74"/>
+      <c r="AM91" s="74"/>
+    </row>
+    <row r="92" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="O92" s="33"/>
+      <c r="S92" s="33"/>
+      <c r="T92" s="33"/>
+    </row>
+    <row r="93" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O93" s="49">
+      <c r="O93" s="33">
         <v>-2444.9549999999999</v>
       </c>
-      <c r="P93" s="49">
+      <c r="P93" s="33">
         <f>-4149.857-O93</f>
         <v>-1704.902</v>
       </c>
-      <c r="S93" s="49">
+      <c r="S93" s="33">
         <v>-1463.7049999999999</v>
       </c>
-      <c r="T93" s="49">
+      <c r="T93" s="33">
         <f>-2033.09-S93</f>
         <v>-569.38499999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O94" s="49">
+      <c r="O94" s="33">
         <v>1038.316</v>
       </c>
-      <c r="P94" s="49">
+      <c r="P94" s="33">
         <f>2437.951-O94</f>
         <v>1399.635</v>
       </c>
-      <c r="S94" s="49">
+      <c r="S94" s="33">
         <v>1929.395</v>
       </c>
-      <c r="T94" s="49">
+      <c r="T94" s="33">
         <f>3689.564-S94</f>
         <v>1760.1689999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O95" s="49">
+      <c r="O95" s="33">
         <v>-206.55199999999999</v>
       </c>
-      <c r="P95" s="49">
+      <c r="P95" s="33">
         <f>-401.874-O95</f>
         <v>-195.32200000000003</v>
       </c>
-      <c r="S95" s="49">
+      <c r="S95" s="33">
         <v>453.94499999999999</v>
       </c>
-      <c r="T95" s="49">
+      <c r="T95" s="33">
         <f>569.649-S95</f>
         <v>115.70400000000001</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O96" s="49">
+      <c r="O96" s="33">
         <v>5.1879999999999997</v>
       </c>
-      <c r="P96" s="49">
+      <c r="P96" s="33">
         <f>-13.451+O96</f>
         <v>-8.2630000000000017</v>
       </c>
-      <c r="S96" s="49">
+      <c r="S96" s="33">
         <v>15.94</v>
       </c>
-      <c r="T96" s="49">
+      <c r="T96" s="33">
         <f>28.489-S96</f>
         <v>12.549000000000001</v>
       </c>
-      <c r="W96" s="49"/>
-    </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="33"/>
+    </row>
+    <row r="97" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O97" s="49">
-        <v>0</v>
-      </c>
-      <c r="P97" s="49">
-        <v>0</v>
-      </c>
-      <c r="S97" s="49">
-        <v>0</v>
-      </c>
-      <c r="T97" s="49">
+      <c r="O97" s="33">
+        <v>0</v>
+      </c>
+      <c r="P97" s="33">
+        <v>0</v>
+      </c>
+      <c r="S97" s="33">
+        <v>0</v>
+      </c>
+      <c r="T97" s="33">
         <v>30.007999999999999</v>
       </c>
-      <c r="V97" s="49"/>
-    </row>
-    <row r="98" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V97" s="33"/>
+    </row>
+    <row r="98" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C98" s="2">
-        <f t="shared" ref="C98:T98" si="57">SUM(C93:C97)</f>
+        <f t="shared" ref="C98:T98" si="103">SUM(C93:C97)</f>
         <v>0</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="O98" s="48">
-        <f t="shared" si="57"/>
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="32">
+        <f t="shared" si="103"/>
         <v>-1608.0029999999997</v>
       </c>
-      <c r="P98" s="48">
-        <f t="shared" si="57"/>
+      <c r="P98" s="32">
+        <f t="shared" si="103"/>
         <v>-508.85200000000003</v>
       </c>
       <c r="Q98" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="R98" s="2">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="S98" s="48">
-        <f t="shared" si="57"/>
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="S98" s="32">
+        <f t="shared" si="103"/>
         <v>935.57500000000005</v>
       </c>
-      <c r="T98" s="48">
-        <f t="shared" si="57"/>
+      <c r="T98" s="32">
+        <f t="shared" si="103"/>
         <v>1349.0449999999998</v>
       </c>
       <c r="U98" s="2">
         <f>SUM(U93:U97)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="O99" s="49"/>
-      <c r="P99" s="49"/>
-      <c r="S99" s="49"/>
-      <c r="T99" s="49"/>
-    </row>
-    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="AC98" s="68"/>
+      <c r="AD98" s="74"/>
+      <c r="AE98" s="74"/>
+      <c r="AF98" s="74"/>
+      <c r="AG98" s="74"/>
+      <c r="AH98" s="74"/>
+      <c r="AI98" s="74"/>
+      <c r="AJ98" s="74"/>
+      <c r="AK98" s="74"/>
+      <c r="AL98" s="74"/>
+      <c r="AM98" s="74"/>
+    </row>
+    <row r="99" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="S99" s="33"/>
+      <c r="T99" s="33"/>
+    </row>
+    <row r="100" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" ref="C100:U100" si="58">C96+C97</f>
+        <f t="shared" ref="C100:T100" si="104">C96+C97</f>
         <v>0</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="J100" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="L100" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="O100" s="49">
-        <f t="shared" si="58"/>
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="33">
+        <f t="shared" si="104"/>
         <v>5.1879999999999997</v>
       </c>
-      <c r="P100" s="49">
-        <f t="shared" si="58"/>
+      <c r="P100" s="33">
+        <f t="shared" si="104"/>
         <v>-8.2630000000000017</v>
       </c>
       <c r="Q100" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="S100" s="49">
-        <f t="shared" si="58"/>
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="S100" s="33">
+        <f t="shared" si="104"/>
         <v>15.94</v>
       </c>
-      <c r="T100" s="49">
-        <f t="shared" si="58"/>
+      <c r="T100" s="33">
+        <f t="shared" si="104"/>
         <v>42.557000000000002</v>
       </c>
       <c r="U100" s="1">
@@ -4421,101 +6363,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="O101" s="49"/>
-      <c r="P101" s="49"/>
-      <c r="S101" s="49"/>
-      <c r="T101" s="49"/>
-    </row>
-    <row r="102" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="O101" s="33"/>
+      <c r="P101" s="33"/>
+      <c r="S101" s="33"/>
+      <c r="T101" s="33"/>
+    </row>
+    <row r="102" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="48">
-        <f t="shared" ref="C102:S102" si="59">C100-C91</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="48">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="48">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="F102" s="48">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="48">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="48">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="I102" s="48">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="48">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="K102" s="48">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="L102" s="48">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="M102" s="48">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="N102" s="48">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="O102" s="48">
-        <f t="shared" si="59"/>
+      <c r="C102" s="32">
+        <f t="shared" ref="C102:R102" si="105">C100-C91</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="O102" s="32">
+        <f t="shared" si="105"/>
         <v>-130.495</v>
       </c>
-      <c r="P102" s="48">
-        <f t="shared" si="59"/>
+      <c r="P102" s="32">
+        <f t="shared" si="105"/>
         <v>-74.684000000000026</v>
       </c>
-      <c r="Q102" s="48">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="R102" s="48">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="S102" s="48">
+      <c r="Q102" s="32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="R102" s="32">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="S102" s="32">
         <f>S100-S91</f>
         <v>69.5</v>
       </c>
-      <c r="T102" s="48">
-        <f t="shared" ref="T102:U102" si="60">T100-T91</f>
+      <c r="T102" s="32">
+        <f t="shared" ref="T102:U102" si="106">T100-T91</f>
         <v>166.72399999999999</v>
       </c>
-      <c r="U102" s="48">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
+      <c r="U102" s="32">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="AC102" s="68"/>
+      <c r="AD102" s="74"/>
+      <c r="AE102" s="74"/>
+      <c r="AF102" s="74"/>
+      <c r="AG102" s="74"/>
+      <c r="AH102" s="74"/>
+      <c r="AI102" s="74"/>
+      <c r="AJ102" s="74"/>
+      <c r="AK102" s="74"/>
+      <c r="AL102" s="74"/>
+      <c r="AM102" s="74"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U1" r:id="rId1" xr:uid="{230A06CC-0E7F-450B-8B83-E730E533289E}"/>
     <hyperlink ref="T1" r:id="rId2" xr:uid="{335B983C-A4C2-42BB-8F6F-7630B3853F22}"/>
     <hyperlink ref="S1" r:id="rId3" xr:uid="{885FA998-5ED9-44A3-A0F1-8874199F4566}"/>
+    <hyperlink ref="R1" r:id="rId4" xr:uid="{10D4EEA5-9810-034E-8889-73BE2548332A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
+  <ignoredErrors>
+    <ignoredError sqref="AB19 V17 V14" formulaRange="1"/>
+    <ignoredError sqref="AB4:AB18" formula="1" formulaRange="1"/>
+    <ignoredError sqref="AB2:AB3 AC10 AC18" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/$SHOP.xlsx
+++ b/$SHOP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F91B51C-C789-8445-8A95-FBFB98FEEAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660C8663-CE3D-40B4-8B4E-55D276CBEE1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20700" windowHeight="18900" activeTab="1" xr2:uid="{DD3A8C14-BBF5-4F78-B1B7-C8887875BE33}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="20700" windowHeight="18900" activeTab="1" xr2:uid="{DD3A8C14-BBF5-4F78-B1B7-C8887875BE33}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -862,46 +852,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -937,6 +887,46 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1430,53 +1420,53 @@
   <dimension ref="A2:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:D37"/>
+      <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="50" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="G5" s="50" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="G5" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="52"/>
-      <c r="T5" s="53" t="s">
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="T5" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1503,7 +1493,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1524,7 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1552,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1593,7 +1583,7 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1622,7 +1612,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1651,7 +1641,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1683,7 +1673,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G13" s="12"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1703,7 +1693,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G14" s="12"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1721,12 +1711,12 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B15" s="50" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
       <c r="G15" s="12"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1744,17 +1734,17 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="79"/>
       <c r="G16" s="12"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1772,14 +1762,14 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="79"/>
       <c r="G17" s="12"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1792,14 +1782,14 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="59"/>
+      <c r="D18" s="79"/>
       <c r="G18" s="12"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1812,14 +1802,14 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="61"/>
+      <c r="D19" s="74"/>
       <c r="G19" s="12"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1832,7 +1822,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G20" s="12"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1845,7 +1835,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G21" s="12"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1858,12 +1848,12 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="50" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
       <c r="G22" s="12"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1876,14 +1866,14 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="79"/>
       <c r="G23" s="12"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1896,14 +1886,14 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C24" s="78">
         <v>2004</v>
       </c>
-      <c r="D24" s="59"/>
+      <c r="D24" s="79"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1916,14 +1906,14 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="78">
         <v>2015</v>
       </c>
-      <c r="D25" s="59"/>
+      <c r="D25" s="79"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1936,10 +1926,10 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
       <c r="G26" s="12"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1952,10 +1942,10 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
       <c r="G27" s="12"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1968,7 +1958,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
         <v>19</v>
       </c>
@@ -1991,14 +1981,14 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="55"/>
+      <c r="D29" s="86"/>
       <c r="G29" s="13"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -2011,78 +2001,72 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B32" s="50" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="80">
         <f>C6/'Financial Model'!U71</f>
         <v>7.729278198315245</v>
       </c>
-      <c r="D33" s="57"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D33" s="81"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="80">
         <f>C8/SUM('Financial Model'!R6:U6)</f>
         <v>12.810644455706582</v>
       </c>
-      <c r="D34" s="57"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D34" s="81"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="80">
         <f>C12/SUM('Financial Model'!R6:U6)</f>
         <v>12.042526794965024</v>
       </c>
-      <c r="D35" s="57"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D35" s="81"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="80">
         <f>C6/SUM('Financial Model'!R21:U21)</f>
         <v>-3.3644129896469788</v>
       </c>
-      <c r="D36" s="57"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D36" s="81"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="80">
         <f>C12/SUM('Financial Model'!R20:U20)</f>
         <v>-19.688678338041829</v>
       </c>
-      <c r="D37" s="57"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D37" s="81"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -2099,6 +2083,12 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{2A54B12F-EBE0-4DCB-A8AD-3BBE3B84923D}"/>
@@ -2114,26 +2104,26 @@
   <dimension ref="B1:CI102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X20" sqref="X20"/>
+      <selection pane="bottomRight" activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="28" width="9.1640625" style="1"/>
-    <col min="29" max="29" width="9.1640625" style="64"/>
-    <col min="30" max="39" width="9.1640625" style="28"/>
-    <col min="40" max="40" width="9.1640625" style="1"/>
-    <col min="41" max="41" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="9.140625" style="48"/>
+    <col min="30" max="39" width="9.140625" style="28"/>
+    <col min="40" max="40" width="9.140625" style="1"/>
+    <col min="41" max="41" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
         <v>29</v>
       </c>
@@ -2164,7 +2154,7 @@
       <c r="L1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="24" t="s">
         <v>39</v>
       </c>
       <c r="N1" s="21" t="s">
@@ -2203,45 +2193,51 @@
       <c r="AA1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="65" t="s">
+      <c r="AC1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="70" t="s">
+      <c r="AD1" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="70" t="s">
+      <c r="AE1" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="70" t="s">
+      <c r="AF1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="70" t="s">
+      <c r="AG1" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="70" t="s">
+      <c r="AH1" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="70" t="s">
+      <c r="AI1" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" s="70" t="s">
+      <c r="AJ1" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" s="70" t="s">
+      <c r="AK1" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" s="70" t="s">
+      <c r="AL1" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="AM1" s="70" t="s">
+      <c r="AM1" s="54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="22"/>
+      <c r="I2" s="26">
+        <v>43738</v>
+      </c>
+      <c r="M2" s="26">
+        <v>44104</v>
+      </c>
       <c r="N2" s="26">
         <v>44196</v>
       </c>
@@ -2270,20 +2266,23 @@
         <f>R2</f>
         <v>44561</v>
       </c>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-    </row>
-    <row r="3" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+    </row>
+    <row r="3" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
+      <c r="M3" s="25">
+        <v>47392</v>
+      </c>
       <c r="R3" s="25">
         <v>42401</v>
       </c>
@@ -2300,21 +2299,27 @@
         <f>R3</f>
         <v>42401</v>
       </c>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-    </row>
-    <row r="4" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+    </row>
+    <row r="4" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>71</v>
+      </c>
+      <c r="I4" s="31">
+        <v>165.577</v>
+      </c>
+      <c r="M4" s="31">
+        <v>245.274</v>
       </c>
       <c r="N4" s="31">
         <v>279.44</v>
@@ -2344,11 +2349,17 @@
         <f>SUM(O4:R4)</f>
         <v>1342.3340000000001</v>
       </c>
-      <c r="AC4" s="62"/>
-    </row>
-    <row r="5" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AC4" s="46"/>
+    </row>
+    <row r="5" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>72</v>
+      </c>
+      <c r="I5" s="31">
+        <v>224.97499999999999</v>
+      </c>
+      <c r="M5" s="31">
+        <v>522.13099999999997</v>
       </c>
       <c r="N5" s="31">
         <v>698.30399999999997</v>
@@ -2378,9 +2389,9 @@
         <f t="shared" ref="AB5:AB8" si="0">SUM(O5:R5)</f>
         <v>3269.5219999999999</v>
       </c>
-      <c r="AC5" s="62"/>
-    </row>
-    <row r="6" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AC5" s="46"/>
+    </row>
+    <row r="6" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
         <v>73</v>
       </c>
@@ -2410,7 +2421,7 @@
       </c>
       <c r="I6" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>390.55200000000002</v>
       </c>
       <c r="J6" s="32">
         <f t="shared" si="1"/>
@@ -2426,7 +2437,7 @@
       </c>
       <c r="M6" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>767.40499999999997</v>
       </c>
       <c r="N6" s="32">
         <f t="shared" si="1"/>
@@ -2471,54 +2482,60 @@
         <f>AB4+AB5</f>
         <v>4611.8559999999998</v>
       </c>
-      <c r="AC6" s="67">
+      <c r="AC6" s="51">
         <f>SUM(S6:V6)</f>
         <v>5572.6360000000004</v>
       </c>
-      <c r="AD6" s="72">
+      <c r="AD6" s="56">
         <f>AC6*(1+AD24)</f>
         <v>7244.4268000000011</v>
       </c>
-      <c r="AE6" s="72">
+      <c r="AE6" s="56">
         <f t="shared" ref="AE6:AM6" si="2">AD6*(1+AE24)</f>
         <v>10142.197520000002</v>
       </c>
-      <c r="AF6" s="72">
+      <c r="AF6" s="56">
         <f t="shared" si="2"/>
         <v>15213.296280000002</v>
       </c>
-      <c r="AG6" s="72">
+      <c r="AG6" s="56">
         <f t="shared" si="2"/>
         <v>22059.279606000004</v>
       </c>
-      <c r="AH6" s="72">
+      <c r="AH6" s="56">
         <f t="shared" si="2"/>
         <v>30882.991448400004</v>
       </c>
-      <c r="AI6" s="72">
+      <c r="AI6" s="56">
         <f t="shared" si="2"/>
         <v>40147.888882920008</v>
       </c>
-      <c r="AJ6" s="72">
+      <c r="AJ6" s="56">
         <f t="shared" si="2"/>
         <v>48177.466659504011</v>
       </c>
-      <c r="AK6" s="72">
+      <c r="AK6" s="56">
         <f t="shared" si="2"/>
         <v>56849.410658214729</v>
       </c>
-      <c r="AL6" s="72">
+      <c r="AL6" s="56">
         <f t="shared" si="2"/>
         <v>64239.834043782641</v>
       </c>
-      <c r="AM6" s="72">
+      <c r="AM6" s="56">
         <f t="shared" si="2"/>
         <v>69379.020767285256</v>
       </c>
     </row>
-    <row r="7" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
         <v>74</v>
+      </c>
+      <c r="I7" s="31">
+        <v>33.262999999999998</v>
+      </c>
+      <c r="M7" s="31">
+        <v>52.17</v>
       </c>
       <c r="N7" s="31">
         <v>59.25</v>
@@ -2548,11 +2565,17 @@
         <f t="shared" si="0"/>
         <v>264.351</v>
       </c>
-      <c r="AC7" s="62"/>
-    </row>
-    <row r="8" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AC7" s="46"/>
+    </row>
+    <row r="8" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
         <v>75</v>
+      </c>
+      <c r="I8" s="31">
+        <v>140.59299999999999</v>
+      </c>
+      <c r="M8" s="31">
+        <v>310.08699999999999</v>
       </c>
       <c r="N8" s="31">
         <v>414.10599999999999</v>
@@ -2582,9 +2605,9 @@
         <f t="shared" si="0"/>
         <v>1866.3610000000001</v>
       </c>
-      <c r="AC8" s="62"/>
-    </row>
-    <row r="9" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AC8" s="46"/>
+    </row>
+    <row r="9" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
         <v>76</v>
       </c>
@@ -2614,7 +2637,7 @@
       </c>
       <c r="I9" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>173.85599999999999</v>
       </c>
       <c r="J9" s="33">
         <f t="shared" si="3"/>
@@ -2630,7 +2653,7 @@
       </c>
       <c r="M9" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>362.25700000000001</v>
       </c>
       <c r="N9" s="33">
         <f t="shared" si="3"/>
@@ -2677,7 +2700,7 @@
         <f>AB7+AB8</f>
         <v>2130.712</v>
       </c>
-      <c r="AC9" s="62">
+      <c r="AC9" s="46">
         <f>SUM(S9:V9)</f>
         <v>2763.15</v>
       </c>
@@ -2722,7 +2745,7 @@
         <v>31220.559345278361</v>
       </c>
     </row>
-    <row r="10" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>77</v>
       </c>
@@ -2752,7 +2775,7 @@
       </c>
       <c r="I10" s="32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>216.69600000000003</v>
       </c>
       <c r="J10" s="32">
         <f t="shared" si="5"/>
@@ -2768,7 +2791,7 @@
       </c>
       <c r="M10" s="32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>405.14799999999997</v>
       </c>
       <c r="N10" s="32">
         <f t="shared" si="5"/>
@@ -2814,54 +2837,60 @@
         <f>AB6-AB9</f>
         <v>2481.1439999999998</v>
       </c>
-      <c r="AC10" s="67">
+      <c r="AC10" s="51">
         <f>AC6-AC9</f>
         <v>2809.4860000000003</v>
       </c>
-      <c r="AD10" s="72">
+      <c r="AD10" s="56">
         <f>AD6-AD9</f>
         <v>3767.1019360000005</v>
       </c>
-      <c r="AE10" s="72">
+      <c r="AE10" s="56">
         <f t="shared" ref="AE10:AM10" si="6">AE6-AE9</f>
         <v>5172.5207352000007</v>
       </c>
-      <c r="AF10" s="72">
+      <c r="AF10" s="56">
         <f t="shared" si="6"/>
         <v>7758.7811028000015</v>
       </c>
-      <c r="AG10" s="72">
+      <c r="AG10" s="56">
         <f t="shared" si="6"/>
         <v>11470.825395120002</v>
       </c>
-      <c r="AH10" s="72">
+      <c r="AH10" s="56">
         <f t="shared" si="6"/>
         <v>16367.985467652003</v>
       </c>
-      <c r="AI10" s="72">
+      <c r="AI10" s="56">
         <f t="shared" si="6"/>
         <v>22081.338885606005</v>
       </c>
-      <c r="AJ10" s="72">
+      <c r="AJ10" s="56">
         <f t="shared" si="6"/>
         <v>26497.606662727208</v>
       </c>
-      <c r="AK10" s="72">
+      <c r="AK10" s="56">
         <f t="shared" si="6"/>
         <v>31267.175862018103</v>
       </c>
-      <c r="AL10" s="72">
+      <c r="AL10" s="56">
         <f t="shared" si="6"/>
         <v>35331.908724080451</v>
       </c>
-      <c r="AM10" s="72">
+      <c r="AM10" s="56">
         <f t="shared" si="6"/>
         <v>38158.461422006891</v>
       </c>
     </row>
-    <row r="11" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>78</v>
+      </c>
+      <c r="I11" s="33">
+        <v>116.54600000000001</v>
+      </c>
+      <c r="M11" s="33">
+        <v>147.608</v>
       </c>
       <c r="N11" s="33">
         <v>154.72800000000001</v>
@@ -2898,7 +2927,7 @@
         <f>SUM(O11:R11)</f>
         <v>901.55700000000013</v>
       </c>
-      <c r="AC11" s="62">
+      <c r="AC11" s="46">
         <f>SUM(S11:V11)</f>
         <v>1325.5315000000001</v>
       </c>
@@ -2911,7 +2940,7 @@
         <v>1521.3296280000002</v>
       </c>
       <c r="AF11" s="33">
-        <f t="shared" ref="AF11:AM11" si="7">AF6*0.15</f>
+        <f t="shared" ref="AF11:AG11" si="7">AF6*0.15</f>
         <v>2281.9944420000002</v>
       </c>
       <c r="AG11" s="33">
@@ -2943,9 +2972,15 @@
         <v>6937.9020767285256</v>
       </c>
     </row>
-    <row r="12" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
         <v>79</v>
+      </c>
+      <c r="I12" s="33">
+        <v>90.387</v>
+      </c>
+      <c r="M12" s="33">
+        <v>143.42699999999999</v>
       </c>
       <c r="N12" s="33">
         <v>159.077</v>
@@ -2979,7 +3014,7 @@
         <f t="shared" ref="AB12:AB14" si="9">SUM(O12:R12)</f>
         <v>854.38300000000004</v>
       </c>
-      <c r="AC12" s="62">
+      <c r="AC12" s="46">
         <f t="shared" ref="AC12:AC19" si="10">SUM(S12:V12)</f>
         <v>1575.0119999999997</v>
       </c>
@@ -3024,9 +3059,15 @@
         <v>10406.853115092788</v>
       </c>
     </row>
-    <row r="13" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33" t="s">
         <v>80</v>
+      </c>
+      <c r="I13" s="33">
+        <v>38.021999999999998</v>
+      </c>
+      <c r="M13" s="33">
+        <v>51.798999999999999</v>
       </c>
       <c r="N13" s="33">
         <v>65.394999999999996</v>
@@ -3063,7 +3104,7 @@
         <f t="shared" si="9"/>
         <v>374.84399999999994</v>
       </c>
-      <c r="AC13" s="62">
+      <c r="AC13" s="46">
         <f t="shared" si="10"/>
         <v>817.58650000000011</v>
       </c>
@@ -3108,9 +3149,15 @@
         <v>15610.279672639183</v>
       </c>
     </row>
-    <row r="14" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="33" t="s">
         <v>81</v>
+      </c>
+      <c r="I14" s="33">
+        <v>7.399</v>
+      </c>
+      <c r="M14" s="33">
+        <v>11.753</v>
       </c>
       <c r="N14" s="33">
         <v>12.647</v>
@@ -3144,7 +3191,7 @@
         <f t="shared" si="9"/>
         <v>81.716999999999999</v>
       </c>
-      <c r="AC14" s="62">
+      <c r="AC14" s="46">
         <f t="shared" si="10"/>
         <v>131.35820000000001</v>
       </c>
@@ -3189,7 +3236,7 @@
         <v>108.59631984640001</v>
       </c>
     </row>
-    <row r="15" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="33" t="s">
         <v>82</v>
       </c>
@@ -3219,7 +3266,7 @@
       </c>
       <c r="I15" s="33">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>252.35399999999998</v>
       </c>
       <c r="J15" s="33">
         <f t="shared" si="14"/>
@@ -3235,7 +3282,7 @@
       </c>
       <c r="M15" s="33">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>354.58699999999993</v>
       </c>
       <c r="N15" s="33">
         <f t="shared" si="14"/>
@@ -3277,7 +3324,7 @@
         <f>SUM(AB11:AB14)</f>
         <v>2212.5010000000002</v>
       </c>
-      <c r="AC15" s="62">
+      <c r="AC15" s="46">
         <f>SUM(AC11:AC14)</f>
         <v>3849.4882000000002</v>
       </c>
@@ -3322,7 +3369,7 @@
         <v>33063.631184306898</v>
       </c>
     </row>
-    <row r="16" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>83</v>
       </c>
@@ -3352,7 +3399,7 @@
       </c>
       <c r="I16" s="32">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-35.657999999999959</v>
       </c>
       <c r="J16" s="32">
         <f t="shared" si="17"/>
@@ -3368,7 +3415,7 @@
       </c>
       <c r="M16" s="32">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>50.561000000000035</v>
       </c>
       <c r="N16" s="32">
         <f t="shared" si="17"/>
@@ -3410,54 +3457,60 @@
         <f>AB10-AB15</f>
         <v>268.64299999999957</v>
       </c>
-      <c r="AC16" s="67">
+      <c r="AC16" s="51">
         <f>AC10-AC15</f>
         <v>-1040.0021999999999</v>
       </c>
-      <c r="AD16" s="72">
+      <c r="AD16" s="56">
         <f t="shared" ref="AD16:AM16" si="19">AD10-AD15</f>
         <v>-1482.9786919999992</v>
       </c>
-      <c r="AE16" s="72">
+      <c r="AE16" s="56">
         <f t="shared" si="19"/>
         <v>-1323.6013023999994</v>
       </c>
-      <c r="AF16" s="72">
+      <c r="AF16" s="56">
         <f t="shared" si="19"/>
         <v>-791.13593260000016</v>
       </c>
-      <c r="AG16" s="72">
+      <c r="AG16" s="56">
         <f t="shared" si="19"/>
         <v>-878.61238620999939</v>
       </c>
-      <c r="AH16" s="72">
+      <c r="AH16" s="56">
         <f t="shared" si="19"/>
         <v>660.57306621000134</v>
       </c>
-      <c r="AI16" s="72">
+      <c r="AI16" s="56">
         <f t="shared" si="19"/>
         <v>2903.5612422189988</v>
       </c>
-      <c r="AJ16" s="72">
+      <c r="AJ16" s="56">
         <f t="shared" si="19"/>
         <v>3505.5810106628014</v>
       </c>
-      <c r="AK16" s="72">
+      <c r="AK16" s="56">
         <f t="shared" si="19"/>
         <v>4155.7385328061027</v>
       </c>
-      <c r="AL16" s="72">
+      <c r="AL16" s="56">
         <f t="shared" si="19"/>
         <v>4709.7343534116953</v>
       </c>
-      <c r="AM16" s="72">
+      <c r="AM16" s="56">
         <f t="shared" si="19"/>
         <v>5094.8302376999927</v>
       </c>
     </row>
-    <row r="17" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
         <v>84</v>
+      </c>
+      <c r="I17" s="33">
+        <v>11.212</v>
+      </c>
+      <c r="M17" s="33">
+        <v>135.80600000000001</v>
       </c>
       <c r="N17" s="33">
         <v>-2.7879999999999998</v>
@@ -3491,7 +3544,7 @@
         <f t="shared" ref="AB17" si="20">SUM(O17:R17)</f>
         <v>2871.9490000000001</v>
       </c>
-      <c r="AC17" s="62">
+      <c r="AC17" s="46">
         <f t="shared" si="10"/>
         <v>-3094.1432500000001</v>
       </c>
@@ -3536,7 +3589,7 @@
         <v>-358.52290279200008</v>
       </c>
     </row>
-    <row r="18" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>85</v>
       </c>
@@ -3566,7 +3619,7 @@
       </c>
       <c r="I18" s="33">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-24.445999999999959</v>
       </c>
       <c r="J18" s="33">
         <f t="shared" si="22"/>
@@ -3582,7 +3635,7 @@
       </c>
       <c r="M18" s="33">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>186.36700000000005</v>
       </c>
       <c r="N18" s="33">
         <f t="shared" si="22"/>
@@ -3624,7 +3677,7 @@
         <f>AB16+AB17</f>
         <v>3140.5919999999996</v>
       </c>
-      <c r="AC18" s="62">
+      <c r="AC18" s="46">
         <f>AC16+AC17</f>
         <v>-4134.14545</v>
       </c>
@@ -3669,9 +3722,15 @@
         <v>4736.3073349079923</v>
       </c>
     </row>
-    <row r="19" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
         <v>86</v>
+      </c>
+      <c r="I19" s="33">
+        <v>48.338000000000001</v>
+      </c>
+      <c r="M19" s="33">
+        <v>-4.7009999999999996</v>
       </c>
       <c r="N19" s="33">
         <v>-14.119</v>
@@ -3705,7 +3764,7 @@
         <f t="shared" ref="AB19" si="25">SUM(O19:R19)</f>
         <v>225.93299999999999</v>
       </c>
-      <c r="AC19" s="62">
+      <c r="AC19" s="46">
         <f t="shared" si="10"/>
         <v>-452.9923624999999</v>
       </c>
@@ -3750,7 +3809,7 @@
         <v>710.44610023619884</v>
       </c>
     </row>
-    <row r="20" spans="2:87" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:87" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>87</v>
       </c>
@@ -3780,7 +3839,7 @@
       </c>
       <c r="I20" s="32">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-72.783999999999963</v>
       </c>
       <c r="J20" s="32">
         <f t="shared" si="27"/>
@@ -3796,7 +3855,7 @@
       </c>
       <c r="M20" s="32">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>191.06800000000004</v>
       </c>
       <c r="N20" s="32">
         <f t="shared" si="27"/>
@@ -3838,47 +3897,47 @@
         <f>AB18-AB19</f>
         <v>2914.6589999999997</v>
       </c>
-      <c r="AC20" s="67">
+      <c r="AC20" s="51">
         <f>AC18-AC19</f>
         <v>-3681.1530874999999</v>
       </c>
-      <c r="AD20" s="72">
+      <c r="AD20" s="56">
         <f t="shared" ref="AD20:AM20" si="29">AD18-AD19</f>
         <v>-1195.5568627499995</v>
       </c>
-      <c r="AE20" s="72">
+      <c r="AE20" s="56">
         <f t="shared" si="29"/>
         <v>-1147.7587419199995</v>
       </c>
-      <c r="AF20" s="72">
+      <c r="AF20" s="56">
         <f t="shared" si="29"/>
         <v>-739.83110723200014</v>
       </c>
-      <c r="AG20" s="72">
+      <c r="AG20" s="56">
         <f t="shared" si="29"/>
         <v>-811.56179919219949</v>
       </c>
-      <c r="AH20" s="72">
+      <c r="AH20" s="56">
         <f t="shared" si="29"/>
         <v>-38.649292707799027</v>
       </c>
-      <c r="AI20" s="72">
+      <c r="AI20" s="56">
         <f t="shared" si="29"/>
         <v>2272.1709313861488</v>
       </c>
-      <c r="AJ20" s="72">
+      <c r="AJ20" s="56">
         <f t="shared" si="29"/>
         <v>2763.603020913381</v>
       </c>
-      <c r="AK20" s="72">
+      <c r="AK20" s="56">
         <f t="shared" si="29"/>
         <v>3291.8952583551873</v>
       </c>
-      <c r="AL20" s="72">
+      <c r="AL20" s="56">
         <f t="shared" si="29"/>
         <v>3733.5817182139413</v>
       </c>
-      <c r="AM20" s="72">
+      <c r="AM20" s="56">
         <f t="shared" si="29"/>
         <v>4025.8612346717937</v>
       </c>
@@ -4075,44 +4134,52 @@
         <v>10415.186376349571</v>
       </c>
     </row>
-    <row r="21" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I21" s="36">
+        <f t="shared" ref="I21" si="31">I20/I22</f>
+        <v>-0.64361068850382475</v>
+      </c>
+      <c r="M21" s="36">
+        <f t="shared" ref="M21:P21" si="32">M20/M22</f>
+        <v>1.5854754556005637</v>
+      </c>
       <c r="N21" s="36">
-        <f t="shared" ref="N21:P21" si="31">N20/N22</f>
+        <f t="shared" si="32"/>
         <v>1.0138395664853699</v>
       </c>
       <c r="O21" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>10.211033185076877</v>
       </c>
       <c r="P21" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7.058293271184958</v>
       </c>
       <c r="Q21" s="36">
-        <f>Q20/Q22</f>
+        <f t="shared" ref="Q21:V21" si="33">Q20/Q22</f>
         <v>9.1822067160645613</v>
       </c>
       <c r="R21" s="29">
-        <f>R20/R22</f>
+        <f t="shared" si="33"/>
         <v>-2.9531293873360611</v>
       </c>
       <c r="S21" s="29">
-        <f>S20/S22</f>
+        <f t="shared" si="33"/>
         <v>-11.700437476856566</v>
       </c>
       <c r="T21" s="29">
-        <f>T20/T22</f>
+        <f t="shared" si="33"/>
         <v>-0.95395869419321089</v>
       </c>
       <c r="U21" s="29">
-        <f>U20/U22</f>
+        <f t="shared" si="33"/>
         <v>-0.12478797234804595</v>
       </c>
       <c r="V21" s="29">
-        <f>V20/V22</f>
+        <f t="shared" si="33"/>
         <v>-0.66520585080920691</v>
       </c>
       <c r="X21" s="33"/>
@@ -4120,52 +4187,52 @@
         <f>AB20/AB22</f>
         <v>23.181013077887648</v>
       </c>
-      <c r="AC21" s="75">
+      <c r="AC21" s="59">
         <f>AC20/AC22</f>
         <v>-2.8998581500538099</v>
       </c>
-      <c r="AD21" s="76">
+      <c r="AD21" s="60">
         <f>AD20/AD22</f>
         <v>-0.94180959875615344</v>
       </c>
-      <c r="AE21" s="76">
-        <f t="shared" ref="AE21:AM21" si="32">AE20/AE22</f>
+      <c r="AE21" s="60">
+        <f t="shared" ref="AE21:AM21" si="34">AE20/AE22</f>
         <v>-0.90415624206289358</v>
       </c>
-      <c r="AF21" s="76">
-        <f t="shared" si="32"/>
+      <c r="AF21" s="60">
+        <f t="shared" si="34"/>
         <v>-0.5828079449494098</v>
       </c>
-      <c r="AG21" s="76">
-        <f t="shared" si="32"/>
+      <c r="AG21" s="60">
+        <f t="shared" si="34"/>
         <v>-0.63931437832652571</v>
       </c>
-      <c r="AH21" s="76">
-        <f t="shared" si="32"/>
+      <c r="AH21" s="60">
+        <f t="shared" si="34"/>
         <v>-3.0446293264223368E-2</v>
       </c>
-      <c r="AI21" s="76">
-        <f t="shared" si="32"/>
+      <c r="AI21" s="60">
+        <f t="shared" si="34"/>
         <v>1.7899210483990717</v>
       </c>
-      <c r="AJ21" s="76">
-        <f t="shared" si="32"/>
+      <c r="AJ21" s="60">
+        <f t="shared" si="34"/>
         <v>2.177050655926843</v>
       </c>
-      <c r="AK21" s="76">
-        <f t="shared" si="32"/>
+      <c r="AK21" s="60">
+        <f t="shared" si="34"/>
         <v>2.5932171434217168</v>
       </c>
-      <c r="AL21" s="76">
-        <f t="shared" si="32"/>
+      <c r="AL21" s="60">
+        <f t="shared" si="34"/>
         <v>2.9411592284002248</v>
       </c>
-      <c r="AM21" s="76">
-        <f t="shared" si="32"/>
+      <c r="AM21" s="60">
+        <f t="shared" si="34"/>
         <v>3.1714047840040274</v>
       </c>
     </row>
-    <row r="22" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -4175,11 +4242,15 @@
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
+      <c r="I22" s="33">
+        <v>113.086997</v>
+      </c>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
+      <c r="M22" s="33">
+        <v>120.511484</v>
+      </c>
       <c r="N22" s="33">
         <v>122.181067</v>
       </c>
@@ -4215,7 +4286,7 @@
         <f>R22</f>
         <v>125.73475500000001</v>
       </c>
-      <c r="AC22" s="62">
+      <c r="AC22" s="46">
         <f>V22</f>
         <v>1269.4252260000001</v>
       </c>
@@ -4224,64 +4295,72 @@
         <v>1269.4252260000001</v>
       </c>
       <c r="AE22" s="31">
-        <f t="shared" ref="AE22:AM22" si="33">AD22</f>
+        <f t="shared" ref="AE22:AM22" si="35">AD22</f>
         <v>1269.4252260000001</v>
       </c>
       <c r="AF22" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1269.4252260000001</v>
       </c>
       <c r="AG22" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1269.4252260000001</v>
       </c>
       <c r="AH22" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1269.4252260000001</v>
       </c>
       <c r="AI22" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1269.4252260000001</v>
       </c>
       <c r="AJ22" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1269.4252260000001</v>
       </c>
       <c r="AK22" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1269.4252260000001</v>
       </c>
       <c r="AL22" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1269.4252260000001</v>
       </c>
       <c r="AM22" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1269.4252260000001</v>
       </c>
     </row>
-    <row r="23" spans="2:87" x14ac:dyDescent="0.15">
-      <c r="AO23" s="77" t="s">
+    <row r="23" spans="2:87" x14ac:dyDescent="0.2">
+      <c r="AO23" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="AP23" s="83">
+      <c r="AP23" s="67">
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="M24" s="34">
+        <f t="shared" ref="M24" si="36">M6/I6-1</f>
+        <v>0.96492400499805386</v>
+      </c>
+      <c r="Q24" s="34">
+        <f t="shared" ref="Q24" si="37">Q6/M6-1</f>
+        <v>0.46433760530619428</v>
+      </c>
       <c r="R24" s="34">
-        <f t="shared" ref="R24" si="34">R6/N6-1</f>
+        <f t="shared" ref="R24" si="38">R6/N6-1</f>
         <v>0.4114369405488556</v>
       </c>
       <c r="S24" s="34">
-        <f t="shared" ref="S24" si="35">S6/O6-1</f>
+        <f t="shared" ref="S24" si="39">S6/O6-1</f>
         <v>0.2174446491012465</v>
       </c>
       <c r="T24" s="34">
-        <f t="shared" ref="T24" si="36">T6/P6-1</f>
+        <f t="shared" ref="T24" si="40">T6/P6-1</f>
         <v>0.15687952512182401</v>
       </c>
       <c r="U24" s="34">
@@ -4296,61 +4375,69 @@
         <f>AB6/AA6-1</f>
         <v>0.57428577182862139</v>
       </c>
-      <c r="AC24" s="69">
+      <c r="AC24" s="53">
         <f>AC6/AB6-1</f>
         <v>0.2083282739096799</v>
       </c>
-      <c r="AD24" s="73">
+      <c r="AD24" s="57">
         <v>0.3</v>
       </c>
-      <c r="AE24" s="73">
+      <c r="AE24" s="57">
         <v>0.4</v>
       </c>
-      <c r="AF24" s="73">
+      <c r="AF24" s="57">
         <v>0.5</v>
       </c>
-      <c r="AG24" s="73">
+      <c r="AG24" s="57">
         <v>0.45</v>
       </c>
-      <c r="AH24" s="73">
+      <c r="AH24" s="57">
         <v>0.4</v>
       </c>
-      <c r="AI24" s="73">
+      <c r="AI24" s="57">
         <v>0.3</v>
       </c>
-      <c r="AJ24" s="73">
+      <c r="AJ24" s="57">
         <v>0.2</v>
       </c>
-      <c r="AK24" s="73">
+      <c r="AK24" s="57">
         <v>0.18</v>
       </c>
-      <c r="AL24" s="73">
+      <c r="AL24" s="57">
         <v>0.13</v>
       </c>
-      <c r="AM24" s="73">
+      <c r="AM24" s="57">
         <v>0.08</v>
       </c>
-      <c r="AO24" s="78" t="s">
+      <c r="AO24" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="AP24" s="80">
+      <c r="AP24" s="64">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B25" s="27" t="s">
         <v>90</v>
       </c>
+      <c r="M25" s="35">
+        <f t="shared" ref="M25:M26" si="41">M4/I4-1</f>
+        <v>0.48132892853476039</v>
+      </c>
+      <c r="Q25" s="35">
+        <f t="shared" ref="Q25:Q26" si="42">Q4/M4-1</f>
+        <v>0.37074455506902493</v>
+      </c>
       <c r="R25" s="35">
-        <f t="shared" ref="R25:R26" si="37">R4/N4-1</f>
+        <f t="shared" ref="R25:R26" si="43">R4/N4-1</f>
         <v>0.25682794159748079</v>
       </c>
       <c r="S25" s="35">
-        <f t="shared" ref="S25:S26" si="38">S4/O4-1</f>
+        <f t="shared" ref="S25:S26" si="44">S4/O4-1</f>
         <v>7.5090198670953567E-2</v>
       </c>
       <c r="T25" s="35">
-        <f t="shared" ref="T25:T26" si="39">T4/P4-1</f>
+        <f t="shared" ref="T25:T26" si="45">T4/P4-1</f>
         <v>9.6356776778154352E-2</v>
       </c>
       <c r="U25" s="35">
@@ -4358,28 +4445,36 @@
         <v>0.11925058297244551</v>
       </c>
       <c r="V25" s="35"/>
-      <c r="AO25" s="78" t="s">
+      <c r="AO25" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="AP25" s="84">
+      <c r="AP25" s="68">
         <f>NPV(AP24,AC20:CI20)</f>
         <v>37129.233000094056</v>
       </c>
     </row>
-    <row r="26" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B26" s="27" t="s">
         <v>91</v>
       </c>
+      <c r="M26" s="35">
+        <f t="shared" si="41"/>
+        <v>1.3208400933437048</v>
+      </c>
+      <c r="Q26" s="35">
+        <f t="shared" si="42"/>
+        <v>0.50830347173410528</v>
+      </c>
       <c r="R26" s="35">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>0.47330675465126948</v>
       </c>
       <c r="S26" s="35">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>0.28578700113478828</v>
       </c>
       <c r="T26" s="35">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0.18264205153284241</v>
       </c>
       <c r="U26" s="35">
@@ -4387,36 +4482,41 @@
         <v>0.25696352656146026</v>
       </c>
       <c r="V26" s="35"/>
-      <c r="AO26" s="78" t="s">
+      <c r="AO26" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="AP26" s="85">
+      <c r="AP26" s="69">
         <f>Main!C11</f>
         <v>4028.7079999999996</v>
       </c>
     </row>
-    <row r="27" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35">
+        <f t="shared" ref="N27" si="46">N6/M6-1</f>
+        <v>0.27409125559515513</v>
+      </c>
       <c r="O27" s="35">
-        <f t="shared" ref="O27:Q27" si="40">O6/N6-1</f>
+        <f t="shared" ref="M27:Q27" si="47">O6/N6-1</f>
         <v>1.1151180677150707E-2</v>
       </c>
       <c r="P27" s="35">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>0.13230000192181834</v>
       </c>
       <c r="Q27" s="35">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>3.8367226616762284E-3</v>
       </c>
       <c r="R27" s="35">
-        <f t="shared" ref="R27:S27" si="41">R6/Q6-1</f>
+        <f t="shared" ref="R27:S27" si="48">R6/Q6-1</f>
         <v>0.22806343104276805</v>
       </c>
       <c r="S27" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-0.12782458855788015</v>
       </c>
       <c r="T27" s="35">
@@ -4430,37 +4530,41 @@
       <c r="V27" s="35">
         <v>0.25</v>
       </c>
-      <c r="AO27" s="78" t="s">
+      <c r="AO27" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="AP27" s="84">
+      <c r="AP27" s="68">
         <f>AP25-AP26</f>
         <v>33100.525000094058</v>
       </c>
     </row>
-    <row r="28" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:87" x14ac:dyDescent="0.2">
       <c r="AO28" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AP28" s="86">
+      <c r="AP28" s="70">
         <f>AP27/Main!C7</f>
         <v>26.075206575494708</v>
       </c>
     </row>
-    <row r="29" spans="2:87" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:87" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="34" t="s">
         <v>93</v>
       </c>
+      <c r="M29" s="34">
+        <f t="shared" ref="M29:N29" si="49">M10/M6</f>
+        <v>0.52794547859344154</v>
+      </c>
       <c r="N29" s="34">
-        <f t="shared" ref="N29:O29" si="42">N10/N6</f>
+        <f t="shared" ref="N29:O29" si="50">N10/N6</f>
         <v>0.51586918457183062</v>
       </c>
       <c r="O29" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0.56513194294829194</v>
       </c>
       <c r="P29" s="34">
-        <f t="shared" ref="P29" si="43">P10/P6</f>
+        <f t="shared" ref="P29" si="51">P10/P6</f>
         <v>0.55461411681681538</v>
       </c>
       <c r="Q29" s="34">
@@ -4468,15 +4572,15 @@
         <v>0.54185932689056182</v>
       </c>
       <c r="R29" s="34">
-        <f t="shared" ref="R29" si="44">R10/R6</f>
+        <f t="shared" ref="R29" si="52">R10/R6</f>
         <v>0.501918082584071</v>
       </c>
       <c r="S29" s="34">
-        <f t="shared" ref="S29" si="45">S10/S6</f>
+        <f t="shared" ref="S29" si="53">S10/S6</f>
         <v>0.52976471868683139</v>
       </c>
       <c r="T29" s="34">
-        <f t="shared" ref="T29" si="46">T10/T6</f>
+        <f t="shared" ref="T29" si="54">T10/T6</f>
         <v>0.50626262969446278</v>
       </c>
       <c r="U29" s="34">
@@ -4490,62 +4594,66 @@
         <f>AB10/AB6</f>
         <v>0.53799251320943231</v>
       </c>
-      <c r="AC29" s="69">
+      <c r="AC29" s="53">
         <f>AC10/AC6</f>
         <v>0.50415745797859401</v>
       </c>
-      <c r="AD29" s="73">
+      <c r="AD29" s="57">
         <v>0.52</v>
       </c>
-      <c r="AE29" s="73">
+      <c r="AE29" s="57">
         <v>0.51</v>
       </c>
-      <c r="AF29" s="73">
+      <c r="AF29" s="57">
         <v>0.51</v>
       </c>
-      <c r="AG29" s="73">
+      <c r="AG29" s="57">
         <v>0.52</v>
       </c>
-      <c r="AH29" s="73">
+      <c r="AH29" s="57">
         <v>0.53</v>
       </c>
-      <c r="AI29" s="73">
+      <c r="AI29" s="57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AJ29" s="73">
+      <c r="AJ29" s="57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AK29" s="73">
+      <c r="AK29" s="57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AL29" s="73">
+      <c r="AL29" s="57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AM29" s="73">
+      <c r="AM29" s="57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AO29" s="79" t="s">
+      <c r="AO29" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="AP29" s="87">
+      <c r="AP29" s="71">
         <f>Main!C6</f>
         <v>52.93</v>
       </c>
     </row>
-    <row r="30" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="40" t="s">
         <v>110</v>
       </c>
+      <c r="M30" s="41">
+        <f t="shared" ref="M30:N30" si="55">(M4-M7)/M4</f>
+        <v>0.78729910222852806</v>
+      </c>
       <c r="N30" s="41">
-        <f t="shared" ref="N30:O30" si="47">(N4-N7)/N4</f>
+        <f t="shared" ref="N30:O30" si="56">(N4-N7)/N4</f>
         <v>0.78796879473232173</v>
       </c>
       <c r="O30" s="41">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>0.81794368858772426</v>
       </c>
       <c r="P30" s="41">
-        <f t="shared" ref="P30" si="48">(P4-P7)/P4</f>
+        <f t="shared" ref="P30" si="57">(P4-P7)/P4</f>
         <v>0.81143021269338833</v>
       </c>
       <c r="Q30" s="41">
@@ -4553,15 +4661,15 @@
         <v>0.79966270879931467</v>
       </c>
       <c r="R30" s="41">
-        <f t="shared" ref="R30:R31" si="49">(R4-R7)/R4</f>
+        <f t="shared" ref="R30:R31" si="58">(R4-R7)/R4</f>
         <v>0.78477995945422663</v>
       </c>
       <c r="S30" s="41">
-        <f t="shared" ref="S30" si="50">(S4-S7)/S4</f>
+        <f t="shared" ref="S30" si="59">(S4-S7)/S4</f>
         <v>0.77507606718857414</v>
       </c>
       <c r="T30" s="41">
-        <f t="shared" ref="T30" si="51">(T4-T7)/T4</f>
+        <f t="shared" ref="T30" si="60">(T4-T7)/T4</f>
         <v>0.76739083568249356</v>
       </c>
       <c r="U30" s="41">
@@ -4572,29 +4680,33 @@
         <f>(AB4-AB7)/AB4</f>
         <v>0.80306615194132025</v>
       </c>
-      <c r="AC30" s="63"/>
-      <c r="AO30" s="81" t="s">
+      <c r="AC30" s="47"/>
+      <c r="AO30" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="AP30" s="82">
+      <c r="AP30" s="66">
         <f>AP28/AP29-1</f>
         <v>-0.50736431937474569</v>
       </c>
     </row>
-    <row r="31" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="40" t="s">
         <v>111</v>
       </c>
+      <c r="M31" s="41">
+        <f t="shared" ref="M31:N31" si="61">(M5-M8)/M5</f>
+        <v>0.406112642229632</v>
+      </c>
       <c r="N31" s="41">
-        <f t="shared" ref="N31:O31" si="52">(N5-N8)/N5</f>
+        <f t="shared" ref="N31:O31" si="62">(N5-N8)/N5</f>
         <v>0.40698320502245439</v>
       </c>
       <c r="O31" s="41">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.4437606105699991</v>
       </c>
       <c r="P31" s="41">
-        <f t="shared" ref="P31" si="53">(P5-P8)/P5</f>
+        <f t="shared" ref="P31" si="63">(P5-P8)/P5</f>
         <v>0.44529602347403491</v>
       </c>
       <c r="Q31" s="41">
@@ -4602,15 +4714,15 @@
         <v>0.43179959671480017</v>
       </c>
       <c r="R31" s="41">
-        <f t="shared" si="49"/>
+        <f t="shared" si="58"/>
         <v>0.40535722617066611</v>
       </c>
       <c r="S31" s="41">
-        <f t="shared" ref="S31" si="54">(S5-S8)/S5</f>
+        <f t="shared" ref="S31" si="64">(S5-S8)/S5</f>
         <v>0.43129280373331225</v>
       </c>
       <c r="T31" s="41">
-        <f t="shared" ref="T31" si="55">(T5-T8)/T5</f>
+        <f t="shared" ref="T31" si="65">(T5-T8)/T5</f>
         <v>0.40321875471129204</v>
       </c>
       <c r="U31" s="41">
@@ -4621,22 +4733,26 @@
         <f>(AB5-AB8)/AB5</f>
         <v>0.42916395730018025</v>
       </c>
-      <c r="AC31" s="63"/>
-    </row>
-    <row r="32" spans="2:87" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AC31" s="47"/>
+    </row>
+    <row r="32" spans="2:87" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="35" t="s">
         <v>94</v>
       </c>
+      <c r="M32" s="35">
+        <f t="shared" ref="M32:N32" si="66">M16/M6</f>
+        <v>6.5885679660674656E-2</v>
+      </c>
       <c r="N32" s="35">
-        <f t="shared" ref="N32:O32" si="56">N16/N6</f>
+        <f t="shared" ref="N32:O32" si="67">N16/N6</f>
         <v>0.11510272627599857</v>
       </c>
       <c r="O32" s="35">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.12026436129376804</v>
       </c>
       <c r="P32" s="35">
-        <f t="shared" ref="P32" si="57">P16/P6</f>
+        <f t="shared" ref="P32" si="68">P16/P6</f>
         <v>0.12456261808306789</v>
       </c>
       <c r="Q32" s="35">
@@ -4644,15 +4760,15 @@
         <v>-3.6494206844999723E-3</v>
       </c>
       <c r="R32" s="35">
-        <f t="shared" ref="R32" si="58">R16/R6</f>
+        <f t="shared" ref="R32" si="69">R16/R6</f>
         <v>1.0437499637687623E-2</v>
       </c>
       <c r="S32" s="35">
-        <f t="shared" ref="S32" si="59">S16/S6</f>
+        <f t="shared" ref="S32" si="70">S16/S6</f>
         <v>-8.1400903771363525E-2</v>
       </c>
       <c r="T32" s="35">
-        <f t="shared" ref="T32" si="60">T16/T6</f>
+        <f t="shared" ref="T32" si="71">T16/T6</f>
         <v>-0.14687161937295712</v>
       </c>
       <c r="U32" s="35">
@@ -4660,14 +4776,14 @@
         <v>-0.2527931488801054</v>
       </c>
       <c r="V32" s="35">
-        <f t="shared" ref="V32" si="61">V16/V6</f>
+        <f t="shared" ref="V32" si="72">V16/V6</f>
         <v>-0.23800450885668273</v>
       </c>
       <c r="AB32" s="35">
         <f>AB16/AB6</f>
         <v>5.8250517795872113E-2</v>
       </c>
-      <c r="AC32" s="63">
+      <c r="AC32" s="47">
         <f>AC16/AC6</f>
         <v>-0.18662661620102225</v>
       </c>
@@ -4676,56 +4792,60 @@
         <v>-0.2047061462474849</v>
       </c>
       <c r="AE32" s="41">
-        <f t="shared" ref="AE32:AM32" si="62">AE16/AE6</f>
+        <f t="shared" ref="AE32:AM32" si="73">AE16/AE6</f>
         <v>-0.13050439017677495</v>
       </c>
       <c r="AF32" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>-5.2002926784516686E-2</v>
       </c>
       <c r="AG32" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>-3.982960467897699E-2</v>
       </c>
       <c r="AH32" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>2.1389542762193282E-2</v>
       </c>
       <c r="AI32" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>7.2321641884743076E-2</v>
       </c>
       <c r="AJ32" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>7.2763913375491956E-2</v>
       </c>
       <c r="AK32" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>7.3100819950287374E-2</v>
       </c>
       <c r="AL32" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>7.3314858662333671E-2</v>
       </c>
       <c r="AM32" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>7.3434738359731813E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="35" t="s">
         <v>95</v>
       </c>
+      <c r="M33" s="35">
+        <f t="shared" ref="M33:N33" si="74">M20/M6</f>
+        <v>0.24897935249314254</v>
+      </c>
       <c r="N33" s="35">
-        <f t="shared" ref="N33:O33" si="63">N20/N6</f>
+        <f t="shared" ref="N33:O33" si="75">N20/N6</f>
         <v>0.12669164934788651</v>
       </c>
       <c r="O33" s="35">
-        <f t="shared" si="63"/>
+        <f t="shared" si="75"/>
         <v>1.272896190450181</v>
       </c>
       <c r="P33" s="35">
-        <f t="shared" ref="P33" si="64">P20/P6</f>
+        <f t="shared" ref="P33" si="76">P20/P6</f>
         <v>0.78529360531334724</v>
       </c>
       <c r="Q33" s="35">
@@ -4733,15 +4853,15 @@
         <v>1.0219730542652217</v>
       </c>
       <c r="R33" s="35">
-        <f t="shared" ref="R33" si="65">R20/R6</f>
+        <f t="shared" ref="R33" si="77">R20/R6</f>
         <v>-0.26906126270267744</v>
       </c>
       <c r="S33" s="35">
-        <f t="shared" ref="S33" si="66">S20/S6</f>
+        <f t="shared" ref="S33" si="78">S20/S6</f>
         <v>-1.2249749298576047</v>
       </c>
       <c r="T33" s="35">
-        <f t="shared" ref="T33" si="67">T20/T6</f>
+        <f t="shared" ref="T33" si="79">T20/T6</f>
         <v>-0.9296126906567479</v>
       </c>
       <c r="U33" s="35">
@@ -4749,69 +4869,73 @@
         <v>-0.11594861660079051</v>
       </c>
       <c r="V33" s="35">
-        <f t="shared" ref="V33" si="68">V20/V6</f>
+        <f t="shared" ref="V33" si="80">V20/V6</f>
         <v>-0.49446879666227483</v>
       </c>
       <c r="AB33" s="35">
         <f>AB20/AB6</f>
         <v>0.63199262943162138</v>
       </c>
-      <c r="AC33" s="63"/>
+      <c r="AC33" s="47"/>
       <c r="AD33" s="35">
-        <f t="shared" ref="AD33:AM33" si="69">AD20/AD6</f>
+        <f t="shared" ref="AD33:AM33" si="81">AD20/AD6</f>
         <v>-0.16503125723487183</v>
       </c>
       <c r="AE33" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>-0.11316667217894996</v>
       </c>
       <c r="AF33" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>-4.8630559322282524E-2</v>
       </c>
       <c r="AG33" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>-3.6790040911918953E-2</v>
       </c>
       <c r="AH33" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>-1.2514750318917496E-3</v>
       </c>
       <c r="AI33" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>5.6595028894602516E-2</v>
       </c>
       <c r="AJ33" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>5.7362979262592727E-2</v>
       </c>
       <c r="AK33" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>5.7905530070424906E-2</v>
       </c>
       <c r="AL33" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>5.8119417239921881E-2</v>
       </c>
       <c r="AM33" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>5.8027069136296232E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>96</v>
       </c>
+      <c r="M34" s="35">
+        <f t="shared" ref="M34:N34" si="82">M19/M18</f>
+        <v>-2.5224422778710814E-2</v>
+      </c>
       <c r="N34" s="35">
-        <f t="shared" ref="N34:O34" si="70">N19/N18</f>
+        <f t="shared" ref="N34:O34" si="83">N19/N18</f>
         <v>-0.12864340838063659</v>
       </c>
       <c r="O34" s="35">
-        <f t="shared" si="70"/>
+        <f t="shared" si="83"/>
         <v>8.1121161496089222E-2</v>
       </c>
       <c r="P34" s="35">
-        <f t="shared" ref="P34" si="71">P19/P18</f>
+        <f t="shared" ref="P34" si="84">P19/P18</f>
         <v>4.3752141540168502E-2</v>
       </c>
       <c r="Q34" s="35">
@@ -4819,15 +4943,15 @@
         <v>0.14325018725027078</v>
       </c>
       <c r="R34" s="35">
-        <f t="shared" ref="R34" si="72">R19/R18</f>
+        <f t="shared" ref="R34" si="85">R19/R18</f>
         <v>0.24023620935547843</v>
       </c>
       <c r="S34" s="35">
-        <f t="shared" ref="S34" si="73">S19/S18</f>
+        <f t="shared" ref="S34" si="86">S19/S18</f>
         <v>0.10796396784476819</v>
       </c>
       <c r="T34" s="35">
-        <f t="shared" ref="T34" si="74">T19/T18</f>
+        <f t="shared" ref="T34" si="87">T19/T18</f>
         <v>-4.7210515334863345E-3</v>
       </c>
       <c r="U34" s="35">
@@ -4841,7 +4965,7 @@
         <f>AB19/AB18</f>
         <v>7.1939621574531182E-2</v>
       </c>
-      <c r="AC34" s="63"/>
+      <c r="AC34" s="47"/>
       <c r="AD34" s="41">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4874,16 +4998,20 @@
       </c>
       <c r="AN34" s="41"/>
     </row>
-    <row r="36" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="35" t="s">
         <v>97</v>
       </c>
+      <c r="M36" s="35">
+        <f t="shared" ref="M36:N36" si="88">M12/M6</f>
+        <v>0.18689870407411993</v>
+      </c>
       <c r="N36" s="35">
-        <f t="shared" ref="N36:O36" si="75">N12/N6</f>
+        <f t="shared" ref="N36:O36" si="89">N12/N6</f>
         <v>0.1626980068402363</v>
       </c>
       <c r="O36" s="35">
-        <f t="shared" si="75"/>
+        <f t="shared" si="89"/>
         <v>0.17790576414028467</v>
       </c>
       <c r="P36" s="35">
@@ -4895,15 +5023,15 @@
         <v>0.19668962571413315</v>
       </c>
       <c r="R36" s="35">
-        <f t="shared" ref="R36" si="76">R12/R6</f>
+        <f t="shared" ref="R36" si="90">R12/R6</f>
         <v>0.19848350463470196</v>
       </c>
       <c r="S36" s="35">
-        <f t="shared" ref="S36" si="77">S12/S6</f>
+        <f t="shared" ref="S36" si="91">S12/S6</f>
         <v>0.25228913040046591</v>
       </c>
       <c r="T36" s="35">
-        <f t="shared" ref="T36" si="78">T12/T6</f>
+        <f t="shared" ref="T36" si="92">T12/T6</f>
         <v>0.26768350265585533</v>
       </c>
       <c r="U36" s="35">
@@ -4917,7 +5045,7 @@
         <f>AB12/AB6</f>
         <v>0.1852579525466537</v>
       </c>
-      <c r="AC36" s="63">
+      <c r="AC36" s="47">
         <f>AC12/AC6</f>
         <v>0.28263320984898344</v>
       </c>
@@ -4952,22 +5080,25 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="AI39" s="88"/>
-      <c r="AJ39" s="88"/>
-      <c r="AK39" s="88"/>
-      <c r="AL39" s="88"/>
-      <c r="AM39" s="88"/>
-    </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AI39" s="72"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="72"/>
+      <c r="AL39" s="72"/>
+      <c r="AM39" s="72"/>
+    </row>
+    <row r="40" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B40" s="37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="M41" s="32">
+        <v>3089.884</v>
+      </c>
       <c r="R41" s="32">
         <v>2502.9920000000002</v>
       </c>
@@ -4980,22 +5111,29 @@
       <c r="U41" s="32">
         <v>1378.251</v>
       </c>
-      <c r="AC41" s="68"/>
-      <c r="AD41" s="74"/>
-      <c r="AE41" s="74"/>
-      <c r="AF41" s="74"/>
-      <c r="AG41" s="74"/>
-      <c r="AH41" s="74"/>
-      <c r="AI41" s="74"/>
-      <c r="AJ41" s="74"/>
-      <c r="AK41" s="74"/>
-      <c r="AL41" s="74"/>
-      <c r="AM41" s="74"/>
-    </row>
-    <row r="42" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB41" s="32">
+        <f>R41</f>
+        <v>2502.9920000000002</v>
+      </c>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="58"/>
+      <c r="AE41" s="58"/>
+      <c r="AF41" s="58"/>
+      <c r="AG41" s="58"/>
+      <c r="AH41" s="58"/>
+      <c r="AI41" s="58"/>
+      <c r="AJ41" s="58"/>
+      <c r="AK41" s="58"/>
+      <c r="AL41" s="58"/>
+      <c r="AM41" s="58"/>
+    </row>
+    <row r="42" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="M42" s="32">
+        <v>3031.277</v>
+      </c>
       <c r="R42" s="32">
         <v>5265.1009999999997</v>
       </c>
@@ -5008,22 +5146,29 @@
       <c r="U42" s="32">
         <v>3563.181</v>
       </c>
-      <c r="AC42" s="68"/>
-      <c r="AD42" s="74"/>
-      <c r="AE42" s="74"/>
-      <c r="AF42" s="74"/>
-      <c r="AG42" s="74"/>
-      <c r="AH42" s="74"/>
-      <c r="AI42" s="74"/>
-      <c r="AJ42" s="74"/>
-      <c r="AK42" s="74"/>
-      <c r="AL42" s="74"/>
-      <c r="AM42" s="74"/>
-    </row>
-    <row r="43" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="AB42" s="32">
+        <f>R42</f>
+        <v>5265.1009999999997</v>
+      </c>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="58"/>
+      <c r="AE42" s="58"/>
+      <c r="AF42" s="58"/>
+      <c r="AG42" s="58"/>
+      <c r="AH42" s="58"/>
+      <c r="AI42" s="58"/>
+      <c r="AJ42" s="58"/>
+      <c r="AK42" s="58"/>
+      <c r="AL42" s="58"/>
+      <c r="AM42" s="58"/>
+    </row>
+    <row r="43" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="M43" s="33">
+        <v>109.7</v>
+      </c>
       <c r="R43" s="33">
         <v>192.209</v>
       </c>
@@ -5036,11 +5181,18 @@
       <c r="U43" s="33">
         <v>241.18299999999999</v>
       </c>
-    </row>
-    <row r="44" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="AB43" s="33">
+        <f>R43</f>
+        <v>192.209</v>
+      </c>
+    </row>
+    <row r="44" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="M44" s="33">
+        <v>247.977</v>
+      </c>
       <c r="R44" s="33">
         <v>470.72199999999998</v>
       </c>
@@ -5053,11 +5205,18 @@
       <c r="U44" s="33">
         <v>666.053</v>
       </c>
-    </row>
-    <row r="45" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="AB44" s="33">
+        <f t="shared" ref="AB44:AB64" si="93">R44</f>
+        <v>470.72199999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M45" s="33">
+        <v>71.302999999999997</v>
+      </c>
       <c r="R45" s="33">
         <v>5.0229999999999997</v>
       </c>
@@ -5070,11 +5229,18 @@
       <c r="U45" s="33">
         <v>11.996</v>
       </c>
-    </row>
-    <row r="46" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="AB45" s="33">
+        <f t="shared" si="93"/>
+        <v>5.0229999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="M46" s="33">
+        <v>63.076000000000001</v>
+      </c>
       <c r="R46" s="33">
         <v>103.273</v>
       </c>
@@ -5087,92 +5253,103 @@
       <c r="U46" s="33">
         <v>152.322</v>
       </c>
-    </row>
-    <row r="47" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="AB46" s="33">
+        <f t="shared" si="93"/>
+        <v>103.273</v>
+      </c>
+    </row>
+    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" ref="C47:T47" si="79">SUM(C41:C46)</f>
+        <f t="shared" ref="C47:T47" si="94">SUM(C41:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="1">
-        <f t="shared" si="79"/>
-        <v>0</v>
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="33">
+        <f t="shared" si="94"/>
+        <v>6613.2169999999996</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="R47" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>8539.3199999999979</v>
       </c>
       <c r="S47" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>8074.8810000000003</v>
       </c>
       <c r="T47" s="33">
-        <f t="shared" si="79"/>
+        <f t="shared" si="94"/>
         <v>7857.7640000000001</v>
       </c>
       <c r="U47" s="33">
         <f>SUM(U41:U46)</f>
         <v>6012.9859999999999</v>
       </c>
-    </row>
-    <row r="48" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="AB47" s="33">
+        <f>SUM(AB41:AB46)</f>
+        <v>8539.3199999999979</v>
+      </c>
+    </row>
+    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="M48" s="33">
+        <v>94.697999999999993</v>
+      </c>
       <c r="R48" s="33">
         <v>105.526</v>
       </c>
@@ -5185,11 +5362,18 @@
       <c r="U48" s="33">
         <v>128.46100000000001</v>
       </c>
-    </row>
-    <row r="49" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB48" s="33">
+        <f t="shared" si="93"/>
+        <v>105.526</v>
+      </c>
+    </row>
+    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="M49" s="33">
+        <v>143.92500000000001</v>
+      </c>
       <c r="R49" s="33">
         <v>196.38800000000001</v>
       </c>
@@ -5202,11 +5386,18 @@
       <c r="U49" s="33">
         <v>349.74</v>
       </c>
-    </row>
-    <row r="50" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB49" s="33">
+        <f t="shared" si="93"/>
+        <v>196.38800000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="M50" s="33">
+        <v>122.71</v>
+      </c>
       <c r="R50" s="33">
         <v>138.49600000000001</v>
       </c>
@@ -5219,11 +5410,18 @@
       <c r="U50" s="33">
         <v>410.81900000000002</v>
       </c>
-    </row>
-    <row r="51" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB50" s="33">
+        <f t="shared" si="93"/>
+        <v>138.49600000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="M51" s="33">
+        <v>5.1159999999999997</v>
+      </c>
       <c r="R51" s="33">
         <v>48.369</v>
       </c>
@@ -5236,11 +5434,18 @@
       <c r="U51" s="33">
         <v>43.25</v>
       </c>
-    </row>
-    <row r="52" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB51" s="33">
+        <f t="shared" si="93"/>
+        <v>48.369</v>
+      </c>
+    </row>
+    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="M52" s="33">
+        <v>170.5</v>
+      </c>
       <c r="R52" s="33">
         <v>3955.5450000000001</v>
       </c>
@@ -5253,11 +5458,18 @@
       <c r="U52" s="33">
         <v>2421.7469999999998</v>
       </c>
-    </row>
-    <row r="53" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB52" s="33">
+        <f t="shared" si="93"/>
+        <v>3955.5450000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="M53" s="33">
+        <v>311.86500000000001</v>
+      </c>
       <c r="R53" s="33">
         <v>356.52800000000002</v>
       </c>
@@ -5270,98 +5482,114 @@
       <c r="U53" s="33">
         <v>1836.2819999999999</v>
       </c>
-    </row>
-    <row r="54" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB53" s="33">
+        <f t="shared" si="93"/>
+        <v>356.52800000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" ref="C54:T54" si="80">SUM(C48:C53)+C47</f>
+        <f t="shared" ref="C54:T54" si="95">SUM(C48:C53)+C47</f>
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="1">
-        <f t="shared" si="80"/>
-        <v>0</v>
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="33">
+        <f t="shared" si="95"/>
+        <v>7462.0309999999999</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="R54" s="33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>13340.171999999999</v>
       </c>
       <c r="S54" s="33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>11834.457</v>
       </c>
       <c r="T54" s="33">
-        <f t="shared" si="80"/>
+        <f t="shared" si="95"/>
         <v>10747.630000000001</v>
       </c>
       <c r="U54" s="33">
         <f>SUM(U48:U53)+U47</f>
         <v>11203.285</v>
       </c>
-    </row>
-    <row r="55" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB54" s="33">
+        <f>SUM(AB48:AB53)+AB47</f>
+        <v>13340.171999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="M55" s="33"/>
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="33"/>
       <c r="U55" s="33"/>
-    </row>
-    <row r="56" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB55" s="33">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="M56" s="33">
+        <v>261.56099999999998</v>
+      </c>
       <c r="R56" s="33">
         <v>456.68799999999999</v>
       </c>
@@ -5374,11 +5602,18 @@
       <c r="U56" s="33">
         <v>596.11400000000003</v>
       </c>
-    </row>
-    <row r="57" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB56" s="33">
+        <f t="shared" si="93"/>
+        <v>456.68799999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>126</v>
       </c>
+      <c r="M57" s="33">
+        <v>0.79900000000000004</v>
+      </c>
       <c r="R57" s="33">
         <v>13.505000000000001</v>
       </c>
@@ -5391,11 +5626,18 @@
       <c r="U57" s="33">
         <v>4.4580000000000002</v>
       </c>
-    </row>
-    <row r="58" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB57" s="33">
+        <f t="shared" si="93"/>
+        <v>13.505000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="M58" s="33">
+        <v>96.777000000000001</v>
+      </c>
       <c r="R58" s="33">
         <v>216.792</v>
       </c>
@@ -5408,11 +5650,18 @@
       <c r="U58" s="33">
         <v>287.625</v>
       </c>
-    </row>
-    <row r="59" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB58" s="33">
+        <f t="shared" si="93"/>
+        <v>216.792</v>
+      </c>
+    </row>
+    <row r="59" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="M59" s="33">
+        <v>10.994</v>
+      </c>
       <c r="R59" s="33">
         <v>15.747999999999999</v>
       </c>
@@ -5425,92 +5674,103 @@
       <c r="U59" s="33">
         <v>17.024000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB59" s="33">
+        <f t="shared" si="93"/>
+        <v>15.747999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" ref="C60:T60" si="81">SUM(C56:C59)</f>
+        <f t="shared" ref="C60:T60" si="96">SUM(C56:C59)</f>
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="1">
-        <f t="shared" si="81"/>
-        <v>0</v>
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="33">
+        <f t="shared" si="96"/>
+        <v>370.13099999999997</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R60" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>702.73300000000006</v>
       </c>
       <c r="S60" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>681.93200000000002</v>
       </c>
       <c r="T60" s="33">
-        <f t="shared" si="81"/>
+        <f t="shared" si="96"/>
         <v>703.20799999999997</v>
       </c>
       <c r="U60" s="33">
         <f>SUM(U56:U59)</f>
         <v>905.221</v>
       </c>
-    </row>
-    <row r="61" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB60" s="33">
+        <f>SUM(AB56:AB59)</f>
+        <v>702.73300000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="M61" s="33">
+        <v>23.08</v>
+      </c>
       <c r="R61" s="33">
         <v>162.93199999999999</v>
       </c>
@@ -5523,11 +5783,18 @@
       <c r="U61" s="33">
         <v>299.625</v>
       </c>
-    </row>
-    <row r="62" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB61" s="33">
+        <f t="shared" si="93"/>
+        <v>162.93199999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="M62" s="33">
+        <v>141.53899999999999</v>
+      </c>
       <c r="R62" s="33">
         <v>246.77600000000001</v>
       </c>
@@ -5540,11 +5807,18 @@
       <c r="U62" s="33">
         <v>369.13099999999997</v>
       </c>
-    </row>
-    <row r="63" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB62" s="33">
+        <f t="shared" si="93"/>
+        <v>246.77600000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="M63" s="32">
+        <v>750.452</v>
+      </c>
       <c r="R63" s="32">
         <v>910.96299999999997</v>
       </c>
@@ -5557,22 +5831,29 @@
       <c r="U63" s="32">
         <v>912.72400000000005</v>
       </c>
-      <c r="AC63" s="68"/>
-      <c r="AD63" s="74"/>
-      <c r="AE63" s="74"/>
-      <c r="AF63" s="74"/>
-      <c r="AG63" s="74"/>
-      <c r="AH63" s="74"/>
-      <c r="AI63" s="74"/>
-      <c r="AJ63" s="74"/>
-      <c r="AK63" s="74"/>
-      <c r="AL63" s="74"/>
-      <c r="AM63" s="74"/>
-    </row>
-    <row r="64" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB63" s="32">
+        <f>R63</f>
+        <v>910.96299999999997</v>
+      </c>
+      <c r="AC63" s="52"/>
+      <c r="AD63" s="58"/>
+      <c r="AE63" s="58"/>
+      <c r="AF63" s="58"/>
+      <c r="AG63" s="58"/>
+      <c r="AH63" s="58"/>
+      <c r="AI63" s="58"/>
+      <c r="AJ63" s="58"/>
+      <c r="AK63" s="58"/>
+      <c r="AL63" s="58"/>
+      <c r="AM63" s="58"/>
+    </row>
+    <row r="64" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="M64" s="33">
+        <v>0</v>
+      </c>
       <c r="R64" s="33">
         <v>183.42699999999999</v>
       </c>
@@ -5585,97 +5866,108 @@
       <c r="U64" s="33">
         <v>23.576000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="AB64" s="33">
+        <f t="shared" si="93"/>
+        <v>183.42699999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:T65" si="82">SUM(C61:C64)+C60</f>
+        <f t="shared" ref="C65:T65" si="97">SUM(C61:C64)+C60</f>
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="1">
-        <f t="shared" si="82"/>
-        <v>0</v>
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="33">
+        <f t="shared" si="97"/>
+        <v>1285.2019999999998</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="R65" s="33">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>2206.8309999999997</v>
       </c>
       <c r="S65" s="33">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>2044.8620000000001</v>
       </c>
       <c r="T65" s="33">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>2030.502</v>
       </c>
       <c r="U65" s="33">
         <f>SUM(U61:U64)+U60</f>
         <v>2510.277</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="AB65" s="33">
+        <f>SUM(AB61:AB64)+AB60</f>
+        <v>2206.8309999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="S66" s="33"/>
       <c r="T66" s="33"/>
       <c r="U66" s="33"/>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="M67" s="33">
+        <v>6176.8289999999997</v>
+      </c>
       <c r="R67" s="33">
         <v>11133.341</v>
       </c>
@@ -5688,10 +5980,18 @@
       <c r="U67" s="33">
         <v>8693.0079999999998</v>
       </c>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="AB67" s="33">
+        <f>R67</f>
+        <v>11133.341</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>133</v>
+      </c>
+      <c r="M68" s="33">
+        <f>M67+M65</f>
+        <v>7462.030999999999</v>
       </c>
       <c r="R68" s="33">
         <f>R67+R65</f>
@@ -5709,117 +6009,165 @@
         <f>U67+U65</f>
         <v>11203.285</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="AB68" s="33">
+        <f>AB67+AB65</f>
+        <v>13340.172</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="M70" s="33">
+        <f t="shared" ref="M70" si="98">M54-M65</f>
+        <v>6176.8289999999997</v>
+      </c>
       <c r="R70" s="33">
-        <f t="shared" ref="R70:S70" si="83">R54-R65</f>
+        <f t="shared" ref="R70" si="99">R54-R65</f>
         <v>11133.340999999999</v>
       </c>
       <c r="S70" s="33">
-        <f t="shared" ref="S70:T70" si="84">S54-S65</f>
+        <f t="shared" ref="S70:T70" si="100">S54-S65</f>
         <v>9789.5950000000012</v>
       </c>
       <c r="T70" s="33">
-        <f t="shared" si="84"/>
+        <f t="shared" si="100"/>
         <v>8717.1280000000006</v>
       </c>
       <c r="U70" s="33">
         <f>U54-U65</f>
         <v>8693.0079999999998</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="AB70" s="33">
+        <f>AB54-AB65</f>
+        <v>11133.340999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="M71" s="1">
+        <f t="shared" ref="M71" si="101">M70/M22</f>
+        <v>51.25510694067961</v>
+      </c>
       <c r="R71" s="1">
-        <f t="shared" ref="R71:S71" si="85">R70/R22</f>
+        <f t="shared" ref="R71:S71" si="102">R70/R22</f>
         <v>88.546249602983664</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" si="85"/>
+        <f t="shared" si="102"/>
         <v>77.687142379346611</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" ref="T71" si="86">T70/T22</f>
+        <f t="shared" ref="T71" si="103">T70/T22</f>
         <v>6.9073275958982521</v>
       </c>
       <c r="U71" s="1">
         <f>U70/U22</f>
         <v>6.8479874371111631</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB71" s="1">
+        <f>AB70/AB22</f>
+        <v>88.546249602983664</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="28" t="s">
         <v>6</v>
       </c>
+      <c r="M73" s="31">
+        <f t="shared" ref="M73" si="104">M41+M42</f>
+        <v>6121.1610000000001</v>
+      </c>
       <c r="R73" s="31">
-        <f t="shared" ref="R73:S73" si="87">R41+R42</f>
+        <f t="shared" ref="R73:S73" si="105">R41+R42</f>
         <v>7768.0929999999998</v>
       </c>
       <c r="S73" s="31">
-        <f t="shared" si="87"/>
+        <f t="shared" si="105"/>
         <v>7246.6900000000005</v>
       </c>
       <c r="T73" s="31">
-        <f t="shared" ref="T73" si="88">T41+T42</f>
+        <f t="shared" ref="T73" si="106">T41+T42</f>
         <v>6954.7910000000002</v>
       </c>
       <c r="U73" s="31">
         <f>U41+U42</f>
         <v>4941.4319999999998</v>
       </c>
-      <c r="AC73" s="64"/>
-    </row>
-    <row r="74" spans="2:29" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AB73" s="31">
+        <f>AB41+AB42</f>
+        <v>7768.0929999999998</v>
+      </c>
+      <c r="AC73" s="48"/>
+    </row>
+    <row r="74" spans="2:29" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="28" t="s">
         <v>7</v>
       </c>
+      <c r="M74" s="31">
+        <f t="shared" ref="M74" si="107">M63</f>
+        <v>750.452</v>
+      </c>
       <c r="R74" s="31">
-        <f t="shared" ref="R74:S74" si="89">R63</f>
+        <f t="shared" ref="R74:S74" si="108">R63</f>
         <v>910.96299999999997</v>
       </c>
       <c r="S74" s="31">
-        <f t="shared" si="89"/>
+        <f t="shared" si="108"/>
         <v>911.54899999999998</v>
       </c>
       <c r="T74" s="31">
-        <f t="shared" ref="T74" si="90">T63</f>
+        <f t="shared" ref="T74" si="109">T63</f>
         <v>912.13699999999994</v>
       </c>
       <c r="U74" s="31">
         <f>U63</f>
         <v>912.72400000000005</v>
       </c>
-      <c r="AC74" s="64"/>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="AB74" s="31">
+        <f>AB63</f>
+        <v>910.96299999999997</v>
+      </c>
+      <c r="AC74" s="48"/>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="M75" s="33">
+        <f t="shared" ref="M75" si="110">M73-M74</f>
+        <v>5370.7089999999998</v>
+      </c>
       <c r="R75" s="33">
-        <f t="shared" ref="R75:S75" si="91">R73-R74</f>
+        <f t="shared" ref="R75:S75" si="111">R73-R74</f>
         <v>6857.13</v>
       </c>
       <c r="S75" s="33">
-        <f t="shared" si="91"/>
+        <f t="shared" si="111"/>
         <v>6335.1410000000005</v>
       </c>
       <c r="T75" s="33">
-        <f t="shared" ref="T75" si="92">T73-T74</f>
+        <f t="shared" ref="T75" si="112">T73-T74</f>
         <v>6042.6540000000005</v>
       </c>
       <c r="U75" s="33">
         <f>U73-U74</f>
         <v>4028.7079999999996</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.15">
+      <c r="AB75" s="33">
+        <f>AB73-AB74</f>
+        <v>6857.13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>136</v>
+      </c>
+      <c r="M77" s="1">
+        <f>31.17*10</f>
+        <v>311.70000000000005</v>
       </c>
       <c r="R77" s="36">
         <f>137.743*10</f>
@@ -5840,20 +6188,24 @@
         <v>1377.4299999999998</v>
       </c>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="M78" s="33">
+        <f t="shared" ref="M78" si="113">M77*M22</f>
+        <v>37563.429562800004</v>
+      </c>
       <c r="R78" s="33">
-        <f t="shared" ref="R78:T78" si="93">R77*R22</f>
+        <f t="shared" ref="R78:T78" si="114">R77*R22</f>
         <v>173190.82357964999</v>
       </c>
       <c r="S78" s="33">
-        <f t="shared" ref="S78" si="94">S77*S22</f>
+        <f t="shared" ref="S78" si="115">S77*S22</f>
         <v>85184.832616</v>
       </c>
       <c r="T78" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="114"/>
         <v>39425.244414599998</v>
       </c>
       <c r="U78" s="33">
@@ -5861,24 +6213,28 @@
         <v>34198.315588440004</v>
       </c>
       <c r="AB78" s="33">
-        <f t="shared" ref="AB78" si="95">AB77*AB22</f>
+        <f t="shared" ref="AB78" si="116">AB77*AB22</f>
         <v>173190.82357964999</v>
       </c>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="M79" s="33">
+        <f t="shared" ref="M79" si="117">M78-M75</f>
+        <v>32192.720562800005</v>
+      </c>
       <c r="R79" s="33">
-        <f t="shared" ref="R79:T79" si="96">R78-R75</f>
+        <f t="shared" ref="R79:T79" si="118">R78-R75</f>
         <v>166333.69357964999</v>
       </c>
       <c r="S79" s="33">
-        <f t="shared" ref="S79" si="97">S78-S75</f>
+        <f t="shared" ref="S79" si="119">S78-S75</f>
         <v>78849.691615999996</v>
       </c>
       <c r="T79" s="33">
-        <f t="shared" si="96"/>
+        <f t="shared" si="118"/>
         <v>33382.590414599996</v>
       </c>
       <c r="U79" s="33">
@@ -5886,66 +6242,78 @@
         <v>30169.607588440005</v>
       </c>
       <c r="AB79" s="33">
-        <f t="shared" ref="AB79" si="98">AB78-AB75</f>
-        <v>173190.82357964999</v>
-      </c>
-    </row>
-    <row r="81" spans="2:39" x14ac:dyDescent="0.15">
+        <f t="shared" ref="AB79" si="120">AB78-AB75</f>
+        <v>166333.69357964999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="M81" s="43">
+        <f>M77/M71</f>
+        <v>6.0813452279154898</v>
+      </c>
       <c r="R81" s="43">
-        <f>R77/(R71/10)</f>
-        <v>155.56051285921271</v>
+        <f>R77/R71</f>
+        <v>15.556051285921271</v>
       </c>
       <c r="S81" s="43">
-        <f>S77/(S71/10)</f>
-        <v>87.015686160663421</v>
+        <f t="shared" ref="S81" si="121">S77/S71</f>
+        <v>8.7015686160663428</v>
       </c>
       <c r="T81" s="43">
-        <f t="shared" ref="T81" si="99">T77/T71</f>
+        <f t="shared" ref="T81" si="122">T77/T71</f>
         <v>4.5227332229835326</v>
       </c>
       <c r="U81" s="43">
         <f>U77/U71</f>
         <v>3.9340025441642301</v>
       </c>
-    </row>
-    <row r="82" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB81" s="43">
+        <f>AB77/AB71</f>
+        <v>15.556051285921271</v>
+      </c>
+    </row>
+    <row r="82" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R82" s="43">
-        <f t="shared" ref="R82:T82" si="100">R78/SUM(O6:R6)</f>
+        <f t="shared" ref="R82:T82" si="123">R78/SUM(O6:R6)</f>
         <v>37.553389260126508</v>
       </c>
       <c r="S82" s="43">
-        <f t="shared" si="100"/>
+        <f t="shared" si="123"/>
         <v>17.64818676432078</v>
       </c>
       <c r="T82" s="43">
-        <f t="shared" si="100"/>
+        <f t="shared" si="123"/>
         <v>7.8811871012403909</v>
       </c>
       <c r="U82" s="43">
         <f>U78/SUM(R6:U6)</f>
         <v>6.5202864469437998</v>
       </c>
-    </row>
-    <row r="83" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB82" s="43">
+        <f>AB78/AB6</f>
+        <v>37.553389260126508</v>
+      </c>
+    </row>
+    <row r="83" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R83" s="43">
-        <f t="shared" ref="R83:T83" si="101">R79/SUM(O6:R6)</f>
+        <f t="shared" ref="R83:T83" si="124">R79/SUM(O6:R6)</f>
         <v>36.066541015081562</v>
       </c>
       <c r="S83" s="43">
-        <f t="shared" si="101"/>
+        <f t="shared" si="124"/>
         <v>16.335702509637791</v>
       </c>
       <c r="T83" s="43">
-        <f t="shared" si="101"/>
+        <f t="shared" si="124"/>
         <v>6.673248191306258</v>
       </c>
       <c r="U83" s="43">
@@ -5953,7 +6321,7 @@
         <v>5.752168786202243</v>
       </c>
     </row>
-    <row r="84" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>25</v>
       </c>
@@ -5978,38 +6346,42 @@
         <v>59.42061269591057</v>
       </c>
     </row>
-    <row r="85" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R85" s="43">
-        <f t="shared" ref="R85:T85" si="102">R79/SUM(O20:R20)</f>
+        <f t="shared" ref="R85:T85" si="125">R79/SUM(O20:R20)</f>
         <v>57.067977276123884</v>
       </c>
       <c r="S85" s="43">
-        <f t="shared" si="102"/>
+        <f t="shared" si="125"/>
         <v>433.7023619462492</v>
       </c>
       <c r="T85" s="43">
-        <f t="shared" si="102"/>
+        <f t="shared" si="125"/>
         <v>-17.558750140490666</v>
       </c>
       <c r="U85" s="43">
         <f>U79/SUM(R20:U20)</f>
         <v>-9.4043885395390046</v>
       </c>
-    </row>
-    <row r="86" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="AB85" s="43">
+        <f>AB79/AB20</f>
+        <v>57.067977276123898</v>
+      </c>
+    </row>
+    <row r="86" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B88" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>100</v>
       </c>
@@ -6069,27 +6441,28 @@
         <f>-177.727-S91</f>
         <v>-124.167</v>
       </c>
-      <c r="U91" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="68"/>
-      <c r="AD91" s="74"/>
-      <c r="AE91" s="74"/>
-      <c r="AF91" s="74"/>
-      <c r="AG91" s="74"/>
-      <c r="AH91" s="74"/>
-      <c r="AI91" s="74"/>
-      <c r="AJ91" s="74"/>
-      <c r="AK91" s="74"/>
-      <c r="AL91" s="74"/>
-      <c r="AM91" s="74"/>
-    </row>
-    <row r="92" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="U91" s="32">
+        <f>-391.833-SUM(S91:T91)</f>
+        <v>-214.10600000000002</v>
+      </c>
+      <c r="AC91" s="52"/>
+      <c r="AD91" s="58"/>
+      <c r="AE91" s="58"/>
+      <c r="AF91" s="58"/>
+      <c r="AG91" s="58"/>
+      <c r="AH91" s="58"/>
+      <c r="AI91" s="58"/>
+      <c r="AJ91" s="58"/>
+      <c r="AK91" s="58"/>
+      <c r="AL91" s="58"/>
+      <c r="AM91" s="58"/>
+    </row>
+    <row r="92" spans="2:39" x14ac:dyDescent="0.2">
       <c r="O92" s="33"/>
       <c r="S92" s="33"/>
       <c r="T92" s="33"/>
     </row>
-    <row r="93" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>139</v>
       </c>
@@ -6107,8 +6480,12 @@
         <f>-2033.09-S93</f>
         <v>-569.38499999999999</v>
       </c>
-    </row>
-    <row r="94" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="U93" s="33">
+        <f>3568.229-SUM(S93:T93)</f>
+        <v>5601.3189999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>140</v>
       </c>
@@ -6126,8 +6503,12 @@
         <f>3689.564-S94</f>
         <v>1760.1689999999999</v>
       </c>
-    </row>
-    <row r="95" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="U94" s="33">
+        <f>5273.944-SUM(S94:T94)</f>
+        <v>1584.3800000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>141</v>
       </c>
@@ -6145,8 +6526,12 @@
         <f>569.649-S95</f>
         <v>115.70400000000001</v>
       </c>
-    </row>
-    <row r="96" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="U95" s="33">
+        <f>630.135-SUM(S95:T95)</f>
+        <v>60.48599999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>142</v>
       </c>
@@ -6164,9 +6549,13 @@
         <f>28.489-S96</f>
         <v>12.549000000000001</v>
       </c>
+      <c r="U96" s="33">
+        <f>42.394-SUM(S96:T96)</f>
+        <v>13.904999999999998</v>
+      </c>
       <c r="W96" s="33"/>
     </row>
-    <row r="97" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>143</v>
       </c>
@@ -6182,259 +6571,263 @@
       <c r="T97" s="33">
         <v>30.007999999999999</v>
       </c>
+      <c r="U97" s="33">
+        <f>1753.748-SUM(S97:T97)</f>
+        <v>1723.74</v>
+      </c>
       <c r="V97" s="33"/>
     </row>
-    <row r="98" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C98" s="2">
-        <f t="shared" ref="C98:T98" si="103">SUM(C93:C97)</f>
+        <f t="shared" ref="C98:U98" si="126">SUM(C93:C97)</f>
         <v>0</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="O98" s="32">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>-1608.0029999999997</v>
       </c>
       <c r="P98" s="32">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>-508.85200000000003</v>
       </c>
       <c r="Q98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="R98" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
       <c r="S98" s="32">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>935.57500000000005</v>
       </c>
       <c r="T98" s="32">
-        <f t="shared" si="103"/>
+        <f t="shared" si="126"/>
         <v>1349.0449999999998</v>
       </c>
-      <c r="U98" s="2">
-        <f>SUM(U93:U97)</f>
-        <v>0</v>
-      </c>
-      <c r="AC98" s="68"/>
-      <c r="AD98" s="74"/>
-      <c r="AE98" s="74"/>
-      <c r="AF98" s="74"/>
-      <c r="AG98" s="74"/>
-      <c r="AH98" s="74"/>
-      <c r="AI98" s="74"/>
-      <c r="AJ98" s="74"/>
-      <c r="AK98" s="74"/>
-      <c r="AL98" s="74"/>
-      <c r="AM98" s="74"/>
-    </row>
-    <row r="99" spans="2:39" x14ac:dyDescent="0.15">
+      <c r="U98" s="32">
+        <f t="shared" si="126"/>
+        <v>8983.83</v>
+      </c>
+      <c r="AC98" s="52"/>
+      <c r="AD98" s="58"/>
+      <c r="AE98" s="58"/>
+      <c r="AF98" s="58"/>
+      <c r="AG98" s="58"/>
+      <c r="AH98" s="58"/>
+      <c r="AI98" s="58"/>
+      <c r="AJ98" s="58"/>
+      <c r="AK98" s="58"/>
+      <c r="AL98" s="58"/>
+      <c r="AM98" s="58"/>
+    </row>
+    <row r="99" spans="2:39" x14ac:dyDescent="0.2">
       <c r="O99" s="33"/>
       <c r="P99" s="33"/>
       <c r="S99" s="33"/>
       <c r="T99" s="33"/>
     </row>
-    <row r="100" spans="2:39" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" ref="C100:T100" si="104">C96+C97</f>
+        <f t="shared" ref="C100:T100" si="127">C96+C97</f>
         <v>0</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="J100" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="L100" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="O100" s="33">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>5.1879999999999997</v>
       </c>
       <c r="P100" s="33">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>-8.2630000000000017</v>
       </c>
       <c r="Q100" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="S100" s="33">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>15.94</v>
       </c>
       <c r="T100" s="33">
-        <f t="shared" si="104"/>
+        <f t="shared" si="127"/>
         <v>42.557000000000002</v>
       </c>
-      <c r="U100" s="1">
+      <c r="U100" s="33">
         <f>U96+U97</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:39" x14ac:dyDescent="0.15">
+        <v>1737.645</v>
+      </c>
+    </row>
+    <row r="101" spans="2:39" x14ac:dyDescent="0.2">
       <c r="O101" s="33"/>
       <c r="P101" s="33"/>
       <c r="S101" s="33"/>
       <c r="T101" s="33"/>
     </row>
-    <row r="102" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C102" s="32">
-        <f t="shared" ref="C102:R102" si="105">C100-C91</f>
+        <f t="shared" ref="C102:R102" si="128">C100-C91</f>
         <v>0</v>
       </c>
       <c r="D102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="E102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="F102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="G102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="I102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="J102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="K102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="L102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="N102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="O102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>-130.495</v>
       </c>
       <c r="P102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>-74.684000000000026</v>
       </c>
       <c r="Q102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="R102" s="32">
-        <f t="shared" si="105"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="S102" s="32">
@@ -6442,24 +6835,24 @@
         <v>69.5</v>
       </c>
       <c r="T102" s="32">
-        <f t="shared" ref="T102:U102" si="106">T100-T91</f>
+        <f t="shared" ref="T102:U102" si="129">T100-T91</f>
         <v>166.72399999999999</v>
       </c>
       <c r="U102" s="32">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="AC102" s="68"/>
-      <c r="AD102" s="74"/>
-      <c r="AE102" s="74"/>
-      <c r="AF102" s="74"/>
-      <c r="AG102" s="74"/>
-      <c r="AH102" s="74"/>
-      <c r="AI102" s="74"/>
-      <c r="AJ102" s="74"/>
-      <c r="AK102" s="74"/>
-      <c r="AL102" s="74"/>
-      <c r="AM102" s="74"/>
+        <f t="shared" si="129"/>
+        <v>1951.751</v>
+      </c>
+      <c r="AC102" s="52"/>
+      <c r="AD102" s="58"/>
+      <c r="AE102" s="58"/>
+      <c r="AF102" s="58"/>
+      <c r="AG102" s="58"/>
+      <c r="AH102" s="58"/>
+      <c r="AI102" s="58"/>
+      <c r="AJ102" s="58"/>
+      <c r="AK102" s="58"/>
+      <c r="AL102" s="58"/>
+      <c r="AM102" s="58"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6467,15 +6860,17 @@
     <hyperlink ref="T1" r:id="rId2" xr:uid="{335B983C-A4C2-42BB-8F6F-7630B3853F22}"/>
     <hyperlink ref="S1" r:id="rId3" xr:uid="{885FA998-5ED9-44A3-A0F1-8874199F4566}"/>
     <hyperlink ref="R1" r:id="rId4" xr:uid="{10D4EEA5-9810-034E-8889-73BE2548332A}"/>
+    <hyperlink ref="AB1" r:id="rId5" xr:uid="{097AF3B0-7BBE-48F1-A2C9-FE0198607796}"/>
+    <hyperlink ref="M1" r:id="rId6" xr:uid="{240B947B-C305-4D02-B35A-139D4A74064D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
   <ignoredErrors>
     <ignoredError sqref="AB19 V17 V14" formulaRange="1"/>
     <ignoredError sqref="AB4:AB18" formula="1" formulaRange="1"/>
-    <ignoredError sqref="AB2:AB3 AC10 AC18" formula="1"/>
+    <ignoredError sqref="AB2:AB3 AC10 AC18 AB47 AB54:AB64" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/$SHOP.xlsx
+++ b/$SHOP.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660C8663-CE3D-40B4-8B4E-55D276CBEE1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7399681-D109-BB40-9F3C-CC6FC47AB4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="20700" windowHeight="18900" activeTab="1" xr2:uid="{DD3A8C14-BBF5-4F78-B1B7-C8887875BE33}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{DD3A8C14-BBF5-4F78-B1B7-C8887875BE33}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Historical Projections" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -69,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
   <si>
     <t>$SHOP</t>
   </si>
@@ -525,6 +536,18 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>(Projected)</t>
+  </si>
+  <si>
+    <t>312/12/2022</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Q123</t>
   </si>
 </sst>
 </file>
@@ -638,7 +661,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,6 +689,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -873,7 +902,6 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -927,6 +955,57 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1016,15 +1095,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>682625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>682625</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1039,8 +1118,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13477875" y="9525"/>
-          <a:ext cx="0" cy="20135850"/>
+          <a:off x="16113125" y="0"/>
+          <a:ext cx="0" cy="21355050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1066,13 +1145,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>695325</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>695325</xdr:colOff>
       <xdr:row>129</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1089,8 +1168,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18964275" y="0"/>
-          <a:ext cx="0" cy="20135850"/>
+          <a:off x="21015325" y="0"/>
+          <a:ext cx="0" cy="21355050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1114,10 +1193,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1420,58 +1495,58 @@
   <dimension ref="A2:X38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="14" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="75" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="G5" s="75" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="G5" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="77"/>
-      <c r="T5" s="84" t="s">
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="T5" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>52.93</v>
+        <v>48.2</v>
       </c>
       <c r="D6" s="18"/>
       <c r="G6" s="12"/>
@@ -1493,17 +1568,17 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="16">
-        <f>'Financial Model'!U22</f>
-        <v>1269.4252260000001</v>
+        <f>'Financial Model'!V22</f>
+        <v>1273.338804</v>
       </c>
       <c r="D7" s="18" t="str">
         <f>$C$28</f>
-        <v>Q322</v>
+        <v>Q422</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="5"/>
@@ -1524,13 +1599,13 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="16">
         <f>C6*C7</f>
-        <v>67190.677212180002</v>
+        <v>61374.930352800002</v>
       </c>
       <c r="D8" s="18"/>
       <c r="G8" s="12"/>
@@ -1552,17 +1627,17 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="16">
-        <f>'Financial Model'!U73</f>
-        <v>4941.4319999999998</v>
+        <f>'Financial Model'!V73</f>
+        <v>5052.95</v>
       </c>
       <c r="D9" s="18" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
-        <v>Q322</v>
+        <v>Q422</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="5"/>
@@ -1583,17 +1658,17 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="16">
-        <f>'Financial Model'!U74</f>
-        <v>912.72400000000005</v>
+        <f>'Financial Model'!V74</f>
+        <v>913.31200000000001</v>
       </c>
       <c r="D10" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>Q322</v>
+        <v>Q422</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="5"/>
@@ -1612,17 +1687,17 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="16">
         <f>C9-C10</f>
-        <v>4028.7079999999996</v>
+        <v>4139.6379999999999</v>
       </c>
       <c r="D11" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>Q322</v>
+        <v>Q422</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="5"/>
@@ -1641,13 +1716,13 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="17">
         <f>C8-C11</f>
-        <v>63161.969212180004</v>
+        <v>57235.292352800003</v>
       </c>
       <c r="D12" s="19"/>
       <c r="G12" s="44">
@@ -1673,7 +1748,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="G13" s="12"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1693,7 +1768,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="G14" s="12"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1711,12 +1786,12 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="75" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B15" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
       <c r="G15" s="12"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1734,17 +1809,17 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="79"/>
+      <c r="D16" s="78"/>
       <c r="G16" s="12"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1762,14 +1837,14 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="79"/>
+      <c r="D17" s="78"/>
       <c r="G17" s="12"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1782,14 +1857,14 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="79"/>
+      <c r="D18" s="78"/>
       <c r="G18" s="12"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1802,14 +1877,14 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="73"/>
       <c r="G19" s="12"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1822,7 +1897,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
       <c r="G20" s="12"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1835,7 +1910,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
       <c r="G21" s="12"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1848,12 +1923,12 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="75" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
       <c r="G22" s="12"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1866,14 +1941,14 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="78"/>
       <c r="G23" s="12"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1886,14 +1961,14 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="78">
+      <c r="C24" s="77">
         <v>2004</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="78"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1906,14 +1981,14 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="78">
+      <c r="C25" s="77">
         <v>2015</v>
       </c>
-      <c r="D25" s="79"/>
+      <c r="D25" s="78"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1926,10 +2001,10 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B26" s="12"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
       <c r="G26" s="12"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1942,10 +2017,10 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27" s="12"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
       <c r="G27" s="12"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1958,16 +2033,15 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" s="42">
-        <f>'Financial Model'!U3</f>
-        <v>46661</v>
+        <v>42036</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="5"/>
@@ -1981,14 +2055,14 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="86"/>
+      <c r="D29" s="85"/>
       <c r="G29" s="13"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -2001,69 +2075,69 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="75" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B32" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="80">
-        <f>C6/'Financial Model'!U71</f>
-        <v>7.729278198315245</v>
-      </c>
-      <c r="D33" s="81"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="79">
+        <f>C6/'Financial Model'!V71</f>
+        <v>7.4494182835574083</v>
+      </c>
+      <c r="D33" s="80"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="80">
-        <f>C8/SUM('Financial Model'!R6:U6)</f>
-        <v>12.810644455706582</v>
-      </c>
-      <c r="D34" s="81"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="79">
+        <f>C8/SUM('Financial Model'!S6:V6)</f>
+        <v>10.960075164825431</v>
+      </c>
+      <c r="D34" s="80"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="80">
-        <f>C12/SUM('Financial Model'!R6:U6)</f>
-        <v>12.042526794965024</v>
-      </c>
-      <c r="D35" s="81"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="79">
+        <f>C12/SUM('Financial Model'!S6:V6)</f>
+        <v>10.220836140449125</v>
+      </c>
+      <c r="D35" s="80"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="80">
-        <f>C6/SUM('Financial Model'!R21:U21)</f>
-        <v>-3.3644129896469788</v>
-      </c>
-      <c r="D36" s="81"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="79">
+        <f>C6/SUM('Financial Model'!S21:V21)</f>
+        <v>-3.6325285629149069</v>
+      </c>
+      <c r="D36" s="80"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="80">
-        <f>C12/SUM('Financial Model'!R20:U20)</f>
-        <v>-19.688678338041829</v>
-      </c>
-      <c r="D37" s="81"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="79">
+        <f>C12/SUM('Financial Model'!S20:V20)</f>
+        <v>-16.539993825254641</v>
+      </c>
+      <c r="D37" s="80"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2104,26 +2178,29 @@
   <dimension ref="B1:CI102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P61" sqref="P61"/>
+      <selection pane="bottomRight" activeCell="AF36" sqref="AF36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="9.140625" style="48"/>
-    <col min="30" max="39" width="9.140625" style="28"/>
-    <col min="40" max="40" width="9.140625" style="1"/>
-    <col min="41" max="41" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="22" width="9.1640625" style="1"/>
+    <col min="23" max="23" width="9.1640625" style="106"/>
+    <col min="24" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="29" width="9.1640625" style="94"/>
+    <col min="30" max="30" width="9.1640625" style="48"/>
+    <col min="31" max="39" width="9.1640625" style="28"/>
+    <col min="40" max="40" width="9.1640625" style="1"/>
+    <col min="41" max="41" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:39" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="21" t="s">
         <v>29</v>
       </c>
@@ -2181,8 +2258,11 @@
       <c r="U1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="24" t="s">
         <v>48</v>
+      </c>
+      <c r="W1" s="101" t="s">
+        <v>155</v>
       </c>
       <c r="Y1" s="21" t="s">
         <v>49</v>
@@ -2196,10 +2276,10 @@
       <c r="AB1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="49" t="s">
+      <c r="AC1" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="54" t="s">
+      <c r="AD1" s="49" t="s">
         <v>54</v>
       </c>
       <c r="AE1" s="54" t="s">
@@ -2230,7 +2310,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="22"/>
       <c r="I2" s="26">
         <v>43738</v>
@@ -2262,12 +2342,19 @@
       <c r="U2" s="26">
         <v>44834</v>
       </c>
+      <c r="V2" s="26">
+        <v>44926</v>
+      </c>
+      <c r="W2" s="102"/>
       <c r="AB2" s="26">
         <f>R2</f>
         <v>44561</v>
       </c>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="55"/>
+      <c r="AC2" s="89">
+        <f>V2</f>
+        <v>44926</v>
+      </c>
+      <c r="AD2" s="50"/>
       <c r="AE2" s="55"/>
       <c r="AF2" s="55"/>
       <c r="AG2" s="55"/>
@@ -2278,7 +2365,7 @@
       <c r="AL2" s="55"/>
       <c r="AM2" s="55"/>
     </row>
-    <row r="3" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="22"/>
       <c r="M3" s="25">
         <v>47392</v>
@@ -2295,12 +2382,19 @@
       <c r="U3" s="25">
         <v>46661</v>
       </c>
+      <c r="V3" s="25">
+        <v>42036</v>
+      </c>
+      <c r="W3" s="102"/>
       <c r="AB3" s="25">
         <f>R3</f>
         <v>42401</v>
       </c>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="55"/>
+      <c r="AC3" s="90">
+        <f>V3</f>
+        <v>42036</v>
+      </c>
+      <c r="AD3" s="50"/>
       <c r="AE3" s="55"/>
       <c r="AF3" s="55"/>
       <c r="AG3" s="55"/>
@@ -2311,7 +2405,7 @@
       <c r="AL3" s="55"/>
       <c r="AM3" s="55"/>
     </row>
-    <row r="4" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="30" t="s">
         <v>71</v>
       </c>
@@ -2345,13 +2439,21 @@
       <c r="U4" s="31">
         <v>376.30099999999999</v>
       </c>
+      <c r="V4" s="31">
+        <v>400.25400000000002</v>
+      </c>
+      <c r="W4" s="46"/>
       <c r="AB4" s="31">
         <f>SUM(O4:R4)</f>
         <v>1342.3340000000001</v>
       </c>
-      <c r="AC4" s="46"/>
-    </row>
-    <row r="5" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC4" s="91">
+        <f>SUM(S4:V4)</f>
+        <v>1487.759</v>
+      </c>
+      <c r="AD4" s="46"/>
+    </row>
+    <row r="5" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="30" t="s">
         <v>72</v>
       </c>
@@ -2385,13 +2487,21 @@
       <c r="U5" s="31">
         <v>989.899</v>
       </c>
+      <c r="V5" s="31">
+        <v>1334.7239999999999</v>
+      </c>
+      <c r="W5" s="46"/>
       <c r="AB5" s="31">
         <f t="shared" ref="AB5:AB8" si="0">SUM(O5:R5)</f>
         <v>3269.5219999999999</v>
       </c>
-      <c r="AC5" s="46"/>
-    </row>
-    <row r="6" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC5" s="91">
+        <f>SUM(S5:V5)</f>
+        <v>4112.1049999999996</v>
+      </c>
+      <c r="AD5" s="46"/>
+    </row>
+    <row r="6" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="32" t="s">
         <v>73</v>
       </c>
@@ -2472,8 +2582,12 @@
         <v>1366.2</v>
       </c>
       <c r="V6" s="32">
-        <f>U6*(1+V27)</f>
-        <v>1707.75</v>
+        <f>V4+V5</f>
+        <v>1734.9780000000001</v>
+      </c>
+      <c r="W6" s="104">
+        <f>V6*(1+W24)</f>
+        <v>2220.7718400000003</v>
       </c>
       <c r="AA6" s="32">
         <v>2929.491</v>
@@ -2482,52 +2596,52 @@
         <f>AB4+AB5</f>
         <v>4611.8559999999998</v>
       </c>
-      <c r="AC6" s="51">
+      <c r="AC6" s="92">
         <f>SUM(S6:V6)</f>
-        <v>5572.6360000000004</v>
-      </c>
-      <c r="AD6" s="56">
+        <v>5599.8640000000005</v>
+      </c>
+      <c r="AD6" s="51">
         <f>AC6*(1+AD24)</f>
-        <v>7244.4268000000011</v>
+        <v>7279.8232000000007</v>
       </c>
       <c r="AE6" s="56">
         <f t="shared" ref="AE6:AM6" si="2">AD6*(1+AE24)</f>
-        <v>10142.197520000002</v>
+        <v>10191.752480000001</v>
       </c>
       <c r="AF6" s="56">
         <f t="shared" si="2"/>
-        <v>15213.296280000002</v>
+        <v>15287.628720000001</v>
       </c>
       <c r="AG6" s="56">
         <f t="shared" si="2"/>
-        <v>22059.279606000004</v>
+        <v>22167.061644000001</v>
       </c>
       <c r="AH6" s="56">
         <f t="shared" si="2"/>
-        <v>30882.991448400004</v>
+        <v>31033.8863016</v>
       </c>
       <c r="AI6" s="56">
         <f t="shared" si="2"/>
-        <v>40147.888882920008</v>
+        <v>40344.052192080002</v>
       </c>
       <c r="AJ6" s="56">
         <f t="shared" si="2"/>
-        <v>48177.466659504011</v>
+        <v>48412.862630495998</v>
       </c>
       <c r="AK6" s="56">
         <f t="shared" si="2"/>
-        <v>56849.410658214729</v>
+        <v>57127.177903985277</v>
       </c>
       <c r="AL6" s="56">
         <f t="shared" si="2"/>
-        <v>64239.834043782641</v>
+        <v>64553.711031503357</v>
       </c>
       <c r="AM6" s="56">
         <f t="shared" si="2"/>
-        <v>69379.020767285256</v>
-      </c>
-    </row>
-    <row r="7" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
+        <v>69718.007914023634</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="30" t="s">
         <v>74</v>
       </c>
@@ -2561,13 +2675,21 @@
       <c r="U7" s="31">
         <v>82.313000000000002</v>
       </c>
+      <c r="V7" s="31">
+        <v>85.771000000000001</v>
+      </c>
+      <c r="W7" s="46"/>
       <c r="AB7" s="31">
         <f t="shared" si="0"/>
         <v>264.351</v>
       </c>
-      <c r="AC7" s="46"/>
-    </row>
-    <row r="8" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC7" s="91">
+        <f>SUM(S7:V7)</f>
+        <v>330.86700000000002</v>
+      </c>
+      <c r="AD7" s="46"/>
+    </row>
+    <row r="8" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="30" t="s">
         <v>75</v>
       </c>
@@ -2601,13 +2723,21 @@
       <c r="U8" s="31">
         <v>621.55499999999995</v>
       </c>
+      <c r="V8" s="31">
+        <v>850.69899999999996</v>
+      </c>
+      <c r="W8" s="46"/>
       <c r="AB8" s="31">
         <f t="shared" si="0"/>
         <v>1866.3610000000001</v>
       </c>
-      <c r="AC8" s="46"/>
-    </row>
-    <row r="9" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC8" s="91">
+        <f>SUM(S8:V8)</f>
+        <v>2514.8780000000002</v>
+      </c>
+      <c r="AD8" s="46"/>
+    </row>
+    <row r="9" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="33" t="s">
         <v>76</v>
       </c>
@@ -2688,8 +2818,12 @@
         <v>703.86799999999994</v>
       </c>
       <c r="V9" s="33">
-        <f>V6*(1-V29)</f>
-        <v>853.875</v>
+        <f>V7+V8</f>
+        <v>936.46999999999991</v>
+      </c>
+      <c r="W9" s="98">
+        <f>W6*(1-W29)</f>
+        <v>1199.2167936000003</v>
       </c>
       <c r="X9" s="31"/>
       <c r="Y9" s="31"/>
@@ -2700,52 +2834,52 @@
         <f>AB7+AB8</f>
         <v>2130.712</v>
       </c>
-      <c r="AC9" s="46">
+      <c r="AC9" s="91">
         <f>SUM(S9:V9)</f>
-        <v>2763.15</v>
-      </c>
-      <c r="AD9" s="33">
+        <v>2845.7449999999999</v>
+      </c>
+      <c r="AD9" s="98">
         <f t="shared" ref="AD9:AM9" si="4">AD6*(1-AD29)</f>
-        <v>3477.3248640000006</v>
+        <v>3785.5080640000006</v>
       </c>
       <c r="AE9" s="33">
         <f t="shared" si="4"/>
-        <v>4969.6767848000009</v>
+        <v>4993.9587152000004</v>
       </c>
       <c r="AF9" s="33">
         <f t="shared" si="4"/>
-        <v>7454.5151772000008</v>
+        <v>7490.9380728000006</v>
       </c>
       <c r="AG9" s="33">
         <f t="shared" si="4"/>
-        <v>10588.454210880001</v>
+        <v>10640.18958912</v>
       </c>
       <c r="AH9" s="33">
         <f t="shared" si="4"/>
-        <v>14515.005980748001</v>
+        <v>14585.926561752</v>
       </c>
       <c r="AI9" s="33">
         <f t="shared" si="4"/>
-        <v>18066.549997314003</v>
+        <v>18154.823486435998</v>
       </c>
       <c r="AJ9" s="33">
         <f t="shared" si="4"/>
-        <v>21679.859996776802</v>
+        <v>21785.788183723198</v>
       </c>
       <c r="AK9" s="33">
         <f t="shared" si="4"/>
-        <v>25582.234796196626</v>
+        <v>25707.230056793371</v>
       </c>
       <c r="AL9" s="33">
         <f t="shared" si="4"/>
-        <v>28907.925319702186</v>
+        <v>29049.169964176508</v>
       </c>
       <c r="AM9" s="33">
         <f t="shared" si="4"/>
-        <v>31220.559345278361</v>
-      </c>
-    </row>
-    <row r="10" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.2">
+        <v>31373.103561310632</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="32" t="s">
         <v>77</v>
       </c>
@@ -2827,7 +2961,11 @@
       </c>
       <c r="V10" s="32">
         <f>V6-V9</f>
-        <v>853.875</v>
+        <v>798.50800000000015</v>
+      </c>
+      <c r="W10" s="104">
+        <f>W6-W9</f>
+        <v>1021.5550464</v>
       </c>
       <c r="AA10" s="32">
         <f>AA6-AA9</f>
@@ -2837,52 +2975,52 @@
         <f>AB6-AB9</f>
         <v>2481.1439999999998</v>
       </c>
-      <c r="AC10" s="51">
+      <c r="AC10" s="92">
         <f>AC6-AC9</f>
-        <v>2809.4860000000003</v>
-      </c>
-      <c r="AD10" s="56">
+        <v>2754.1190000000006</v>
+      </c>
+      <c r="AD10" s="51">
         <f>AD6-AD9</f>
-        <v>3767.1019360000005</v>
+        <v>3494.3151360000002</v>
       </c>
       <c r="AE10" s="56">
         <f t="shared" ref="AE10:AM10" si="6">AE6-AE9</f>
-        <v>5172.5207352000007</v>
+        <v>5197.7937648000006</v>
       </c>
       <c r="AF10" s="56">
         <f t="shared" si="6"/>
-        <v>7758.7811028000015</v>
+        <v>7796.6906472000001</v>
       </c>
       <c r="AG10" s="56">
         <f t="shared" si="6"/>
-        <v>11470.825395120002</v>
+        <v>11526.872054880001</v>
       </c>
       <c r="AH10" s="56">
         <f t="shared" si="6"/>
-        <v>16367.985467652003</v>
+        <v>16447.959739848</v>
       </c>
       <c r="AI10" s="56">
         <f t="shared" si="6"/>
-        <v>22081.338885606005</v>
+        <v>22189.228705644004</v>
       </c>
       <c r="AJ10" s="56">
         <f t="shared" si="6"/>
-        <v>26497.606662727208</v>
+        <v>26627.0744467728</v>
       </c>
       <c r="AK10" s="56">
         <f t="shared" si="6"/>
-        <v>31267.175862018103</v>
+        <v>31419.947847191906</v>
       </c>
       <c r="AL10" s="56">
         <f t="shared" si="6"/>
-        <v>35331.908724080451</v>
+        <v>35504.541067326849</v>
       </c>
       <c r="AM10" s="56">
         <f t="shared" si="6"/>
-        <v>38158.461422006891</v>
-      </c>
-    </row>
-    <row r="11" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
+        <v>38344.904352712998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="33" t="s">
         <v>78</v>
       </c>
@@ -2917,9 +3055,9 @@
         <v>302.476</v>
       </c>
       <c r="V11" s="33">
-        <f>V6*0.23</f>
-        <v>392.78250000000003</v>
-      </c>
+        <v>297.74099999999999</v>
+      </c>
+      <c r="W11" s="98"/>
       <c r="X11" s="36"/>
       <c r="Y11" s="36"/>
       <c r="Z11" s="36"/>
@@ -2927,52 +3065,52 @@
         <f>SUM(O11:R11)</f>
         <v>901.55700000000013</v>
       </c>
-      <c r="AC11" s="46">
+      <c r="AC11" s="91">
         <f>SUM(S11:V11)</f>
-        <v>1325.5315000000001</v>
-      </c>
-      <c r="AD11" s="33">
+        <v>1230.4899999999998</v>
+      </c>
+      <c r="AD11" s="98">
         <f>AD6*0.18</f>
-        <v>1303.9968240000001</v>
+        <v>1310.3681760000002</v>
       </c>
       <c r="AE11" s="33">
         <f>AE6*0.15</f>
-        <v>1521.3296280000002</v>
+        <v>1528.762872</v>
       </c>
       <c r="AF11" s="33">
         <f t="shared" ref="AF11:AG11" si="7">AF6*0.15</f>
-        <v>2281.9944420000002</v>
+        <v>2293.1443079999999</v>
       </c>
       <c r="AG11" s="33">
         <f t="shared" si="7"/>
-        <v>3308.8919409000005</v>
+        <v>3325.0592466000003</v>
       </c>
       <c r="AH11" s="33">
         <f>AH6*0.1</f>
-        <v>3088.2991448400007</v>
+        <v>3103.38863016</v>
       </c>
       <c r="AI11" s="33">
         <f t="shared" ref="AI11:AM11" si="8">AI6*0.1</f>
-        <v>4014.788888292001</v>
+        <v>4034.4052192080003</v>
       </c>
       <c r="AJ11" s="33">
         <f t="shared" si="8"/>
-        <v>4817.7466659504016</v>
+        <v>4841.2862630496002</v>
       </c>
       <c r="AK11" s="33">
         <f t="shared" si="8"/>
-        <v>5684.9410658214729</v>
+        <v>5712.7177903985285</v>
       </c>
       <c r="AL11" s="33">
         <f t="shared" si="8"/>
-        <v>6423.9834043782648</v>
+        <v>6455.3711031503362</v>
       </c>
       <c r="AM11" s="33">
         <f t="shared" si="8"/>
-        <v>6937.9020767285256</v>
-      </c>
-    </row>
-    <row r="12" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6971.8007914023638</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="33" t="s">
         <v>79</v>
       </c>
@@ -3007,59 +3145,59 @@
         <v>412.35899999999998</v>
       </c>
       <c r="V12" s="33">
-        <f>V6*V36</f>
-        <v>512.32499999999993</v>
-      </c>
+        <v>440.54700000000003</v>
+      </c>
+      <c r="W12" s="98"/>
       <c r="AB12" s="33">
         <f t="shared" ref="AB12:AB14" si="9">SUM(O12:R12)</f>
         <v>854.38300000000004</v>
       </c>
-      <c r="AC12" s="46">
+      <c r="AC12" s="91">
         <f t="shared" ref="AC12:AC19" si="10">SUM(S12:V12)</f>
-        <v>1575.0119999999997</v>
-      </c>
-      <c r="AD12" s="31">
+        <v>1503.2339999999999</v>
+      </c>
+      <c r="AD12" s="46">
         <f>AD6*AD36</f>
-        <v>1811.1067000000003</v>
+        <v>1819.9558000000002</v>
       </c>
       <c r="AE12" s="31">
         <f t="shared" ref="AE12:AM12" si="11">AE6*AE36</f>
-        <v>2028.4395040000004</v>
+        <v>2547.9381200000003</v>
       </c>
       <c r="AF12" s="31">
         <f t="shared" si="11"/>
-        <v>2738.3933304000002</v>
+        <v>3057.5257440000005</v>
       </c>
       <c r="AG12" s="31">
         <f t="shared" si="11"/>
-        <v>3970.6703290800006</v>
+        <v>3990.0710959200001</v>
       </c>
       <c r="AH12" s="31">
         <f t="shared" si="11"/>
-        <v>5558.9384607120001</v>
+        <v>5586.0995342879996</v>
       </c>
       <c r="AI12" s="31">
         <f t="shared" si="11"/>
-        <v>6022.1833324380013</v>
+        <v>6051.6078288119998</v>
       </c>
       <c r="AJ12" s="31">
         <f t="shared" si="11"/>
-        <v>7226.6199989256011</v>
+        <v>7261.9293945743993</v>
       </c>
       <c r="AK12" s="31">
         <f t="shared" si="11"/>
-        <v>8527.4115987322093</v>
+        <v>8569.0766855977909</v>
       </c>
       <c r="AL12" s="31">
         <f t="shared" si="11"/>
-        <v>9635.9751065673954</v>
+        <v>9683.0566547255039</v>
       </c>
       <c r="AM12" s="31">
         <f t="shared" si="11"/>
-        <v>10406.853115092788</v>
-      </c>
-    </row>
-    <row r="13" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10457.701187103545</v>
+      </c>
+    </row>
+    <row r="13" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="33" t="s">
         <v>80</v>
       </c>
@@ -3094,62 +3232,61 @@
         <v>255.125</v>
       </c>
       <c r="V13" s="33">
-        <f>V6*0.19</f>
-        <v>324.47250000000003</v>
-      </c>
-      <c r="W13" s="36"/>
+        <v>214.65100000000001</v>
+      </c>
+      <c r="W13" s="118"/>
       <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
       <c r="AB13" s="33">
         <f t="shared" si="9"/>
         <v>374.84399999999994</v>
       </c>
-      <c r="AC13" s="46">
+      <c r="AC13" s="91">
         <f t="shared" si="10"/>
-        <v>817.58650000000011</v>
-      </c>
-      <c r="AD13" s="31">
+        <v>707.7650000000001</v>
+      </c>
+      <c r="AD13" s="46">
         <f>AD6*0.28</f>
-        <v>2028.4395040000004</v>
+        <v>2038.3504960000005</v>
       </c>
       <c r="AE13" s="31">
         <f>AE6*0.28</f>
-        <v>2839.8153056000006</v>
+        <v>2853.6906944000007</v>
       </c>
       <c r="AF13" s="31">
         <f>AF6*0.225</f>
-        <v>3422.9916630000007</v>
+        <v>3439.7164620000003</v>
       </c>
       <c r="AG13" s="31">
         <f t="shared" ref="AG13:AM13" si="12">AG6*0.225</f>
-        <v>4963.3379113500014</v>
+        <v>4987.5888699000006</v>
       </c>
       <c r="AH13" s="31">
         <f t="shared" si="12"/>
-        <v>6948.6730758900012</v>
+        <v>6982.62441786</v>
       </c>
       <c r="AI13" s="31">
         <f t="shared" si="12"/>
-        <v>9033.2749986570016</v>
+        <v>9077.411743218001</v>
       </c>
       <c r="AJ13" s="31">
         <f t="shared" si="12"/>
-        <v>10839.929998388403</v>
+        <v>10892.894091861599</v>
       </c>
       <c r="AK13" s="31">
         <f t="shared" si="12"/>
-        <v>12791.117398098315</v>
+        <v>12853.615028396687</v>
       </c>
       <c r="AL13" s="31">
         <f t="shared" si="12"/>
-        <v>14453.962659851095</v>
+        <v>14524.584982088256</v>
       </c>
       <c r="AM13" s="31">
         <f t="shared" si="12"/>
-        <v>15610.279672639183</v>
-      </c>
-    </row>
-    <row r="14" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15686.551780655318</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="33" t="s">
         <v>81</v>
       </c>
@@ -3184,59 +3321,59 @@
         <v>37.738</v>
       </c>
       <c r="V14" s="33">
-        <f>AVERAGE(Q14:U14)</f>
-        <v>30.747199999999999</v>
-      </c>
+        <v>34.317999999999998</v>
+      </c>
+      <c r="W14" s="98"/>
       <c r="AB14" s="33">
         <f t="shared" si="9"/>
         <v>81.716999999999999</v>
       </c>
-      <c r="AC14" s="46">
+      <c r="AC14" s="91">
         <f t="shared" si="10"/>
-        <v>131.35820000000001</v>
-      </c>
-      <c r="AD14" s="31">
+        <v>134.929</v>
+      </c>
+      <c r="AD14" s="46">
         <f>AVERAGE(Y14:AC14)</f>
-        <v>106.5376</v>
+        <v>108.32300000000001</v>
       </c>
       <c r="AE14" s="31">
         <f t="shared" ref="AE14:AM14" si="13">AVERAGE(Z14:AD14)</f>
-        <v>106.5376</v>
+        <v>108.32300000000002</v>
       </c>
       <c r="AF14" s="31">
         <f t="shared" si="13"/>
-        <v>106.5376</v>
+        <v>108.32300000000002</v>
       </c>
       <c r="AG14" s="31">
         <f t="shared" si="13"/>
-        <v>106.5376</v>
+        <v>108.32300000000002</v>
       </c>
       <c r="AH14" s="31">
         <f t="shared" si="13"/>
-        <v>111.50172000000001</v>
+        <v>113.64420000000003</v>
       </c>
       <c r="AI14" s="31">
         <f t="shared" si="13"/>
-        <v>107.530424</v>
+        <v>109.38724000000002</v>
       </c>
       <c r="AJ14" s="31">
         <f t="shared" si="13"/>
-        <v>107.7289888</v>
+        <v>109.600088</v>
       </c>
       <c r="AK14" s="31">
         <f t="shared" si="13"/>
-        <v>107.96726655999998</v>
+        <v>109.85550560000001</v>
       </c>
       <c r="AL14" s="31">
         <f t="shared" si="13"/>
-        <v>108.25319987200001</v>
+        <v>110.16200672000002</v>
       </c>
       <c r="AM14" s="31">
         <f t="shared" si="13"/>
-        <v>108.59631984640001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
+        <v>110.52980806400001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="33" t="s">
         <v>82</v>
       </c>
@@ -3318,58 +3455,59 @@
       </c>
       <c r="V15" s="33">
         <f t="shared" ref="V15" si="15">SUM(V11:V14)</f>
-        <v>1260.3271999999999</v>
-      </c>
+        <v>987.25700000000006</v>
+      </c>
+      <c r="W15" s="98"/>
       <c r="AB15" s="33">
         <f>SUM(AB11:AB14)</f>
         <v>2212.5010000000002</v>
       </c>
-      <c r="AC15" s="46">
+      <c r="AC15" s="91">
         <f>SUM(AC11:AC14)</f>
-        <v>3849.4882000000002</v>
-      </c>
-      <c r="AD15" s="31">
+        <v>3576.4179999999997</v>
+      </c>
+      <c r="AD15" s="46">
         <f t="shared" ref="AD15:AM15" si="16">SUM(AD11:AD14)</f>
-        <v>5250.0806279999997</v>
+        <v>5276.9974720000009</v>
       </c>
       <c r="AE15" s="31">
         <f t="shared" si="16"/>
-        <v>6496.1220376000001</v>
+        <v>7038.7146864000006</v>
       </c>
       <c r="AF15" s="31">
         <f t="shared" si="16"/>
-        <v>8549.9170354000016</v>
+        <v>8898.7095140000019</v>
       </c>
       <c r="AG15" s="31">
         <f t="shared" si="16"/>
-        <v>12349.437781330002</v>
+        <v>12411.042212420001</v>
       </c>
       <c r="AH15" s="31">
         <f t="shared" si="16"/>
-        <v>15707.412401442001</v>
+        <v>15785.756782308001</v>
       </c>
       <c r="AI15" s="31">
         <f t="shared" si="16"/>
-        <v>19177.777643387006</v>
+        <v>19272.812031238002</v>
       </c>
       <c r="AJ15" s="31">
         <f t="shared" si="16"/>
-        <v>22992.025652064407</v>
+        <v>23105.7098374856</v>
       </c>
       <c r="AK15" s="31">
         <f t="shared" si="16"/>
-        <v>27111.437329212</v>
+        <v>27245.265009993007</v>
       </c>
       <c r="AL15" s="31">
         <f t="shared" si="16"/>
-        <v>30622.174370668756</v>
+        <v>30773.174746684097</v>
       </c>
       <c r="AM15" s="31">
         <f t="shared" si="16"/>
-        <v>33063.631184306898</v>
-      </c>
-    </row>
-    <row r="16" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.2">
+        <v>33226.583567225221</v>
+      </c>
+    </row>
+    <row r="16" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
         <v>83</v>
       </c>
@@ -3451,58 +3589,59 @@
       </c>
       <c r="V16" s="32">
         <f t="shared" ref="V16" si="18">V10-V15</f>
-        <v>-406.45219999999995</v>
-      </c>
+        <v>-188.74899999999991</v>
+      </c>
+      <c r="W16" s="104"/>
       <c r="AB16" s="32">
         <f>AB10-AB15</f>
         <v>268.64299999999957</v>
       </c>
-      <c r="AC16" s="51">
+      <c r="AC16" s="92">
         <f>AC10-AC15</f>
-        <v>-1040.0021999999999</v>
-      </c>
-      <c r="AD16" s="56">
+        <v>-822.29899999999907</v>
+      </c>
+      <c r="AD16" s="51">
         <f t="shared" ref="AD16:AM16" si="19">AD10-AD15</f>
-        <v>-1482.9786919999992</v>
+        <v>-1782.6823360000008</v>
       </c>
       <c r="AE16" s="56">
         <f t="shared" si="19"/>
-        <v>-1323.6013023999994</v>
+        <v>-1840.9209215999999</v>
       </c>
       <c r="AF16" s="56">
         <f t="shared" si="19"/>
-        <v>-791.13593260000016</v>
+        <v>-1102.0188668000019</v>
       </c>
       <c r="AG16" s="56">
         <f t="shared" si="19"/>
-        <v>-878.61238620999939</v>
+        <v>-884.17015754000022</v>
       </c>
       <c r="AH16" s="56">
         <f t="shared" si="19"/>
-        <v>660.57306621000134</v>
+        <v>662.20295753999926</v>
       </c>
       <c r="AI16" s="56">
         <f t="shared" si="19"/>
-        <v>2903.5612422189988</v>
+        <v>2916.4166744060021</v>
       </c>
       <c r="AJ16" s="56">
         <f t="shared" si="19"/>
-        <v>3505.5810106628014</v>
+        <v>3521.3646092872004</v>
       </c>
       <c r="AK16" s="56">
         <f t="shared" si="19"/>
-        <v>4155.7385328061027</v>
+        <v>4174.6828371988995</v>
       </c>
       <c r="AL16" s="56">
         <f t="shared" si="19"/>
-        <v>4709.7343534116953</v>
+        <v>4731.3663206427518</v>
       </c>
       <c r="AM16" s="56">
         <f t="shared" si="19"/>
-        <v>5094.8302376999927</v>
-      </c>
-    </row>
-    <row r="17" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5118.3207854877764</v>
+      </c>
+    </row>
+    <row r="17" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="33" t="s">
         <v>84</v>
       </c>
@@ -3537,59 +3676,59 @@
         <v>188.233</v>
       </c>
       <c r="V17" s="33">
-        <f>AVERAGE(R17:U17)</f>
-        <v>-719.45324999999991</v>
-      </c>
+        <v>-425.85899999999998</v>
+      </c>
+      <c r="W17" s="98"/>
       <c r="AB17" s="33">
         <f t="shared" ref="AB17" si="20">SUM(O17:R17)</f>
         <v>2871.9490000000001</v>
       </c>
-      <c r="AC17" s="46">
+      <c r="AC17" s="91">
         <f t="shared" si="10"/>
-        <v>-3094.1432500000001</v>
-      </c>
-      <c r="AD17" s="31">
+        <v>-2800.549</v>
+      </c>
+      <c r="AD17" s="46">
         <f>AVERAGE(Y17:AC17)</f>
-        <v>-111.09712500000001</v>
+        <v>35.700000000000045</v>
       </c>
       <c r="AE17" s="31">
         <f t="shared" ref="AE17:AM17" si="21">AVERAGE(Z17:AD17)</f>
-        <v>-111.09712500000001</v>
+        <v>35.700000000000045</v>
       </c>
       <c r="AF17" s="31">
         <f t="shared" si="21"/>
-        <v>-111.09712500000001</v>
+        <v>35.700000000000045</v>
       </c>
       <c r="AG17" s="31">
         <f t="shared" si="21"/>
-        <v>-111.09712500000001</v>
+        <v>35.700000000000045</v>
       </c>
       <c r="AH17" s="31">
         <f t="shared" si="21"/>
-        <v>-707.70635000000016</v>
+        <v>-531.54980000000012</v>
       </c>
       <c r="AI17" s="31">
         <f t="shared" si="21"/>
-        <v>-230.41897000000003</v>
+        <v>-77.749959999999987</v>
       </c>
       <c r="AJ17" s="31">
         <f t="shared" si="21"/>
-        <v>-254.28333900000001</v>
+        <v>-100.43995199999999</v>
       </c>
       <c r="AK17" s="31">
         <f t="shared" si="21"/>
-        <v>-282.92058180000004</v>
+        <v>-127.66794239999999</v>
       </c>
       <c r="AL17" s="31">
         <f t="shared" si="21"/>
-        <v>-317.28527316000003</v>
+        <v>-160.34153087999999</v>
       </c>
       <c r="AM17" s="31">
         <f t="shared" si="21"/>
-        <v>-358.52290279200008</v>
-      </c>
-    </row>
-    <row r="18" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-199.54983705600003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="33" t="s">
         <v>85</v>
       </c>
@@ -3671,58 +3810,59 @@
       </c>
       <c r="V18" s="33">
         <f t="shared" ref="V18" si="23">V16+V17</f>
-        <v>-1125.9054499999997</v>
-      </c>
+        <v>-614.60799999999995</v>
+      </c>
+      <c r="W18" s="98"/>
       <c r="AB18" s="33">
         <f>AB16+AB17</f>
         <v>3140.5919999999996</v>
       </c>
-      <c r="AC18" s="46">
+      <c r="AC18" s="91">
         <f>AC16+AC17</f>
-        <v>-4134.14545</v>
-      </c>
-      <c r="AD18" s="31">
+        <v>-3622.847999999999</v>
+      </c>
+      <c r="AD18" s="46">
         <f t="shared" ref="AD18:AM18" si="24">AD16+AD17</f>
-        <v>-1594.0758169999992</v>
+        <v>-1746.9823360000007</v>
       </c>
       <c r="AE18" s="31">
         <f t="shared" si="24"/>
-        <v>-1434.6984273999994</v>
+        <v>-1805.2209215999999</v>
       </c>
       <c r="AF18" s="31">
         <f t="shared" si="24"/>
-        <v>-902.23305760000017</v>
+        <v>-1066.3188668000018</v>
       </c>
       <c r="AG18" s="31">
         <f t="shared" si="24"/>
-        <v>-989.70951120999939</v>
+        <v>-848.47015754000017</v>
       </c>
       <c r="AH18" s="31">
         <f t="shared" si="24"/>
-        <v>-47.133283789998814</v>
+        <v>130.65315753999914</v>
       </c>
       <c r="AI18" s="31">
         <f t="shared" si="24"/>
-        <v>2673.1422722189986</v>
+        <v>2838.666714406002</v>
       </c>
       <c r="AJ18" s="31">
         <f t="shared" si="24"/>
-        <v>3251.2976716628013</v>
+        <v>3420.9246572872003</v>
       </c>
       <c r="AK18" s="31">
         <f t="shared" si="24"/>
-        <v>3872.8179510061027</v>
+        <v>4047.0148947988996</v>
       </c>
       <c r="AL18" s="31">
         <f t="shared" si="24"/>
-        <v>4392.4490802516957</v>
+        <v>4571.0247897627514</v>
       </c>
       <c r="AM18" s="31">
         <f t="shared" si="24"/>
-        <v>4736.3073349079923</v>
-      </c>
-    </row>
-    <row r="19" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4918.7709484317766</v>
+      </c>
+    </row>
+    <row r="19" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="33" t="s">
         <v>86</v>
       </c>
@@ -3757,59 +3897,59 @@
         <v>1.276</v>
       </c>
       <c r="V19" s="33">
-        <f>V18*V34</f>
-        <v>-281.47636249999994</v>
-      </c>
+        <v>9.0860000000000003</v>
+      </c>
+      <c r="W19" s="98"/>
       <c r="AB19" s="33">
         <f t="shared" ref="AB19" si="25">SUM(O19:R19)</f>
         <v>225.93299999999999</v>
       </c>
-      <c r="AC19" s="46">
+      <c r="AC19" s="91">
         <f t="shared" si="10"/>
-        <v>-452.9923624999999</v>
-      </c>
-      <c r="AD19" s="31">
+        <v>-162.42999999999998</v>
+      </c>
+      <c r="AD19" s="46">
         <f>AD18*AD36</f>
-        <v>-398.51895424999981</v>
+        <v>-436.74558400000018</v>
       </c>
       <c r="AE19" s="31">
         <f t="shared" ref="AE19:AM19" si="26">AE18*AE36</f>
-        <v>-286.93968547999992</v>
+        <v>-451.30523039999997</v>
       </c>
       <c r="AF19" s="31">
         <f t="shared" si="26"/>
-        <v>-162.40195036800003</v>
+        <v>-213.26377336000039</v>
       </c>
       <c r="AG19" s="31">
         <f t="shared" si="26"/>
-        <v>-178.14771201779988</v>
+        <v>-152.72462835720003</v>
       </c>
       <c r="AH19" s="31">
         <f t="shared" si="26"/>
-        <v>-8.4839910821997861</v>
+        <v>23.517568357199846</v>
       </c>
       <c r="AI19" s="31">
         <f t="shared" si="26"/>
-        <v>400.97134083284976</v>
+        <v>425.80000716090029</v>
       </c>
       <c r="AJ19" s="31">
         <f t="shared" si="26"/>
-        <v>487.69465074942019</v>
+        <v>513.13869859307999</v>
       </c>
       <c r="AK19" s="31">
         <f t="shared" si="26"/>
-        <v>580.92269265091534</v>
+        <v>607.05223421983487</v>
       </c>
       <c r="AL19" s="31">
         <f t="shared" si="26"/>
-        <v>658.86736203775433</v>
+        <v>685.65371846441269</v>
       </c>
       <c r="AM19" s="31">
         <f t="shared" si="26"/>
-        <v>710.44610023619884</v>
-      </c>
-    </row>
-    <row r="20" spans="2:87" s="32" customFormat="1" x14ac:dyDescent="0.2">
+        <v>737.81564226476644</v>
+      </c>
+    </row>
+    <row r="20" spans="2:87" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="32" t="s">
         <v>87</v>
       </c>
@@ -3891,250 +4031,251 @@
       </c>
       <c r="V20" s="32">
         <f t="shared" ref="V20" si="28">V18-V19</f>
-        <v>-844.42908749999981</v>
-      </c>
+        <v>-623.69399999999996</v>
+      </c>
+      <c r="W20" s="104"/>
       <c r="AB20" s="32">
         <f>AB18-AB19</f>
         <v>2914.6589999999997</v>
       </c>
-      <c r="AC20" s="51">
+      <c r="AC20" s="92">
         <f>AC18-AC19</f>
-        <v>-3681.1530874999999</v>
-      </c>
-      <c r="AD20" s="56">
+        <v>-3460.4179999999992</v>
+      </c>
+      <c r="AD20" s="51">
         <f t="shared" ref="AD20:AM20" si="29">AD18-AD19</f>
-        <v>-1195.5568627499995</v>
+        <v>-1310.2367520000005</v>
       </c>
       <c r="AE20" s="56">
         <f t="shared" si="29"/>
-        <v>-1147.7587419199995</v>
+        <v>-1353.9156911999999</v>
       </c>
       <c r="AF20" s="56">
         <f t="shared" si="29"/>
-        <v>-739.83110723200014</v>
+        <v>-853.05509344000143</v>
       </c>
       <c r="AG20" s="56">
         <f t="shared" si="29"/>
-        <v>-811.56179919219949</v>
+        <v>-695.74552918280017</v>
       </c>
       <c r="AH20" s="56">
         <f t="shared" si="29"/>
-        <v>-38.649292707799027</v>
+        <v>107.13558918279929</v>
       </c>
       <c r="AI20" s="56">
         <f t="shared" si="29"/>
-        <v>2272.1709313861488</v>
+        <v>2412.8667072451017</v>
       </c>
       <c r="AJ20" s="56">
         <f t="shared" si="29"/>
-        <v>2763.603020913381</v>
+        <v>2907.7859586941204</v>
       </c>
       <c r="AK20" s="56">
         <f t="shared" si="29"/>
-        <v>3291.8952583551873</v>
+        <v>3439.9626605790645</v>
       </c>
       <c r="AL20" s="56">
         <f t="shared" si="29"/>
-        <v>3733.5817182139413</v>
+        <v>3885.3710712983388</v>
       </c>
       <c r="AM20" s="56">
         <f t="shared" si="29"/>
-        <v>4025.8612346717937</v>
+        <v>4180.9553061670103</v>
       </c>
       <c r="AN20" s="32">
         <f>AM20*(1+$AP$23)</f>
-        <v>4106.3784593652299</v>
+        <v>4264.5744122903507</v>
       </c>
       <c r="AO20" s="32">
         <f t="shared" ref="AO20:CI20" si="30">AN20*(1+$AP$23)</f>
-        <v>4188.5060285525342</v>
+        <v>4349.8659005361578</v>
       </c>
       <c r="AP20" s="32">
         <f t="shared" si="30"/>
-        <v>4272.2761491235851</v>
+        <v>4436.8632185468814</v>
       </c>
       <c r="AQ20" s="32">
         <f t="shared" si="30"/>
-        <v>4357.7216721060568</v>
+        <v>4525.6004829178191</v>
       </c>
       <c r="AR20" s="32">
         <f t="shared" si="30"/>
-        <v>4444.8761055481782</v>
+        <v>4616.112492576176</v>
       </c>
       <c r="AS20" s="32">
         <f t="shared" si="30"/>
-        <v>4533.7736276591422</v>
+        <v>4708.4347424276993</v>
       </c>
       <c r="AT20" s="32">
         <f t="shared" si="30"/>
-        <v>4624.449100212325</v>
+        <v>4802.6034372762533</v>
       </c>
       <c r="AU20" s="32">
         <f t="shared" si="30"/>
-        <v>4716.9380822165713</v>
+        <v>4898.6555060217788</v>
       </c>
       <c r="AV20" s="32">
         <f t="shared" si="30"/>
-        <v>4811.2768438609028</v>
+        <v>4996.6286161422149</v>
       </c>
       <c r="AW20" s="32">
         <f t="shared" si="30"/>
-        <v>4907.5023807381212</v>
+        <v>5096.5611884650589</v>
       </c>
       <c r="AX20" s="32">
         <f t="shared" si="30"/>
-        <v>5005.6524283528834</v>
+        <v>5198.49241223436</v>
       </c>
       <c r="AY20" s="32">
         <f t="shared" si="30"/>
-        <v>5105.7654769199407</v>
+        <v>5302.4622604790475</v>
       </c>
       <c r="AZ20" s="32">
         <f t="shared" si="30"/>
-        <v>5207.8807864583396</v>
+        <v>5408.5115056886289</v>
       </c>
       <c r="BA20" s="32">
         <f t="shared" si="30"/>
-        <v>5312.0384021875061</v>
+        <v>5516.6817358024018</v>
       </c>
       <c r="BB20" s="32">
         <f t="shared" si="30"/>
-        <v>5418.2791702312561</v>
+        <v>5627.0153705184503</v>
       </c>
       <c r="BC20" s="32">
         <f t="shared" si="30"/>
-        <v>5526.644753635881</v>
+        <v>5739.555677928819</v>
       </c>
       <c r="BD20" s="32">
         <f t="shared" si="30"/>
-        <v>5637.177648708599</v>
+        <v>5854.3467914873954</v>
       </c>
       <c r="BE20" s="32">
         <f t="shared" si="30"/>
-        <v>5749.9212016827714</v>
+        <v>5971.4337273171432</v>
       </c>
       <c r="BF20" s="32">
         <f t="shared" si="30"/>
-        <v>5864.9196257164267</v>
+        <v>6090.8624018634864</v>
       </c>
       <c r="BG20" s="32">
         <f t="shared" si="30"/>
-        <v>5982.2180182307557</v>
+        <v>6212.679649900756</v>
       </c>
       <c r="BH20" s="32">
         <f t="shared" si="30"/>
-        <v>6101.8623785953705</v>
+        <v>6336.9332428987709</v>
       </c>
       <c r="BI20" s="32">
         <f t="shared" si="30"/>
-        <v>6223.8996261672783</v>
+        <v>6463.6719077567468</v>
       </c>
       <c r="BJ20" s="32">
         <f t="shared" si="30"/>
-        <v>6348.3776186906243</v>
+        <v>6592.9453459118822</v>
       </c>
       <c r="BK20" s="32">
         <f t="shared" si="30"/>
-        <v>6475.3451710644367</v>
+        <v>6724.8042528301203</v>
       </c>
       <c r="BL20" s="32">
         <f t="shared" si="30"/>
-        <v>6604.852074485726</v>
+        <v>6859.3003378867224</v>
       </c>
       <c r="BM20" s="32">
         <f t="shared" si="30"/>
-        <v>6736.9491159754407</v>
+        <v>6996.4863446444569</v>
       </c>
       <c r="BN20" s="32">
         <f t="shared" si="30"/>
-        <v>6871.6880982949497</v>
+        <v>7136.4160715373464</v>
       </c>
       <c r="BO20" s="32">
         <f t="shared" si="30"/>
-        <v>7009.1218602608487</v>
+        <v>7279.1443929680936</v>
       </c>
       <c r="BP20" s="32">
         <f t="shared" si="30"/>
-        <v>7149.3042974660657</v>
+        <v>7424.7272808274556</v>
       </c>
       <c r="BQ20" s="32">
         <f t="shared" si="30"/>
-        <v>7292.2903834153867</v>
+        <v>7573.2218264440053</v>
       </c>
       <c r="BR20" s="32">
         <f t="shared" si="30"/>
-        <v>7438.1361910836949</v>
+        <v>7724.6862629728857</v>
       </c>
       <c r="BS20" s="32">
         <f t="shared" si="30"/>
-        <v>7586.8989149053687</v>
+        <v>7879.1799882323439</v>
       </c>
       <c r="BT20" s="32">
         <f t="shared" si="30"/>
-        <v>7738.6368932034766</v>
+        <v>8036.7635879969912</v>
       </c>
       <c r="BU20" s="32">
         <f t="shared" si="30"/>
-        <v>7893.4096310675459</v>
+        <v>8197.4988597569318</v>
       </c>
       <c r="BV20" s="32">
         <f t="shared" si="30"/>
-        <v>8051.2778236888971</v>
+        <v>8361.4488369520714</v>
       </c>
       <c r="BW20" s="32">
         <f t="shared" si="30"/>
-        <v>8212.3033801626752</v>
+        <v>8528.6778136911125</v>
       </c>
       <c r="BX20" s="32">
         <f t="shared" si="30"/>
-        <v>8376.5494477659286</v>
+        <v>8699.2513699649353</v>
       </c>
       <c r="BY20" s="32">
         <f t="shared" si="30"/>
-        <v>8544.0804367212477</v>
+        <v>8873.236397364235</v>
       </c>
       <c r="BZ20" s="32">
         <f t="shared" si="30"/>
-        <v>8714.9620454556734</v>
+        <v>9050.7011253115197</v>
       </c>
       <c r="CA20" s="32">
         <f t="shared" si="30"/>
-        <v>8889.2612863647864</v>
+        <v>9231.7151478177511</v>
       </c>
       <c r="CB20" s="32">
         <f t="shared" si="30"/>
-        <v>9067.0465120920817</v>
+        <v>9416.349450774107</v>
       </c>
       <c r="CC20" s="32">
         <f t="shared" si="30"/>
-        <v>9248.3874423339239</v>
+        <v>9604.6764397895895</v>
       </c>
       <c r="CD20" s="32">
         <f t="shared" si="30"/>
-        <v>9433.3551911806026</v>
+        <v>9796.7699685853822</v>
       </c>
       <c r="CE20" s="32">
         <f t="shared" si="30"/>
-        <v>9622.0222950042153</v>
+        <v>9992.7053679570909</v>
       </c>
       <c r="CF20" s="32">
         <f t="shared" si="30"/>
-        <v>9814.4627409043005</v>
+        <v>10192.559475316233</v>
       </c>
       <c r="CG20" s="32">
         <f t="shared" si="30"/>
-        <v>10010.751995722387</v>
+        <v>10396.410664822559</v>
       </c>
       <c r="CH20" s="32">
         <f t="shared" si="30"/>
-        <v>10210.967035636835</v>
+        <v>10604.33887811901</v>
       </c>
       <c r="CI20" s="32">
         <f t="shared" si="30"/>
-        <v>10415.186376349571</v>
-      </c>
-    </row>
-    <row r="21" spans="2:87" x14ac:dyDescent="0.2">
+        <v>10816.425655681391</v>
+      </c>
+    </row>
+    <row r="21" spans="2:87" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
@@ -4180,59 +4321,59 @@
       </c>
       <c r="V21" s="29">
         <f t="shared" si="33"/>
-        <v>-0.66520585080920691</v>
+        <v>-0.48980993749720042</v>
       </c>
       <c r="X21" s="33"/>
       <c r="AB21" s="33">
         <f>AB20/AB22</f>
         <v>23.181013077887648</v>
       </c>
-      <c r="AC21" s="59">
+      <c r="AC21" s="93">
         <f>AC20/AC22</f>
-        <v>-2.8998581500538099</v>
-      </c>
-      <c r="AD21" s="60">
+        <v>-2.732768715959693</v>
+      </c>
+      <c r="AD21" s="99">
         <f>AD20/AD22</f>
-        <v>-0.94180959875615344</v>
-      </c>
-      <c r="AE21" s="60">
+        <v>-1.0347229746135411</v>
+      </c>
+      <c r="AE21" s="59">
         <f t="shared" ref="AE21:AM21" si="34">AE20/AE22</f>
-        <v>-0.90415624206289358</v>
-      </c>
-      <c r="AF21" s="60">
+        <v>-1.0692172000487525</v>
+      </c>
+      <c r="AF21" s="59">
         <f t="shared" si="34"/>
-        <v>-0.5828079449494098</v>
-      </c>
-      <c r="AG21" s="60">
+        <v>-0.67367649582880129</v>
+      </c>
+      <c r="AG21" s="59">
         <f t="shared" si="34"/>
-        <v>-0.63931437832652571</v>
-      </c>
-      <c r="AH21" s="60">
+        <v>-0.54944564975086196</v>
+      </c>
+      <c r="AH21" s="59">
         <f t="shared" si="34"/>
-        <v>-3.0446293264223368E-2</v>
-      </c>
-      <c r="AI21" s="60">
+        <v>8.4607346998155614E-2</v>
+      </c>
+      <c r="AI21" s="59">
         <f t="shared" si="34"/>
-        <v>1.7899210483990717</v>
-      </c>
-      <c r="AJ21" s="60">
+        <v>1.9054942649529885</v>
+      </c>
+      <c r="AJ21" s="59">
         <f t="shared" si="34"/>
-        <v>2.177050655926843</v>
-      </c>
-      <c r="AK21" s="60">
+        <v>2.2963429564365221</v>
+      </c>
+      <c r="AK21" s="59">
         <f t="shared" si="34"/>
-        <v>2.5932171434217168</v>
-      </c>
-      <c r="AL21" s="60">
+        <v>2.716614681492219</v>
+      </c>
+      <c r="AL21" s="59">
         <f t="shared" si="34"/>
-        <v>2.9411592284002248</v>
-      </c>
-      <c r="AM21" s="60">
+        <v>3.0683635657712163</v>
+      </c>
+      <c r="AM21" s="59">
         <f t="shared" si="34"/>
-        <v>3.1714047840040274</v>
-      </c>
-    </row>
-    <row r="22" spans="2:87" x14ac:dyDescent="0.2">
+        <v>3.3017929809401316</v>
+      </c>
+    </row>
+    <row r="22" spans="2:87" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -4278,68 +4419,66 @@
         <v>1269.4252260000001</v>
       </c>
       <c r="V22" s="33">
-        <f>U22</f>
-        <v>1269.4252260000001</v>
+        <v>1273.338804</v>
       </c>
       <c r="X22" s="33"/>
       <c r="AB22" s="33">
         <f>R22</f>
         <v>125.73475500000001</v>
       </c>
-      <c r="AC22" s="46">
-        <f>V22</f>
-        <v>1269.4252260000001</v>
-      </c>
-      <c r="AD22" s="31">
+      <c r="AC22" s="91">
+        <v>1266.268155</v>
+      </c>
+      <c r="AD22" s="46">
         <f>AC22</f>
-        <v>1269.4252260000001</v>
+        <v>1266.268155</v>
       </c>
       <c r="AE22" s="31">
         <f t="shared" ref="AE22:AM22" si="35">AD22</f>
-        <v>1269.4252260000001</v>
+        <v>1266.268155</v>
       </c>
       <c r="AF22" s="31">
         <f t="shared" si="35"/>
-        <v>1269.4252260000001</v>
+        <v>1266.268155</v>
       </c>
       <c r="AG22" s="31">
         <f t="shared" si="35"/>
-        <v>1269.4252260000001</v>
+        <v>1266.268155</v>
       </c>
       <c r="AH22" s="31">
         <f t="shared" si="35"/>
-        <v>1269.4252260000001</v>
+        <v>1266.268155</v>
       </c>
       <c r="AI22" s="31">
         <f t="shared" si="35"/>
-        <v>1269.4252260000001</v>
+        <v>1266.268155</v>
       </c>
       <c r="AJ22" s="31">
         <f t="shared" si="35"/>
-        <v>1269.4252260000001</v>
+        <v>1266.268155</v>
       </c>
       <c r="AK22" s="31">
         <f t="shared" si="35"/>
-        <v>1269.4252260000001</v>
+        <v>1266.268155</v>
       </c>
       <c r="AL22" s="31">
         <f t="shared" si="35"/>
-        <v>1269.4252260000001</v>
+        <v>1266.268155</v>
       </c>
       <c r="AM22" s="31">
         <f t="shared" si="35"/>
-        <v>1269.4252260000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="AO23" s="61" t="s">
+        <v>1266.268155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:87" x14ac:dyDescent="0.15">
+      <c r="AO23" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="AP23" s="67">
+      <c r="AP23" s="66">
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
@@ -4369,17 +4508,20 @@
       </c>
       <c r="V24" s="34">
         <f>V6/R6-1</f>
-        <v>0.23747847863515403</v>
+        <v>0.25720857028573407</v>
+      </c>
+      <c r="W24" s="107">
+        <v>0.28000000000000003</v>
       </c>
       <c r="AB24" s="34">
         <f>AB6/AA6-1</f>
         <v>0.57428577182862139</v>
       </c>
-      <c r="AC24" s="53">
+      <c r="AC24" s="95">
         <f>AC6/AB6-1</f>
-        <v>0.2083282739096799</v>
-      </c>
-      <c r="AD24" s="57">
+        <v>0.21423218764853047</v>
+      </c>
+      <c r="AD24" s="53">
         <v>0.3</v>
       </c>
       <c r="AE24" s="57">
@@ -4409,14 +4551,14 @@
       <c r="AM24" s="57">
         <v>0.08</v>
       </c>
-      <c r="AO24" s="62" t="s">
+      <c r="AO24" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="AP24" s="64">
+      <c r="AP24" s="63">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:87" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:87" x14ac:dyDescent="0.15">
       <c r="B25" s="27" t="s">
         <v>90</v>
       </c>
@@ -4444,16 +4586,23 @@
         <f>U4/Q4-1</f>
         <v>0.11925058297244551</v>
       </c>
-      <c r="V25" s="35"/>
-      <c r="AO25" s="62" t="s">
+      <c r="V25" s="35">
+        <f t="shared" ref="V25:V26" si="46">V4/R4-1</f>
+        <v>0.13964943850937339</v>
+      </c>
+      <c r="AC25" s="96">
+        <f>AC4/AB4-1</f>
+        <v>0.10833741825804899</v>
+      </c>
+      <c r="AO25" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="AP25" s="68">
+      <c r="AP25" s="67">
         <f>NPV(AP24,AC20:CI20)</f>
-        <v>37129.233000094056</v>
-      </c>
-    </row>
-    <row r="26" spans="2:87" x14ac:dyDescent="0.2">
+        <v>38915.346323985468</v>
+      </c>
+    </row>
+    <row r="26" spans="2:87" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>91</v>
       </c>
@@ -4481,42 +4630,49 @@
         <f>U5/Q5-1</f>
         <v>0.25696352656146026</v>
       </c>
-      <c r="V26" s="35"/>
-      <c r="AO26" s="62" t="s">
+      <c r="V26" s="35">
+        <f t="shared" si="46"/>
+        <v>0.29733985474564917</v>
+      </c>
+      <c r="AC26" s="96">
+        <f>AC5/AB5-1</f>
+        <v>0.25770831332531174</v>
+      </c>
+      <c r="AO26" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AP26" s="69">
+      <c r="AP26" s="68">
         <f>Main!C11</f>
-        <v>4028.7079999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="2:87" x14ac:dyDescent="0.2">
+        <v>4139.6379999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:87" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="35">
-        <f t="shared" ref="N27" si="46">N6/M6-1</f>
+        <f t="shared" ref="N27" si="47">N6/M6-1</f>
         <v>0.27409125559515513</v>
       </c>
       <c r="O27" s="35">
-        <f t="shared" ref="M27:Q27" si="47">O6/N6-1</f>
+        <f t="shared" ref="O27:Q27" si="48">O6/N6-1</f>
         <v>1.1151180677150707E-2</v>
       </c>
       <c r="P27" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.13230000192181834</v>
       </c>
       <c r="Q27" s="35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3.8367226616762284E-3</v>
       </c>
       <c r="R27" s="35">
-        <f t="shared" ref="R27:S27" si="48">R6/Q6-1</f>
+        <f t="shared" ref="R27:S27" si="49">R6/Q6-1</f>
         <v>0.22806343104276805</v>
       </c>
       <c r="S27" s="35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-0.12782458855788015</v>
       </c>
       <c r="T27" s="35">
@@ -4528,43 +4684,50 @@
         <v>5.4929374092225647E-2</v>
       </c>
       <c r="V27" s="35">
-        <v>0.25</v>
-      </c>
-      <c r="AO27" s="62" t="s">
+        <f>V6/U6-1</f>
+        <v>0.26992973210364513</v>
+      </c>
+      <c r="AB27" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC27" s="120" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO27" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="AP27" s="68">
+      <c r="AP27" s="67">
         <f>AP25-AP26</f>
-        <v>33100.525000094058</v>
-      </c>
-    </row>
-    <row r="28" spans="2:87" x14ac:dyDescent="0.2">
+        <v>34775.708323985469</v>
+      </c>
+    </row>
+    <row r="28" spans="2:87" x14ac:dyDescent="0.15">
       <c r="AO28" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AP28" s="70">
+      <c r="AP28" s="69">
         <f>AP27/Main!C7</f>
-        <v>26.075206575494708</v>
-      </c>
-    </row>
-    <row r="29" spans="2:87" s="34" customFormat="1" x14ac:dyDescent="0.2">
+        <v>27.310648363768447</v>
+      </c>
+    </row>
+    <row r="29" spans="2:87" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="34" t="s">
         <v>93</v>
       </c>
       <c r="M29" s="34">
-        <f t="shared" ref="M29:N29" si="49">M10/M6</f>
+        <f t="shared" ref="M29" si="50">M10/M6</f>
         <v>0.52794547859344154</v>
       </c>
       <c r="N29" s="34">
-        <f t="shared" ref="N29:O29" si="50">N10/N6</f>
+        <f t="shared" ref="N29:O29" si="51">N10/N6</f>
         <v>0.51586918457183062</v>
       </c>
       <c r="O29" s="34">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.56513194294829194</v>
       </c>
       <c r="P29" s="34">
-        <f t="shared" ref="P29" si="51">P10/P6</f>
+        <f t="shared" ref="P29" si="52">P10/P6</f>
         <v>0.55461411681681538</v>
       </c>
       <c r="Q29" s="34">
@@ -4572,15 +4735,15 @@
         <v>0.54185932689056182</v>
       </c>
       <c r="R29" s="34">
-        <f t="shared" ref="R29" si="52">R10/R6</f>
+        <f t="shared" ref="R29" si="53">R10/R6</f>
         <v>0.501918082584071</v>
       </c>
       <c r="S29" s="34">
-        <f t="shared" ref="S29" si="53">S10/S6</f>
+        <f t="shared" ref="S29" si="54">S10/S6</f>
         <v>0.52976471868683139</v>
       </c>
       <c r="T29" s="34">
-        <f t="shared" ref="T29" si="54">T10/T6</f>
+        <f t="shared" ref="T29" si="55">T10/T6</f>
         <v>0.50626262969446278</v>
       </c>
       <c r="U29" s="34">
@@ -4588,18 +4751,22 @@
         <v>0.48479871175523354</v>
       </c>
       <c r="V29" s="34">
-        <v>0.5</v>
+        <f t="shared" ref="V29" si="56">V10/V6</f>
+        <v>0.46024099441030381</v>
+      </c>
+      <c r="W29" s="107">
+        <v>0.46</v>
       </c>
       <c r="AB29" s="34">
         <f>AB10/AB6</f>
         <v>0.53799251320943231</v>
       </c>
-      <c r="AC29" s="53">
-        <f>AC10/AC6</f>
-        <v>0.50415745797859401</v>
-      </c>
-      <c r="AD29" s="57">
-        <v>0.52</v>
+      <c r="AC29" s="34">
+        <f t="shared" ref="AC29" si="57">AC10/AC6</f>
+        <v>0.49181890845920551</v>
+      </c>
+      <c r="AD29" s="53">
+        <v>0.48</v>
       </c>
       <c r="AE29" s="57">
         <v>0.51</v>
@@ -4628,32 +4795,32 @@
       <c r="AM29" s="57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AO29" s="63" t="s">
+      <c r="AO29" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AP29" s="71">
+      <c r="AP29" s="70">
         <f>Main!C6</f>
-        <v>52.93</v>
-      </c>
-    </row>
-    <row r="30" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.2">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="40" t="s">
         <v>110</v>
       </c>
       <c r="M30" s="41">
-        <f t="shared" ref="M30:N30" si="55">(M4-M7)/M4</f>
+        <f t="shared" ref="M30" si="58">(M4-M7)/M4</f>
         <v>0.78729910222852806</v>
       </c>
       <c r="N30" s="41">
-        <f t="shared" ref="N30:O30" si="56">(N4-N7)/N4</f>
+        <f t="shared" ref="N30:O30" si="59">(N4-N7)/N4</f>
         <v>0.78796879473232173</v>
       </c>
       <c r="O30" s="41">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.81794368858772426</v>
       </c>
       <c r="P30" s="41">
-        <f t="shared" ref="P30" si="57">(P4-P7)/P4</f>
+        <f t="shared" ref="P30" si="60">(P4-P7)/P4</f>
         <v>0.81143021269338833</v>
       </c>
       <c r="Q30" s="41">
@@ -4661,52 +4828,61 @@
         <v>0.79966270879931467</v>
       </c>
       <c r="R30" s="41">
-        <f t="shared" ref="R30:R31" si="58">(R4-R7)/R4</f>
+        <f t="shared" ref="R30:R31" si="61">(R4-R7)/R4</f>
         <v>0.78477995945422663</v>
       </c>
       <c r="S30" s="41">
-        <f t="shared" ref="S30" si="59">(S4-S7)/S4</f>
+        <f t="shared" ref="S30" si="62">(S4-S7)/S4</f>
         <v>0.77507606718857414</v>
       </c>
       <c r="T30" s="41">
-        <f t="shared" ref="T30" si="60">(T4-T7)/T4</f>
+        <f t="shared" ref="T30" si="63">(T4-T7)/T4</f>
         <v>0.76739083568249356</v>
       </c>
       <c r="U30" s="41">
         <f>(U4-U7)/U4</f>
         <v>0.78125755711518174</v>
       </c>
+      <c r="V30" s="41">
+        <f t="shared" ref="V30:V31" si="64">(V4-V7)/V4</f>
+        <v>0.78570857505484015</v>
+      </c>
+      <c r="W30" s="47"/>
       <c r="AB30" s="41">
         <f>(AB4-AB7)/AB4</f>
         <v>0.80306615194132025</v>
       </c>
-      <c r="AC30" s="47"/>
-      <c r="AO30" s="65" t="s">
+      <c r="AC30" s="41">
+        <f t="shared" ref="AC30:AC31" si="65">(AC4-AC7)/AC4</f>
+        <v>0.77760712588530811</v>
+      </c>
+      <c r="AD30" s="47"/>
+      <c r="AO30" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="AP30" s="66">
+      <c r="AP30" s="65">
         <f>AP28/AP29-1</f>
-        <v>-0.50736431937474569</v>
-      </c>
-    </row>
-    <row r="31" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-0.43338903809609031</v>
+      </c>
+    </row>
+    <row r="31" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="40" t="s">
         <v>111</v>
       </c>
       <c r="M31" s="41">
-        <f t="shared" ref="M31:N31" si="61">(M5-M8)/M5</f>
+        <f t="shared" ref="M31" si="66">(M5-M8)/M5</f>
         <v>0.406112642229632</v>
       </c>
       <c r="N31" s="41">
-        <f t="shared" ref="N31:O31" si="62">(N5-N8)/N5</f>
+        <f t="shared" ref="N31:O31" si="67">(N5-N8)/N5</f>
         <v>0.40698320502245439</v>
       </c>
       <c r="O31" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.4437606105699991</v>
       </c>
       <c r="P31" s="41">
-        <f t="shared" ref="P31" si="63">(P5-P8)/P5</f>
+        <f t="shared" ref="P31" si="68">(P5-P8)/P5</f>
         <v>0.44529602347403491</v>
       </c>
       <c r="Q31" s="41">
@@ -4714,45 +4890,54 @@
         <v>0.43179959671480017</v>
       </c>
       <c r="R31" s="41">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0.40535722617066611</v>
       </c>
       <c r="S31" s="41">
-        <f t="shared" ref="S31" si="64">(S5-S8)/S5</f>
+        <f t="shared" ref="S31" si="69">(S5-S8)/S5</f>
         <v>0.43129280373331225</v>
       </c>
       <c r="T31" s="41">
-        <f t="shared" ref="T31" si="65">(T5-T8)/T5</f>
+        <f t="shared" ref="T31" si="70">(T5-T8)/T5</f>
         <v>0.40321875471129204</v>
       </c>
       <c r="U31" s="41">
         <f>(U5-U8)/U5</f>
         <v>0.37210260844793264</v>
       </c>
+      <c r="V31" s="41">
+        <f t="shared" si="64"/>
+        <v>0.36264051594187263</v>
+      </c>
+      <c r="W31" s="47"/>
       <c r="AB31" s="41">
         <f>(AB5-AB8)/AB5</f>
         <v>0.42916395730018025</v>
       </c>
-      <c r="AC31" s="47"/>
-    </row>
-    <row r="32" spans="2:87" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC31" s="41">
+        <f t="shared" si="65"/>
+        <v>0.38842077232950023</v>
+      </c>
+      <c r="AD31" s="47"/>
+    </row>
+    <row r="32" spans="2:87" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="35" t="s">
         <v>94</v>
       </c>
       <c r="M32" s="35">
-        <f t="shared" ref="M32:N32" si="66">M16/M6</f>
+        <f t="shared" ref="M32" si="71">M16/M6</f>
         <v>6.5885679660674656E-2</v>
       </c>
       <c r="N32" s="35">
-        <f t="shared" ref="N32:O32" si="67">N16/N6</f>
+        <f t="shared" ref="N32:O32" si="72">N16/N6</f>
         <v>0.11510272627599857</v>
       </c>
       <c r="O32" s="35">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>0.12026436129376804</v>
       </c>
       <c r="P32" s="35">
-        <f t="shared" ref="P32" si="68">P16/P6</f>
+        <f t="shared" ref="P32" si="73">P16/P6</f>
         <v>0.12456261808306789</v>
       </c>
       <c r="Q32" s="35">
@@ -4760,15 +4945,15 @@
         <v>-3.6494206844999723E-3</v>
       </c>
       <c r="R32" s="35">
-        <f t="shared" ref="R32" si="69">R16/R6</f>
+        <f t="shared" ref="R32" si="74">R16/R6</f>
         <v>1.0437499637687623E-2</v>
       </c>
       <c r="S32" s="35">
-        <f t="shared" ref="S32" si="70">S16/S6</f>
+        <f t="shared" ref="S32" si="75">S16/S6</f>
         <v>-8.1400903771363525E-2</v>
       </c>
       <c r="T32" s="35">
-        <f t="shared" ref="T32" si="71">T16/T6</f>
+        <f t="shared" ref="T32" si="76">T16/T6</f>
         <v>-0.14687161937295712</v>
       </c>
       <c r="U32" s="35">
@@ -4776,76 +4961,77 @@
         <v>-0.2527931488801054</v>
       </c>
       <c r="V32" s="35">
-        <f t="shared" ref="V32" si="72">V16/V6</f>
-        <v>-0.23800450885668273</v>
-      </c>
+        <f t="shared" ref="V32" si="77">V16/V6</f>
+        <v>-0.10879042846652805</v>
+      </c>
+      <c r="W32" s="100"/>
       <c r="AB32" s="35">
         <f>AB16/AB6</f>
         <v>5.8250517795872113E-2</v>
       </c>
-      <c r="AC32" s="47">
-        <f>AC16/AC6</f>
-        <v>-0.18662661620102225</v>
-      </c>
-      <c r="AD32" s="41">
+      <c r="AC32" s="35">
+        <f t="shared" ref="AC32" si="78">AC16/AC6</f>
+        <v>-0.14684267332206621</v>
+      </c>
+      <c r="AD32" s="47">
         <f>AD16/AD6</f>
-        <v>-0.2047061462474849</v>
+        <v>-0.24487989433589549</v>
       </c>
       <c r="AE32" s="41">
-        <f t="shared" ref="AE32:AM32" si="73">AE16/AE6</f>
-        <v>-0.13050439017677495</v>
+        <f t="shared" ref="AE32:AM32" si="79">AE16/AE6</f>
+        <v>-0.18062849595421099</v>
       </c>
       <c r="AF32" s="41">
-        <f t="shared" si="73"/>
-        <v>-5.2002926784516686E-2</v>
+        <f t="shared" si="79"/>
+        <v>-7.208566396947412E-2</v>
       </c>
       <c r="AG32" s="41">
-        <f t="shared" si="73"/>
-        <v>-3.982960467897699E-2</v>
+        <f t="shared" si="79"/>
+        <v>-3.9886664806533807E-2</v>
       </c>
       <c r="AH32" s="41">
-        <f t="shared" si="73"/>
-        <v>2.1389542762193282E-2</v>
+        <f t="shared" si="79"/>
+        <v>2.1338060953901811E-2</v>
       </c>
       <c r="AI32" s="41">
-        <f t="shared" si="73"/>
-        <v>7.2321641884743076E-2</v>
+        <f t="shared" si="79"/>
+        <v>7.2288640231794266E-2</v>
       </c>
       <c r="AJ32" s="41">
-        <f t="shared" si="73"/>
-        <v>7.2763913375491956E-2</v>
+        <f t="shared" si="79"/>
+        <v>7.2736137008949334E-2</v>
       </c>
       <c r="AK32" s="41">
-        <f t="shared" si="73"/>
-        <v>7.3100819950287374E-2</v>
+        <f t="shared" si="79"/>
+        <v>7.3077001006690151E-2</v>
       </c>
       <c r="AL32" s="41">
-        <f t="shared" si="73"/>
-        <v>7.3314858662333671E-2</v>
+        <f t="shared" si="79"/>
+        <v>7.3293482977822316E-2</v>
       </c>
       <c r="AM32" s="41">
-        <f t="shared" si="73"/>
-        <v>7.3434738359731813E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="79"/>
+        <v>7.3414616088854662E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="35" t="s">
         <v>95</v>
       </c>
       <c r="M33" s="35">
-        <f t="shared" ref="M33:N33" si="74">M20/M6</f>
+        <f t="shared" ref="M33" si="80">M20/M6</f>
         <v>0.24897935249314254</v>
       </c>
       <c r="N33" s="35">
-        <f t="shared" ref="N33:O33" si="75">N20/N6</f>
+        <f t="shared" ref="N33:O33" si="81">N20/N6</f>
         <v>0.12669164934788651</v>
       </c>
       <c r="O33" s="35">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>1.272896190450181</v>
       </c>
       <c r="P33" s="35">
-        <f t="shared" ref="P33" si="76">P20/P6</f>
+        <f t="shared" ref="P33" si="82">P20/P6</f>
         <v>0.78529360531334724</v>
       </c>
       <c r="Q33" s="35">
@@ -4853,15 +5039,15 @@
         <v>1.0219730542652217</v>
       </c>
       <c r="R33" s="35">
-        <f t="shared" ref="R33" si="77">R20/R6</f>
+        <f t="shared" ref="R33" si="83">R20/R6</f>
         <v>-0.26906126270267744</v>
       </c>
       <c r="S33" s="35">
-        <f t="shared" ref="S33" si="78">S20/S6</f>
+        <f t="shared" ref="S33" si="84">S20/S6</f>
         <v>-1.2249749298576047</v>
       </c>
       <c r="T33" s="35">
-        <f t="shared" ref="T33" si="79">T20/T6</f>
+        <f t="shared" ref="T33" si="85">T20/T6</f>
         <v>-0.9296126906567479</v>
       </c>
       <c r="U33" s="35">
@@ -4869,73 +5055,77 @@
         <v>-0.11594861660079051</v>
       </c>
       <c r="V33" s="35">
-        <f t="shared" ref="V33" si="80">V20/V6</f>
-        <v>-0.49446879666227483</v>
-      </c>
+        <f t="shared" ref="V33" si="86">V20/V6</f>
+        <v>-0.35948236807613693</v>
+      </c>
+      <c r="W33" s="100"/>
       <c r="AB33" s="35">
         <f>AB20/AB6</f>
         <v>0.63199262943162138</v>
       </c>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="35">
-        <f t="shared" ref="AD33:AM33" si="81">AD20/AD6</f>
-        <v>-0.16503125723487183</v>
+      <c r="AC33" s="35">
+        <f t="shared" ref="AC33" si="87">AC20/AC6</f>
+        <v>-0.61794679299354394</v>
+      </c>
+      <c r="AD33" s="100">
+        <f t="shared" ref="AD33:AM33" si="88">AD20/AD6</f>
+        <v>-0.17998194681431279</v>
       </c>
       <c r="AE33" s="35">
-        <f t="shared" si="81"/>
-        <v>-0.11316667217894996</v>
+        <f t="shared" si="88"/>
+        <v>-0.13284424772450906</v>
       </c>
       <c r="AF33" s="35">
-        <f t="shared" si="81"/>
-        <v>-4.8630559322282524E-2</v>
+        <f t="shared" si="88"/>
+        <v>-5.5800353937428784E-2</v>
       </c>
       <c r="AG33" s="35">
-        <f t="shared" si="81"/>
-        <v>-3.6790040911918953E-2</v>
+        <f t="shared" si="88"/>
+        <v>-3.1386457093699603E-2</v>
       </c>
       <c r="AH33" s="35">
-        <f t="shared" si="81"/>
-        <v>-1.2514750318917496E-3</v>
+        <f t="shared" si="88"/>
+        <v>3.4522131112298287E-3</v>
       </c>
       <c r="AI33" s="35">
-        <f t="shared" si="81"/>
-        <v>5.6595028894602516E-2</v>
+        <f t="shared" si="88"/>
+        <v>5.9807247317580435E-2</v>
       </c>
       <c r="AJ33" s="35">
-        <f t="shared" si="81"/>
-        <v>5.7362979262592727E-2</v>
+        <f t="shared" si="88"/>
+        <v>6.0062260331254648E-2</v>
       </c>
       <c r="AK33" s="35">
-        <f t="shared" si="81"/>
-        <v>5.7905530070424906E-2</v>
+        <f t="shared" si="88"/>
+        <v>6.0215868992525318E-2</v>
       </c>
       <c r="AL33" s="35">
-        <f t="shared" si="81"/>
-        <v>5.8119417239921881E-2</v>
+        <f t="shared" si="88"/>
+        <v>6.0188190720781472E-2</v>
       </c>
       <c r="AM33" s="35">
-        <f t="shared" si="81"/>
-        <v>5.8027069136296232E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="88"/>
+        <v>5.9969517650632985E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="35" t="s">
         <v>96</v>
       </c>
       <c r="M34" s="35">
-        <f t="shared" ref="M34:N34" si="82">M19/M18</f>
+        <f t="shared" ref="M34" si="89">M19/M18</f>
         <v>-2.5224422778710814E-2</v>
       </c>
       <c r="N34" s="35">
-        <f t="shared" ref="N34:O34" si="83">N19/N18</f>
+        <f t="shared" ref="N34:O34" si="90">N19/N18</f>
         <v>-0.12864340838063659</v>
       </c>
       <c r="O34" s="35">
-        <f t="shared" si="83"/>
+        <f t="shared" si="90"/>
         <v>8.1121161496089222E-2</v>
       </c>
       <c r="P34" s="35">
-        <f t="shared" ref="P34" si="84">P19/P18</f>
+        <f t="shared" ref="P34" si="91">P19/P18</f>
         <v>4.3752141540168502E-2</v>
       </c>
       <c r="Q34" s="35">
@@ -4943,15 +5133,15 @@
         <v>0.14325018725027078</v>
       </c>
       <c r="R34" s="35">
-        <f t="shared" ref="R34" si="85">R19/R18</f>
+        <f t="shared" ref="R34" si="92">R19/R18</f>
         <v>0.24023620935547843</v>
       </c>
       <c r="S34" s="35">
-        <f t="shared" ref="S34" si="86">S19/S18</f>
+        <f t="shared" ref="S34" si="93">S19/S18</f>
         <v>0.10796396784476819</v>
       </c>
       <c r="T34" s="35">
-        <f t="shared" ref="T34" si="87">T19/T18</f>
+        <f t="shared" ref="T34" si="94">T19/T18</f>
         <v>-4.7210515334863345E-3</v>
       </c>
       <c r="U34" s="35">
@@ -4959,14 +5149,19 @@
         <v>-8.1205093774064027E-3</v>
       </c>
       <c r="V34" s="35">
-        <v>0.25</v>
-      </c>
+        <f t="shared" ref="V34" si="95">V19/V18</f>
+        <v>-1.4783406659203918E-2</v>
+      </c>
+      <c r="W34" s="100"/>
       <c r="AB34" s="35">
         <f>AB19/AB18</f>
         <v>7.1939621574531182E-2</v>
       </c>
-      <c r="AC34" s="47"/>
-      <c r="AD34" s="41">
+      <c r="AC34" s="35">
+        <f t="shared" ref="AC34" si="96">AC19/AC18</f>
+        <v>4.4834892327803987E-2</v>
+      </c>
+      <c r="AD34" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AE34" s="41">
@@ -4998,20 +5193,23 @@
       </c>
       <c r="AN34" s="41"/>
     </row>
-    <row r="36" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="AC35" s="1"/>
+    </row>
+    <row r="36" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="35" t="s">
         <v>97</v>
       </c>
       <c r="M36" s="35">
-        <f t="shared" ref="M36:N36" si="88">M12/M6</f>
+        <f t="shared" ref="M36" si="97">M12/M6</f>
         <v>0.18689870407411993</v>
       </c>
       <c r="N36" s="35">
-        <f t="shared" ref="N36:O36" si="89">N12/N6</f>
+        <f t="shared" ref="N36:O36" si="98">N12/N6</f>
         <v>0.1626980068402363</v>
       </c>
       <c r="O36" s="35">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v>0.17790576414028467</v>
       </c>
       <c r="P36" s="35">
@@ -5023,15 +5221,15 @@
         <v>0.19668962571413315</v>
       </c>
       <c r="R36" s="35">
-        <f t="shared" ref="R36" si="90">R12/R6</f>
+        <f t="shared" ref="R36" si="99">R12/R6</f>
         <v>0.19848350463470196</v>
       </c>
       <c r="S36" s="35">
-        <f t="shared" ref="S36" si="91">S12/S6</f>
+        <f t="shared" ref="S36" si="100">S12/S6</f>
         <v>0.25228913040046591</v>
       </c>
       <c r="T36" s="35">
-        <f t="shared" ref="T36" si="92">T12/T6</f>
+        <f t="shared" ref="T36" si="101">T12/T6</f>
         <v>0.26768350265585533</v>
       </c>
       <c r="U36" s="35">
@@ -5039,24 +5237,26 @@
         <v>0.30182916117698722</v>
       </c>
       <c r="V36" s="35">
-        <v>0.3</v>
-      </c>
+        <f t="shared" ref="V36" si="102">V12/V6</f>
+        <v>0.25392079899572212</v>
+      </c>
+      <c r="W36" s="100"/>
       <c r="AB36" s="35">
         <f>AB12/AB6</f>
         <v>0.1852579525466537</v>
       </c>
-      <c r="AC36" s="47">
-        <f>AC12/AC6</f>
-        <v>0.28263320984898344</v>
-      </c>
-      <c r="AD36" s="41">
+      <c r="AC36" s="35">
+        <f t="shared" ref="AC36" si="103">AC12/AC6</f>
+        <v>0.26844116214250913</v>
+      </c>
+      <c r="AD36" s="47">
         <v>0.25</v>
       </c>
       <c r="AE36" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="AF36" s="41">
         <v>0.2</v>
-      </c>
-      <c r="AF36" s="41">
-        <v>0.18</v>
       </c>
       <c r="AG36" s="41">
         <v>0.18</v>
@@ -5080,19 +5280,19 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="AI39" s="72"/>
-      <c r="AJ39" s="72"/>
-      <c r="AK39" s="72"/>
-      <c r="AL39" s="72"/>
-      <c r="AM39" s="72"/>
-    </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="71"/>
+      <c r="AK39" s="71"/>
+      <c r="AL39" s="71"/>
+      <c r="AM39" s="71"/>
+    </row>
+    <row r="40" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B40" s="37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -5111,12 +5311,19 @@
       <c r="U41" s="32">
         <v>1378.251</v>
       </c>
+      <c r="V41" s="32">
+        <v>1649.328</v>
+      </c>
+      <c r="W41" s="119"/>
       <c r="AB41" s="32">
         <f>R41</f>
         <v>2502.9920000000002</v>
       </c>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="58"/>
+      <c r="AC41" s="92">
+        <f>V41</f>
+        <v>1649.328</v>
+      </c>
+      <c r="AD41" s="52"/>
       <c r="AE41" s="58"/>
       <c r="AF41" s="58"/>
       <c r="AG41" s="58"/>
@@ -5127,7 +5334,7 @@
       <c r="AL41" s="58"/>
       <c r="AM41" s="58"/>
     </row>
-    <row r="42" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
         <v>112</v>
       </c>
@@ -5146,12 +5353,19 @@
       <c r="U42" s="32">
         <v>3563.181</v>
       </c>
+      <c r="V42" s="32">
+        <v>3403.6219999999998</v>
+      </c>
+      <c r="W42" s="119"/>
       <c r="AB42" s="32">
         <f>R42</f>
         <v>5265.1009999999997</v>
       </c>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="58"/>
+      <c r="AC42" s="92">
+        <f>V42</f>
+        <v>3403.6219999999998</v>
+      </c>
+      <c r="AD42" s="52"/>
       <c r="AE42" s="58"/>
       <c r="AF42" s="58"/>
       <c r="AG42" s="58"/>
@@ -5162,7 +5376,7 @@
       <c r="AL42" s="58"/>
       <c r="AM42" s="58"/>
     </row>
-    <row r="43" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>113</v>
       </c>
@@ -5180,13 +5394,20 @@
       </c>
       <c r="U43" s="33">
         <v>241.18299999999999</v>
+      </c>
+      <c r="V43" s="33">
+        <v>273.05500000000001</v>
       </c>
       <c r="AB43" s="33">
         <f>R43</f>
         <v>192.209</v>
       </c>
-    </row>
-    <row r="44" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AC43" s="91">
+        <f>V43</f>
+        <v>273.05500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>114</v>
       </c>
@@ -5205,12 +5426,19 @@
       <c r="U44" s="33">
         <v>666.053</v>
       </c>
+      <c r="V44" s="33">
+        <v>580.11400000000003</v>
+      </c>
       <c r="AB44" s="33">
-        <f t="shared" ref="AB44:AB64" si="93">R44</f>
+        <f t="shared" ref="AB44:AB64" si="104">R44</f>
         <v>470.72199999999998</v>
       </c>
-    </row>
-    <row r="45" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AC44" s="91">
+        <f t="shared" ref="AC44:AC46" si="105">V44</f>
+        <v>580.11400000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>115</v>
       </c>
@@ -5229,12 +5457,19 @@
       <c r="U45" s="33">
         <v>11.996</v>
       </c>
+      <c r="V45" s="33">
+        <v>4.6950000000000003</v>
+      </c>
       <c r="AB45" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>5.0229999999999997</v>
       </c>
-    </row>
-    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AC45" s="91">
+        <f t="shared" si="105"/>
+        <v>4.6950000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>116</v>
       </c>
@@ -5253,97 +5488,112 @@
       <c r="U46" s="33">
         <v>152.322</v>
       </c>
+      <c r="V46" s="33">
+        <v>139.65899999999999</v>
+      </c>
       <c r="AB46" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>103.273</v>
       </c>
-    </row>
-    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AC46" s="91">
+        <f t="shared" si="105"/>
+        <v>139.65899999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" ref="C47:T47" si="94">SUM(C41:C46)</f>
+        <f t="shared" ref="C47:T47" si="106">SUM(C41:C46)</f>
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="M47" s="33">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>6613.2169999999996</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="R47" s="33">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>8539.3199999999979</v>
       </c>
       <c r="S47" s="33">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>8074.8810000000003</v>
       </c>
       <c r="T47" s="33">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>7857.7640000000001</v>
       </c>
       <c r="U47" s="33">
         <f>SUM(U41:U46)</f>
         <v>6012.9859999999999</v>
       </c>
+      <c r="V47" s="33">
+        <f>SUM(V41:V46)</f>
+        <v>6050.473</v>
+      </c>
       <c r="AB47" s="33">
         <f>SUM(AB41:AB46)</f>
         <v>8539.3199999999979</v>
       </c>
-    </row>
-    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AC47" s="33">
+        <f>SUM(AC41:AC46)</f>
+        <v>6050.473</v>
+      </c>
+    </row>
+    <row r="48" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>118</v>
       </c>
@@ -5362,12 +5612,19 @@
       <c r="U48" s="33">
         <v>128.46100000000001</v>
       </c>
+      <c r="V48" s="33">
+        <v>130.821</v>
+      </c>
       <c r="AB48" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>105.526</v>
       </c>
-    </row>
-    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC48" s="91">
+        <f t="shared" ref="AC48:AC64" si="107">V48</f>
+        <v>130.821</v>
+      </c>
+    </row>
+    <row r="49" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>119</v>
       </c>
@@ -5386,12 +5643,19 @@
       <c r="U49" s="33">
         <v>349.74</v>
       </c>
+      <c r="V49" s="33">
+        <v>355.14499999999998</v>
+      </c>
       <c r="AB49" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>196.38800000000001</v>
       </c>
-    </row>
-    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC49" s="91">
+        <f t="shared" si="107"/>
+        <v>355.14499999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>120</v>
       </c>
@@ -5410,12 +5674,19 @@
       <c r="U50" s="33">
         <v>410.81900000000002</v>
       </c>
+      <c r="V50" s="33">
+        <v>390.14800000000002</v>
+      </c>
       <c r="AB50" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>138.49600000000001</v>
       </c>
-    </row>
-    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC50" s="91">
+        <f t="shared" si="107"/>
+        <v>390.14800000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>121</v>
       </c>
@@ -5434,12 +5705,19 @@
       <c r="U51" s="33">
         <v>43.25</v>
       </c>
+      <c r="V51" s="33">
+        <v>40.822000000000003</v>
+      </c>
       <c r="AB51" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>48.369</v>
       </c>
-    </row>
-    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC51" s="91">
+        <f t="shared" si="107"/>
+        <v>40.822000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>122</v>
       </c>
@@ -5458,12 +5736,19 @@
       <c r="U52" s="33">
         <v>2421.7469999999998</v>
       </c>
+      <c r="V52" s="33">
+        <v>1953.46</v>
+      </c>
       <c r="AB52" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>3955.5450000000001</v>
       </c>
-    </row>
-    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC52" s="91">
+        <f t="shared" si="107"/>
+        <v>1953.46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>123</v>
       </c>
@@ -5482,108 +5767,127 @@
       <c r="U53" s="33">
         <v>1836.2819999999999</v>
       </c>
+      <c r="V53" s="33">
+        <v>1836.2819999999999</v>
+      </c>
       <c r="AB53" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>356.52800000000002</v>
       </c>
-    </row>
-    <row r="54" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC53" s="91">
+        <f t="shared" si="107"/>
+        <v>1836.2819999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" ref="C54:T54" si="95">SUM(C48:C53)+C47</f>
+        <f t="shared" ref="C54:T54" si="108">SUM(C48:C53)+C47</f>
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="M54" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>7462.0309999999999</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="R54" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>13340.171999999999</v>
       </c>
       <c r="S54" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>11834.457</v>
       </c>
       <c r="T54" s="33">
-        <f t="shared" si="95"/>
+        <f t="shared" si="108"/>
         <v>10747.630000000001</v>
       </c>
       <c r="U54" s="33">
         <f>SUM(U48:U53)+U47</f>
         <v>11203.285</v>
       </c>
+      <c r="V54" s="33">
+        <f>SUM(V48:V53)+V47</f>
+        <v>10757.151</v>
+      </c>
       <c r="AB54" s="33">
         <f>SUM(AB48:AB53)+AB47</f>
         <v>13340.171999999999</v>
       </c>
-    </row>
-    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC54" s="33">
+        <f>SUM(AC48:AC53)+AC47</f>
+        <v>10757.151</v>
+      </c>
+    </row>
+    <row r="55" spans="2:39" x14ac:dyDescent="0.15">
       <c r="M55" s="33"/>
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="33"/>
       <c r="U55" s="33"/>
       <c r="AB55" s="33">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:39" x14ac:dyDescent="0.2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="91">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>125</v>
       </c>
@@ -5602,12 +5906,19 @@
       <c r="U56" s="33">
         <v>596.11400000000003</v>
       </c>
+      <c r="V56" s="33">
+        <v>532.56899999999996</v>
+      </c>
       <c r="AB56" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>456.68799999999999</v>
       </c>
-    </row>
-    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC56" s="91">
+        <f t="shared" si="107"/>
+        <v>532.56899999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>126</v>
       </c>
@@ -5626,12 +5937,19 @@
       <c r="U57" s="33">
         <v>4.4580000000000002</v>
       </c>
+      <c r="V57" s="33">
+        <v>9.39</v>
+      </c>
       <c r="AB57" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>13.505000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC57" s="91">
+        <f t="shared" si="107"/>
+        <v>9.39</v>
+      </c>
+    </row>
+    <row r="58" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>127</v>
       </c>
@@ -5650,12 +5968,19 @@
       <c r="U58" s="33">
         <v>287.625</v>
       </c>
+      <c r="V58" s="33">
+        <v>295.88799999999998</v>
+      </c>
       <c r="AB58" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>216.792</v>
       </c>
-    </row>
-    <row r="59" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC58" s="91">
+        <f t="shared" si="107"/>
+        <v>295.88799999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>128</v>
       </c>
@@ -5674,97 +5999,112 @@
       <c r="U59" s="33">
         <v>17.024000000000001</v>
       </c>
+      <c r="V59" s="33">
+        <v>18.161000000000001</v>
+      </c>
       <c r="AB59" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>15.747999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC59" s="91">
+        <f t="shared" si="107"/>
+        <v>18.161000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" ref="C60:T60" si="96">SUM(C56:C59)</f>
+        <f t="shared" ref="C60:T60" si="109">SUM(C56:C59)</f>
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="M60" s="33">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>370.13099999999997</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="O60" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="R60" s="33">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>702.73300000000006</v>
       </c>
       <c r="S60" s="33">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>681.93200000000002</v>
       </c>
       <c r="T60" s="33">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>703.20799999999997</v>
       </c>
       <c r="U60" s="33">
         <f>SUM(U56:U59)</f>
         <v>905.221</v>
       </c>
+      <c r="V60" s="33">
+        <f>SUM(V56:V59)</f>
+        <v>856.00800000000004</v>
+      </c>
       <c r="AB60" s="33">
         <f>SUM(AB56:AB59)</f>
         <v>702.73300000000006</v>
       </c>
-    </row>
-    <row r="61" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC60" s="33">
+        <f>SUM(AC56:AC59)</f>
+        <v>856.00800000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>127</v>
       </c>
@@ -5783,12 +6123,19 @@
       <c r="U61" s="33">
         <v>299.625</v>
       </c>
+      <c r="V61" s="33">
+        <v>267.51299999999998</v>
+      </c>
       <c r="AB61" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>162.93199999999999</v>
       </c>
-    </row>
-    <row r="62" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC61" s="91">
+        <f t="shared" si="107"/>
+        <v>267.51299999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
@@ -5807,12 +6154,19 @@
       <c r="U62" s="33">
         <v>369.13099999999997</v>
       </c>
+      <c r="V62" s="33">
+        <v>465.13499999999999</v>
+      </c>
       <c r="AB62" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>246.77600000000001</v>
       </c>
-    </row>
-    <row r="63" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC62" s="91">
+        <f t="shared" si="107"/>
+        <v>465.13499999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
         <v>130</v>
       </c>
@@ -5831,12 +6185,19 @@
       <c r="U63" s="32">
         <v>912.72400000000005</v>
       </c>
+      <c r="V63" s="32">
+        <v>913.31200000000001</v>
+      </c>
+      <c r="W63" s="119"/>
       <c r="AB63" s="32">
         <f>R63</f>
         <v>910.96299999999997</v>
       </c>
-      <c r="AC63" s="52"/>
-      <c r="AD63" s="58"/>
+      <c r="AC63" s="92">
+        <f t="shared" si="107"/>
+        <v>913.31200000000001</v>
+      </c>
+      <c r="AD63" s="52"/>
       <c r="AE63" s="58"/>
       <c r="AF63" s="58"/>
       <c r="AG63" s="58"/>
@@ -5847,7 +6208,7 @@
       <c r="AL63" s="58"/>
       <c r="AM63" s="58"/>
     </row>
-    <row r="64" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>121</v>
       </c>
@@ -5866,102 +6227,117 @@
       <c r="U64" s="33">
         <v>23.576000000000001</v>
       </c>
+      <c r="V64" s="33">
+        <v>16.294</v>
+      </c>
       <c r="AB64" s="33">
-        <f t="shared" si="93"/>
+        <f t="shared" si="104"/>
         <v>183.42699999999999</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC64" s="91">
+        <f t="shared" si="107"/>
+        <v>16.294</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:T65" si="97">SUM(C61:C64)+C60</f>
+        <f t="shared" ref="C65:T65" si="110">SUM(C61:C64)+C60</f>
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="M65" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>1285.2019999999998</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O65" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="R65" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>2206.8309999999997</v>
       </c>
       <c r="S65" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>2044.8620000000001</v>
       </c>
       <c r="T65" s="33">
-        <f t="shared" si="97"/>
+        <f t="shared" si="110"/>
         <v>2030.502</v>
       </c>
       <c r="U65" s="33">
         <f>SUM(U61:U64)+U60</f>
         <v>2510.277</v>
       </c>
+      <c r="V65" s="33">
+        <f>SUM(V61:V64)+V60</f>
+        <v>2518.2620000000002</v>
+      </c>
       <c r="AB65" s="33">
         <f>SUM(AB61:AB64)+AB60</f>
         <v>2206.8309999999997</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC65" s="33">
+        <f>SUM(AC61:AC64)+AC60</f>
+        <v>2518.2620000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.15">
       <c r="S66" s="33"/>
       <c r="T66" s="33"/>
       <c r="U66" s="33"/>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
@@ -5979,13 +6355,20 @@
       </c>
       <c r="U67" s="33">
         <v>8693.0079999999998</v>
+      </c>
+      <c r="V67" s="33">
+        <v>8238.8889999999992</v>
       </c>
       <c r="AB67" s="33">
         <f>R67</f>
         <v>11133.341</v>
       </c>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC67" s="91">
+        <f>V67</f>
+        <v>8238.8889999999992</v>
+      </c>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>133</v>
       </c>
@@ -6009,159 +6392,209 @@
         <f>U67+U65</f>
         <v>11203.285</v>
       </c>
+      <c r="V68" s="33">
+        <f>V67+V65</f>
+        <v>10757.151</v>
+      </c>
       <c r="AB68" s="33">
         <f>AB67+AB65</f>
         <v>13340.172</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC68" s="33">
+        <f>AC67+AC65</f>
+        <v>10757.151</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>134</v>
       </c>
       <c r="M70" s="33">
-        <f t="shared" ref="M70" si="98">M54-M65</f>
+        <f t="shared" ref="M70" si="111">M54-M65</f>
         <v>6176.8289999999997</v>
       </c>
       <c r="R70" s="33">
-        <f t="shared" ref="R70" si="99">R54-R65</f>
+        <f t="shared" ref="R70" si="112">R54-R65</f>
         <v>11133.340999999999</v>
       </c>
       <c r="S70" s="33">
-        <f t="shared" ref="S70:T70" si="100">S54-S65</f>
+        <f t="shared" ref="S70:T70" si="113">S54-S65</f>
         <v>9789.5950000000012</v>
       </c>
       <c r="T70" s="33">
-        <f t="shared" si="100"/>
+        <f t="shared" si="113"/>
         <v>8717.1280000000006</v>
       </c>
       <c r="U70" s="33">
         <f>U54-U65</f>
         <v>8693.0079999999998</v>
       </c>
+      <c r="V70" s="33">
+        <f t="shared" ref="V70" si="114">V54-V65</f>
+        <v>8238.8889999999992</v>
+      </c>
       <c r="AB70" s="33">
         <f>AB54-AB65</f>
         <v>11133.340999999999</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC70" s="33">
+        <f t="shared" ref="AC70" si="115">AC54-AC65</f>
+        <v>8238.8889999999992</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>135</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" ref="M71" si="101">M70/M22</f>
+        <f t="shared" ref="M71" si="116">M70/M22</f>
         <v>51.25510694067961</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" ref="R71:S71" si="102">R70/R22</f>
+        <f t="shared" ref="R71:S71" si="117">R70/R22</f>
         <v>88.546249602983664</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" si="117"/>
         <v>77.687142379346611</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" ref="T71" si="103">T70/T22</f>
+        <f t="shared" ref="T71" si="118">T70/T22</f>
         <v>6.9073275958982521</v>
       </c>
       <c r="U71" s="1">
         <f>U70/U22</f>
         <v>6.8479874371111631</v>
       </c>
+      <c r="V71" s="1">
+        <f t="shared" ref="V71" si="119">V70/V22</f>
+        <v>6.4703038767991545</v>
+      </c>
       <c r="AB71" s="1">
         <f>AB70/AB22</f>
         <v>88.546249602983664</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC71" s="1">
+        <f t="shared" ref="AC71" si="120">AC70/AC22</f>
+        <v>6.5064330706476614</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="28" t="s">
         <v>6</v>
       </c>
       <c r="M73" s="31">
-        <f t="shared" ref="M73" si="104">M41+M42</f>
+        <f t="shared" ref="M73" si="121">M41+M42</f>
         <v>6121.1610000000001</v>
       </c>
       <c r="R73" s="31">
-        <f t="shared" ref="R73:S73" si="105">R41+R42</f>
+        <f t="shared" ref="R73:S73" si="122">R41+R42</f>
         <v>7768.0929999999998</v>
       </c>
       <c r="S73" s="31">
-        <f t="shared" si="105"/>
+        <f t="shared" si="122"/>
         <v>7246.6900000000005</v>
       </c>
       <c r="T73" s="31">
-        <f t="shared" ref="T73" si="106">T41+T42</f>
+        <f t="shared" ref="T73" si="123">T41+T42</f>
         <v>6954.7910000000002</v>
       </c>
       <c r="U73" s="31">
         <f>U41+U42</f>
         <v>4941.4319999999998</v>
       </c>
+      <c r="V73" s="31">
+        <f t="shared" ref="V73" si="124">V41+V42</f>
+        <v>5052.95</v>
+      </c>
+      <c r="W73" s="48"/>
       <c r="AB73" s="31">
         <f>AB41+AB42</f>
         <v>7768.0929999999998</v>
       </c>
-      <c r="AC73" s="48"/>
-    </row>
-    <row r="74" spans="2:29" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC73" s="31">
+        <f t="shared" ref="AC73" si="125">AC41+AC42</f>
+        <v>5052.95</v>
+      </c>
+      <c r="AD73" s="48"/>
+    </row>
+    <row r="74" spans="2:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="28" t="s">
         <v>7</v>
       </c>
       <c r="M74" s="31">
-        <f t="shared" ref="M74" si="107">M63</f>
+        <f t="shared" ref="M74" si="126">M63</f>
         <v>750.452</v>
       </c>
       <c r="R74" s="31">
-        <f t="shared" ref="R74:S74" si="108">R63</f>
+        <f t="shared" ref="R74:S74" si="127">R63</f>
         <v>910.96299999999997</v>
       </c>
       <c r="S74" s="31">
-        <f t="shared" si="108"/>
+        <f t="shared" si="127"/>
         <v>911.54899999999998</v>
       </c>
       <c r="T74" s="31">
-        <f t="shared" ref="T74" si="109">T63</f>
+        <f t="shared" ref="T74" si="128">T63</f>
         <v>912.13699999999994</v>
       </c>
       <c r="U74" s="31">
         <f>U63</f>
         <v>912.72400000000005</v>
       </c>
+      <c r="V74" s="31">
+        <f t="shared" ref="V74" si="129">V63</f>
+        <v>913.31200000000001</v>
+      </c>
+      <c r="W74" s="48"/>
       <c r="AB74" s="31">
         <f>AB63</f>
         <v>910.96299999999997</v>
       </c>
-      <c r="AC74" s="48"/>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC74" s="31">
+        <f t="shared" ref="AC74" si="130">AC63</f>
+        <v>913.31200000000001</v>
+      </c>
+      <c r="AD74" s="48"/>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M75" s="33">
-        <f t="shared" ref="M75" si="110">M73-M74</f>
+        <f t="shared" ref="M75" si="131">M73-M74</f>
         <v>5370.7089999999998</v>
       </c>
       <c r="R75" s="33">
-        <f t="shared" ref="R75:S75" si="111">R73-R74</f>
+        <f t="shared" ref="R75:S75" si="132">R73-R74</f>
         <v>6857.13</v>
       </c>
       <c r="S75" s="33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="132"/>
         <v>6335.1410000000005</v>
       </c>
       <c r="T75" s="33">
-        <f t="shared" ref="T75" si="112">T73-T74</f>
+        <f t="shared" ref="T75" si="133">T73-T74</f>
         <v>6042.6540000000005</v>
       </c>
       <c r="U75" s="33">
         <f>U73-U74</f>
         <v>4028.7079999999996</v>
       </c>
+      <c r="V75" s="33">
+        <f t="shared" ref="V75" si="134">V73-V74</f>
+        <v>4139.6379999999999</v>
+      </c>
       <c r="AB75" s="33">
         <f>AB73-AB74</f>
         <v>6857.13</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC75" s="33">
+        <f t="shared" ref="AC75" si="135">AC73-AC74</f>
+        <v>4139.6379999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>136</v>
       </c>
@@ -6183,70 +6616,93 @@
       <c r="U77" s="36">
         <v>26.94</v>
       </c>
+      <c r="V77" s="1">
+        <v>34.17</v>
+      </c>
       <c r="AB77" s="33">
         <f>R77</f>
         <v>1377.4299999999998</v>
       </c>
-    </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC77" s="94">
+        <f>V77</f>
+        <v>34.17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>137</v>
       </c>
       <c r="M78" s="33">
-        <f t="shared" ref="M78" si="113">M77*M22</f>
+        <f t="shared" ref="M78" si="136">M77*M22</f>
         <v>37563.429562800004</v>
       </c>
       <c r="R78" s="33">
-        <f t="shared" ref="R78:T78" si="114">R77*R22</f>
+        <f t="shared" ref="R78:T78" si="137">R77*R22</f>
         <v>173190.82357964999</v>
       </c>
       <c r="S78" s="33">
-        <f t="shared" ref="S78" si="115">S77*S22</f>
+        <f t="shared" ref="S78" si="138">S77*S22</f>
         <v>85184.832616</v>
       </c>
       <c r="T78" s="33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="137"/>
         <v>39425.244414599998</v>
       </c>
       <c r="U78" s="33">
         <f>U77*U22</f>
         <v>34198.315588440004</v>
       </c>
+      <c r="V78" s="33">
+        <f t="shared" ref="V78" si="139">V77*V22</f>
+        <v>43509.986932680004</v>
+      </c>
       <c r="AB78" s="33">
-        <f t="shared" ref="AB78" si="116">AB77*AB22</f>
+        <f t="shared" ref="AB78:AC78" si="140">AB77*AB22</f>
         <v>173190.82357964999</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC78" s="33">
+        <f t="shared" si="140"/>
+        <v>43268.382856349999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M79" s="33">
-        <f t="shared" ref="M79" si="117">M78-M75</f>
+        <f t="shared" ref="M79" si="141">M78-M75</f>
         <v>32192.720562800005</v>
       </c>
       <c r="R79" s="33">
-        <f t="shared" ref="R79:T79" si="118">R78-R75</f>
+        <f t="shared" ref="R79:T79" si="142">R78-R75</f>
         <v>166333.69357964999</v>
       </c>
       <c r="S79" s="33">
-        <f t="shared" ref="S79" si="119">S78-S75</f>
+        <f t="shared" ref="S79" si="143">S78-S75</f>
         <v>78849.691615999996</v>
       </c>
       <c r="T79" s="33">
-        <f t="shared" si="118"/>
+        <f t="shared" si="142"/>
         <v>33382.590414599996</v>
       </c>
       <c r="U79" s="33">
         <f>U78-U75</f>
         <v>30169.607588440005</v>
       </c>
+      <c r="V79" s="33">
+        <f t="shared" ref="V79" si="144">V78-V75</f>
+        <v>39370.348932680005</v>
+      </c>
       <c r="AB79" s="33">
-        <f t="shared" ref="AB79" si="120">AB78-AB75</f>
+        <f t="shared" ref="AB79:AC79" si="145">AB78-AB75</f>
         <v>166333.69357964999</v>
       </c>
-    </row>
-    <row r="81" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC79" s="33">
+        <f t="shared" si="145"/>
+        <v>39128.74485635</v>
+      </c>
+    </row>
+    <row r="81" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
         <v>22</v>
       </c>
@@ -6259,69 +6715,97 @@
         <v>15.556051285921271</v>
       </c>
       <c r="S81" s="43">
-        <f t="shared" ref="S81" si="121">S77/S71</f>
+        <f t="shared" ref="S81" si="146">S77/S71</f>
         <v>8.7015686160663428</v>
       </c>
       <c r="T81" s="43">
-        <f t="shared" ref="T81" si="122">T77/T71</f>
+        <f t="shared" ref="T81" si="147">T77/T71</f>
         <v>4.5227332229835326</v>
       </c>
       <c r="U81" s="43">
         <f>U77/U71</f>
         <v>3.9340025441642301</v>
       </c>
+      <c r="V81" s="43">
+        <f t="shared" ref="V81" si="148">V77/V71</f>
+        <v>5.2810502645053248</v>
+      </c>
       <c r="AB81" s="43">
         <f>AB77/AB71</f>
         <v>15.556051285921271</v>
       </c>
-    </row>
-    <row r="82" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC81" s="43">
+        <f t="shared" ref="AC81" si="149">AC77/AC71</f>
+        <v>5.2517254275849581</v>
+      </c>
+    </row>
+    <row r="82" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R82" s="43">
-        <f t="shared" ref="R82:T82" si="123">R78/SUM(O6:R6)</f>
+        <f t="shared" ref="R82:T82" si="150">R78/SUM(O6:R6)</f>
         <v>37.553389260126508</v>
       </c>
       <c r="S82" s="43">
-        <f t="shared" si="123"/>
+        <f t="shared" si="150"/>
         <v>17.64818676432078</v>
       </c>
       <c r="T82" s="43">
-        <f t="shared" si="123"/>
+        <f t="shared" si="150"/>
         <v>7.8811871012403909</v>
       </c>
       <c r="U82" s="43">
         <f>U78/SUM(R6:U6)</f>
         <v>6.5202864469437998</v>
       </c>
+      <c r="V82" s="43">
+        <f t="shared" ref="V82" si="151">V78/SUM(S6:V6)</f>
+        <v>7.7698292195453318</v>
+      </c>
       <c r="AB82" s="43">
         <f>AB78/AB6</f>
         <v>37.553389260126508</v>
       </c>
-    </row>
-    <row r="83" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC82" s="43">
+        <f t="shared" ref="AC82" si="152">AC78/AC6</f>
+        <v>7.7266845866881759</v>
+      </c>
+    </row>
+    <row r="83" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R83" s="43">
-        <f t="shared" ref="R83:T83" si="124">R79/SUM(O6:R6)</f>
+        <f t="shared" ref="R83:T83" si="153">R79/SUM(O6:R6)</f>
         <v>36.066541015081562</v>
       </c>
       <c r="S83" s="43">
-        <f t="shared" si="124"/>
+        <f t="shared" si="153"/>
         <v>16.335702509637791</v>
       </c>
       <c r="T83" s="43">
-        <f t="shared" si="124"/>
+        <f t="shared" si="153"/>
         <v>6.673248191306258</v>
       </c>
       <c r="U83" s="43">
         <f>U79/SUM(R6:U6)</f>
         <v>5.752168786202243</v>
       </c>
-    </row>
-    <row r="84" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="V83" s="43">
+        <f t="shared" ref="V83" si="154">V79/SUM(S6:V6)</f>
+        <v>7.0305901951690259</v>
+      </c>
+      <c r="AB83" s="43">
+        <f>AB79/AB6</f>
+        <v>36.066541015081562</v>
+      </c>
+      <c r="AC83" s="43">
+        <f>AC79/AC6</f>
+        <v>6.9874455623118701</v>
+      </c>
+    </row>
+    <row r="84" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>25</v>
       </c>
@@ -6341,47 +6825,63 @@
         <f>U77/SUM(R21:U21)</f>
         <v>-1.7123991298146535</v>
       </c>
+      <c r="V84" s="43">
+        <f t="shared" ref="V84" si="155">V77/SUM(S21:V21)</f>
+        <v>-2.5751763691867708</v>
+      </c>
       <c r="AB84" s="43">
         <f>AB77/AB21</f>
         <v>59.42061269591057</v>
       </c>
-    </row>
-    <row r="85" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC84" s="43">
+        <f t="shared" ref="AC84" si="156">AC77/AC21</f>
+        <v>-12.503802389292279</v>
+      </c>
+    </row>
+    <row r="85" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R85" s="43">
-        <f t="shared" ref="R85:T85" si="125">R79/SUM(O20:R20)</f>
+        <f t="shared" ref="R85:T85" si="157">R79/SUM(O20:R20)</f>
         <v>57.067977276123884</v>
       </c>
       <c r="S85" s="43">
-        <f t="shared" si="125"/>
+        <f t="shared" si="157"/>
         <v>433.7023619462492</v>
       </c>
       <c r="T85" s="43">
-        <f t="shared" si="125"/>
+        <f t="shared" si="157"/>
         <v>-17.558750140490666</v>
       </c>
       <c r="U85" s="43">
         <f>U79/SUM(R20:U20)</f>
         <v>-9.4043885395390046</v>
       </c>
+      <c r="V85" s="43">
+        <f t="shared" ref="V85" si="158">V79/SUM(S20:V20)</f>
+        <v>-11.377339076573989</v>
+      </c>
       <c r="AB85" s="43">
         <f>AB79/AB20</f>
         <v>57.067977276123898</v>
       </c>
-    </row>
-    <row r="86" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AC85" s="43">
+        <f t="shared" ref="AC85" si="159">AC79/AC20</f>
+        <v>-11.307519743669697</v>
+      </c>
+    </row>
+    <row r="86" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B88" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
         <v>100</v>
       </c>
@@ -6445,8 +6945,13 @@
         <f>-391.833-SUM(S91:T91)</f>
         <v>-214.10600000000002</v>
       </c>
-      <c r="AC91" s="52"/>
-      <c r="AD91" s="58"/>
+      <c r="V91" s="32">
+        <f>-136.448-SUM(S91:U91)</f>
+        <v>255.38500000000002</v>
+      </c>
+      <c r="W91" s="119"/>
+      <c r="AC91" s="97"/>
+      <c r="AD91" s="52"/>
       <c r="AE91" s="58"/>
       <c r="AF91" s="58"/>
       <c r="AG91" s="58"/>
@@ -6457,12 +6962,13 @@
       <c r="AL91" s="58"/>
       <c r="AM91" s="58"/>
     </row>
-    <row r="92" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:39" x14ac:dyDescent="0.15">
       <c r="O92" s="33"/>
       <c r="S92" s="33"/>
       <c r="T92" s="33"/>
-    </row>
-    <row r="93" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="V92" s="33"/>
+    </row>
+    <row r="93" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
         <v>139</v>
       </c>
@@ -6484,8 +6990,12 @@
         <f>3568.229-SUM(S93:T93)</f>
         <v>5601.3189999999995</v>
       </c>
-    </row>
-    <row r="94" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="V93" s="33">
+        <f>5011.129-SUM(S93:U93)</f>
+        <v>1442.9000000000005</v>
+      </c>
+    </row>
+    <row r="94" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>140</v>
       </c>
@@ -6507,8 +7017,12 @@
         <f>5273.944-SUM(S94:T94)</f>
         <v>1584.3800000000006</v>
       </c>
-    </row>
-    <row r="95" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="V94" s="33">
+        <f>6890.167-SUM(S94:U94)</f>
+        <v>1616.223</v>
+      </c>
+    </row>
+    <row r="95" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>141</v>
       </c>
@@ -6530,8 +7044,12 @@
         <f>630.135-SUM(S95:T95)</f>
         <v>60.48599999999999</v>
       </c>
-    </row>
-    <row r="96" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="V95" s="33">
+        <f>635.156-SUM(S95:U95)</f>
+        <v>5.0209999999999582</v>
+      </c>
+    </row>
+    <row r="96" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
         <v>142</v>
       </c>
@@ -6553,9 +7071,13 @@
         <f>42.394-SUM(S96:T96)</f>
         <v>13.904999999999998</v>
       </c>
-      <c r="W96" s="33"/>
-    </row>
-    <row r="97" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="V96" s="33">
+        <f>50.018-SUM(S96:U96)</f>
+        <v>7.6240000000000023</v>
+      </c>
+      <c r="W96" s="98"/>
+    </row>
+    <row r="97" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>143</v>
       </c>
@@ -6575,90 +7097,98 @@
         <f>1753.748-SUM(S97:T97)</f>
         <v>1723.74</v>
       </c>
-      <c r="V97" s="33"/>
-    </row>
-    <row r="98" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V97" s="33">
+        <f>1753.748-SUM(S97:U97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C98" s="2">
-        <f t="shared" ref="C98:U98" si="126">SUM(C93:C97)</f>
+        <f t="shared" ref="C98:V98" si="160">SUM(C93:C97)</f>
         <v>0</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="O98" s="32">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>-1608.0029999999997</v>
       </c>
       <c r="P98" s="32">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>-508.85200000000003</v>
       </c>
       <c r="Q98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="R98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
       <c r="S98" s="32">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>935.57500000000005</v>
       </c>
       <c r="T98" s="32">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>1349.0449999999998</v>
       </c>
       <c r="U98" s="32">
-        <f t="shared" si="126"/>
+        <f t="shared" si="160"/>
         <v>8983.83</v>
       </c>
-      <c r="AC98" s="52"/>
-      <c r="AD98" s="58"/>
+      <c r="V98" s="32">
+        <f t="shared" si="160"/>
+        <v>3071.768</v>
+      </c>
+      <c r="W98" s="119"/>
+      <c r="AC98" s="97"/>
+      <c r="AD98" s="52"/>
       <c r="AE98" s="58"/>
       <c r="AF98" s="58"/>
       <c r="AG98" s="58"/>
@@ -6669,165 +7199,171 @@
       <c r="AL98" s="58"/>
       <c r="AM98" s="58"/>
     </row>
-    <row r="99" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:39" x14ac:dyDescent="0.15">
       <c r="O99" s="33"/>
       <c r="P99" s="33"/>
       <c r="S99" s="33"/>
       <c r="T99" s="33"/>
-    </row>
-    <row r="100" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="V99" s="33"/>
+    </row>
+    <row r="100" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" ref="C100:T100" si="127">C96+C97</f>
+        <f t="shared" ref="C100:T100" si="161">C96+C97</f>
         <v>0</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="J100" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="L100" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="O100" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>5.1879999999999997</v>
       </c>
       <c r="P100" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>-8.2630000000000017</v>
       </c>
       <c r="Q100" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="S100" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>15.94</v>
       </c>
       <c r="T100" s="33">
-        <f t="shared" si="127"/>
+        <f t="shared" si="161"/>
         <v>42.557000000000002</v>
       </c>
       <c r="U100" s="33">
         <f>U96+U97</f>
         <v>1737.645</v>
       </c>
-    </row>
-    <row r="101" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="V100" s="33">
+        <f t="shared" ref="V100" si="162">V96+V97</f>
+        <v>7.6240000000000023</v>
+      </c>
+    </row>
+    <row r="101" spans="2:39" x14ac:dyDescent="0.15">
       <c r="O101" s="33"/>
       <c r="P101" s="33"/>
       <c r="S101" s="33"/>
       <c r="T101" s="33"/>
-    </row>
-    <row r="102" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V101" s="33"/>
+    </row>
+    <row r="102" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C102" s="32">
-        <f t="shared" ref="C102:R102" si="128">C100-C91</f>
+        <f t="shared" ref="C102:R102" si="163">C100-C91</f>
         <v>0</v>
       </c>
       <c r="D102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="E102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="F102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="G102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="H102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="I102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="J102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="K102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="L102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="M102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="N102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="O102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>-130.495</v>
       </c>
       <c r="P102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>-74.684000000000026</v>
       </c>
       <c r="Q102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="R102" s="32">
-        <f t="shared" si="128"/>
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
       <c r="S102" s="32">
@@ -6835,15 +7371,20 @@
         <v>69.5</v>
       </c>
       <c r="T102" s="32">
-        <f t="shared" ref="T102:U102" si="129">T100-T91</f>
+        <f t="shared" ref="T102:U102" si="164">T100-T91</f>
         <v>166.72399999999999</v>
       </c>
       <c r="U102" s="32">
-        <f t="shared" si="129"/>
+        <f t="shared" si="164"/>
         <v>1951.751</v>
       </c>
-      <c r="AC102" s="52"/>
-      <c r="AD102" s="58"/>
+      <c r="V102" s="32">
+        <f t="shared" ref="V102" si="165">V100-V91</f>
+        <v>-247.76100000000002</v>
+      </c>
+      <c r="W102" s="119"/>
+      <c r="AC102" s="97"/>
+      <c r="AD102" s="52"/>
       <c r="AE102" s="58"/>
       <c r="AF102" s="58"/>
       <c r="AG102" s="58"/>
@@ -6862,15 +7403,429 @@
     <hyperlink ref="R1" r:id="rId4" xr:uid="{10D4EEA5-9810-034E-8889-73BE2548332A}"/>
     <hyperlink ref="AB1" r:id="rId5" xr:uid="{097AF3B0-7BBE-48F1-A2C9-FE0198607796}"/>
     <hyperlink ref="M1" r:id="rId6" xr:uid="{240B947B-C305-4D02-B35A-139D4A74064D}"/>
+    <hyperlink ref="V1" r:id="rId7" xr:uid="{6123133E-08C5-6C4D-9572-9C1E621E3D72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId8"/>
   <ignoredErrors>
-    <ignoredError sqref="AB19 V17 V14" formulaRange="1"/>
-    <ignoredError sqref="AB4:AB18" formula="1" formulaRange="1"/>
-    <ignoredError sqref="AB2:AB3 AC10 AC18 AB47 AB54:AB64" formula="1"/>
+    <ignoredError sqref="AB19 AC11:AC17 AC19:AC20 AC4:AC5 AC7:AC8" formulaRange="1"/>
+    <ignoredError sqref="AB4:AB18 AC18" formula="1" formulaRange="1"/>
+    <ignoredError sqref="AB2:AB3 AC10 AB47:AC47 AB54:AB64 AC54 AC60" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <drawing r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748A8B4B-4823-49AA-8B53-4608FA063D21}">
+  <dimension ref="B1:E102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="21"/>
+      <c r="D1" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="116" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="22"/>
+      <c r="D2" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" s="22"/>
+      <c r="D3" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="108"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="109">
+        <v>400.25400000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="109">
+        <v>1334.7239999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="104">
+        <v>1707.75</v>
+      </c>
+      <c r="E6" s="110">
+        <v>1734.9780000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="109">
+        <v>85.771000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="109">
+        <v>850.69899999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="98">
+        <v>853.875</v>
+      </c>
+      <c r="E9" s="111">
+        <v>936.46999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="104">
+        <v>853.875</v>
+      </c>
+      <c r="E10" s="110">
+        <v>798.50800000000015</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="98">
+        <v>392.78250000000003</v>
+      </c>
+      <c r="E11" s="111">
+        <v>297.74099999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="98">
+        <v>512.32499999999993</v>
+      </c>
+      <c r="E12" s="111">
+        <v>440.54700000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="98">
+        <v>324.47250000000003</v>
+      </c>
+      <c r="E13" s="111">
+        <v>214.65100000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="98">
+        <v>30.747199999999999</v>
+      </c>
+      <c r="E14" s="111">
+        <v>34.317999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="98">
+        <v>1260.3271999999999</v>
+      </c>
+      <c r="E15" s="111">
+        <v>987.25700000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="104">
+        <v>-406.45219999999995</v>
+      </c>
+      <c r="E16" s="110">
+        <v>-188.74899999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="98">
+        <v>-719.45324999999991</v>
+      </c>
+      <c r="E17" s="111">
+        <v>-425.85899999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="98">
+        <v>-1125.9054499999997</v>
+      </c>
+      <c r="E18" s="111">
+        <v>-614.60799999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="98">
+        <v>-281.47636249999994</v>
+      </c>
+      <c r="E19" s="111">
+        <v>9.0860000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="104">
+        <v>-844.42908749999981</v>
+      </c>
+      <c r="E20" s="110">
+        <v>-623.69399999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="105">
+        <v>-0.66520585080920691</v>
+      </c>
+      <c r="E21" s="112">
+        <v>-0.48980993749720042</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="98">
+        <v>1269.4252260000001</v>
+      </c>
+      <c r="E22" s="111">
+        <v>1273.338804</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D23" s="106"/>
+      <c r="E23" s="108"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="107">
+        <v>0.23747847863515403</v>
+      </c>
+      <c r="E24" s="113">
+        <v>0.25720857028573407</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="100"/>
+      <c r="E25" s="114">
+        <v>0.13964943850937339</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="100"/>
+      <c r="E26" s="114">
+        <v>0.29733985474564917</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="100">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="114">
+        <v>0.26992973210364513</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D28" s="106"/>
+      <c r="E28" s="108"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="107">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="113">
+        <v>0.46024099441030381</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="115">
+        <v>0.78570857505484015</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="115">
+        <v>0.36264051594187263</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="100">
+        <v>-0.23800450885668273</v>
+      </c>
+      <c r="E32" s="114">
+        <v>-0.10879042846652805</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="100">
+        <v>-0.49446879666227483</v>
+      </c>
+      <c r="E33" s="114">
+        <v>-0.35948236807613693</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="100">
+        <v>0.25</v>
+      </c>
+      <c r="E34" s="114">
+        <v>-1.4783406659203918E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D35" s="106"/>
+      <c r="E35" s="108"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="100">
+        <v>0.3</v>
+      </c>
+      <c r="E36" s="114">
+        <v>0.25392079899572212</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="37"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B73" s="28"/>
+      <c r="D73" s="28"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B74" s="28"/>
+      <c r="D74" s="28"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B88" s="37"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D97" s="33"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B98" s="2"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B102" s="2"/>
+      <c r="D102" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/$SHOP.xlsx
+++ b/$SHOP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7399681-D109-BB40-9F3C-CC6FC47AB4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B241EA-944F-4979-B6A1-6F062ECE2BA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18900" activeTab="1" xr2:uid="{DD3A8C14-BBF5-4F78-B1B7-C8887875BE33}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{DD3A8C14-BBF5-4F78-B1B7-C8887875BE33}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -80,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="159">
   <si>
     <t>$SHOP</t>
   </si>
@@ -548,6 +538,15 @@
   </si>
   <si>
     <t>Q123</t>
+  </si>
+  <si>
+    <t>Employ.</t>
+  </si>
+  <si>
+    <t>Non-Finance Metrics</t>
+  </si>
+  <si>
+    <t>Employees</t>
   </si>
 </sst>
 </file>
@@ -792,7 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -915,49 +914,6 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1005,6 +961,56 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1102,7 +1108,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>682625</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1152,7 +1158,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1494,54 +1500,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F6E83-3251-4909-AC6D-F91B7A570587}">
   <dimension ref="A2:X38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="74" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="G5" s="74" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="G5" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="T5" s="83" t="s">
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
+      <c r="T5" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1568,7 +1574,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1599,7 +1605,7 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1627,12 +1633,12 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="16">
-        <f>'Financial Model'!V73</f>
+        <f>'Financial Model'!V76</f>
         <v>5052.95</v>
       </c>
       <c r="D9" s="18" t="str">
@@ -1658,12 +1664,12 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="16">
-        <f>'Financial Model'!V74</f>
+        <f>'Financial Model'!V77</f>
         <v>913.31200000000001</v>
       </c>
       <c r="D10" s="18" t="str">
@@ -1687,7 +1693,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1716,7 +1722,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1748,7 +1754,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G13" s="12"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1768,7 +1774,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="G14" s="12"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1786,12 +1792,12 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B15" s="74" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="G15" s="12"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1809,17 +1815,17 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="78"/>
+      <c r="D16" s="115"/>
       <c r="G16" s="12"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1837,14 +1843,14 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="115"/>
       <c r="G17" s="12"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1857,14 +1863,14 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="78"/>
+      <c r="D18" s="115"/>
       <c r="G18" s="12"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1877,14 +1883,14 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="73"/>
+      <c r="D19" s="119"/>
       <c r="G19" s="12"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1897,7 +1903,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G20" s="12"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1910,7 +1916,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G21" s="12"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1923,12 +1929,12 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="74" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="110"/>
       <c r="G22" s="12"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1941,14 +1947,14 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="115"/>
       <c r="G23" s="12"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1961,14 +1967,14 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="114">
         <v>2004</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="115"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1981,14 +1987,14 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="77">
+      <c r="C25" s="114">
         <v>2015</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="D25" s="115"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -2001,10 +2007,15 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B26" s="12"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="125">
+        <f>'Financial Model'!AC39</f>
+        <v>11600</v>
+      </c>
+      <c r="D26" s="115"/>
       <c r="G26" s="12"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -2017,10 +2028,10 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="117"/>
       <c r="G27" s="12"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -2033,7 +2044,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
         <v>19</v>
       </c>
@@ -2055,14 +2066,14 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="85"/>
+      <c r="D29" s="113"/>
       <c r="G29" s="13"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -2075,72 +2086,78 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B32" s="74" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C32" s="109"/>
+      <c r="D32" s="110"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="79">
-        <f>C6/'Financial Model'!V71</f>
+      <c r="C33" s="104">
+        <f>C6/'Financial Model'!V74</f>
         <v>7.4494182835574083</v>
       </c>
-      <c r="D33" s="80"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D33" s="105"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="79">
+      <c r="C34" s="104">
         <f>C8/SUM('Financial Model'!S6:V6)</f>
         <v>10.960075164825431</v>
       </c>
-      <c r="D34" s="80"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D34" s="105"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="79">
+      <c r="C35" s="104">
         <f>C12/SUM('Financial Model'!S6:V6)</f>
         <v>10.220836140449125</v>
       </c>
-      <c r="D35" s="80"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D35" s="105"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="79">
+      <c r="C36" s="104">
         <f>C6/SUM('Financial Model'!S21:V21)</f>
         <v>-3.6325285629149069</v>
       </c>
-      <c r="D36" s="80"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D36" s="105"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="79">
+      <c r="C37" s="104">
         <f>C12/SUM('Financial Model'!S20:V20)</f>
         <v>-16.539993825254641</v>
       </c>
-      <c r="D37" s="80"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D37" s="105"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -2157,12 +2174,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{2A54B12F-EBE0-4DCB-A8AD-3BBE3B84923D}"/>
@@ -2175,32 +2186,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123EB027-C354-42BF-BB7E-A89113FA6041}">
-  <dimension ref="B1:CI102"/>
+  <dimension ref="B1:CI105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="Q10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF36" sqref="AF36"/>
+      <selection pane="bottomRight" activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="9.1640625" style="1"/>
-    <col min="23" max="23" width="9.1640625" style="106"/>
-    <col min="24" max="28" width="9.1640625" style="1"/>
-    <col min="29" max="29" width="9.1640625" style="94"/>
-    <col min="30" max="30" width="9.1640625" style="48"/>
-    <col min="31" max="39" width="9.1640625" style="28"/>
-    <col min="40" max="40" width="9.1640625" style="1"/>
-    <col min="41" max="41" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="89"/>
+    <col min="24" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="9.140625" style="77"/>
+    <col min="30" max="30" width="9.140625" style="48"/>
+    <col min="31" max="39" width="9.140625" style="28"/>
+    <col min="40" max="40" width="9.140625" style="1"/>
+    <col min="41" max="41" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
         <v>29</v>
       </c>
@@ -2261,7 +2272,7 @@
       <c r="V1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="101" t="s">
+      <c r="W1" s="84" t="s">
         <v>155</v>
       </c>
       <c r="Y1" s="21" t="s">
@@ -2276,7 +2287,7 @@
       <c r="AB1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="88" t="s">
+      <c r="AC1" s="120" t="s">
         <v>53</v>
       </c>
       <c r="AD1" s="49" t="s">
@@ -2310,7 +2321,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="22"/>
       <c r="I2" s="26">
         <v>43738</v>
@@ -2345,12 +2356,12 @@
       <c r="V2" s="26">
         <v>44926</v>
       </c>
-      <c r="W2" s="102"/>
+      <c r="W2" s="85"/>
       <c r="AB2" s="26">
         <f>R2</f>
         <v>44561</v>
       </c>
-      <c r="AC2" s="89">
+      <c r="AC2" s="72">
         <f>V2</f>
         <v>44926</v>
       </c>
@@ -2365,7 +2376,7 @@
       <c r="AL2" s="55"/>
       <c r="AM2" s="55"/>
     </row>
-    <row r="3" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
       <c r="M3" s="25">
         <v>47392</v>
@@ -2385,12 +2396,12 @@
       <c r="V3" s="25">
         <v>42036</v>
       </c>
-      <c r="W3" s="102"/>
+      <c r="W3" s="85"/>
       <c r="AB3" s="25">
         <f>R3</f>
         <v>42401</v>
       </c>
-      <c r="AC3" s="90">
+      <c r="AC3" s="73">
         <f>V3</f>
         <v>42036</v>
       </c>
@@ -2405,7 +2416,7 @@
       <c r="AL3" s="55"/>
       <c r="AM3" s="55"/>
     </row>
-    <row r="4" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>71</v>
       </c>
@@ -2447,13 +2458,13 @@
         <f>SUM(O4:R4)</f>
         <v>1342.3340000000001</v>
       </c>
-      <c r="AC4" s="91">
-        <f>SUM(S4:V4)</f>
+      <c r="AC4" s="74">
+        <f t="shared" ref="AC4:AC9" si="0">SUM(S4:V4)</f>
         <v>1487.759</v>
       </c>
       <c r="AD4" s="46"/>
     </row>
-    <row r="5" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>72</v>
       </c>
@@ -2492,89 +2503,89 @@
       </c>
       <c r="W5" s="46"/>
       <c r="AB5" s="31">
-        <f t="shared" ref="AB5:AB8" si="0">SUM(O5:R5)</f>
+        <f t="shared" ref="AB5:AB8" si="1">SUM(O5:R5)</f>
         <v>3269.5219999999999</v>
       </c>
-      <c r="AC5" s="91">
-        <f>SUM(S5:V5)</f>
+      <c r="AC5" s="74">
+        <f t="shared" si="0"/>
         <v>4112.1049999999996</v>
       </c>
       <c r="AD5" s="46"/>
     </row>
-    <row r="6" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="32">
-        <f t="shared" ref="C6:T6" si="1">C4+C5</f>
+        <f t="shared" ref="C6:T6" si="2">C4+C5</f>
         <v>0</v>
       </c>
       <c r="D6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>390.55200000000002</v>
       </c>
       <c r="J6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>767.40499999999997</v>
       </c>
       <c r="N6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>977.74399999999991</v>
       </c>
       <c r="O6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>988.64699999999993</v>
       </c>
       <c r="P6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1119.4449999999999</v>
       </c>
       <c r="Q6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1123.74</v>
       </c>
       <c r="R6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1380.0240000000001</v>
       </c>
       <c r="S6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1203.623</v>
       </c>
       <c r="T6" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1295.0630000000001</v>
       </c>
       <c r="U6" s="32">
@@ -2585,7 +2596,7 @@
         <f>V4+V5</f>
         <v>1734.9780000000001</v>
       </c>
-      <c r="W6" s="104">
+      <c r="W6" s="87">
         <f>V6*(1+W24)</f>
         <v>2220.7718400000003</v>
       </c>
@@ -2596,8 +2607,8 @@
         <f>AB4+AB5</f>
         <v>4611.8559999999998</v>
       </c>
-      <c r="AC6" s="92">
-        <f>SUM(S6:V6)</f>
+      <c r="AC6" s="75">
+        <f t="shared" si="0"/>
         <v>5599.8640000000005</v>
       </c>
       <c r="AD6" s="51">
@@ -2605,43 +2616,43 @@
         <v>7279.8232000000007</v>
       </c>
       <c r="AE6" s="56">
-        <f t="shared" ref="AE6:AM6" si="2">AD6*(1+AE24)</f>
+        <f t="shared" ref="AE6:AM6" si="3">AD6*(1+AE24)</f>
         <v>10191.752480000001</v>
       </c>
       <c r="AF6" s="56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15287.628720000001</v>
       </c>
       <c r="AG6" s="56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22167.061644000001</v>
       </c>
       <c r="AH6" s="56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31033.8863016</v>
       </c>
       <c r="AI6" s="56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40344.052192080002</v>
       </c>
       <c r="AJ6" s="56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48412.862630495998</v>
       </c>
       <c r="AK6" s="56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57127.177903985277</v>
       </c>
       <c r="AL6" s="56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64553.711031503357</v>
       </c>
       <c r="AM6" s="56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69718.007914023634</v>
       </c>
     </row>
-    <row r="7" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
         <v>74</v>
       </c>
@@ -2680,16 +2691,16 @@
       </c>
       <c r="W7" s="46"/>
       <c r="AB7" s="31">
+        <f t="shared" si="1"/>
+        <v>264.351</v>
+      </c>
+      <c r="AC7" s="74">
         <f t="shared" si="0"/>
-        <v>264.351</v>
-      </c>
-      <c r="AC7" s="91">
-        <f>SUM(S7:V7)</f>
         <v>330.86700000000002</v>
       </c>
       <c r="AD7" s="46"/>
     </row>
-    <row r="8" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
         <v>75</v>
       </c>
@@ -2728,89 +2739,89 @@
       </c>
       <c r="W8" s="46"/>
       <c r="AB8" s="31">
+        <f t="shared" si="1"/>
+        <v>1866.3610000000001</v>
+      </c>
+      <c r="AC8" s="74">
         <f t="shared" si="0"/>
-        <v>1866.3610000000001</v>
-      </c>
-      <c r="AC8" s="91">
-        <f>SUM(S8:V8)</f>
         <v>2514.8780000000002</v>
       </c>
       <c r="AD8" s="46"/>
     </row>
-    <row r="9" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="33">
-        <f t="shared" ref="C9:T9" si="3">C7+C8</f>
+        <f t="shared" ref="C9:T9" si="4">C7+C8</f>
         <v>0</v>
       </c>
       <c r="D9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>173.85599999999999</v>
       </c>
       <c r="J9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>362.25700000000001</v>
       </c>
       <c r="N9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>473.35599999999999</v>
       </c>
       <c r="O9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>429.93099999999998</v>
       </c>
       <c r="P9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>498.58499999999998</v>
       </c>
       <c r="Q9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>514.83100000000002</v>
       </c>
       <c r="R9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>687.36500000000001</v>
       </c>
       <c r="S9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>565.98599999999999</v>
       </c>
       <c r="T9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>639.42100000000005</v>
       </c>
       <c r="U9" s="33">
@@ -2821,7 +2832,7 @@
         <f>V7+V8</f>
         <v>936.46999999999991</v>
       </c>
-      <c r="W9" s="98">
+      <c r="W9" s="81">
         <f>W6*(1-W29)</f>
         <v>1199.2167936000003</v>
       </c>
@@ -2834,125 +2845,125 @@
         <f>AB7+AB8</f>
         <v>2130.712</v>
       </c>
-      <c r="AC9" s="91">
-        <f>SUM(S9:V9)</f>
+      <c r="AC9" s="74">
+        <f t="shared" si="0"/>
         <v>2845.7449999999999</v>
       </c>
-      <c r="AD9" s="98">
-        <f t="shared" ref="AD9:AM9" si="4">AD6*(1-AD29)</f>
+      <c r="AD9" s="81">
+        <f t="shared" ref="AD9:AM9" si="5">AD6*(1-AD29)</f>
         <v>3785.5080640000006</v>
       </c>
       <c r="AE9" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4993.9587152000004</v>
       </c>
       <c r="AF9" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7490.9380728000006</v>
       </c>
       <c r="AG9" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10640.18958912</v>
       </c>
       <c r="AH9" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14585.926561752</v>
       </c>
       <c r="AI9" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18154.823486435998</v>
       </c>
       <c r="AJ9" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21785.788183723198</v>
       </c>
       <c r="AK9" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25707.230056793371</v>
       </c>
       <c r="AL9" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29049.169964176508</v>
       </c>
       <c r="AM9" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31373.103561310632</v>
       </c>
     </row>
-    <row r="10" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="32">
-        <f t="shared" ref="C10:T10" si="5">C6-C9</f>
+        <f t="shared" ref="C10:T10" si="6">C6-C9</f>
         <v>0</v>
       </c>
       <c r="D10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>216.69600000000003</v>
       </c>
       <c r="J10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>405.14799999999997</v>
       </c>
       <c r="N10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>504.38799999999992</v>
       </c>
       <c r="O10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>558.71599999999989</v>
       </c>
       <c r="P10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>620.8599999999999</v>
       </c>
       <c r="Q10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>608.90899999999999</v>
       </c>
       <c r="R10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>692.65900000000011</v>
       </c>
       <c r="S10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>637.63700000000006</v>
       </c>
       <c r="T10" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>655.64200000000005</v>
       </c>
       <c r="U10" s="32">
@@ -2963,7 +2974,7 @@
         <f>V6-V9</f>
         <v>798.50800000000015</v>
       </c>
-      <c r="W10" s="104">
+      <c r="W10" s="87">
         <f>W6-W9</f>
         <v>1021.5550464</v>
       </c>
@@ -2975,7 +2986,7 @@
         <f>AB6-AB9</f>
         <v>2481.1439999999998</v>
       </c>
-      <c r="AC10" s="92">
+      <c r="AC10" s="75">
         <f>AC6-AC9</f>
         <v>2754.1190000000006</v>
       </c>
@@ -2984,43 +2995,43 @@
         <v>3494.3151360000002</v>
       </c>
       <c r="AE10" s="56">
-        <f t="shared" ref="AE10:AM10" si="6">AE6-AE9</f>
+        <f t="shared" ref="AE10:AM10" si="7">AE6-AE9</f>
         <v>5197.7937648000006</v>
       </c>
       <c r="AF10" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7796.6906472000001</v>
       </c>
       <c r="AG10" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11526.872054880001</v>
       </c>
       <c r="AH10" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16447.959739848</v>
       </c>
       <c r="AI10" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22189.228705644004</v>
       </c>
       <c r="AJ10" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26627.0744467728</v>
       </c>
       <c r="AK10" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31419.947847191906</v>
       </c>
       <c r="AL10" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35504.541067326849</v>
       </c>
       <c r="AM10" s="56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38344.904352712998</v>
       </c>
     </row>
-    <row r="11" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>78</v>
       </c>
@@ -3057,7 +3068,7 @@
       <c r="V11" s="33">
         <v>297.74099999999999</v>
       </c>
-      <c r="W11" s="98"/>
+      <c r="W11" s="81"/>
       <c r="X11" s="36"/>
       <c r="Y11" s="36"/>
       <c r="Z11" s="36"/>
@@ -3065,11 +3076,11 @@
         <f>SUM(O11:R11)</f>
         <v>901.55700000000013</v>
       </c>
-      <c r="AC11" s="91">
+      <c r="AC11" s="74">
         <f>SUM(S11:V11)</f>
         <v>1230.4899999999998</v>
       </c>
-      <c r="AD11" s="98">
+      <c r="AD11" s="81">
         <f>AD6*0.18</f>
         <v>1310.3681760000002</v>
       </c>
@@ -3078,11 +3089,11 @@
         <v>1528.762872</v>
       </c>
       <c r="AF11" s="33">
-        <f t="shared" ref="AF11:AG11" si="7">AF6*0.15</f>
+        <f t="shared" ref="AF11:AG11" si="8">AF6*0.15</f>
         <v>2293.1443079999999</v>
       </c>
       <c r="AG11" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3325.0592466000003</v>
       </c>
       <c r="AH11" s="33">
@@ -3090,27 +3101,27 @@
         <v>3103.38863016</v>
       </c>
       <c r="AI11" s="33">
-        <f t="shared" ref="AI11:AM11" si="8">AI6*0.1</f>
+        <f t="shared" ref="AI11:AM11" si="9">AI6*0.1</f>
         <v>4034.4052192080003</v>
       </c>
       <c r="AJ11" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4841.2862630496002</v>
       </c>
       <c r="AK11" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5712.7177903985285</v>
       </c>
       <c r="AL11" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6455.3711031503362</v>
       </c>
       <c r="AM11" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6971.8007914023638</v>
       </c>
     </row>
-    <row r="12" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
         <v>79</v>
       </c>
@@ -3147,13 +3158,13 @@
       <c r="V12" s="33">
         <v>440.54700000000003</v>
       </c>
-      <c r="W12" s="98"/>
+      <c r="W12" s="81"/>
       <c r="AB12" s="33">
-        <f t="shared" ref="AB12:AB14" si="9">SUM(O12:R12)</f>
+        <f t="shared" ref="AB12:AB14" si="10">SUM(O12:R12)</f>
         <v>854.38300000000004</v>
       </c>
-      <c r="AC12" s="91">
-        <f t="shared" ref="AC12:AC19" si="10">SUM(S12:V12)</f>
+      <c r="AC12" s="74">
+        <f t="shared" ref="AC12:AC19" si="11">SUM(S12:V12)</f>
         <v>1503.2339999999999</v>
       </c>
       <c r="AD12" s="46">
@@ -3161,43 +3172,43 @@
         <v>1819.9558000000002</v>
       </c>
       <c r="AE12" s="31">
-        <f t="shared" ref="AE12:AM12" si="11">AE6*AE36</f>
+        <f t="shared" ref="AE12:AM12" si="12">AE6*AE36</f>
         <v>2547.9381200000003</v>
       </c>
       <c r="AF12" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3057.5257440000005</v>
       </c>
       <c r="AG12" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3990.0710959200001</v>
       </c>
       <c r="AH12" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5586.0995342879996</v>
       </c>
       <c r="AI12" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6051.6078288119998</v>
       </c>
       <c r="AJ12" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7261.9293945743993</v>
       </c>
       <c r="AK12" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8569.0766855977909</v>
       </c>
       <c r="AL12" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9683.0566547255039</v>
       </c>
       <c r="AM12" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10457.701187103545</v>
       </c>
     </row>
-    <row r="13" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33" t="s">
         <v>80</v>
       </c>
@@ -3234,15 +3245,15 @@
       <c r="V13" s="33">
         <v>214.65100000000001</v>
       </c>
-      <c r="W13" s="118"/>
+      <c r="W13" s="101"/>
       <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
       <c r="AB13" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>374.84399999999994</v>
       </c>
-      <c r="AC13" s="91">
-        <f t="shared" si="10"/>
+      <c r="AC13" s="74">
+        <f t="shared" si="11"/>
         <v>707.7650000000001</v>
       </c>
       <c r="AD13" s="46">
@@ -3258,35 +3269,35 @@
         <v>3439.7164620000003</v>
       </c>
       <c r="AG13" s="31">
-        <f t="shared" ref="AG13:AM13" si="12">AG6*0.225</f>
+        <f t="shared" ref="AG13:AM13" si="13">AG6*0.225</f>
         <v>4987.5888699000006</v>
       </c>
       <c r="AH13" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6982.62441786</v>
       </c>
       <c r="AI13" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9077.411743218001</v>
       </c>
       <c r="AJ13" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10892.894091861599</v>
       </c>
       <c r="AK13" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12853.615028396687</v>
       </c>
       <c r="AL13" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14524.584982088256</v>
       </c>
       <c r="AM13" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15686.551780655318</v>
       </c>
     </row>
-    <row r="14" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="33" t="s">
         <v>81</v>
       </c>
@@ -3323,13 +3334,13 @@
       <c r="V14" s="33">
         <v>34.317999999999998</v>
       </c>
-      <c r="W14" s="98"/>
+      <c r="W14" s="81"/>
       <c r="AB14" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>81.716999999999999</v>
       </c>
-      <c r="AC14" s="91">
-        <f t="shared" si="10"/>
+      <c r="AC14" s="74">
+        <f t="shared" si="11"/>
         <v>134.929</v>
       </c>
       <c r="AD14" s="46">
@@ -3337,116 +3348,116 @@
         <v>108.32300000000001</v>
       </c>
       <c r="AE14" s="31">
-        <f t="shared" ref="AE14:AM14" si="13">AVERAGE(Z14:AD14)</f>
+        <f t="shared" ref="AE14:AM14" si="14">AVERAGE(Z14:AD14)</f>
         <v>108.32300000000002</v>
       </c>
       <c r="AF14" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>108.32300000000002</v>
       </c>
       <c r="AG14" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>108.32300000000002</v>
       </c>
       <c r="AH14" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>113.64420000000003</v>
       </c>
       <c r="AI14" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>109.38724000000002</v>
       </c>
       <c r="AJ14" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>109.600088</v>
       </c>
       <c r="AK14" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>109.85550560000001</v>
       </c>
       <c r="AL14" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>110.16200672000002</v>
       </c>
       <c r="AM14" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>110.52980806400001</v>
       </c>
     </row>
-    <row r="15" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="33">
-        <f t="shared" ref="C15:T15" si="14">SUM(C11:C14)</f>
+        <f t="shared" ref="C15:T15" si="15">SUM(C11:C14)</f>
         <v>0</v>
       </c>
       <c r="D15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>252.35399999999998</v>
       </c>
       <c r="J15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>354.58699999999993</v>
       </c>
       <c r="N15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>391.84699999999998</v>
       </c>
       <c r="O15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>439.81700000000001</v>
       </c>
       <c r="P15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>481.41899999999998</v>
       </c>
       <c r="Q15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>613.01</v>
       </c>
       <c r="R15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>678.25499999999988</v>
       </c>
       <c r="S15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>735.61299999999994</v>
       </c>
       <c r="T15" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>845.85</v>
       </c>
       <c r="U15" s="33">
@@ -3454,133 +3465,133 @@
         <v>1007.6980000000001</v>
       </c>
       <c r="V15" s="33">
-        <f t="shared" ref="V15" si="15">SUM(V11:V14)</f>
+        <f t="shared" ref="V15" si="16">SUM(V11:V14)</f>
         <v>987.25700000000006</v>
       </c>
-      <c r="W15" s="98"/>
+      <c r="W15" s="81"/>
       <c r="AB15" s="33">
         <f>SUM(AB11:AB14)</f>
         <v>2212.5010000000002</v>
       </c>
-      <c r="AC15" s="91">
+      <c r="AC15" s="74">
         <f>SUM(AC11:AC14)</f>
         <v>3576.4179999999997</v>
       </c>
       <c r="AD15" s="46">
-        <f t="shared" ref="AD15:AM15" si="16">SUM(AD11:AD14)</f>
+        <f t="shared" ref="AD15:AM15" si="17">SUM(AD11:AD14)</f>
         <v>5276.9974720000009</v>
       </c>
       <c r="AE15" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7038.7146864000006</v>
       </c>
       <c r="AF15" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8898.7095140000019</v>
       </c>
       <c r="AG15" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12411.042212420001</v>
       </c>
       <c r="AH15" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15785.756782308001</v>
       </c>
       <c r="AI15" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19272.812031238002</v>
       </c>
       <c r="AJ15" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>23105.7098374856</v>
       </c>
       <c r="AK15" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>27245.265009993007</v>
       </c>
       <c r="AL15" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>30773.174746684097</v>
       </c>
       <c r="AM15" s="31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>33226.583567225221</v>
       </c>
     </row>
-    <row r="16" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="32">
-        <f t="shared" ref="C16:T16" si="17">C10-C15</f>
+        <f t="shared" ref="C16:T16" si="18">C10-C15</f>
         <v>0</v>
       </c>
       <c r="D16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-35.657999999999959</v>
       </c>
       <c r="J16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>50.561000000000035</v>
       </c>
       <c r="N16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>112.54099999999994</v>
       </c>
       <c r="O16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>118.89899999999989</v>
       </c>
       <c r="P16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>139.44099999999992</v>
       </c>
       <c r="Q16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-4.1009999999999991</v>
       </c>
       <c r="R16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>14.404000000000224</v>
       </c>
       <c r="S16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-97.975999999999885</v>
       </c>
       <c r="T16" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-190.20799999999997</v>
       </c>
       <c r="U16" s="32">
@@ -3588,60 +3599,60 @@
         <v>-345.36599999999999</v>
       </c>
       <c r="V16" s="32">
-        <f t="shared" ref="V16" si="18">V10-V15</f>
+        <f t="shared" ref="V16" si="19">V10-V15</f>
         <v>-188.74899999999991</v>
       </c>
-      <c r="W16" s="104"/>
+      <c r="W16" s="87"/>
       <c r="AB16" s="32">
         <f>AB10-AB15</f>
         <v>268.64299999999957</v>
       </c>
-      <c r="AC16" s="92">
+      <c r="AC16" s="75">
         <f>AC10-AC15</f>
         <v>-822.29899999999907</v>
       </c>
       <c r="AD16" s="51">
-        <f t="shared" ref="AD16:AM16" si="19">AD10-AD15</f>
+        <f t="shared" ref="AD16:AM16" si="20">AD10-AD15</f>
         <v>-1782.6823360000008</v>
       </c>
       <c r="AE16" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1840.9209215999999</v>
       </c>
       <c r="AF16" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1102.0188668000019</v>
       </c>
       <c r="AG16" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-884.17015754000022</v>
       </c>
       <c r="AH16" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>662.20295753999926</v>
       </c>
       <c r="AI16" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2916.4166744060021</v>
       </c>
       <c r="AJ16" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3521.3646092872004</v>
       </c>
       <c r="AK16" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4174.6828371988995</v>
       </c>
       <c r="AL16" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4731.3663206427518</v>
       </c>
       <c r="AM16" s="56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5118.3207854877764</v>
       </c>
     </row>
-    <row r="17" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
         <v>84</v>
       </c>
@@ -3678,13 +3689,13 @@
       <c r="V17" s="33">
         <v>-425.85899999999998</v>
       </c>
-      <c r="W17" s="98"/>
+      <c r="W17" s="81"/>
       <c r="AB17" s="33">
-        <f t="shared" ref="AB17" si="20">SUM(O17:R17)</f>
+        <f t="shared" ref="AB17" si="21">SUM(O17:R17)</f>
         <v>2871.9490000000001</v>
       </c>
-      <c r="AC17" s="91">
-        <f t="shared" si="10"/>
+      <c r="AC17" s="74">
+        <f t="shared" si="11"/>
         <v>-2800.549</v>
       </c>
       <c r="AD17" s="46">
@@ -3692,116 +3703,116 @@
         <v>35.700000000000045</v>
       </c>
       <c r="AE17" s="31">
-        <f t="shared" ref="AE17:AM17" si="21">AVERAGE(Z17:AD17)</f>
+        <f t="shared" ref="AE17:AM17" si="22">AVERAGE(Z17:AD17)</f>
         <v>35.700000000000045</v>
       </c>
       <c r="AF17" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>35.700000000000045</v>
       </c>
       <c r="AG17" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>35.700000000000045</v>
       </c>
       <c r="AH17" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-531.54980000000012</v>
       </c>
       <c r="AI17" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-77.749959999999987</v>
       </c>
       <c r="AJ17" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-100.43995199999999</v>
       </c>
       <c r="AK17" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-127.66794239999999</v>
       </c>
       <c r="AL17" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-160.34153087999999</v>
       </c>
       <c r="AM17" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-199.54983705600003</v>
       </c>
     </row>
-    <row r="18" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="33">
-        <f t="shared" ref="C18:T18" si="22">C16+C17</f>
+        <f t="shared" ref="C18:T18" si="23">C16+C17</f>
         <v>0</v>
       </c>
       <c r="D18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-24.445999999999959</v>
       </c>
       <c r="J18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>186.36700000000005</v>
       </c>
       <c r="N18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>109.75299999999994</v>
       </c>
       <c r="O18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1369.5439999999999</v>
       </c>
       <c r="P18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>919.31499999999994</v>
       </c>
       <c r="Q18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1340.4520000000002</v>
       </c>
       <c r="R18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-488.71899999999977</v>
       </c>
       <c r="S18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1652.857</v>
       </c>
       <c r="T18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1198.25</v>
       </c>
       <c r="U18" s="33">
@@ -3809,60 +3820,60 @@
         <v>-157.13299999999998</v>
       </c>
       <c r="V18" s="33">
-        <f t="shared" ref="V18" si="23">V16+V17</f>
+        <f t="shared" ref="V18" si="24">V16+V17</f>
         <v>-614.60799999999995</v>
       </c>
-      <c r="W18" s="98"/>
+      <c r="W18" s="81"/>
       <c r="AB18" s="33">
         <f>AB16+AB17</f>
         <v>3140.5919999999996</v>
       </c>
-      <c r="AC18" s="91">
+      <c r="AC18" s="74">
         <f>AC16+AC17</f>
         <v>-3622.847999999999</v>
       </c>
       <c r="AD18" s="46">
-        <f t="shared" ref="AD18:AM18" si="24">AD16+AD17</f>
+        <f t="shared" ref="AD18:AM18" si="25">AD16+AD17</f>
         <v>-1746.9823360000007</v>
       </c>
       <c r="AE18" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1805.2209215999999</v>
       </c>
       <c r="AF18" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-1066.3188668000018</v>
       </c>
       <c r="AG18" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-848.47015754000017</v>
       </c>
       <c r="AH18" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>130.65315753999914</v>
       </c>
       <c r="AI18" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2838.666714406002</v>
       </c>
       <c r="AJ18" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3420.9246572872003</v>
       </c>
       <c r="AK18" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4047.0148947988996</v>
       </c>
       <c r="AL18" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4571.0247897627514</v>
       </c>
       <c r="AM18" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4918.7709484317766</v>
       </c>
     </row>
-    <row r="19" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
         <v>86</v>
       </c>
@@ -3899,13 +3910,13 @@
       <c r="V19" s="33">
         <v>9.0860000000000003</v>
       </c>
-      <c r="W19" s="98"/>
+      <c r="W19" s="81"/>
       <c r="AB19" s="33">
-        <f t="shared" ref="AB19" si="25">SUM(O19:R19)</f>
+        <f t="shared" ref="AB19" si="26">SUM(O19:R19)</f>
         <v>225.93299999999999</v>
       </c>
-      <c r="AC19" s="91">
-        <f t="shared" si="10"/>
+      <c r="AC19" s="74">
+        <f t="shared" si="11"/>
         <v>-162.42999999999998</v>
       </c>
       <c r="AD19" s="46">
@@ -3913,116 +3924,116 @@
         <v>-436.74558400000018</v>
       </c>
       <c r="AE19" s="31">
-        <f t="shared" ref="AE19:AM19" si="26">AE18*AE36</f>
+        <f t="shared" ref="AE19:AM19" si="27">AE18*AE36</f>
         <v>-451.30523039999997</v>
       </c>
       <c r="AF19" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-213.26377336000039</v>
       </c>
       <c r="AG19" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-152.72462835720003</v>
       </c>
       <c r="AH19" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>23.517568357199846</v>
       </c>
       <c r="AI19" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>425.80000716090029</v>
       </c>
       <c r="AJ19" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>513.13869859307999</v>
       </c>
       <c r="AK19" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>607.05223421983487</v>
       </c>
       <c r="AL19" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>685.65371846441269</v>
       </c>
       <c r="AM19" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>737.81564226476644</v>
       </c>
     </row>
-    <row r="20" spans="2:87" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:87" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>87</v>
       </c>
       <c r="C20" s="32">
-        <f t="shared" ref="C20:T20" si="27">C18-C19</f>
+        <f t="shared" ref="C20:T20" si="28">C18-C19</f>
         <v>0</v>
       </c>
       <c r="D20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-72.783999999999963</v>
       </c>
       <c r="J20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>191.06800000000004</v>
       </c>
       <c r="N20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>123.87199999999994</v>
       </c>
       <c r="O20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1258.4449999999999</v>
       </c>
       <c r="P20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>879.09299999999996</v>
       </c>
       <c r="Q20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1148.4320000000002</v>
       </c>
       <c r="R20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-371.31099999999975</v>
       </c>
       <c r="S20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1474.4079999999999</v>
       </c>
       <c r="T20" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>-1203.9069999999999</v>
       </c>
       <c r="U20" s="32">
@@ -4030,56 +4041,56 @@
         <v>-158.40899999999999</v>
       </c>
       <c r="V20" s="32">
-        <f t="shared" ref="V20" si="28">V18-V19</f>
+        <f t="shared" ref="V20" si="29">V18-V19</f>
         <v>-623.69399999999996</v>
       </c>
-      <c r="W20" s="104"/>
+      <c r="W20" s="87"/>
       <c r="AB20" s="32">
         <f>AB18-AB19</f>
         <v>2914.6589999999997</v>
       </c>
-      <c r="AC20" s="92">
+      <c r="AC20" s="75">
         <f>AC18-AC19</f>
         <v>-3460.4179999999992</v>
       </c>
       <c r="AD20" s="51">
-        <f t="shared" ref="AD20:AM20" si="29">AD18-AD19</f>
+        <f t="shared" ref="AD20:AM20" si="30">AD18-AD19</f>
         <v>-1310.2367520000005</v>
       </c>
       <c r="AE20" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-1353.9156911999999</v>
       </c>
       <c r="AF20" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-853.05509344000143</v>
       </c>
       <c r="AG20" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-695.74552918280017</v>
       </c>
       <c r="AH20" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>107.13558918279929</v>
       </c>
       <c r="AI20" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2412.8667072451017</v>
       </c>
       <c r="AJ20" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2907.7859586941204</v>
       </c>
       <c r="AK20" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3439.9626605790645</v>
       </c>
       <c r="AL20" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3885.3710712983388</v>
       </c>
       <c r="AM20" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4180.9553061670103</v>
       </c>
       <c r="AN20" s="32">
@@ -4087,240 +4098,240 @@
         <v>4264.5744122903507</v>
       </c>
       <c r="AO20" s="32">
-        <f t="shared" ref="AO20:CI20" si="30">AN20*(1+$AP$23)</f>
+        <f t="shared" ref="AO20:CI20" si="31">AN20*(1+$AP$23)</f>
         <v>4349.8659005361578</v>
       </c>
       <c r="AP20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4436.8632185468814</v>
       </c>
       <c r="AQ20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4525.6004829178191</v>
       </c>
       <c r="AR20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4616.112492576176</v>
       </c>
       <c r="AS20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4708.4347424276993</v>
       </c>
       <c r="AT20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4802.6034372762533</v>
       </c>
       <c r="AU20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4898.6555060217788</v>
       </c>
       <c r="AV20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4996.6286161422149</v>
       </c>
       <c r="AW20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5096.5611884650589</v>
       </c>
       <c r="AX20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5198.49241223436</v>
       </c>
       <c r="AY20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5302.4622604790475</v>
       </c>
       <c r="AZ20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5408.5115056886289</v>
       </c>
       <c r="BA20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5516.6817358024018</v>
       </c>
       <c r="BB20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5627.0153705184503</v>
       </c>
       <c r="BC20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5739.555677928819</v>
       </c>
       <c r="BD20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5854.3467914873954</v>
       </c>
       <c r="BE20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5971.4337273171432</v>
       </c>
       <c r="BF20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6090.8624018634864</v>
       </c>
       <c r="BG20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6212.679649900756</v>
       </c>
       <c r="BH20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6336.9332428987709</v>
       </c>
       <c r="BI20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6463.6719077567468</v>
       </c>
       <c r="BJ20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6592.9453459118822</v>
       </c>
       <c r="BK20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6724.8042528301203</v>
       </c>
       <c r="BL20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6859.3003378867224</v>
       </c>
       <c r="BM20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6996.4863446444569</v>
       </c>
       <c r="BN20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7136.4160715373464</v>
       </c>
       <c r="BO20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7279.1443929680936</v>
       </c>
       <c r="BP20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7424.7272808274556</v>
       </c>
       <c r="BQ20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7573.2218264440053</v>
       </c>
       <c r="BR20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7724.6862629728857</v>
       </c>
       <c r="BS20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7879.1799882323439</v>
       </c>
       <c r="BT20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8036.7635879969912</v>
       </c>
       <c r="BU20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8197.4988597569318</v>
       </c>
       <c r="BV20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8361.4488369520714</v>
       </c>
       <c r="BW20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8528.6778136911125</v>
       </c>
       <c r="BX20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8699.2513699649353</v>
       </c>
       <c r="BY20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8873.236397364235</v>
       </c>
       <c r="BZ20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9050.7011253115197</v>
       </c>
       <c r="CA20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9231.7151478177511</v>
       </c>
       <c r="CB20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9416.349450774107</v>
       </c>
       <c r="CC20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9604.6764397895895</v>
       </c>
       <c r="CD20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9796.7699685853822</v>
       </c>
       <c r="CE20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>9992.7053679570909</v>
       </c>
       <c r="CF20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10192.559475316233</v>
       </c>
       <c r="CG20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10396.410664822559</v>
       </c>
       <c r="CH20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10604.33887811901</v>
       </c>
       <c r="CI20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>10816.425655681391</v>
       </c>
     </row>
-    <row r="21" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I21" s="36">
-        <f t="shared" ref="I21" si="31">I20/I22</f>
+        <f t="shared" ref="I21" si="32">I20/I22</f>
         <v>-0.64361068850382475</v>
       </c>
       <c r="M21" s="36">
-        <f t="shared" ref="M21:P21" si="32">M20/M22</f>
+        <f t="shared" ref="M21:P21" si="33">M20/M22</f>
         <v>1.5854754556005637</v>
       </c>
       <c r="N21" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0138395664853699</v>
       </c>
       <c r="O21" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>10.211033185076877</v>
       </c>
       <c r="P21" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>7.058293271184958</v>
       </c>
       <c r="Q21" s="36">
-        <f t="shared" ref="Q21:V21" si="33">Q20/Q22</f>
+        <f t="shared" ref="Q21:V21" si="34">Q20/Q22</f>
         <v>9.1822067160645613</v>
       </c>
       <c r="R21" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-2.9531293873360611</v>
       </c>
       <c r="S21" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-11.700437476856566</v>
       </c>
       <c r="T21" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.95395869419321089</v>
       </c>
       <c r="U21" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.12478797234804595</v>
       </c>
       <c r="V21" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.48980993749720042</v>
       </c>
       <c r="X21" s="33"/>
@@ -4328,52 +4339,52 @@
         <f>AB20/AB22</f>
         <v>23.181013077887648</v>
       </c>
-      <c r="AC21" s="93">
+      <c r="AC21" s="76">
         <f>AC20/AC22</f>
         <v>-2.732768715959693</v>
       </c>
-      <c r="AD21" s="99">
+      <c r="AD21" s="82">
         <f>AD20/AD22</f>
         <v>-1.0347229746135411</v>
       </c>
       <c r="AE21" s="59">
-        <f t="shared" ref="AE21:AM21" si="34">AE20/AE22</f>
+        <f t="shared" ref="AE21:AM21" si="35">AE20/AE22</f>
         <v>-1.0692172000487525</v>
       </c>
       <c r="AF21" s="59">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-0.67367649582880129</v>
       </c>
       <c r="AG21" s="59">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>-0.54944564975086196</v>
       </c>
       <c r="AH21" s="59">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>8.4607346998155614E-2</v>
       </c>
       <c r="AI21" s="59">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.9054942649529885</v>
       </c>
       <c r="AJ21" s="59">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.2963429564365221</v>
       </c>
       <c r="AK21" s="59">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.716614681492219</v>
       </c>
       <c r="AL21" s="59">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.0683635657712163</v>
       </c>
       <c r="AM21" s="59">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.3017929809401316</v>
       </c>
     </row>
-    <row r="22" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -4426,7 +4437,7 @@
         <f>R22</f>
         <v>125.73475500000001</v>
       </c>
-      <c r="AC22" s="91">
+      <c r="AC22" s="74">
         <v>1266.268155</v>
       </c>
       <c r="AD22" s="46">
@@ -4434,43 +4445,43 @@
         <v>1266.268155</v>
       </c>
       <c r="AE22" s="31">
-        <f t="shared" ref="AE22:AM22" si="35">AD22</f>
+        <f t="shared" ref="AE22:AM22" si="36">AD22</f>
         <v>1266.268155</v>
       </c>
       <c r="AF22" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1266.268155</v>
       </c>
       <c r="AG22" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1266.268155</v>
       </c>
       <c r="AH22" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1266.268155</v>
       </c>
       <c r="AI22" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1266.268155</v>
       </c>
       <c r="AJ22" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1266.268155</v>
       </c>
       <c r="AK22" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1266.268155</v>
       </c>
       <c r="AL22" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1266.268155</v>
       </c>
       <c r="AM22" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1266.268155</v>
       </c>
     </row>
-    <row r="23" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:87" x14ac:dyDescent="0.2">
       <c r="AO23" s="60" t="s">
         <v>145</v>
       </c>
@@ -4478,28 +4489,28 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M24" s="34">
-        <f t="shared" ref="M24" si="36">M6/I6-1</f>
+        <f t="shared" ref="M24" si="37">M6/I6-1</f>
         <v>0.96492400499805386</v>
       </c>
       <c r="Q24" s="34">
-        <f t="shared" ref="Q24" si="37">Q6/M6-1</f>
+        <f t="shared" ref="Q24" si="38">Q6/M6-1</f>
         <v>0.46433760530619428</v>
       </c>
       <c r="R24" s="34">
-        <f t="shared" ref="R24" si="38">R6/N6-1</f>
+        <f t="shared" ref="R24" si="39">R6/N6-1</f>
         <v>0.4114369405488556</v>
       </c>
       <c r="S24" s="34">
-        <f t="shared" ref="S24" si="39">S6/O6-1</f>
+        <f t="shared" ref="S24" si="40">S6/O6-1</f>
         <v>0.2174446491012465</v>
       </c>
       <c r="T24" s="34">
-        <f t="shared" ref="T24" si="40">T6/P6-1</f>
+        <f t="shared" ref="T24" si="41">T6/P6-1</f>
         <v>0.15687952512182401</v>
       </c>
       <c r="U24" s="34">
@@ -4510,14 +4521,14 @@
         <f>V6/R6-1</f>
         <v>0.25720857028573407</v>
       </c>
-      <c r="W24" s="107">
+      <c r="W24" s="90">
         <v>0.28000000000000003</v>
       </c>
       <c r="AB24" s="34">
         <f>AB6/AA6-1</f>
         <v>0.57428577182862139</v>
       </c>
-      <c r="AC24" s="95">
+      <c r="AC24" s="78">
         <f>AC6/AB6-1</f>
         <v>0.21423218764853047</v>
       </c>
@@ -4558,28 +4569,28 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B25" s="27" t="s">
         <v>90</v>
       </c>
       <c r="M25" s="35">
-        <f t="shared" ref="M25:M26" si="41">M4/I4-1</f>
+        <f t="shared" ref="M25:M26" si="42">M4/I4-1</f>
         <v>0.48132892853476039</v>
       </c>
       <c r="Q25" s="35">
-        <f t="shared" ref="Q25:Q26" si="42">Q4/M4-1</f>
+        <f t="shared" ref="Q25:Q26" si="43">Q4/M4-1</f>
         <v>0.37074455506902493</v>
       </c>
       <c r="R25" s="35">
-        <f t="shared" ref="R25:R26" si="43">R4/N4-1</f>
+        <f t="shared" ref="R25:R26" si="44">R4/N4-1</f>
         <v>0.25682794159748079</v>
       </c>
       <c r="S25" s="35">
-        <f t="shared" ref="S25:S26" si="44">S4/O4-1</f>
+        <f t="shared" ref="S25:S26" si="45">S4/O4-1</f>
         <v>7.5090198670953567E-2</v>
       </c>
       <c r="T25" s="35">
-        <f t="shared" ref="T25:T26" si="45">T4/P4-1</f>
+        <f t="shared" ref="T25:T26" si="46">T4/P4-1</f>
         <v>9.6356776778154352E-2</v>
       </c>
       <c r="U25" s="35">
@@ -4587,10 +4598,10 @@
         <v>0.11925058297244551</v>
       </c>
       <c r="V25" s="35">
-        <f t="shared" ref="V25:V26" si="46">V4/R4-1</f>
+        <f t="shared" ref="V25:V26" si="47">V4/R4-1</f>
         <v>0.13964943850937339</v>
       </c>
-      <c r="AC25" s="96">
+      <c r="AC25" s="79">
         <f>AC4/AB4-1</f>
         <v>0.10833741825804899</v>
       </c>
@@ -4602,28 +4613,28 @@
         <v>38915.346323985468</v>
       </c>
     </row>
-    <row r="26" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B26" s="27" t="s">
         <v>91</v>
       </c>
       <c r="M26" s="35">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.3208400933437048</v>
       </c>
       <c r="Q26" s="35">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.50830347173410528</v>
       </c>
       <c r="R26" s="35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.47330675465126948</v>
       </c>
       <c r="S26" s="35">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.28578700113478828</v>
       </c>
       <c r="T26" s="35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.18264205153284241</v>
       </c>
       <c r="U26" s="35">
@@ -4631,10 +4642,10 @@
         <v>0.25696352656146026</v>
       </c>
       <c r="V26" s="35">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.29733985474564917</v>
       </c>
-      <c r="AC26" s="96">
+      <c r="AC26" s="79">
         <f>AC5/AB5-1</f>
         <v>0.25770831332531174</v>
       </c>
@@ -4646,33 +4657,33 @@
         <v>4139.6379999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:87" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="35">
-        <f t="shared" ref="N27" si="47">N6/M6-1</f>
+        <f t="shared" ref="N27" si="48">N6/M6-1</f>
         <v>0.27409125559515513</v>
       </c>
       <c r="O27" s="35">
-        <f t="shared" ref="O27:Q27" si="48">O6/N6-1</f>
+        <f t="shared" ref="O27:Q27" si="49">O6/N6-1</f>
         <v>1.1151180677150707E-2</v>
       </c>
       <c r="P27" s="35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.13230000192181834</v>
       </c>
       <c r="Q27" s="35">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>3.8367226616762284E-3</v>
       </c>
       <c r="R27" s="35">
-        <f t="shared" ref="R27:S27" si="49">R6/Q6-1</f>
+        <f t="shared" ref="R27:S27" si="50">R6/Q6-1</f>
         <v>0.22806343104276805</v>
       </c>
       <c r="S27" s="35">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-0.12782458855788015</v>
       </c>
       <c r="T27" s="35">
@@ -4690,7 +4701,7 @@
       <c r="AB27" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AC27" s="120" t="s">
+      <c r="AC27" s="103" t="s">
         <v>154</v>
       </c>
       <c r="AO27" s="61" t="s">
@@ -4701,7 +4712,7 @@
         <v>34775.708323985469</v>
       </c>
     </row>
-    <row r="28" spans="2:87" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:87" x14ac:dyDescent="0.2">
       <c r="AO28" s="3" t="s">
         <v>149</v>
       </c>
@@ -4710,24 +4721,24 @@
         <v>27.310648363768447</v>
       </c>
     </row>
-    <row r="29" spans="2:87" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:87" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="34" t="s">
         <v>93</v>
       </c>
       <c r="M29" s="34">
-        <f t="shared" ref="M29" si="50">M10/M6</f>
+        <f t="shared" ref="M29" si="51">M10/M6</f>
         <v>0.52794547859344154</v>
       </c>
       <c r="N29" s="34">
-        <f t="shared" ref="N29:O29" si="51">N10/N6</f>
+        <f t="shared" ref="N29:O29" si="52">N10/N6</f>
         <v>0.51586918457183062</v>
       </c>
       <c r="O29" s="34">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.56513194294829194</v>
       </c>
       <c r="P29" s="34">
-        <f t="shared" ref="P29" si="52">P10/P6</f>
+        <f t="shared" ref="P29" si="53">P10/P6</f>
         <v>0.55461411681681538</v>
       </c>
       <c r="Q29" s="34">
@@ -4735,15 +4746,15 @@
         <v>0.54185932689056182</v>
       </c>
       <c r="R29" s="34">
-        <f t="shared" ref="R29" si="53">R10/R6</f>
+        <f t="shared" ref="R29" si="54">R10/R6</f>
         <v>0.501918082584071</v>
       </c>
       <c r="S29" s="34">
-        <f t="shared" ref="S29" si="54">S10/S6</f>
+        <f t="shared" ref="S29" si="55">S10/S6</f>
         <v>0.52976471868683139</v>
       </c>
       <c r="T29" s="34">
-        <f t="shared" ref="T29" si="55">T10/T6</f>
+        <f t="shared" ref="T29" si="56">T10/T6</f>
         <v>0.50626262969446278</v>
       </c>
       <c r="U29" s="34">
@@ -4751,10 +4762,10 @@
         <v>0.48479871175523354</v>
       </c>
       <c r="V29" s="34">
-        <f t="shared" ref="V29" si="56">V10/V6</f>
+        <f t="shared" ref="V29" si="57">V10/V6</f>
         <v>0.46024099441030381</v>
       </c>
-      <c r="W29" s="107">
+      <c r="W29" s="90">
         <v>0.46</v>
       </c>
       <c r="AB29" s="34">
@@ -4762,7 +4773,7 @@
         <v>0.53799251320943231</v>
       </c>
       <c r="AC29" s="34">
-        <f t="shared" ref="AC29" si="57">AC10/AC6</f>
+        <f t="shared" ref="AC29" si="58">AC10/AC6</f>
         <v>0.49181890845920551</v>
       </c>
       <c r="AD29" s="53">
@@ -4803,24 +4814,24 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="30" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="40" t="s">
         <v>110</v>
       </c>
       <c r="M30" s="41">
-        <f t="shared" ref="M30" si="58">(M4-M7)/M4</f>
+        <f t="shared" ref="M30" si="59">(M4-M7)/M4</f>
         <v>0.78729910222852806</v>
       </c>
       <c r="N30" s="41">
-        <f t="shared" ref="N30:O30" si="59">(N4-N7)/N4</f>
+        <f t="shared" ref="N30:O30" si="60">(N4-N7)/N4</f>
         <v>0.78796879473232173</v>
       </c>
       <c r="O30" s="41">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.81794368858772426</v>
       </c>
       <c r="P30" s="41">
-        <f t="shared" ref="P30" si="60">(P4-P7)/P4</f>
+        <f t="shared" ref="P30" si="61">(P4-P7)/P4</f>
         <v>0.81143021269338833</v>
       </c>
       <c r="Q30" s="41">
@@ -4828,15 +4839,15 @@
         <v>0.79966270879931467</v>
       </c>
       <c r="R30" s="41">
-        <f t="shared" ref="R30:R31" si="61">(R4-R7)/R4</f>
+        <f t="shared" ref="R30:R31" si="62">(R4-R7)/R4</f>
         <v>0.78477995945422663</v>
       </c>
       <c r="S30" s="41">
-        <f t="shared" ref="S30" si="62">(S4-S7)/S4</f>
+        <f t="shared" ref="S30" si="63">(S4-S7)/S4</f>
         <v>0.77507606718857414</v>
       </c>
       <c r="T30" s="41">
-        <f t="shared" ref="T30" si="63">(T4-T7)/T4</f>
+        <f t="shared" ref="T30" si="64">(T4-T7)/T4</f>
         <v>0.76739083568249356</v>
       </c>
       <c r="U30" s="41">
@@ -4844,7 +4855,7 @@
         <v>0.78125755711518174</v>
       </c>
       <c r="V30" s="41">
-        <f t="shared" ref="V30:V31" si="64">(V4-V7)/V4</f>
+        <f t="shared" ref="V30:V31" si="65">(V4-V7)/V4</f>
         <v>0.78570857505484015</v>
       </c>
       <c r="W30" s="47"/>
@@ -4853,7 +4864,7 @@
         <v>0.80306615194132025</v>
       </c>
       <c r="AC30" s="41">
-        <f t="shared" ref="AC30:AC31" si="65">(AC4-AC7)/AC4</f>
+        <f t="shared" ref="AC30:AC31" si="66">(AC4-AC7)/AC4</f>
         <v>0.77760712588530811</v>
       </c>
       <c r="AD30" s="47"/>
@@ -4865,24 +4876,24 @@
         <v>-0.43338903809609031</v>
       </c>
     </row>
-    <row r="31" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="40" t="s">
         <v>111</v>
       </c>
       <c r="M31" s="41">
-        <f t="shared" ref="M31" si="66">(M5-M8)/M5</f>
+        <f t="shared" ref="M31" si="67">(M5-M8)/M5</f>
         <v>0.406112642229632</v>
       </c>
       <c r="N31" s="41">
-        <f t="shared" ref="N31:O31" si="67">(N5-N8)/N5</f>
+        <f t="shared" ref="N31:O31" si="68">(N5-N8)/N5</f>
         <v>0.40698320502245439</v>
       </c>
       <c r="O31" s="41">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.4437606105699991</v>
       </c>
       <c r="P31" s="41">
-        <f t="shared" ref="P31" si="68">(P5-P8)/P5</f>
+        <f t="shared" ref="P31" si="69">(P5-P8)/P5</f>
         <v>0.44529602347403491</v>
       </c>
       <c r="Q31" s="41">
@@ -4890,15 +4901,15 @@
         <v>0.43179959671480017</v>
       </c>
       <c r="R31" s="41">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.40535722617066611</v>
       </c>
       <c r="S31" s="41">
-        <f t="shared" ref="S31" si="69">(S5-S8)/S5</f>
+        <f t="shared" ref="S31" si="70">(S5-S8)/S5</f>
         <v>0.43129280373331225</v>
       </c>
       <c r="T31" s="41">
-        <f t="shared" ref="T31" si="70">(T5-T8)/T5</f>
+        <f t="shared" ref="T31" si="71">(T5-T8)/T5</f>
         <v>0.40321875471129204</v>
       </c>
       <c r="U31" s="41">
@@ -4906,7 +4917,7 @@
         <v>0.37210260844793264</v>
       </c>
       <c r="V31" s="41">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.36264051594187263</v>
       </c>
       <c r="W31" s="47"/>
@@ -4915,29 +4926,29 @@
         <v>0.42916395730018025</v>
       </c>
       <c r="AC31" s="41">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.38842077232950023</v>
       </c>
       <c r="AD31" s="47"/>
     </row>
-    <row r="32" spans="2:87" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:87" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="35" t="s">
         <v>94</v>
       </c>
       <c r="M32" s="35">
-        <f t="shared" ref="M32" si="71">M16/M6</f>
+        <f t="shared" ref="M32" si="72">M16/M6</f>
         <v>6.5885679660674656E-2</v>
       </c>
       <c r="N32" s="35">
-        <f t="shared" ref="N32:O32" si="72">N16/N6</f>
+        <f t="shared" ref="N32:O32" si="73">N16/N6</f>
         <v>0.11510272627599857</v>
       </c>
       <c r="O32" s="35">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.12026436129376804</v>
       </c>
       <c r="P32" s="35">
-        <f t="shared" ref="P32" si="73">P16/P6</f>
+        <f t="shared" ref="P32" si="74">P16/P6</f>
         <v>0.12456261808306789</v>
       </c>
       <c r="Q32" s="35">
@@ -4945,15 +4956,15 @@
         <v>-3.6494206844999723E-3</v>
       </c>
       <c r="R32" s="35">
-        <f t="shared" ref="R32" si="74">R16/R6</f>
+        <f t="shared" ref="R32" si="75">R16/R6</f>
         <v>1.0437499637687623E-2</v>
       </c>
       <c r="S32" s="35">
-        <f t="shared" ref="S32" si="75">S16/S6</f>
+        <f t="shared" ref="S32" si="76">S16/S6</f>
         <v>-8.1400903771363525E-2</v>
       </c>
       <c r="T32" s="35">
-        <f t="shared" ref="T32" si="76">T16/T6</f>
+        <f t="shared" ref="T32" si="77">T16/T6</f>
         <v>-0.14687161937295712</v>
       </c>
       <c r="U32" s="35">
@@ -4961,16 +4972,16 @@
         <v>-0.2527931488801054</v>
       </c>
       <c r="V32" s="35">
-        <f t="shared" ref="V32" si="77">V16/V6</f>
+        <f t="shared" ref="V32" si="78">V16/V6</f>
         <v>-0.10879042846652805</v>
       </c>
-      <c r="W32" s="100"/>
+      <c r="W32" s="83"/>
       <c r="AB32" s="35">
         <f>AB16/AB6</f>
         <v>5.8250517795872113E-2</v>
       </c>
       <c r="AC32" s="35">
-        <f t="shared" ref="AC32" si="78">AC16/AC6</f>
+        <f t="shared" ref="AC32" si="79">AC16/AC6</f>
         <v>-0.14684267332206621</v>
       </c>
       <c r="AD32" s="47">
@@ -4978,60 +4989,60 @@
         <v>-0.24487989433589549</v>
       </c>
       <c r="AE32" s="41">
-        <f t="shared" ref="AE32:AM32" si="79">AE16/AE6</f>
+        <f t="shared" ref="AE32:AM32" si="80">AE16/AE6</f>
         <v>-0.18062849595421099</v>
       </c>
       <c r="AF32" s="41">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-7.208566396947412E-2</v>
       </c>
       <c r="AG32" s="41">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-3.9886664806533807E-2</v>
       </c>
       <c r="AH32" s="41">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>2.1338060953901811E-2</v>
       </c>
       <c r="AI32" s="41">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7.2288640231794266E-2</v>
       </c>
       <c r="AJ32" s="41">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7.2736137008949334E-2</v>
       </c>
       <c r="AK32" s="41">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7.3077001006690151E-2</v>
       </c>
       <c r="AL32" s="41">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7.3293482977822316E-2</v>
       </c>
       <c r="AM32" s="41">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7.3414616088854662E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="35" t="s">
         <v>95</v>
       </c>
       <c r="M33" s="35">
-        <f t="shared" ref="M33" si="80">M20/M6</f>
+        <f t="shared" ref="M33" si="81">M20/M6</f>
         <v>0.24897935249314254</v>
       </c>
       <c r="N33" s="35">
-        <f t="shared" ref="N33:O33" si="81">N20/N6</f>
+        <f t="shared" ref="N33:O33" si="82">N20/N6</f>
         <v>0.12669164934788651</v>
       </c>
       <c r="O33" s="35">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1.272896190450181</v>
       </c>
       <c r="P33" s="35">
-        <f t="shared" ref="P33" si="82">P20/P6</f>
+        <f t="shared" ref="P33" si="83">P20/P6</f>
         <v>0.78529360531334724</v>
       </c>
       <c r="Q33" s="35">
@@ -5039,15 +5050,15 @@
         <v>1.0219730542652217</v>
       </c>
       <c r="R33" s="35">
-        <f t="shared" ref="R33" si="83">R20/R6</f>
+        <f t="shared" ref="R33" si="84">R20/R6</f>
         <v>-0.26906126270267744</v>
       </c>
       <c r="S33" s="35">
-        <f t="shared" ref="S33" si="84">S20/S6</f>
+        <f t="shared" ref="S33" si="85">S20/S6</f>
         <v>-1.2249749298576047</v>
       </c>
       <c r="T33" s="35">
-        <f t="shared" ref="T33" si="85">T20/T6</f>
+        <f t="shared" ref="T33" si="86">T20/T6</f>
         <v>-0.9296126906567479</v>
       </c>
       <c r="U33" s="35">
@@ -5055,77 +5066,77 @@
         <v>-0.11594861660079051</v>
       </c>
       <c r="V33" s="35">
-        <f t="shared" ref="V33" si="86">V20/V6</f>
+        <f t="shared" ref="V33" si="87">V20/V6</f>
         <v>-0.35948236807613693</v>
       </c>
-      <c r="W33" s="100"/>
+      <c r="W33" s="83"/>
       <c r="AB33" s="35">
         <f>AB20/AB6</f>
         <v>0.63199262943162138</v>
       </c>
       <c r="AC33" s="35">
-        <f t="shared" ref="AC33" si="87">AC20/AC6</f>
+        <f t="shared" ref="AC33" si="88">AC20/AC6</f>
         <v>-0.61794679299354394</v>
       </c>
-      <c r="AD33" s="100">
-        <f t="shared" ref="AD33:AM33" si="88">AD20/AD6</f>
+      <c r="AD33" s="83">
+        <f t="shared" ref="AD33:AM33" si="89">AD20/AD6</f>
         <v>-0.17998194681431279</v>
       </c>
       <c r="AE33" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-0.13284424772450906</v>
       </c>
       <c r="AF33" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-5.5800353937428784E-2</v>
       </c>
       <c r="AG33" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-3.1386457093699603E-2</v>
       </c>
       <c r="AH33" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>3.4522131112298287E-3</v>
       </c>
       <c r="AI33" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>5.9807247317580435E-2</v>
       </c>
       <c r="AJ33" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6.0062260331254648E-2</v>
       </c>
       <c r="AK33" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6.0215868992525318E-2</v>
       </c>
       <c r="AL33" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>6.0188190720781472E-2</v>
       </c>
       <c r="AM33" s="35">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>5.9969517650632985E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>96</v>
       </c>
       <c r="M34" s="35">
-        <f t="shared" ref="M34" si="89">M19/M18</f>
+        <f t="shared" ref="M34" si="90">M19/M18</f>
         <v>-2.5224422778710814E-2</v>
       </c>
       <c r="N34" s="35">
-        <f t="shared" ref="N34:O34" si="90">N19/N18</f>
+        <f t="shared" ref="N34:O34" si="91">N19/N18</f>
         <v>-0.12864340838063659</v>
       </c>
       <c r="O34" s="35">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>8.1121161496089222E-2</v>
       </c>
       <c r="P34" s="35">
-        <f t="shared" ref="P34" si="91">P19/P18</f>
+        <f t="shared" ref="P34" si="92">P19/P18</f>
         <v>4.3752141540168502E-2</v>
       </c>
       <c r="Q34" s="35">
@@ -5133,15 +5144,15 @@
         <v>0.14325018725027078</v>
       </c>
       <c r="R34" s="35">
-        <f t="shared" ref="R34" si="92">R19/R18</f>
+        <f t="shared" ref="R34" si="93">R19/R18</f>
         <v>0.24023620935547843</v>
       </c>
       <c r="S34" s="35">
-        <f t="shared" ref="S34" si="93">S19/S18</f>
+        <f t="shared" ref="S34" si="94">S19/S18</f>
         <v>0.10796396784476819</v>
       </c>
       <c r="T34" s="35">
-        <f t="shared" ref="T34" si="94">T19/T18</f>
+        <f t="shared" ref="T34" si="95">T19/T18</f>
         <v>-4.7210515334863345E-3</v>
       </c>
       <c r="U34" s="35">
@@ -5149,16 +5160,16 @@
         <v>-8.1205093774064027E-3</v>
       </c>
       <c r="V34" s="35">
-        <f t="shared" ref="V34" si="95">V19/V18</f>
+        <f t="shared" ref="V34" si="96">V19/V18</f>
         <v>-1.4783406659203918E-2</v>
       </c>
-      <c r="W34" s="100"/>
+      <c r="W34" s="83"/>
       <c r="AB34" s="35">
         <f>AB19/AB18</f>
         <v>7.1939621574531182E-2</v>
       </c>
       <c r="AC34" s="35">
-        <f t="shared" ref="AC34" si="96">AC19/AC18</f>
+        <f t="shared" ref="AC34" si="97">AC19/AC18</f>
         <v>4.4834892327803987E-2</v>
       </c>
       <c r="AD34" s="47">
@@ -5193,23 +5204,23 @@
       </c>
       <c r="AN34" s="41"/>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.2">
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="35" t="s">
         <v>97</v>
       </c>
       <c r="M36" s="35">
-        <f t="shared" ref="M36" si="97">M12/M6</f>
+        <f t="shared" ref="M36" si="98">M12/M6</f>
         <v>0.18689870407411993</v>
       </c>
       <c r="N36" s="35">
-        <f t="shared" ref="N36:O36" si="98">N12/N6</f>
+        <f t="shared" ref="N36:O36" si="99">N12/N6</f>
         <v>0.1626980068402363</v>
       </c>
       <c r="O36" s="35">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>0.17790576414028467</v>
       </c>
       <c r="P36" s="35">
@@ -5221,15 +5232,15 @@
         <v>0.19668962571413315</v>
       </c>
       <c r="R36" s="35">
-        <f t="shared" ref="R36" si="99">R12/R6</f>
+        <f t="shared" ref="R36" si="100">R12/R6</f>
         <v>0.19848350463470196</v>
       </c>
       <c r="S36" s="35">
-        <f t="shared" ref="S36" si="100">S12/S6</f>
+        <f t="shared" ref="S36" si="101">S12/S6</f>
         <v>0.25228913040046591</v>
       </c>
       <c r="T36" s="35">
-        <f t="shared" ref="T36" si="101">T12/T6</f>
+        <f t="shared" ref="T36" si="102">T12/T6</f>
         <v>0.26768350265585533</v>
       </c>
       <c r="U36" s="35">
@@ -5237,16 +5248,16 @@
         <v>0.30182916117698722</v>
       </c>
       <c r="V36" s="35">
-        <f t="shared" ref="V36" si="102">V12/V6</f>
+        <f t="shared" ref="V36" si="103">V12/V6</f>
         <v>0.25392079899572212</v>
       </c>
-      <c r="W36" s="100"/>
+      <c r="W36" s="83"/>
       <c r="AB36" s="35">
         <f>AB12/AB6</f>
         <v>0.1852579525466537</v>
       </c>
       <c r="AC36" s="35">
-        <f t="shared" ref="AC36" si="103">AC12/AC6</f>
+        <f t="shared" ref="AC36" si="104">AC12/AC6</f>
         <v>0.26844116214250913</v>
       </c>
       <c r="AD36" s="47">
@@ -5280,2120 +5291,2174 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="AI39" s="71"/>
-      <c r="AJ39" s="71"/>
-      <c r="AK39" s="71"/>
-      <c r="AL39" s="71"/>
-      <c r="AM39" s="71"/>
-    </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B40" s="37" t="s">
+    <row r="37" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W37" s="83"/>
+      <c r="AD37" s="47"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="41"/>
+      <c r="AG37" s="41"/>
+      <c r="AH37" s="41"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="41"/>
+      <c r="AK37" s="41"/>
+      <c r="AL37" s="41"/>
+      <c r="AM37" s="41"/>
+    </row>
+    <row r="38" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="W38" s="83"/>
+      <c r="AD38" s="47"/>
+      <c r="AE38" s="41"/>
+      <c r="AF38" s="41"/>
+      <c r="AG38" s="41"/>
+      <c r="AH38" s="41"/>
+      <c r="AI38" s="41"/>
+      <c r="AJ38" s="41"/>
+      <c r="AK38" s="41"/>
+      <c r="AL38" s="41"/>
+      <c r="AM38" s="41"/>
+    </row>
+    <row r="39" spans="2:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="W39" s="122"/>
+      <c r="AA39" s="16">
+        <v>7000</v>
+      </c>
+      <c r="AB39" s="16">
+        <v>10000</v>
+      </c>
+      <c r="AC39" s="16">
+        <v>11600</v>
+      </c>
+      <c r="AD39" s="123"/>
+      <c r="AE39" s="124"/>
+      <c r="AF39" s="124"/>
+      <c r="AG39" s="124"/>
+      <c r="AH39" s="124"/>
+      <c r="AI39" s="124"/>
+      <c r="AJ39" s="124"/>
+      <c r="AK39" s="124"/>
+      <c r="AL39" s="124"/>
+      <c r="AM39" s="124"/>
+    </row>
+    <row r="42" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AI42" s="71"/>
+      <c r="AJ42" s="71"/>
+      <c r="AK42" s="71"/>
+      <c r="AL42" s="71"/>
+      <c r="AM42" s="71"/>
+    </row>
+    <row r="43" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B43" s="37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="2" t="s">
+    <row r="44" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M41" s="32">
+      <c r="M44" s="32">
         <v>3089.884</v>
       </c>
-      <c r="R41" s="32">
+      <c r="R44" s="32">
         <v>2502.9920000000002</v>
       </c>
-      <c r="S41" s="32">
+      <c r="S44" s="32">
         <v>2451.5450000000001</v>
       </c>
-      <c r="T41" s="32">
+      <c r="T44" s="32">
         <v>3350.7809999999999</v>
       </c>
-      <c r="U41" s="32">
+      <c r="U44" s="32">
         <v>1378.251</v>
       </c>
-      <c r="V41" s="32">
+      <c r="V44" s="32">
         <v>1649.328</v>
       </c>
-      <c r="W41" s="119"/>
-      <c r="AB41" s="32">
-        <f>R41</f>
+      <c r="W44" s="102"/>
+      <c r="AB44" s="32">
+        <f>R44</f>
         <v>2502.9920000000002</v>
       </c>
-      <c r="AC41" s="92">
-        <f>V41</f>
+      <c r="AC44" s="75">
+        <f>V44</f>
         <v>1649.328</v>
       </c>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="58"/>
-      <c r="AF41" s="58"/>
-      <c r="AG41" s="58"/>
-      <c r="AH41" s="58"/>
-      <c r="AI41" s="58"/>
-      <c r="AJ41" s="58"/>
-      <c r="AK41" s="58"/>
-      <c r="AL41" s="58"/>
-      <c r="AM41" s="58"/>
-    </row>
-    <row r="42" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="2" t="s">
+      <c r="AD44" s="52"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="58"/>
+      <c r="AG44" s="58"/>
+      <c r="AH44" s="58"/>
+      <c r="AI44" s="58"/>
+      <c r="AJ44" s="58"/>
+      <c r="AK44" s="58"/>
+      <c r="AL44" s="58"/>
+      <c r="AM44" s="58"/>
+    </row>
+    <row r="45" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M42" s="32">
+      <c r="M45" s="32">
         <v>3031.277</v>
       </c>
-      <c r="R42" s="32">
+      <c r="R45" s="32">
         <v>5265.1009999999997</v>
       </c>
-      <c r="S42" s="32">
+      <c r="S45" s="32">
         <v>4795.1450000000004</v>
       </c>
-      <c r="T42" s="32">
+      <c r="T45" s="32">
         <v>3604.01</v>
       </c>
-      <c r="U42" s="32">
+      <c r="U45" s="32">
         <v>3563.181</v>
       </c>
-      <c r="V42" s="32">
+      <c r="V45" s="32">
         <v>3403.6219999999998</v>
       </c>
-      <c r="W42" s="119"/>
-      <c r="AB42" s="32">
-        <f>R42</f>
+      <c r="W45" s="102"/>
+      <c r="AB45" s="32">
+        <f>R45</f>
         <v>5265.1009999999997</v>
       </c>
-      <c r="AC42" s="92">
-        <f>V42</f>
+      <c r="AC45" s="75">
+        <f>V45</f>
         <v>3403.6219999999998</v>
       </c>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="58"/>
-      <c r="AF42" s="58"/>
-      <c r="AG42" s="58"/>
-      <c r="AH42" s="58"/>
-      <c r="AI42" s="58"/>
-      <c r="AJ42" s="58"/>
-      <c r="AK42" s="58"/>
-      <c r="AL42" s="58"/>
-      <c r="AM42" s="58"/>
-    </row>
-    <row r="43" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B43" s="1" t="s">
+      <c r="AD45" s="52"/>
+      <c r="AE45" s="58"/>
+      <c r="AF45" s="58"/>
+      <c r="AG45" s="58"/>
+      <c r="AH45" s="58"/>
+      <c r="AI45" s="58"/>
+      <c r="AJ45" s="58"/>
+      <c r="AK45" s="58"/>
+      <c r="AL45" s="58"/>
+      <c r="AM45" s="58"/>
+    </row>
+    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M43" s="33">
+      <c r="M46" s="33">
         <v>109.7</v>
       </c>
-      <c r="R43" s="33">
+      <c r="R46" s="33">
         <v>192.209</v>
       </c>
-      <c r="S43" s="33">
+      <c r="S46" s="33">
         <v>225.25200000000001</v>
       </c>
-      <c r="T43" s="33">
+      <c r="T46" s="33">
         <v>238.72300000000001</v>
       </c>
-      <c r="U43" s="33">
+      <c r="U46" s="33">
         <v>241.18299999999999</v>
       </c>
-      <c r="V43" s="33">
+      <c r="V46" s="33">
         <v>273.05500000000001</v>
       </c>
-      <c r="AB43" s="33">
-        <f>R43</f>
+      <c r="AB46" s="33">
+        <f>R46</f>
         <v>192.209</v>
       </c>
-      <c r="AC43" s="91">
-        <f>V43</f>
+      <c r="AC46" s="74">
+        <f>V46</f>
         <v>273.05500000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B44" s="1" t="s">
+    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M44" s="33">
+      <c r="M47" s="33">
         <v>247.977</v>
       </c>
-      <c r="R44" s="33">
+      <c r="R47" s="33">
         <v>470.72199999999998</v>
       </c>
-      <c r="S44" s="33">
+      <c r="S47" s="33">
         <v>486.50700000000001</v>
       </c>
-      <c r="T44" s="33">
+      <c r="T47" s="33">
         <v>537.79</v>
       </c>
-      <c r="U44" s="33">
+      <c r="U47" s="33">
         <v>666.053</v>
       </c>
-      <c r="V44" s="33">
+      <c r="V47" s="33">
         <v>580.11400000000003</v>
       </c>
-      <c r="AB44" s="33">
-        <f t="shared" ref="AB44:AB64" si="104">R44</f>
+      <c r="AB47" s="33">
+        <f t="shared" ref="AB47:AB67" si="105">R47</f>
         <v>470.72199999999998</v>
       </c>
-      <c r="AC44" s="91">
-        <f t="shared" ref="AC44:AC46" si="105">V44</f>
+      <c r="AC47" s="74">
+        <f t="shared" ref="AC47:AC49" si="106">V47</f>
         <v>580.11400000000003</v>
       </c>
     </row>
-    <row r="45" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B45" s="1" t="s">
+    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M45" s="33">
+      <c r="M48" s="33">
         <v>71.302999999999997</v>
       </c>
-      <c r="R45" s="33">
+      <c r="R48" s="33">
         <v>5.0229999999999997</v>
       </c>
-      <c r="S45" s="33">
+      <c r="S48" s="33">
         <v>3.3690000000000002</v>
       </c>
-      <c r="T45" s="33">
+      <c r="T48" s="33">
         <v>13.212999999999999</v>
       </c>
-      <c r="U45" s="33">
+      <c r="U48" s="33">
         <v>11.996</v>
       </c>
-      <c r="V45" s="33">
+      <c r="V48" s="33">
         <v>4.6950000000000003</v>
       </c>
-      <c r="AB45" s="33">
-        <f t="shared" si="104"/>
+      <c r="AB48" s="33">
+        <f t="shared" si="105"/>
         <v>5.0229999999999997</v>
       </c>
-      <c r="AC45" s="91">
+      <c r="AC48" s="74">
+        <f t="shared" si="106"/>
+        <v>4.6950000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M49" s="33">
+        <v>63.076000000000001</v>
+      </c>
+      <c r="R49" s="33">
+        <v>103.273</v>
+      </c>
+      <c r="S49" s="33">
+        <v>113.063</v>
+      </c>
+      <c r="T49" s="33">
+        <v>113.247</v>
+      </c>
+      <c r="U49" s="33">
+        <v>152.322</v>
+      </c>
+      <c r="V49" s="33">
+        <v>139.65899999999999</v>
+      </c>
+      <c r="AB49" s="33">
         <f t="shared" si="105"/>
-        <v>4.6950000000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M46" s="33">
-        <v>63.076000000000001</v>
-      </c>
-      <c r="R46" s="33">
         <v>103.273</v>
       </c>
-      <c r="S46" s="33">
-        <v>113.063</v>
-      </c>
-      <c r="T46" s="33">
-        <v>113.247</v>
-      </c>
-      <c r="U46" s="33">
-        <v>152.322</v>
-      </c>
-      <c r="V46" s="33">
+      <c r="AC49" s="74">
+        <f t="shared" si="106"/>
         <v>139.65899999999999</v>
       </c>
-      <c r="AB46" s="33">
-        <f t="shared" si="104"/>
-        <v>103.273</v>
-      </c>
-      <c r="AC46" s="91">
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ref="C50:T50" si="107">SUM(C44:C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="33">
+        <f t="shared" si="107"/>
+        <v>6613.2169999999996</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="33">
+        <f t="shared" si="107"/>
+        <v>8539.3199999999979</v>
+      </c>
+      <c r="S50" s="33">
+        <f t="shared" si="107"/>
+        <v>8074.8810000000003</v>
+      </c>
+      <c r="T50" s="33">
+        <f t="shared" si="107"/>
+        <v>7857.7640000000001</v>
+      </c>
+      <c r="U50" s="33">
+        <f>SUM(U44:U49)</f>
+        <v>6012.9859999999999</v>
+      </c>
+      <c r="V50" s="33">
+        <f>SUM(V44:V49)</f>
+        <v>6050.473</v>
+      </c>
+      <c r="AB50" s="33">
+        <f>SUM(AB44:AB49)</f>
+        <v>8539.3199999999979</v>
+      </c>
+      <c r="AC50" s="33">
+        <f>SUM(AC44:AC49)</f>
+        <v>6050.473</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M51" s="33">
+        <v>94.697999999999993</v>
+      </c>
+      <c r="R51" s="33">
+        <v>105.526</v>
+      </c>
+      <c r="S51" s="33">
+        <v>109.57</v>
+      </c>
+      <c r="T51" s="33">
+        <v>114.20699999999999</v>
+      </c>
+      <c r="U51" s="33">
+        <v>128.46100000000001</v>
+      </c>
+      <c r="V51" s="33">
+        <v>130.821</v>
+      </c>
+      <c r="AB51" s="33">
         <f t="shared" si="105"/>
-        <v>139.65899999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="1">
-        <f t="shared" ref="C47:T47" si="106">SUM(C41:C46)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="33">
-        <f t="shared" si="106"/>
-        <v>6613.2169999999996</v>
-      </c>
-      <c r="N47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="33">
-        <f t="shared" si="106"/>
-        <v>8539.3199999999979</v>
-      </c>
-      <c r="S47" s="33">
-        <f t="shared" si="106"/>
-        <v>8074.8810000000003</v>
-      </c>
-      <c r="T47" s="33">
-        <f t="shared" si="106"/>
-        <v>7857.7640000000001</v>
-      </c>
-      <c r="U47" s="33">
-        <f>SUM(U41:U46)</f>
-        <v>6012.9859999999999</v>
-      </c>
-      <c r="V47" s="33">
-        <f>SUM(V41:V46)</f>
-        <v>6050.473</v>
-      </c>
-      <c r="AB47" s="33">
-        <f>SUM(AB41:AB46)</f>
-        <v>8539.3199999999979</v>
-      </c>
-      <c r="AC47" s="33">
-        <f>SUM(AC41:AC46)</f>
-        <v>6050.473</v>
-      </c>
-    </row>
-    <row r="48" spans="2:40" x14ac:dyDescent="0.15">
-      <c r="B48" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M48" s="33">
-        <v>94.697999999999993</v>
-      </c>
-      <c r="R48" s="33">
         <v>105.526</v>
       </c>
-      <c r="S48" s="33">
-        <v>109.57</v>
-      </c>
-      <c r="T48" s="33">
-        <v>114.20699999999999</v>
-      </c>
-      <c r="U48" s="33">
-        <v>128.46100000000001</v>
-      </c>
-      <c r="V48" s="33">
+      <c r="AC51" s="74">
+        <f t="shared" ref="AC51:AC67" si="108">V51</f>
         <v>130.821</v>
       </c>
-      <c r="AB48" s="33">
-        <f t="shared" si="104"/>
-        <v>105.526</v>
-      </c>
-      <c r="AC48" s="91">
-        <f t="shared" ref="AC48:AC64" si="107">V48</f>
-        <v>130.821</v>
-      </c>
-    </row>
-    <row r="49" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M49" s="33">
+      <c r="M52" s="33">
         <v>143.92500000000001</v>
       </c>
-      <c r="R49" s="33">
+      <c r="R52" s="33">
         <v>196.38800000000001</v>
       </c>
-      <c r="S49" s="33">
+      <c r="S52" s="33">
         <v>220.20500000000001</v>
       </c>
-      <c r="T49" s="33">
+      <c r="T52" s="33">
         <v>224.55500000000001</v>
       </c>
-      <c r="U49" s="33">
+      <c r="U52" s="33">
         <v>349.74</v>
       </c>
-      <c r="V49" s="33">
+      <c r="V52" s="33">
         <v>355.14499999999998</v>
       </c>
-      <c r="AB49" s="33">
-        <f t="shared" si="104"/>
+      <c r="AB52" s="33">
+        <f t="shared" si="105"/>
         <v>196.38800000000001</v>
       </c>
-      <c r="AC49" s="91">
-        <f t="shared" si="107"/>
+      <c r="AC52" s="74">
+        <f t="shared" si="108"/>
         <v>355.14499999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B50" s="1" t="s">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M50" s="33">
+      <c r="M53" s="33">
         <v>122.71</v>
       </c>
-      <c r="R50" s="33">
+      <c r="R53" s="33">
         <v>138.49600000000001</v>
       </c>
-      <c r="S50" s="33">
+      <c r="S53" s="33">
         <v>131.608</v>
       </c>
-      <c r="T50" s="33">
+      <c r="T53" s="33">
         <v>133.12899999999999</v>
       </c>
-      <c r="U50" s="33">
+      <c r="U53" s="33">
         <v>410.81900000000002</v>
       </c>
-      <c r="V50" s="33">
+      <c r="V53" s="33">
         <v>390.14800000000002</v>
       </c>
-      <c r="AB50" s="33">
-        <f t="shared" si="104"/>
+      <c r="AB53" s="33">
+        <f t="shared" si="105"/>
         <v>138.49600000000001</v>
       </c>
-      <c r="AC50" s="91">
-        <f t="shared" si="107"/>
+      <c r="AC53" s="74">
+        <f t="shared" si="108"/>
         <v>390.14800000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B51" s="1" t="s">
+    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M51" s="33">
+      <c r="M54" s="33">
         <v>5.1159999999999997</v>
       </c>
-      <c r="R51" s="33">
+      <c r="R54" s="33">
         <v>48.369</v>
       </c>
-      <c r="S51" s="33">
+      <c r="S54" s="33">
         <v>47.064</v>
       </c>
-      <c r="T51" s="33">
+      <c r="T54" s="33">
         <v>44.762999999999998</v>
       </c>
-      <c r="U51" s="33">
+      <c r="U54" s="33">
         <v>43.25</v>
       </c>
-      <c r="V51" s="33">
+      <c r="V54" s="33">
         <v>40.822000000000003</v>
       </c>
-      <c r="AB51" s="33">
-        <f t="shared" si="104"/>
+      <c r="AB54" s="33">
+        <f t="shared" si="105"/>
         <v>48.369</v>
       </c>
-      <c r="AC51" s="91">
-        <f t="shared" si="107"/>
+      <c r="AC54" s="74">
+        <f t="shared" si="108"/>
         <v>40.822000000000003</v>
       </c>
     </row>
-    <row r="52" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B52" s="1" t="s">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M52" s="33">
+      <c r="M55" s="33">
         <v>170.5</v>
       </c>
-      <c r="R52" s="33">
+      <c r="R55" s="33">
         <v>3955.5450000000001</v>
       </c>
-      <c r="S52" s="33">
+      <c r="S55" s="33">
         <v>2894.6010000000001</v>
       </c>
-      <c r="T52" s="33">
+      <c r="T55" s="33">
         <v>1993.867</v>
       </c>
-      <c r="U52" s="33">
+      <c r="U55" s="33">
         <v>2421.7469999999998</v>
       </c>
-      <c r="V52" s="33">
+      <c r="V55" s="33">
         <v>1953.46</v>
       </c>
-      <c r="AB52" s="33">
-        <f t="shared" si="104"/>
+      <c r="AB55" s="33">
+        <f t="shared" si="105"/>
         <v>3955.5450000000001</v>
       </c>
-      <c r="AC52" s="91">
-        <f t="shared" si="107"/>
+      <c r="AC55" s="74">
+        <f t="shared" si="108"/>
         <v>1953.46</v>
       </c>
     </row>
-    <row r="53" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B53" s="1" t="s">
+    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M53" s="33">
+      <c r="M56" s="33">
         <v>311.86500000000001</v>
       </c>
-      <c r="R53" s="33">
+      <c r="R56" s="33">
         <v>356.52800000000002</v>
       </c>
-      <c r="S53" s="33">
+      <c r="S56" s="33">
         <v>356.52800000000002</v>
       </c>
-      <c r="T53" s="33">
+      <c r="T56" s="33">
         <v>379.34500000000003</v>
       </c>
-      <c r="U53" s="33">
+      <c r="U56" s="33">
         <v>1836.2819999999999</v>
       </c>
-      <c r="V53" s="33">
+      <c r="V56" s="33">
         <v>1836.2819999999999</v>
       </c>
-      <c r="AB53" s="33">
-        <f t="shared" si="104"/>
+      <c r="AB56" s="33">
+        <f t="shared" si="105"/>
         <v>356.52800000000002</v>
       </c>
-      <c r="AC53" s="91">
-        <f t="shared" si="107"/>
+      <c r="AC56" s="74">
+        <f t="shared" si="108"/>
         <v>1836.2819999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B54" s="1" t="s">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="1">
-        <f t="shared" ref="C54:T54" si="108">SUM(C48:C53)+C47</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="C57" s="1">
+        <f t="shared" ref="C57:T57" si="109">SUM(C51:C56)+C50</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="33">
+        <f t="shared" si="109"/>
+        <v>7462.0309999999999</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="33">
+        <f t="shared" si="109"/>
+        <v>13340.171999999999</v>
+      </c>
+      <c r="S57" s="33">
+        <f t="shared" si="109"/>
+        <v>11834.457</v>
+      </c>
+      <c r="T57" s="33">
+        <f t="shared" si="109"/>
+        <v>10747.630000000001</v>
+      </c>
+      <c r="U57" s="33">
+        <f>SUM(U51:U56)+U50</f>
+        <v>11203.285</v>
+      </c>
+      <c r="V57" s="33">
+        <f>SUM(V51:V56)+V50</f>
+        <v>10757.151</v>
+      </c>
+      <c r="AB57" s="33">
+        <f>SUM(AB51:AB56)+AB50</f>
+        <v>13340.171999999999</v>
+      </c>
+      <c r="AC57" s="33">
+        <f>SUM(AC51:AC56)+AC50</f>
+        <v>10757.151</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="M58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="AB58" s="33">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="74">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="E54" s="1">
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M59" s="33">
+        <v>261.56099999999998</v>
+      </c>
+      <c r="R59" s="33">
+        <v>456.68799999999999</v>
+      </c>
+      <c r="S59" s="33">
+        <v>406.64699999999999</v>
+      </c>
+      <c r="T59" s="33">
+        <v>419.40800000000002</v>
+      </c>
+      <c r="U59" s="33">
+        <v>596.11400000000003</v>
+      </c>
+      <c r="V59" s="33">
+        <v>532.56899999999996</v>
+      </c>
+      <c r="AB59" s="33">
+        <f t="shared" si="105"/>
+        <v>456.68799999999999</v>
+      </c>
+      <c r="AC59" s="74">
         <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="1">
+        <v>532.56899999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M60" s="33">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="R60" s="33">
+        <v>13.505000000000001</v>
+      </c>
+      <c r="S60" s="33">
+        <v>8.2940000000000005</v>
+      </c>
+      <c r="T60" s="33">
+        <v>4.125</v>
+      </c>
+      <c r="U60" s="33">
+        <v>4.4580000000000002</v>
+      </c>
+      <c r="V60" s="33">
+        <v>9.39</v>
+      </c>
+      <c r="AB60" s="33">
+        <f t="shared" si="105"/>
+        <v>13.505000000000001</v>
+      </c>
+      <c r="AC60" s="74">
         <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="33">
-        <f t="shared" si="108"/>
-        <v>7462.0309999999999</v>
-      </c>
-      <c r="N54" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="33">
-        <f t="shared" si="108"/>
-        <v>13340.171999999999</v>
-      </c>
-      <c r="S54" s="33">
-        <f t="shared" si="108"/>
-        <v>11834.457</v>
-      </c>
-      <c r="T54" s="33">
-        <f t="shared" si="108"/>
-        <v>10747.630000000001</v>
-      </c>
-      <c r="U54" s="33">
-        <f>SUM(U48:U53)+U47</f>
-        <v>11203.285</v>
-      </c>
-      <c r="V54" s="33">
-        <f>SUM(V48:V53)+V47</f>
-        <v>10757.151</v>
-      </c>
-      <c r="AB54" s="33">
-        <f>SUM(AB48:AB53)+AB47</f>
-        <v>13340.171999999999</v>
-      </c>
-      <c r="AC54" s="33">
-        <f>SUM(AC48:AC53)+AC47</f>
-        <v>10757.151</v>
-      </c>
-    </row>
-    <row r="55" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="M55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="AB55" s="33">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="AC55" s="91">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B56" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M56" s="33">
-        <v>261.56099999999998</v>
-      </c>
-      <c r="R56" s="33">
-        <v>456.68799999999999</v>
-      </c>
-      <c r="S56" s="33">
-        <v>406.64699999999999</v>
-      </c>
-      <c r="T56" s="33">
-        <v>419.40800000000002</v>
-      </c>
-      <c r="U56" s="33">
-        <v>596.11400000000003</v>
-      </c>
-      <c r="V56" s="33">
-        <v>532.56899999999996</v>
-      </c>
-      <c r="AB56" s="33">
-        <f t="shared" si="104"/>
-        <v>456.68799999999999</v>
-      </c>
-      <c r="AC56" s="91">
-        <f t="shared" si="107"/>
-        <v>532.56899999999996</v>
-      </c>
-    </row>
-    <row r="57" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M57" s="33">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="R57" s="33">
-        <v>13.505000000000001</v>
-      </c>
-      <c r="S57" s="33">
-        <v>8.2940000000000005</v>
-      </c>
-      <c r="T57" s="33">
-        <v>4.125</v>
-      </c>
-      <c r="U57" s="33">
-        <v>4.4580000000000002</v>
-      </c>
-      <c r="V57" s="33">
         <v>9.39</v>
       </c>
-      <c r="AB57" s="33">
-        <f t="shared" si="104"/>
-        <v>13.505000000000001</v>
-      </c>
-      <c r="AC57" s="91">
-        <f t="shared" si="107"/>
-        <v>9.39</v>
-      </c>
-    </row>
-    <row r="58" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B58" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M58" s="33">
-        <v>96.777000000000001</v>
-      </c>
-      <c r="R58" s="33">
-        <v>216.792</v>
-      </c>
-      <c r="S58" s="33">
-        <v>247.64699999999999</v>
-      </c>
-      <c r="T58" s="33">
-        <v>254.00700000000001</v>
-      </c>
-      <c r="U58" s="33">
-        <v>287.625</v>
-      </c>
-      <c r="V58" s="33">
-        <v>295.88799999999998</v>
-      </c>
-      <c r="AB58" s="33">
-        <f t="shared" si="104"/>
-        <v>216.792</v>
-      </c>
-      <c r="AC58" s="91">
-        <f t="shared" si="107"/>
-        <v>295.88799999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M59" s="33">
-        <v>10.994</v>
-      </c>
-      <c r="R59" s="33">
-        <v>15.747999999999999</v>
-      </c>
-      <c r="S59" s="33">
-        <v>19.344000000000001</v>
-      </c>
-      <c r="T59" s="33">
-        <v>25.667999999999999</v>
-      </c>
-      <c r="U59" s="33">
-        <v>17.024000000000001</v>
-      </c>
-      <c r="V59" s="33">
-        <v>18.161000000000001</v>
-      </c>
-      <c r="AB59" s="33">
-        <f t="shared" si="104"/>
-        <v>15.747999999999999</v>
-      </c>
-      <c r="AC59" s="91">
-        <f t="shared" si="107"/>
-        <v>18.161000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="1">
-        <f t="shared" ref="C60:T60" si="109">SUM(C56:C59)</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="33">
-        <f t="shared" si="109"/>
-        <v>370.13099999999997</v>
-      </c>
-      <c r="N60" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="P60" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="R60" s="33">
-        <f t="shared" si="109"/>
-        <v>702.73300000000006</v>
-      </c>
-      <c r="S60" s="33">
-        <f t="shared" si="109"/>
-        <v>681.93200000000002</v>
-      </c>
-      <c r="T60" s="33">
-        <f t="shared" si="109"/>
-        <v>703.20799999999997</v>
-      </c>
-      <c r="U60" s="33">
-        <f>SUM(U56:U59)</f>
-        <v>905.221</v>
-      </c>
-      <c r="V60" s="33">
-        <f>SUM(V56:V59)</f>
-        <v>856.00800000000004</v>
-      </c>
-      <c r="AB60" s="33">
-        <f>SUM(AB56:AB59)</f>
-        <v>702.73300000000006</v>
-      </c>
-      <c r="AC60" s="33">
-        <f>SUM(AC56:AC59)</f>
-        <v>856.00800000000004</v>
-      </c>
-    </row>
-    <row r="61" spans="2:39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>127</v>
       </c>
       <c r="M61" s="33">
-        <v>23.08</v>
+        <v>96.777000000000001</v>
       </c>
       <c r="R61" s="33">
-        <v>162.93199999999999</v>
+        <v>216.792</v>
       </c>
       <c r="S61" s="33">
-        <v>186.636</v>
+        <v>247.64699999999999</v>
       </c>
       <c r="T61" s="33">
-        <v>159.405</v>
+        <v>254.00700000000001</v>
       </c>
       <c r="U61" s="33">
-        <v>299.625</v>
+        <v>287.625</v>
       </c>
       <c r="V61" s="33">
-        <v>267.51299999999998</v>
+        <v>295.88799999999998</v>
       </c>
       <c r="AB61" s="33">
-        <f t="shared" si="104"/>
-        <v>162.93199999999999</v>
-      </c>
-      <c r="AC61" s="91">
-        <f t="shared" si="107"/>
-        <v>267.51299999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="2:39" x14ac:dyDescent="0.15">
+        <f t="shared" si="105"/>
+        <v>216.792</v>
+      </c>
+      <c r="AC61" s="74">
+        <f t="shared" si="108"/>
+        <v>295.88799999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
       <c r="M62" s="33">
+        <v>10.994</v>
+      </c>
+      <c r="R62" s="33">
+        <v>15.747999999999999</v>
+      </c>
+      <c r="S62" s="33">
+        <v>19.344000000000001</v>
+      </c>
+      <c r="T62" s="33">
+        <v>25.667999999999999</v>
+      </c>
+      <c r="U62" s="33">
+        <v>17.024000000000001</v>
+      </c>
+      <c r="V62" s="33">
+        <v>18.161000000000001</v>
+      </c>
+      <c r="AB62" s="33">
+        <f t="shared" si="105"/>
+        <v>15.747999999999999</v>
+      </c>
+      <c r="AC62" s="74">
+        <f t="shared" si="108"/>
+        <v>18.161000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" ref="C63:T63" si="110">SUM(C59:C62)</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="33">
+        <f t="shared" si="110"/>
+        <v>370.13099999999997</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="33">
+        <f t="shared" si="110"/>
+        <v>702.73300000000006</v>
+      </c>
+      <c r="S63" s="33">
+        <f t="shared" si="110"/>
+        <v>681.93200000000002</v>
+      </c>
+      <c r="T63" s="33">
+        <f t="shared" si="110"/>
+        <v>703.20799999999997</v>
+      </c>
+      <c r="U63" s="33">
+        <f>SUM(U59:U62)</f>
+        <v>905.221</v>
+      </c>
+      <c r="V63" s="33">
+        <f>SUM(V59:V62)</f>
+        <v>856.00800000000004</v>
+      </c>
+      <c r="AB63" s="33">
+        <f>SUM(AB59:AB62)</f>
+        <v>702.73300000000006</v>
+      </c>
+      <c r="AC63" s="33">
+        <f>SUM(AC59:AC62)</f>
+        <v>856.00800000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M64" s="33">
+        <v>23.08</v>
+      </c>
+      <c r="R64" s="33">
+        <v>162.93199999999999</v>
+      </c>
+      <c r="S64" s="33">
+        <v>186.636</v>
+      </c>
+      <c r="T64" s="33">
+        <v>159.405</v>
+      </c>
+      <c r="U64" s="33">
+        <v>299.625</v>
+      </c>
+      <c r="V64" s="33">
+        <v>267.51299999999998</v>
+      </c>
+      <c r="AB64" s="33">
+        <f t="shared" si="105"/>
+        <v>162.93199999999999</v>
+      </c>
+      <c r="AC64" s="74">
+        <f t="shared" si="108"/>
+        <v>267.51299999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M65" s="33">
         <v>141.53899999999999</v>
       </c>
-      <c r="R62" s="33">
+      <c r="R65" s="33">
         <v>246.77600000000001</v>
       </c>
-      <c r="S62" s="33">
+      <c r="S65" s="33">
         <v>264.53399999999999</v>
       </c>
-      <c r="T62" s="33">
+      <c r="T65" s="33">
         <v>254.417</v>
       </c>
-      <c r="U62" s="33">
+      <c r="U65" s="33">
         <v>369.13099999999997</v>
       </c>
-      <c r="V62" s="33">
+      <c r="V65" s="33">
         <v>465.13499999999999</v>
       </c>
-      <c r="AB62" s="33">
-        <f t="shared" si="104"/>
+      <c r="AB65" s="33">
+        <f t="shared" si="105"/>
         <v>246.77600000000001</v>
       </c>
-      <c r="AC62" s="91">
-        <f t="shared" si="107"/>
+      <c r="AC65" s="74">
+        <f t="shared" si="108"/>
         <v>465.13499999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="2" t="s">
+    <row r="66" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M63" s="32">
+      <c r="M66" s="32">
         <v>750.452</v>
       </c>
-      <c r="R63" s="32">
+      <c r="R66" s="32">
         <v>910.96299999999997</v>
       </c>
-      <c r="S63" s="32">
+      <c r="S66" s="32">
         <v>911.54899999999998</v>
       </c>
-      <c r="T63" s="32">
+      <c r="T66" s="32">
         <v>912.13699999999994</v>
       </c>
-      <c r="U63" s="32">
+      <c r="U66" s="32">
         <v>912.72400000000005</v>
       </c>
-      <c r="V63" s="32">
+      <c r="V66" s="32">
         <v>913.31200000000001</v>
       </c>
-      <c r="W63" s="119"/>
-      <c r="AB63" s="32">
-        <f>R63</f>
+      <c r="W66" s="102"/>
+      <c r="AB66" s="32">
+        <f>R66</f>
         <v>910.96299999999997</v>
       </c>
-      <c r="AC63" s="92">
-        <f t="shared" si="107"/>
+      <c r="AC66" s="75">
+        <f t="shared" si="108"/>
         <v>913.31200000000001</v>
       </c>
-      <c r="AD63" s="52"/>
-      <c r="AE63" s="58"/>
-      <c r="AF63" s="58"/>
-      <c r="AG63" s="58"/>
-      <c r="AH63" s="58"/>
-      <c r="AI63" s="58"/>
-      <c r="AJ63" s="58"/>
-      <c r="AK63" s="58"/>
-      <c r="AL63" s="58"/>
-      <c r="AM63" s="58"/>
-    </row>
-    <row r="64" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B64" s="1" t="s">
+      <c r="AD66" s="52"/>
+      <c r="AE66" s="58"/>
+      <c r="AF66" s="58"/>
+      <c r="AG66" s="58"/>
+      <c r="AH66" s="58"/>
+      <c r="AI66" s="58"/>
+      <c r="AJ66" s="58"/>
+      <c r="AK66" s="58"/>
+      <c r="AL66" s="58"/>
+      <c r="AM66" s="58"/>
+    </row>
+    <row r="67" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M64" s="33">
-        <v>0</v>
-      </c>
-      <c r="R64" s="33">
+      <c r="M67" s="33">
+        <v>0</v>
+      </c>
+      <c r="R67" s="33">
         <v>183.42699999999999</v>
       </c>
-      <c r="S64" s="33">
+      <c r="S67" s="33">
         <v>0.21099999999999999</v>
       </c>
-      <c r="T64" s="33">
+      <c r="T67" s="33">
         <v>1.335</v>
       </c>
-      <c r="U64" s="33">
+      <c r="U67" s="33">
         <v>23.576000000000001</v>
       </c>
-      <c r="V64" s="33">
+      <c r="V67" s="33">
         <v>16.294</v>
       </c>
-      <c r="AB64" s="33">
-        <f t="shared" si="104"/>
+      <c r="AB67" s="33">
+        <f t="shared" si="105"/>
         <v>183.42699999999999</v>
       </c>
-      <c r="AC64" s="91">
-        <f t="shared" si="107"/>
+      <c r="AC67" s="74">
+        <f t="shared" si="108"/>
         <v>16.294</v>
       </c>
     </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B65" s="1" t="s">
+    <row r="68" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="1">
-        <f t="shared" ref="C65:T65" si="110">SUM(C61:C64)+C60</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="I65" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="33">
-        <f t="shared" si="110"/>
+      <c r="C68" s="1">
+        <f t="shared" ref="C68:T68" si="111">SUM(C64:C67)+C63</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="33">
+        <f t="shared" si="111"/>
         <v>1285.2019999999998</v>
       </c>
-      <c r="N65" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="33">
-        <f t="shared" si="110"/>
+      <c r="N68" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="33">
+        <f t="shared" si="111"/>
         <v>2206.8309999999997</v>
       </c>
-      <c r="S65" s="33">
-        <f t="shared" si="110"/>
+      <c r="S68" s="33">
+        <f t="shared" si="111"/>
         <v>2044.8620000000001</v>
       </c>
-      <c r="T65" s="33">
-        <f t="shared" si="110"/>
+      <c r="T68" s="33">
+        <f t="shared" si="111"/>
         <v>2030.502</v>
       </c>
-      <c r="U65" s="33">
-        <f>SUM(U61:U64)+U60</f>
+      <c r="U68" s="33">
+        <f>SUM(U64:U67)+U63</f>
         <v>2510.277</v>
       </c>
-      <c r="V65" s="33">
-        <f>SUM(V61:V64)+V60</f>
+      <c r="V68" s="33">
+        <f>SUM(V64:V67)+V63</f>
         <v>2518.2620000000002</v>
       </c>
-      <c r="AB65" s="33">
-        <f>SUM(AB61:AB64)+AB60</f>
+      <c r="AB68" s="33">
+        <f>SUM(AB64:AB67)+AB63</f>
         <v>2206.8309999999997</v>
       </c>
-      <c r="AC65" s="33">
-        <f>SUM(AC61:AC64)+AC60</f>
+      <c r="AC68" s="33">
+        <f>SUM(AC64:AC67)+AC63</f>
         <v>2518.2620000000002</v>
       </c>
     </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="S66" s="33"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="33"/>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B67" s="1" t="s">
+    <row r="69" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+    </row>
+    <row r="70" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M67" s="33">
+      <c r="M70" s="33">
         <v>6176.8289999999997</v>
       </c>
-      <c r="R67" s="33">
+      <c r="R70" s="33">
         <v>11133.341</v>
       </c>
-      <c r="S67" s="33">
+      <c r="S70" s="33">
         <v>9789.5949999999993</v>
       </c>
-      <c r="T67" s="33">
+      <c r="T70" s="33">
         <v>8717.1280000000006</v>
       </c>
-      <c r="U67" s="33">
+      <c r="U70" s="33">
         <v>8693.0079999999998</v>
       </c>
-      <c r="V67" s="33">
+      <c r="V70" s="33">
         <v>8238.8889999999992</v>
       </c>
-      <c r="AB67" s="33">
-        <f>R67</f>
+      <c r="AB70" s="33">
+        <f>R70</f>
         <v>11133.341</v>
       </c>
-      <c r="AC67" s="91">
-        <f>V67</f>
+      <c r="AC70" s="74">
+        <f>V70</f>
         <v>8238.8889999999992</v>
       </c>
     </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B68" s="1" t="s">
+    <row r="71" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M68" s="33">
-        <f>M67+M65</f>
+      <c r="M71" s="33">
+        <f>M70+M68</f>
         <v>7462.030999999999</v>
       </c>
-      <c r="R68" s="33">
-        <f>R67+R65</f>
+      <c r="R71" s="33">
+        <f>R70+R68</f>
         <v>13340.172</v>
       </c>
-      <c r="S68" s="33">
-        <f>S67+S65</f>
+      <c r="S71" s="33">
+        <f>S70+S68</f>
         <v>11834.456999999999</v>
       </c>
-      <c r="T68" s="33">
-        <f>T67+T65</f>
+      <c r="T71" s="33">
+        <f>T70+T68</f>
         <v>10747.630000000001</v>
       </c>
-      <c r="U68" s="33">
-        <f>U67+U65</f>
+      <c r="U71" s="33">
+        <f>U70+U68</f>
         <v>11203.285</v>
       </c>
-      <c r="V68" s="33">
-        <f>V67+V65</f>
+      <c r="V71" s="33">
+        <f>V70+V68</f>
         <v>10757.151</v>
       </c>
-      <c r="AB68" s="33">
-        <f>AB67+AB65</f>
+      <c r="AB71" s="33">
+        <f>AB70+AB68</f>
         <v>13340.172</v>
       </c>
-      <c r="AC68" s="33">
-        <f>AC67+AC65</f>
+      <c r="AC71" s="33">
+        <f>AC70+AC68</f>
         <v>10757.151</v>
       </c>
     </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B70" s="1" t="s">
+    <row r="73" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M70" s="33">
-        <f t="shared" ref="M70" si="111">M54-M65</f>
+      <c r="M73" s="33">
+        <f t="shared" ref="M73" si="112">M57-M68</f>
         <v>6176.8289999999997</v>
       </c>
-      <c r="R70" s="33">
-        <f t="shared" ref="R70" si="112">R54-R65</f>
+      <c r="R73" s="33">
+        <f t="shared" ref="R73" si="113">R57-R68</f>
         <v>11133.340999999999</v>
       </c>
-      <c r="S70" s="33">
-        <f t="shared" ref="S70:T70" si="113">S54-S65</f>
+      <c r="S73" s="33">
+        <f t="shared" ref="S73:T73" si="114">S57-S68</f>
         <v>9789.5950000000012</v>
       </c>
-      <c r="T70" s="33">
-        <f t="shared" si="113"/>
+      <c r="T73" s="33">
+        <f t="shared" si="114"/>
         <v>8717.1280000000006</v>
       </c>
-      <c r="U70" s="33">
-        <f>U54-U65</f>
+      <c r="U73" s="33">
+        <f>U57-U68</f>
         <v>8693.0079999999998</v>
       </c>
-      <c r="V70" s="33">
-        <f t="shared" ref="V70" si="114">V54-V65</f>
+      <c r="V73" s="33">
+        <f t="shared" ref="V73" si="115">V57-V68</f>
         <v>8238.8889999999992</v>
       </c>
-      <c r="AB70" s="33">
-        <f>AB54-AB65</f>
+      <c r="AB73" s="33">
+        <f>AB57-AB68</f>
         <v>11133.340999999999</v>
       </c>
-      <c r="AC70" s="33">
-        <f t="shared" ref="AC70" si="115">AC54-AC65</f>
+      <c r="AC73" s="33">
+        <f t="shared" ref="AC73" si="116">AC57-AC68</f>
         <v>8238.8889999999992</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B71" s="1" t="s">
+    <row r="74" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M71" s="1">
-        <f t="shared" ref="M71" si="116">M70/M22</f>
+      <c r="M74" s="1">
+        <f t="shared" ref="M74" si="117">M73/M22</f>
         <v>51.25510694067961</v>
       </c>
-      <c r="R71" s="1">
-        <f t="shared" ref="R71:S71" si="117">R70/R22</f>
+      <c r="R74" s="1">
+        <f t="shared" ref="R74:S74" si="118">R73/R22</f>
         <v>88.546249602983664</v>
       </c>
-      <c r="S71" s="1">
-        <f t="shared" si="117"/>
+      <c r="S74" s="1">
+        <f t="shared" si="118"/>
         <v>77.687142379346611</v>
       </c>
-      <c r="T71" s="1">
-        <f t="shared" ref="T71" si="118">T70/T22</f>
+      <c r="T74" s="1">
+        <f t="shared" ref="T74" si="119">T73/T22</f>
         <v>6.9073275958982521</v>
       </c>
-      <c r="U71" s="1">
-        <f>U70/U22</f>
+      <c r="U74" s="1">
+        <f>U73/U22</f>
         <v>6.8479874371111631</v>
       </c>
-      <c r="V71" s="1">
-        <f t="shared" ref="V71" si="119">V70/V22</f>
+      <c r="V74" s="1">
+        <f t="shared" ref="V74" si="120">V73/V22</f>
         <v>6.4703038767991545</v>
       </c>
-      <c r="AB71" s="1">
-        <f>AB70/AB22</f>
+      <c r="AB74" s="1">
+        <f>AB73/AB22</f>
         <v>88.546249602983664</v>
       </c>
-      <c r="AC71" s="1">
-        <f t="shared" ref="AC71" si="120">AC70/AC22</f>
+      <c r="AC74" s="1">
+        <f t="shared" ref="AC74" si="121">AC73/AC22</f>
         <v>6.5064330706476614</v>
       </c>
     </row>
-    <row r="73" spans="2:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="28" t="s">
+    <row r="76" spans="2:39" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M73" s="31">
-        <f t="shared" ref="M73" si="121">M41+M42</f>
+      <c r="M76" s="31">
+        <f t="shared" ref="M76" si="122">M44+M45</f>
         <v>6121.1610000000001</v>
       </c>
-      <c r="R73" s="31">
-        <f t="shared" ref="R73:S73" si="122">R41+R42</f>
+      <c r="R76" s="31">
+        <f t="shared" ref="R76:S76" si="123">R44+R45</f>
         <v>7768.0929999999998</v>
       </c>
-      <c r="S73" s="31">
-        <f t="shared" si="122"/>
+      <c r="S76" s="31">
+        <f t="shared" si="123"/>
         <v>7246.6900000000005</v>
       </c>
-      <c r="T73" s="31">
-        <f t="shared" ref="T73" si="123">T41+T42</f>
+      <c r="T76" s="31">
+        <f t="shared" ref="T76" si="124">T44+T45</f>
         <v>6954.7910000000002</v>
       </c>
-      <c r="U73" s="31">
-        <f>U41+U42</f>
+      <c r="U76" s="31">
+        <f>U44+U45</f>
         <v>4941.4319999999998</v>
       </c>
-      <c r="V73" s="31">
-        <f t="shared" ref="V73" si="124">V41+V42</f>
+      <c r="V76" s="31">
+        <f t="shared" ref="V76" si="125">V44+V45</f>
         <v>5052.95</v>
       </c>
-      <c r="W73" s="48"/>
-      <c r="AB73" s="31">
-        <f>AB41+AB42</f>
+      <c r="W76" s="48"/>
+      <c r="AB76" s="31">
+        <f>AB44+AB45</f>
         <v>7768.0929999999998</v>
       </c>
-      <c r="AC73" s="31">
-        <f t="shared" ref="AC73" si="125">AC41+AC42</f>
+      <c r="AC76" s="31">
+        <f t="shared" ref="AC76" si="126">AC44+AC45</f>
         <v>5052.95</v>
       </c>
-      <c r="AD73" s="48"/>
-    </row>
-    <row r="74" spans="2:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="28" t="s">
+      <c r="AD76" s="48"/>
+    </row>
+    <row r="77" spans="2:39" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M74" s="31">
-        <f t="shared" ref="M74" si="126">M63</f>
+      <c r="M77" s="31">
+        <f t="shared" ref="M77" si="127">M66</f>
         <v>750.452</v>
       </c>
-      <c r="R74" s="31">
-        <f t="shared" ref="R74:S74" si="127">R63</f>
+      <c r="R77" s="31">
+        <f t="shared" ref="R77:S77" si="128">R66</f>
         <v>910.96299999999997</v>
       </c>
-      <c r="S74" s="31">
-        <f t="shared" si="127"/>
+      <c r="S77" s="31">
+        <f t="shared" si="128"/>
         <v>911.54899999999998</v>
       </c>
-      <c r="T74" s="31">
-        <f t="shared" ref="T74" si="128">T63</f>
+      <c r="T77" s="31">
+        <f t="shared" ref="T77" si="129">T66</f>
         <v>912.13699999999994</v>
       </c>
-      <c r="U74" s="31">
-        <f>U63</f>
+      <c r="U77" s="31">
+        <f>U66</f>
         <v>912.72400000000005</v>
       </c>
-      <c r="V74" s="31">
-        <f t="shared" ref="V74" si="129">V63</f>
+      <c r="V77" s="31">
+        <f t="shared" ref="V77" si="130">V66</f>
         <v>913.31200000000001</v>
       </c>
-      <c r="W74" s="48"/>
-      <c r="AB74" s="31">
-        <f>AB63</f>
+      <c r="W77" s="48"/>
+      <c r="AB77" s="31">
+        <f>AB66</f>
         <v>910.96299999999997</v>
       </c>
-      <c r="AC74" s="31">
-        <f t="shared" ref="AC74" si="130">AC63</f>
+      <c r="AC77" s="31">
+        <f t="shared" ref="AC77" si="131">AC66</f>
         <v>913.31200000000001</v>
       </c>
-      <c r="AD74" s="48"/>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B75" s="1" t="s">
+      <c r="AD77" s="48"/>
+    </row>
+    <row r="78" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M75" s="33">
-        <f t="shared" ref="M75" si="131">M73-M74</f>
+      <c r="M78" s="33">
+        <f t="shared" ref="M78" si="132">M76-M77</f>
         <v>5370.7089999999998</v>
       </c>
-      <c r="R75" s="33">
-        <f t="shared" ref="R75:S75" si="132">R73-R74</f>
+      <c r="R78" s="33">
+        <f t="shared" ref="R78:S78" si="133">R76-R77</f>
         <v>6857.13</v>
       </c>
-      <c r="S75" s="33">
-        <f t="shared" si="132"/>
+      <c r="S78" s="33">
+        <f t="shared" si="133"/>
         <v>6335.1410000000005</v>
       </c>
-      <c r="T75" s="33">
-        <f t="shared" ref="T75" si="133">T73-T74</f>
+      <c r="T78" s="33">
+        <f t="shared" ref="T78" si="134">T76-T77</f>
         <v>6042.6540000000005</v>
       </c>
-      <c r="U75" s="33">
-        <f>U73-U74</f>
+      <c r="U78" s="33">
+        <f>U76-U77</f>
         <v>4028.7079999999996</v>
       </c>
-      <c r="V75" s="33">
-        <f t="shared" ref="V75" si="134">V73-V74</f>
+      <c r="V78" s="33">
+        <f t="shared" ref="V78" si="135">V76-V77</f>
         <v>4139.6379999999999</v>
       </c>
-      <c r="AB75" s="33">
-        <f>AB73-AB74</f>
+      <c r="AB78" s="33">
+        <f>AB76-AB77</f>
         <v>6857.13</v>
       </c>
-      <c r="AC75" s="33">
-        <f t="shared" ref="AC75" si="135">AC73-AC74</f>
+      <c r="AC78" s="33">
+        <f t="shared" ref="AC78" si="136">AC76-AC77</f>
         <v>4139.6379999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B77" s="1" t="s">
+    <row r="80" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M80" s="1">
         <f>31.17*10</f>
         <v>311.70000000000005</v>
       </c>
-      <c r="R77" s="36">
+      <c r="R80" s="36">
         <f>137.743*10</f>
         <v>1377.4299999999998</v>
       </c>
-      <c r="S77" s="36">
+      <c r="S80" s="36">
         <f>67.6*10</f>
         <v>676</v>
       </c>
-      <c r="T77" s="36">
+      <c r="T80" s="36">
         <v>31.24</v>
       </c>
-      <c r="U77" s="36">
+      <c r="U80" s="36">
         <v>26.94</v>
       </c>
-      <c r="V77" s="1">
+      <c r="V80" s="1">
         <v>34.17</v>
       </c>
-      <c r="AB77" s="33">
-        <f>R77</f>
+      <c r="AB80" s="33">
+        <f>R80</f>
         <v>1377.4299999999998</v>
       </c>
-      <c r="AC77" s="94">
-        <f>V77</f>
+      <c r="AC80" s="77">
+        <f>V80</f>
         <v>34.17</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B78" s="1" t="s">
+    <row r="81" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M78" s="33">
-        <f t="shared" ref="M78" si="136">M77*M22</f>
+      <c r="M81" s="33">
+        <f t="shared" ref="M81" si="137">M80*M22</f>
         <v>37563.429562800004</v>
       </c>
-      <c r="R78" s="33">
-        <f t="shared" ref="R78:T78" si="137">R77*R22</f>
+      <c r="R81" s="33">
+        <f t="shared" ref="R81:T81" si="138">R80*R22</f>
         <v>173190.82357964999</v>
       </c>
-      <c r="S78" s="33">
-        <f t="shared" ref="S78" si="138">S77*S22</f>
+      <c r="S81" s="33">
+        <f t="shared" ref="S81" si="139">S80*S22</f>
         <v>85184.832616</v>
       </c>
-      <c r="T78" s="33">
-        <f t="shared" si="137"/>
+      <c r="T81" s="33">
+        <f t="shared" si="138"/>
         <v>39425.244414599998</v>
       </c>
-      <c r="U78" s="33">
-        <f>U77*U22</f>
+      <c r="U81" s="33">
+        <f>U80*U22</f>
         <v>34198.315588440004</v>
       </c>
-      <c r="V78" s="33">
-        <f t="shared" ref="V78" si="139">V77*V22</f>
+      <c r="V81" s="33">
+        <f t="shared" ref="V81" si="140">V80*V22</f>
         <v>43509.986932680004</v>
       </c>
-      <c r="AB78" s="33">
-        <f t="shared" ref="AB78:AC78" si="140">AB77*AB22</f>
+      <c r="AB81" s="33">
+        <f t="shared" ref="AB81:AC81" si="141">AB80*AB22</f>
         <v>173190.82357964999</v>
       </c>
-      <c r="AC78" s="33">
-        <f t="shared" si="140"/>
+      <c r="AC81" s="33">
+        <f t="shared" si="141"/>
         <v>43268.382856349999</v>
       </c>
     </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B79" s="1" t="s">
+    <row r="82" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M79" s="33">
-        <f t="shared" ref="M79" si="141">M78-M75</f>
+      <c r="M82" s="33">
+        <f t="shared" ref="M82" si="142">M81-M78</f>
         <v>32192.720562800005</v>
       </c>
-      <c r="R79" s="33">
-        <f t="shared" ref="R79:T79" si="142">R78-R75</f>
+      <c r="R82" s="33">
+        <f t="shared" ref="R82:T82" si="143">R81-R78</f>
         <v>166333.69357964999</v>
       </c>
-      <c r="S79" s="33">
-        <f t="shared" ref="S79" si="143">S78-S75</f>
+      <c r="S82" s="33">
+        <f t="shared" ref="S82" si="144">S81-S78</f>
         <v>78849.691615999996</v>
       </c>
-      <c r="T79" s="33">
-        <f t="shared" si="142"/>
+      <c r="T82" s="33">
+        <f t="shared" si="143"/>
         <v>33382.590414599996</v>
       </c>
-      <c r="U79" s="33">
-        <f>U78-U75</f>
+      <c r="U82" s="33">
+        <f>U81-U78</f>
         <v>30169.607588440005</v>
       </c>
-      <c r="V79" s="33">
-        <f t="shared" ref="V79" si="144">V78-V75</f>
+      <c r="V82" s="33">
+        <f t="shared" ref="V82" si="145">V81-V78</f>
         <v>39370.348932680005</v>
       </c>
-      <c r="AB79" s="33">
-        <f t="shared" ref="AB79:AC79" si="145">AB78-AB75</f>
+      <c r="AB82" s="33">
+        <f t="shared" ref="AB82:AC82" si="146">AB81-AB78</f>
         <v>166333.69357964999</v>
       </c>
-      <c r="AC79" s="33">
-        <f t="shared" si="145"/>
+      <c r="AC82" s="33">
+        <f t="shared" si="146"/>
         <v>39128.74485635</v>
       </c>
     </row>
-    <row r="81" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B81" s="1" t="s">
+    <row r="84" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M81" s="43">
-        <f>M77/M71</f>
+      <c r="M84" s="43">
+        <f>M80/M74</f>
         <v>6.0813452279154898</v>
       </c>
-      <c r="R81" s="43">
-        <f>R77/R71</f>
+      <c r="R84" s="43">
+        <f>R80/R74</f>
         <v>15.556051285921271</v>
       </c>
-      <c r="S81" s="43">
-        <f t="shared" ref="S81" si="146">S77/S71</f>
+      <c r="S84" s="43">
+        <f t="shared" ref="S84" si="147">S80/S74</f>
         <v>8.7015686160663428</v>
       </c>
-      <c r="T81" s="43">
-        <f t="shared" ref="T81" si="147">T77/T71</f>
+      <c r="T84" s="43">
+        <f t="shared" ref="T84" si="148">T80/T74</f>
         <v>4.5227332229835326</v>
       </c>
-      <c r="U81" s="43">
-        <f>U77/U71</f>
+      <c r="U84" s="43">
+        <f>U80/U74</f>
         <v>3.9340025441642301</v>
       </c>
-      <c r="V81" s="43">
-        <f t="shared" ref="V81" si="148">V77/V71</f>
+      <c r="V84" s="43">
+        <f t="shared" ref="V84" si="149">V80/V74</f>
         <v>5.2810502645053248</v>
       </c>
-      <c r="AB81" s="43">
-        <f>AB77/AB71</f>
+      <c r="AB84" s="43">
+        <f>AB80/AB74</f>
         <v>15.556051285921271</v>
       </c>
-      <c r="AC81" s="43">
-        <f t="shared" ref="AC81" si="149">AC77/AC71</f>
+      <c r="AC84" s="43">
+        <f t="shared" ref="AC84" si="150">AC80/AC74</f>
         <v>5.2517254275849581</v>
       </c>
     </row>
-    <row r="82" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B82" s="1" t="s">
+    <row r="85" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R82" s="43">
-        <f t="shared" ref="R82:T82" si="150">R78/SUM(O6:R6)</f>
+      <c r="R85" s="43">
+        <f t="shared" ref="R85:T85" si="151">R81/SUM(O6:R6)</f>
         <v>37.553389260126508</v>
       </c>
-      <c r="S82" s="43">
-        <f t="shared" si="150"/>
+      <c r="S85" s="43">
+        <f t="shared" si="151"/>
         <v>17.64818676432078</v>
       </c>
-      <c r="T82" s="43">
-        <f t="shared" si="150"/>
+      <c r="T85" s="43">
+        <f t="shared" si="151"/>
         <v>7.8811871012403909</v>
       </c>
-      <c r="U82" s="43">
-        <f>U78/SUM(R6:U6)</f>
+      <c r="U85" s="43">
+        <f>U81/SUM(R6:U6)</f>
         <v>6.5202864469437998</v>
       </c>
-      <c r="V82" s="43">
-        <f t="shared" ref="V82" si="151">V78/SUM(S6:V6)</f>
+      <c r="V85" s="43">
+        <f t="shared" ref="V85" si="152">V81/SUM(S6:V6)</f>
         <v>7.7698292195453318</v>
       </c>
-      <c r="AB82" s="43">
-        <f>AB78/AB6</f>
+      <c r="AB85" s="43">
+        <f>AB81/AB6</f>
         <v>37.553389260126508</v>
       </c>
-      <c r="AC82" s="43">
-        <f t="shared" ref="AC82" si="152">AC78/AC6</f>
+      <c r="AC85" s="43">
+        <f t="shared" ref="AC85" si="153">AC81/AC6</f>
         <v>7.7266845866881759</v>
       </c>
     </row>
-    <row r="83" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B83" s="1" t="s">
+    <row r="86" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R83" s="43">
-        <f t="shared" ref="R83:T83" si="153">R79/SUM(O6:R6)</f>
+      <c r="R86" s="43">
+        <f t="shared" ref="R86:T86" si="154">R82/SUM(O6:R6)</f>
         <v>36.066541015081562</v>
       </c>
-      <c r="S83" s="43">
-        <f t="shared" si="153"/>
+      <c r="S86" s="43">
+        <f t="shared" si="154"/>
         <v>16.335702509637791</v>
       </c>
-      <c r="T83" s="43">
-        <f t="shared" si="153"/>
+      <c r="T86" s="43">
+        <f t="shared" si="154"/>
         <v>6.673248191306258</v>
       </c>
-      <c r="U83" s="43">
-        <f>U79/SUM(R6:U6)</f>
+      <c r="U86" s="43">
+        <f>U82/SUM(R6:U6)</f>
         <v>5.752168786202243</v>
       </c>
-      <c r="V83" s="43">
-        <f t="shared" ref="V83" si="154">V79/SUM(S6:V6)</f>
+      <c r="V86" s="43">
+        <f t="shared" ref="V86" si="155">V82/SUM(S6:V6)</f>
         <v>7.0305901951690259</v>
       </c>
-      <c r="AB83" s="43">
-        <f>AB79/AB6</f>
+      <c r="AB86" s="43">
+        <f>AB82/AB6</f>
         <v>36.066541015081562</v>
       </c>
-      <c r="AC83" s="43">
-        <f>AC79/AC6</f>
+      <c r="AC86" s="43">
+        <f>AC82/AC6</f>
         <v>6.9874455623118701</v>
       </c>
     </row>
-    <row r="84" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B84" s="1" t="s">
+    <row r="87" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R84" s="43">
-        <f>R77/SUM(O21:R21)</f>
+      <c r="R87" s="43">
+        <f>R80/SUM(O21:R21)</f>
         <v>58.618024126380732</v>
       </c>
-      <c r="S84" s="43">
-        <f>S77/SUM(P21:S21)</f>
+      <c r="S87" s="43">
+        <f>S80/SUM(P21:S21)</f>
         <v>425.97888353217269</v>
       </c>
-      <c r="T84" s="43">
-        <f>T77/SUM(Q21:T21)</f>
+      <c r="T87" s="43">
+        <f>T80/SUM(Q21:T21)</f>
         <v>-4.8620155305341894</v>
       </c>
-      <c r="U84" s="43">
-        <f>U77/SUM(R21:U21)</f>
+      <c r="U87" s="43">
+        <f>U80/SUM(R21:U21)</f>
         <v>-1.7123991298146535</v>
       </c>
-      <c r="V84" s="43">
-        <f t="shared" ref="V84" si="155">V77/SUM(S21:V21)</f>
+      <c r="V87" s="43">
+        <f t="shared" ref="V87" si="156">V80/SUM(S21:V21)</f>
         <v>-2.5751763691867708</v>
       </c>
-      <c r="AB84" s="43">
-        <f>AB77/AB21</f>
+      <c r="AB87" s="43">
+        <f>AB80/AB21</f>
         <v>59.42061269591057</v>
       </c>
-      <c r="AC84" s="43">
-        <f t="shared" ref="AC84" si="156">AC77/AC21</f>
+      <c r="AC87" s="43">
+        <f t="shared" ref="AC87" si="157">AC80/AC21</f>
         <v>-12.503802389292279</v>
       </c>
     </row>
-    <row r="85" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B85" s="1" t="s">
+    <row r="88" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R85" s="43">
-        <f t="shared" ref="R85:T85" si="157">R79/SUM(O20:R20)</f>
+      <c r="R88" s="43">
+        <f t="shared" ref="R88:T88" si="158">R82/SUM(O20:R20)</f>
         <v>57.067977276123884</v>
       </c>
-      <c r="S85" s="43">
-        <f t="shared" si="157"/>
+      <c r="S88" s="43">
+        <f t="shared" si="158"/>
         <v>433.7023619462492</v>
       </c>
-      <c r="T85" s="43">
-        <f t="shared" si="157"/>
+      <c r="T88" s="43">
+        <f t="shared" si="158"/>
         <v>-17.558750140490666</v>
       </c>
-      <c r="U85" s="43">
-        <f>U79/SUM(R20:U20)</f>
+      <c r="U88" s="43">
+        <f>U82/SUM(R20:U20)</f>
         <v>-9.4043885395390046</v>
       </c>
-      <c r="V85" s="43">
-        <f t="shared" ref="V85" si="158">V79/SUM(S20:V20)</f>
+      <c r="V88" s="43">
+        <f t="shared" ref="V88" si="159">V82/SUM(S20:V20)</f>
         <v>-11.377339076573989</v>
       </c>
-      <c r="AB85" s="43">
-        <f>AB79/AB20</f>
+      <c r="AB88" s="43">
+        <f>AB82/AB20</f>
         <v>57.067977276123898</v>
       </c>
-      <c r="AC85" s="43">
-        <f t="shared" ref="AC85" si="159">AC79/AC20</f>
+      <c r="AC88" s="43">
+        <f t="shared" ref="AC88" si="160">AC82/AC20</f>
         <v>-11.307519743669697</v>
       </c>
     </row>
-    <row r="86" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B86" s="1" t="s">
+    <row r="89" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B88" s="37" t="s">
+    <row r="91" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B91" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="2" t="s">
+    <row r="94" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C91" s="2">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2">
-        <v>0</v>
-      </c>
-      <c r="F91" s="2">
-        <v>0</v>
-      </c>
-      <c r="G91" s="2">
-        <v>0</v>
-      </c>
-      <c r="H91" s="2">
-        <v>0</v>
-      </c>
-      <c r="I91" s="2">
-        <v>0</v>
-      </c>
-      <c r="J91" s="2">
-        <v>0</v>
-      </c>
-      <c r="K91" s="2">
-        <v>0</v>
-      </c>
-      <c r="L91" s="2">
-        <v>0</v>
-      </c>
-      <c r="M91" s="2">
-        <v>0</v>
-      </c>
-      <c r="N91" s="2">
-        <v>0</v>
-      </c>
-      <c r="O91" s="32">
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="O94" s="32">
         <v>135.68299999999999</v>
       </c>
-      <c r="P91" s="45">
-        <f>202.104-O91</f>
+      <c r="P94" s="45">
+        <f>202.104-O94</f>
         <v>66.421000000000021</v>
       </c>
-      <c r="Q91" s="2">
-        <v>0</v>
-      </c>
-      <c r="R91" s="2">
-        <v>0</v>
-      </c>
-      <c r="S91" s="32">
+      <c r="Q94" s="2">
+        <v>0</v>
+      </c>
+      <c r="R94" s="2">
+        <v>0</v>
+      </c>
+      <c r="S94" s="32">
         <v>-53.56</v>
       </c>
-      <c r="T91" s="45">
-        <f>-177.727-S91</f>
+      <c r="T94" s="45">
+        <f>-177.727-S94</f>
         <v>-124.167</v>
       </c>
-      <c r="U91" s="32">
-        <f>-391.833-SUM(S91:T91)</f>
+      <c r="U94" s="32">
+        <f>-391.833-SUM(S94:T94)</f>
         <v>-214.10600000000002</v>
       </c>
-      <c r="V91" s="32">
-        <f>-136.448-SUM(S91:U91)</f>
+      <c r="V94" s="32">
+        <f>-136.448-SUM(S94:U94)</f>
         <v>255.38500000000002</v>
       </c>
-      <c r="W91" s="119"/>
-      <c r="AC91" s="97"/>
-      <c r="AD91" s="52"/>
-      <c r="AE91" s="58"/>
-      <c r="AF91" s="58"/>
-      <c r="AG91" s="58"/>
-      <c r="AH91" s="58"/>
-      <c r="AI91" s="58"/>
-      <c r="AJ91" s="58"/>
-      <c r="AK91" s="58"/>
-      <c r="AL91" s="58"/>
-      <c r="AM91" s="58"/>
-    </row>
-    <row r="92" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="O92" s="33"/>
-      <c r="S92" s="33"/>
-      <c r="T92" s="33"/>
-      <c r="V92" s="33"/>
-    </row>
-    <row r="93" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B93" s="1" t="s">
+      <c r="W94" s="102"/>
+      <c r="AC94" s="80"/>
+      <c r="AD94" s="52"/>
+      <c r="AE94" s="58"/>
+      <c r="AF94" s="58"/>
+      <c r="AG94" s="58"/>
+      <c r="AH94" s="58"/>
+      <c r="AI94" s="58"/>
+      <c r="AJ94" s="58"/>
+      <c r="AK94" s="58"/>
+      <c r="AL94" s="58"/>
+      <c r="AM94" s="58"/>
+    </row>
+    <row r="95" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="O95" s="33"/>
+      <c r="S95" s="33"/>
+      <c r="T95" s="33"/>
+      <c r="V95" s="33"/>
+    </row>
+    <row r="96" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O93" s="33">
+      <c r="O96" s="33">
         <v>-2444.9549999999999</v>
       </c>
-      <c r="P93" s="33">
-        <f>-4149.857-O93</f>
+      <c r="P96" s="33">
+        <f>-4149.857-O96</f>
         <v>-1704.902</v>
       </c>
-      <c r="S93" s="33">
+      <c r="S96" s="33">
         <v>-1463.7049999999999</v>
       </c>
-      <c r="T93" s="33">
-        <f>-2033.09-S93</f>
+      <c r="T96" s="33">
+        <f>-2033.09-S96</f>
         <v>-569.38499999999999</v>
       </c>
-      <c r="U93" s="33">
-        <f>3568.229-SUM(S93:T93)</f>
+      <c r="U96" s="33">
+        <f>3568.229-SUM(S96:T96)</f>
         <v>5601.3189999999995</v>
       </c>
-      <c r="V93" s="33">
-        <f>5011.129-SUM(S93:U93)</f>
+      <c r="V96" s="33">
+        <f>5011.129-SUM(S96:U96)</f>
         <v>1442.9000000000005</v>
       </c>
     </row>
-    <row r="94" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B94" s="1" t="s">
+    <row r="97" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O94" s="33">
+      <c r="O97" s="33">
         <v>1038.316</v>
       </c>
-      <c r="P94" s="33">
-        <f>2437.951-O94</f>
+      <c r="P97" s="33">
+        <f>2437.951-O97</f>
         <v>1399.635</v>
       </c>
-      <c r="S94" s="33">
+      <c r="S97" s="33">
         <v>1929.395</v>
       </c>
-      <c r="T94" s="33">
-        <f>3689.564-S94</f>
+      <c r="T97" s="33">
+        <f>3689.564-S97</f>
         <v>1760.1689999999999</v>
       </c>
-      <c r="U94" s="33">
-        <f>5273.944-SUM(S94:T94)</f>
+      <c r="U97" s="33">
+        <f>5273.944-SUM(S97:T97)</f>
         <v>1584.3800000000006</v>
       </c>
-      <c r="V94" s="33">
-        <f>6890.167-SUM(S94:U94)</f>
+      <c r="V97" s="33">
+        <f>6890.167-SUM(S97:U97)</f>
         <v>1616.223</v>
       </c>
     </row>
-    <row r="95" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B95" s="1" t="s">
+    <row r="98" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O95" s="33">
+      <c r="O98" s="33">
         <v>-206.55199999999999</v>
       </c>
-      <c r="P95" s="33">
-        <f>-401.874-O95</f>
+      <c r="P98" s="33">
+        <f>-401.874-O98</f>
         <v>-195.32200000000003</v>
       </c>
-      <c r="S95" s="33">
+      <c r="S98" s="33">
         <v>453.94499999999999</v>
       </c>
-      <c r="T95" s="33">
-        <f>569.649-S95</f>
+      <c r="T98" s="33">
+        <f>569.649-S98</f>
         <v>115.70400000000001</v>
       </c>
-      <c r="U95" s="33">
-        <f>630.135-SUM(S95:T95)</f>
+      <c r="U98" s="33">
+        <f>630.135-SUM(S98:T98)</f>
         <v>60.48599999999999</v>
       </c>
-      <c r="V95" s="33">
-        <f>635.156-SUM(S95:U95)</f>
+      <c r="V98" s="33">
+        <f>635.156-SUM(S98:U98)</f>
         <v>5.0209999999999582</v>
       </c>
     </row>
-    <row r="96" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B96" s="1" t="s">
+    <row r="99" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O96" s="33">
+      <c r="O99" s="33">
         <v>5.1879999999999997</v>
       </c>
-      <c r="P96" s="33">
-        <f>-13.451+O96</f>
+      <c r="P99" s="33">
+        <f>-13.451+O99</f>
         <v>-8.2630000000000017</v>
       </c>
-      <c r="S96" s="33">
+      <c r="S99" s="33">
         <v>15.94</v>
       </c>
-      <c r="T96" s="33">
-        <f>28.489-S96</f>
+      <c r="T99" s="33">
+        <f>28.489-S99</f>
         <v>12.549000000000001</v>
       </c>
-      <c r="U96" s="33">
-        <f>42.394-SUM(S96:T96)</f>
+      <c r="U99" s="33">
+        <f>42.394-SUM(S99:T99)</f>
         <v>13.904999999999998</v>
       </c>
-      <c r="V96" s="33">
-        <f>50.018-SUM(S96:U96)</f>
+      <c r="V99" s="33">
+        <f>50.018-SUM(S99:U99)</f>
         <v>7.6240000000000023</v>
       </c>
-      <c r="W96" s="98"/>
-    </row>
-    <row r="97" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B97" s="1" t="s">
+      <c r="W99" s="81"/>
+    </row>
+    <row r="100" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O97" s="33">
-        <v>0</v>
-      </c>
-      <c r="P97" s="33">
-        <v>0</v>
-      </c>
-      <c r="S97" s="33">
-        <v>0</v>
-      </c>
-      <c r="T97" s="33">
+      <c r="O100" s="33">
+        <v>0</v>
+      </c>
+      <c r="P100" s="33">
+        <v>0</v>
+      </c>
+      <c r="S100" s="33">
+        <v>0</v>
+      </c>
+      <c r="T100" s="33">
         <v>30.007999999999999</v>
       </c>
-      <c r="U97" s="33">
-        <f>1753.748-SUM(S97:T97)</f>
+      <c r="U100" s="33">
+        <f>1753.748-SUM(S100:T100)</f>
         <v>1723.74</v>
       </c>
-      <c r="V97" s="33">
-        <f>1753.748-SUM(S97:U97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="2" t="s">
+      <c r="V100" s="33">
+        <f>1753.748-SUM(S100:U100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="2">
-        <f t="shared" ref="C98:V98" si="160">SUM(C93:C97)</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="F98" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="L98" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="M98" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="N98" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="O98" s="32">
-        <f t="shared" si="160"/>
+      <c r="C101" s="2">
+        <f t="shared" ref="C101:V101" si="161">SUM(C96:C100)</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="L101" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="32">
+        <f t="shared" si="161"/>
         <v>-1608.0029999999997</v>
       </c>
-      <c r="P98" s="32">
-        <f t="shared" si="160"/>
+      <c r="P101" s="32">
+        <f t="shared" si="161"/>
         <v>-508.85200000000003</v>
       </c>
-      <c r="Q98" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="R98" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-      <c r="S98" s="32">
-        <f t="shared" si="160"/>
+      <c r="Q101" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="R101" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
+      </c>
+      <c r="S101" s="32">
+        <f t="shared" si="161"/>
         <v>935.57500000000005</v>
       </c>
-      <c r="T98" s="32">
-        <f t="shared" si="160"/>
+      <c r="T101" s="32">
+        <f t="shared" si="161"/>
         <v>1349.0449999999998</v>
       </c>
-      <c r="U98" s="32">
-        <f t="shared" si="160"/>
+      <c r="U101" s="32">
+        <f t="shared" si="161"/>
         <v>8983.83</v>
       </c>
-      <c r="V98" s="32">
-        <f t="shared" si="160"/>
+      <c r="V101" s="32">
+        <f t="shared" si="161"/>
         <v>3071.768</v>
       </c>
-      <c r="W98" s="119"/>
-      <c r="AC98" s="97"/>
-      <c r="AD98" s="52"/>
-      <c r="AE98" s="58"/>
-      <c r="AF98" s="58"/>
-      <c r="AG98" s="58"/>
-      <c r="AH98" s="58"/>
-      <c r="AI98" s="58"/>
-      <c r="AJ98" s="58"/>
-      <c r="AK98" s="58"/>
-      <c r="AL98" s="58"/>
-      <c r="AM98" s="58"/>
-    </row>
-    <row r="99" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="O99" s="33"/>
-      <c r="P99" s="33"/>
-      <c r="S99" s="33"/>
-      <c r="T99" s="33"/>
-      <c r="V99" s="33"/>
-    </row>
-    <row r="100" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="B100" s="1" t="s">
+      <c r="W101" s="102"/>
+      <c r="AC101" s="80"/>
+      <c r="AD101" s="52"/>
+      <c r="AE101" s="58"/>
+      <c r="AF101" s="58"/>
+      <c r="AG101" s="58"/>
+      <c r="AH101" s="58"/>
+      <c r="AI101" s="58"/>
+      <c r="AJ101" s="58"/>
+      <c r="AK101" s="58"/>
+      <c r="AL101" s="58"/>
+      <c r="AM101" s="58"/>
+    </row>
+    <row r="102" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="O102" s="33"/>
+      <c r="P102" s="33"/>
+      <c r="S102" s="33"/>
+      <c r="T102" s="33"/>
+      <c r="V102" s="33"/>
+    </row>
+    <row r="103" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="1">
-        <f t="shared" ref="C100:T100" si="161">C96+C97</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="1">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="E100" s="1">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="F100" s="1">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="I100" s="1">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="1">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="1">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="L100" s="1">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="M100" s="1">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="N100" s="1">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="O100" s="33">
-        <f t="shared" si="161"/>
+      <c r="C103" s="1">
+        <f t="shared" ref="C103:T103" si="162">C99+C100</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="1">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="L103" s="1">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="1">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="1">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="O103" s="33">
+        <f t="shared" si="162"/>
         <v>5.1879999999999997</v>
       </c>
-      <c r="P100" s="33">
-        <f t="shared" si="161"/>
+      <c r="P103" s="33">
+        <f t="shared" si="162"/>
         <v>-8.2630000000000017</v>
       </c>
-      <c r="Q100" s="1">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="R100" s="1">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="S100" s="33">
-        <f t="shared" si="161"/>
+      <c r="Q103" s="1">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="R103" s="1">
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="S103" s="33">
+        <f t="shared" si="162"/>
         <v>15.94</v>
       </c>
-      <c r="T100" s="33">
-        <f t="shared" si="161"/>
+      <c r="T103" s="33">
+        <f t="shared" si="162"/>
         <v>42.557000000000002</v>
       </c>
-      <c r="U100" s="33">
-        <f>U96+U97</f>
+      <c r="U103" s="33">
+        <f>U99+U100</f>
         <v>1737.645</v>
       </c>
-      <c r="V100" s="33">
-        <f t="shared" ref="V100" si="162">V96+V97</f>
+      <c r="V103" s="33">
+        <f t="shared" ref="V103" si="163">V99+V100</f>
         <v>7.6240000000000023</v>
       </c>
     </row>
-    <row r="101" spans="2:39" x14ac:dyDescent="0.15">
-      <c r="O101" s="33"/>
-      <c r="P101" s="33"/>
-      <c r="S101" s="33"/>
-      <c r="T101" s="33"/>
-      <c r="V101" s="33"/>
-    </row>
-    <row r="102" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="2" t="s">
+    <row r="104" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="O104" s="33"/>
+      <c r="P104" s="33"/>
+      <c r="S104" s="33"/>
+      <c r="T104" s="33"/>
+      <c r="V104" s="33"/>
+    </row>
+    <row r="105" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="32">
-        <f t="shared" ref="C102:R102" si="163">C100-C91</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="32">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="32">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="F102" s="32">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="32">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="32">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="I102" s="32">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="32">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="K102" s="32">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="L102" s="32">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="M102" s="32">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="N102" s="32">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="O102" s="32">
-        <f t="shared" si="163"/>
+      <c r="C105" s="32">
+        <f t="shared" ref="C105:R105" si="164">C103-C94</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="32">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="32">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="32">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="32">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="32">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="32">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="32">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="32">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="32">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="32">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="N105" s="32">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="O105" s="32">
+        <f t="shared" si="164"/>
         <v>-130.495</v>
       </c>
-      <c r="P102" s="32">
-        <f t="shared" si="163"/>
+      <c r="P105" s="32">
+        <f t="shared" si="164"/>
         <v>-74.684000000000026</v>
       </c>
-      <c r="Q102" s="32">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="R102" s="32">
-        <f t="shared" si="163"/>
-        <v>0</v>
-      </c>
-      <c r="S102" s="32">
-        <f>S100-S91</f>
+      <c r="Q105" s="32">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="R105" s="32">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="S105" s="32">
+        <f>S103-S94</f>
         <v>69.5</v>
       </c>
-      <c r="T102" s="32">
-        <f t="shared" ref="T102:U102" si="164">T100-T91</f>
+      <c r="T105" s="32">
+        <f t="shared" ref="T105:U105" si="165">T103-T94</f>
         <v>166.72399999999999</v>
       </c>
-      <c r="U102" s="32">
-        <f t="shared" si="164"/>
+      <c r="U105" s="32">
+        <f t="shared" si="165"/>
         <v>1951.751</v>
       </c>
-      <c r="V102" s="32">
-        <f t="shared" ref="V102" si="165">V100-V91</f>
+      <c r="V105" s="32">
+        <f t="shared" ref="V105" si="166">V103-V94</f>
         <v>-247.76100000000002</v>
       </c>
-      <c r="W102" s="119"/>
-      <c r="AC102" s="97"/>
-      <c r="AD102" s="52"/>
-      <c r="AE102" s="58"/>
-      <c r="AF102" s="58"/>
-      <c r="AG102" s="58"/>
-      <c r="AH102" s="58"/>
-      <c r="AI102" s="58"/>
-      <c r="AJ102" s="58"/>
-      <c r="AK102" s="58"/>
-      <c r="AL102" s="58"/>
-      <c r="AM102" s="58"/>
+      <c r="W105" s="102"/>
+      <c r="AC105" s="80"/>
+      <c r="AD105" s="52"/>
+      <c r="AE105" s="58"/>
+      <c r="AF105" s="58"/>
+      <c r="AG105" s="58"/>
+      <c r="AH105" s="58"/>
+      <c r="AI105" s="58"/>
+      <c r="AJ105" s="58"/>
+      <c r="AK105" s="58"/>
+      <c r="AL105" s="58"/>
+      <c r="AM105" s="58"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7404,16 +7469,17 @@
     <hyperlink ref="AB1" r:id="rId5" xr:uid="{097AF3B0-7BBE-48F1-A2C9-FE0198607796}"/>
     <hyperlink ref="M1" r:id="rId6" xr:uid="{240B947B-C305-4D02-B35A-139D4A74064D}"/>
     <hyperlink ref="V1" r:id="rId7" xr:uid="{6123133E-08C5-6C4D-9572-9C1E621E3D72}"/>
+    <hyperlink ref="AC1" r:id="rId8" xr:uid="{C21B9DFA-3DDC-46B6-A8BC-0AD1FBB058A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId8"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
   <ignoredErrors>
     <ignoredError sqref="AB19 AC11:AC17 AC19:AC20 AC4:AC5 AC7:AC8" formulaRange="1"/>
     <ignoredError sqref="AB4:AB18 AC18" formula="1" formulaRange="1"/>
-    <ignoredError sqref="AB2:AB3 AC10 AB47:AC47 AB54:AB64 AC54 AC60" formula="1"/>
+    <ignoredError sqref="AB2:AB3 AC10 AB50:AC50 AB57:AB67 AC57 AC63" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
+  <drawing r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -7425,402 +7491,402 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="21"/>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="99" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="22"/>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="117" t="s">
+      <c r="E2" s="100" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="108"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E3" s="91"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="46"/>
-      <c r="E4" s="109">
+      <c r="E4" s="92">
         <v>400.25400000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="46"/>
-      <c r="E5" s="109">
+      <c r="E5" s="92">
         <v>1334.7239999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="87">
         <v>1707.75</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="93">
         <v>1734.9780000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="46"/>
-      <c r="E7" s="109">
+      <c r="E7" s="92">
         <v>85.771000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
         <v>75</v>
       </c>
       <c r="D8" s="46"/>
-      <c r="E8" s="109">
+      <c r="E8" s="92">
         <v>850.69899999999996</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="81">
         <v>853.875</v>
       </c>
-      <c r="E9" s="111">
+      <c r="E9" s="94">
         <v>936.46999999999991</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="87">
         <v>853.875</v>
       </c>
-      <c r="E10" s="110">
+      <c r="E10" s="93">
         <v>798.50800000000015</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="81">
         <v>392.78250000000003</v>
       </c>
-      <c r="E11" s="111">
+      <c r="E11" s="94">
         <v>297.74099999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="81">
         <v>512.32499999999993</v>
       </c>
-      <c r="E12" s="111">
+      <c r="E12" s="94">
         <v>440.54700000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="81">
         <v>324.47250000000003</v>
       </c>
-      <c r="E13" s="111">
+      <c r="E13" s="94">
         <v>214.65100000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="81">
         <v>30.747199999999999</v>
       </c>
-      <c r="E14" s="111">
+      <c r="E14" s="94">
         <v>34.317999999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="98">
+      <c r="D15" s="81">
         <v>1260.3271999999999</v>
       </c>
-      <c r="E15" s="111">
+      <c r="E15" s="94">
         <v>987.25700000000006</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="87">
         <v>-406.45219999999995</v>
       </c>
-      <c r="E16" s="110">
+      <c r="E16" s="93">
         <v>-188.74899999999991</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="81">
         <v>-719.45324999999991</v>
       </c>
-      <c r="E17" s="111">
+      <c r="E17" s="94">
         <v>-425.85899999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="81">
         <v>-1125.9054499999997</v>
       </c>
-      <c r="E18" s="111">
+      <c r="E18" s="94">
         <v>-614.60799999999995</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="81">
         <v>-281.47636249999994</v>
       </c>
-      <c r="E19" s="111">
+      <c r="E19" s="94">
         <v>9.0860000000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="87">
         <v>-844.42908749999981</v>
       </c>
-      <c r="E20" s="110">
+      <c r="E20" s="93">
         <v>-623.69399999999996</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="105">
+      <c r="D21" s="88">
         <v>-0.66520585080920691</v>
       </c>
-      <c r="E21" s="112">
+      <c r="E21" s="95">
         <v>-0.48980993749720042</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="98">
+      <c r="D22" s="81">
         <v>1269.4252260000001</v>
       </c>
-      <c r="E22" s="111">
+      <c r="E22" s="94">
         <v>1273.338804</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D23" s="106"/>
-      <c r="E23" s="108"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="89"/>
+      <c r="E23" s="91"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="107">
+      <c r="D24" s="90">
         <v>0.23747847863515403</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24" s="96">
         <v>0.25720857028573407</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="114">
+      <c r="D25" s="83"/>
+      <c r="E25" s="97">
         <v>0.13964943850937339</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="114">
+      <c r="D26" s="83"/>
+      <c r="E26" s="97">
         <v>0.29733985474564917</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="100">
+      <c r="D27" s="83">
         <v>0.25</v>
       </c>
-      <c r="E27" s="114">
+      <c r="E27" s="97">
         <v>0.26992973210364513</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D28" s="106"/>
-      <c r="E28" s="108"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="89"/>
+      <c r="E28" s="91"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="107">
+      <c r="D29" s="90">
         <v>0.5</v>
       </c>
-      <c r="E29" s="113">
+      <c r="E29" s="96">
         <v>0.46024099441030381</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="40" t="s">
         <v>110</v>
       </c>
       <c r="D30" s="47"/>
-      <c r="E30" s="115">
+      <c r="E30" s="98">
         <v>0.78570857505484015</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="40" t="s">
         <v>111</v>
       </c>
       <c r="D31" s="47"/>
-      <c r="E31" s="115">
+      <c r="E31" s="98">
         <v>0.36264051594187263</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="100">
+      <c r="D32" s="83">
         <v>-0.23800450885668273</v>
       </c>
-      <c r="E32" s="114">
+      <c r="E32" s="97">
         <v>-0.10879042846652805</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="100">
+      <c r="D33" s="83">
         <v>-0.49446879666227483</v>
       </c>
-      <c r="E33" s="114">
+      <c r="E33" s="97">
         <v>-0.35948236807613693</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="100">
+      <c r="D34" s="83">
         <v>0.25</v>
       </c>
-      <c r="E34" s="114">
+      <c r="E34" s="97">
         <v>-1.4783406659203918E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D35" s="106"/>
-      <c r="E35" s="108"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="89"/>
+      <c r="E35" s="91"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="100">
+      <c r="D36" s="83">
         <v>0.3</v>
       </c>
-      <c r="E36" s="114">
+      <c r="E36" s="97">
         <v>0.25392079899572212</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="37"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="28"/>
       <c r="D73" s="28"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="28"/>
       <c r="D74" s="28"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="37"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="D91" s="2"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D97" s="33"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="D102" s="2"/>
     </row>

--- a/$SHOP.xlsx
+++ b/$SHOP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B241EA-944F-4979-B6A1-6F062ECE2BA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F07FE33-8B9D-0749-9399-EA8141DF20D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33600" windowHeight="18900" xr2:uid="{DD3A8C14-BBF5-4F78-B1B7-C8887875BE33}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18820" activeTab="1" xr2:uid="{DD3A8C14-BBF5-4F78-B1B7-C8887875BE33}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -558,7 +568,7 @@
     <numFmt numFmtId="165" formatCode="0.0\x"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,6 +666,19 @@
       <i/>
       <sz val="8"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -791,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -914,19 +937,12 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="17" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -957,10 +973,35 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -970,15 +1011,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -988,30 +1020,29 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1100,14 +1131,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>682625</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>682625</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>132</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1124,8 +1155,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16113125" y="0"/>
-          <a:ext cx="0" cy="21355050"/>
+          <a:off x="16837025" y="0"/>
+          <a:ext cx="0" cy="21850350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1150,13 +1181,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
       <xdr:row>132</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -1500,59 +1531,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4F6E83-3251-4909-AC6D-F91B7A570587}">
   <dimension ref="A2:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="14" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="108" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="G5" s="108" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="G5" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="110"/>
-      <c r="T5" s="111" t="s">
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="103"/>
+      <c r="T5" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="U5" s="111"/>
-      <c r="V5" s="111"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="111"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>48.2</v>
+        <v>57.3</v>
       </c>
       <c r="D6" s="18"/>
       <c r="G6" s="12"/>
@@ -1574,17 +1605,17 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="16">
-        <f>'Financial Model'!V22</f>
-        <v>1273.338804</v>
+        <f>'Financial Model'!W22</f>
+        <v>1276.884726</v>
       </c>
       <c r="D7" s="18" t="str">
         <f>$C$28</f>
-        <v>Q422</v>
+        <v>Q123</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="5"/>
@@ -1605,13 +1636,13 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="16">
         <f>C6*C7</f>
-        <v>61374.930352800002</v>
+        <v>73165.494799799999</v>
       </c>
       <c r="D8" s="18"/>
       <c r="G8" s="12"/>
@@ -1633,17 +1664,17 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="16">
-        <f>'Financial Model'!V76</f>
-        <v>5052.95</v>
+        <f>'Financial Model'!W76</f>
+        <v>4863</v>
       </c>
       <c r="D9" s="18" t="str">
         <f t="shared" ref="D9:D11" si="0">$C$28</f>
-        <v>Q422</v>
+        <v>Q123</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="5"/>
@@ -1664,17 +1695,17 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="16">
-        <f>'Financial Model'!V77</f>
-        <v>913.31200000000001</v>
+        <f>'Financial Model'!W77</f>
+        <v>914</v>
       </c>
       <c r="D10" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>Q422</v>
+        <v>Q123</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="5"/>
@@ -1693,17 +1724,17 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="16">
         <f>C9-C10</f>
-        <v>4139.6379999999999</v>
+        <v>3949</v>
       </c>
       <c r="D11" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>Q422</v>
+        <v>Q123</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="5"/>
@@ -1722,13 +1753,13 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="17">
         <f>C8-C11</f>
-        <v>57235.292352800003</v>
+        <v>69216.494799799999</v>
       </c>
       <c r="D12" s="19"/>
       <c r="G12" s="44">
@@ -1754,7 +1785,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="G13" s="12"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1774,7 +1805,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="G14" s="12"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1792,12 +1823,12 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="108" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B15" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="G15" s="12"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1815,17 +1846,17 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="115"/>
+      <c r="D16" s="105"/>
       <c r="G16" s="12"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1843,14 +1874,14 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="115"/>
+      <c r="D17" s="105"/>
       <c r="G17" s="12"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1863,14 +1894,14 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="114" t="s">
+      <c r="C18" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="115"/>
+      <c r="D18" s="105"/>
       <c r="G18" s="12"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1883,14 +1914,14 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="119"/>
+      <c r="D19" s="100"/>
       <c r="G19" s="12"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1903,7 +1934,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
       <c r="G20" s="12"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1916,7 +1947,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
       <c r="G21" s="12"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1929,12 +1960,12 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="108" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="109"/>
-      <c r="D22" s="110"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="103"/>
       <c r="G22" s="12"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1947,14 +1978,14 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="115"/>
+      <c r="D23" s="105"/>
       <c r="G23" s="12"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1967,14 +1998,14 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="114">
+      <c r="C24" s="104">
         <v>2004</v>
       </c>
-      <c r="D24" s="115"/>
+      <c r="D24" s="105"/>
       <c r="G24" s="12"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1987,14 +2018,14 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="114">
+      <c r="C25" s="104">
         <v>2015</v>
       </c>
-      <c r="D25" s="115"/>
+      <c r="D25" s="105"/>
       <c r="G25" s="12"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -2007,15 +2038,15 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B26" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="125">
-        <f>'Financial Model'!AC39</f>
+      <c r="C26" s="113">
+        <f>'Financial Model'!AD39</f>
         <v>11600</v>
       </c>
-      <c r="D26" s="115"/>
+      <c r="D26" s="105"/>
       <c r="G26" s="12"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -2028,10 +2059,10 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27" s="12"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="117"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="115"/>
       <c r="G27" s="12"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -2044,15 +2075,15 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="D28" s="42">
-        <v>42036</v>
+        <v>38108</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="5"/>
@@ -2066,14 +2097,14 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="113"/>
+      <c r="D29" s="112"/>
       <c r="G29" s="13"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -2086,78 +2117,72 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="108" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B32" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="109"/>
-      <c r="D32" s="110"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="104">
-        <f>C6/'Financial Model'!V74</f>
-        <v>7.4494182835574083</v>
-      </c>
-      <c r="D33" s="105"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="106">
+        <f>C6/'Financial Model'!W74</f>
+        <v>8.6514715383469305</v>
+      </c>
+      <c r="D33" s="107"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="104">
-        <f>C8/SUM('Financial Model'!S6:V6)</f>
-        <v>10.960075164825431</v>
-      </c>
-      <c r="D34" s="105"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="106">
+        <f>C8/SUM('Financial Model'!T6:W6)</f>
+        <v>12.392023767288633</v>
+      </c>
+      <c r="D34" s="107"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="104">
-        <f>C12/SUM('Financial Model'!S6:V6)</f>
-        <v>10.220836140449125</v>
-      </c>
-      <c r="D35" s="105"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="106">
+        <f>C12/SUM('Financial Model'!T6:W6)</f>
+        <v>11.723182505558293</v>
+      </c>
+      <c r="D35" s="107"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="104">
-        <f>C6/SUM('Financial Model'!S21:V21)</f>
-        <v>-3.6325285629149069</v>
-      </c>
-      <c r="D36" s="105"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="106">
+        <f>C6/SUM('Financial Model'!T21:W21)</f>
+        <v>-37.814244475197256</v>
+      </c>
+      <c r="D36" s="107"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="104">
-        <f>C12/SUM('Financial Model'!S20:V20)</f>
-        <v>-16.539993825254641</v>
-      </c>
-      <c r="D37" s="105"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="106">
+        <f>C12/SUM('Financial Model'!T20:W20)</f>
+        <v>-36.08766106527078</v>
+      </c>
+      <c r="D37" s="107"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="107"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -2174,6 +2199,12 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{2A54B12F-EBE0-4DCB-A8AD-3BBE3B84923D}"/>
@@ -2186,32 +2217,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123EB027-C354-42BF-BB7E-A89113FA6041}">
-  <dimension ref="B1:CI105"/>
+  <dimension ref="B1:CJ105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Q10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD39" sqref="AD39"/>
+      <selection pane="bottomRight" activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="9.140625" style="89"/>
-    <col min="24" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="9.140625" style="77"/>
-    <col min="30" max="30" width="9.140625" style="48"/>
-    <col min="31" max="39" width="9.140625" style="28"/>
-    <col min="40" max="40" width="9.140625" style="1"/>
-    <col min="41" max="41" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="22" width="9.1640625" style="1"/>
+    <col min="23" max="23" width="9.1640625" style="119"/>
+    <col min="24" max="29" width="9.1640625" style="1"/>
+    <col min="30" max="30" width="9.1640625" style="28"/>
+    <col min="31" max="31" width="9.1640625" style="48"/>
+    <col min="32" max="40" width="9.1640625" style="28"/>
+    <col min="41" max="41" width="9.1640625" style="1"/>
+    <col min="42" max="42" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:40" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="21" t="s">
         <v>29</v>
       </c>
@@ -2272,56 +2303,56 @@
       <c r="V1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="84" t="s">
+      <c r="W1" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AC1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="120" t="s">
+      <c r="AD1" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="49" t="s">
+      <c r="AE1" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="54" t="s">
+      <c r="AF1" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="54" t="s">
+      <c r="AG1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="54" t="s">
+      <c r="AH1" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="54" t="s">
+      <c r="AI1" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="54" t="s">
+      <c r="AJ1" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" s="54" t="s">
+      <c r="AK1" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" s="54" t="s">
+      <c r="AL1" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" s="54" t="s">
+      <c r="AM1" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="AM1" s="54" t="s">
+      <c r="AN1" s="54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:40" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="22"/>
       <c r="I2" s="26">
         <v>43738</v>
@@ -2356,17 +2387,18 @@
       <c r="V2" s="26">
         <v>44926</v>
       </c>
-      <c r="W2" s="85"/>
-      <c r="AB2" s="26">
+      <c r="W2" s="124">
+        <v>45291</v>
+      </c>
+      <c r="AC2" s="26">
         <f>R2</f>
         <v>44561</v>
       </c>
-      <c r="AC2" s="72">
+      <c r="AD2" s="72">
         <f>V2</f>
         <v>44926</v>
       </c>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="55"/>
+      <c r="AE2" s="50"/>
       <c r="AF2" s="55"/>
       <c r="AG2" s="55"/>
       <c r="AH2" s="55"/>
@@ -2375,8 +2407,9 @@
       <c r="AK2" s="55"/>
       <c r="AL2" s="55"/>
       <c r="AM2" s="55"/>
-    </row>
-    <row r="3" spans="2:39" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN2" s="55"/>
+    </row>
+    <row r="3" spans="2:40" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="22"/>
       <c r="M3" s="25">
         <v>47392</v>
@@ -2396,17 +2429,18 @@
       <c r="V3" s="25">
         <v>42036</v>
       </c>
-      <c r="W3" s="85"/>
-      <c r="AB3" s="25">
+      <c r="W3" s="123">
+        <v>38108</v>
+      </c>
+      <c r="AC3" s="25">
         <f>R3</f>
         <v>42401</v>
       </c>
-      <c r="AC3" s="73">
+      <c r="AD3" s="73">
         <f>V3</f>
         <v>42036</v>
       </c>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="55"/>
+      <c r="AE3" s="50"/>
       <c r="AF3" s="55"/>
       <c r="AG3" s="55"/>
       <c r="AH3" s="55"/>
@@ -2415,8 +2449,9 @@
       <c r="AK3" s="55"/>
       <c r="AL3" s="55"/>
       <c r="AM3" s="55"/>
-    </row>
-    <row r="4" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN3" s="55"/>
+    </row>
+    <row r="4" spans="2:40" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="30" t="s">
         <v>71</v>
       </c>
@@ -2453,18 +2488,20 @@
       <c r="V4" s="31">
         <v>400.25400000000002</v>
       </c>
-      <c r="W4" s="46"/>
-      <c r="AB4" s="31">
+      <c r="W4" s="116">
+        <v>382</v>
+      </c>
+      <c r="AC4" s="31">
         <f>SUM(O4:R4)</f>
         <v>1342.3340000000001</v>
       </c>
-      <c r="AC4" s="74">
-        <f t="shared" ref="AC4:AC9" si="0">SUM(S4:V4)</f>
+      <c r="AD4" s="31">
+        <f t="shared" ref="AD4:AD9" si="0">SUM(S4:V4)</f>
         <v>1487.759</v>
       </c>
-      <c r="AD4" s="46"/>
-    </row>
-    <row r="5" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE4" s="46"/>
+    </row>
+    <row r="5" spans="2:40" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="30" t="s">
         <v>72</v>
       </c>
@@ -2501,18 +2538,20 @@
       <c r="V5" s="31">
         <v>1334.7239999999999</v>
       </c>
-      <c r="W5" s="46"/>
-      <c r="AB5" s="31">
-        <f t="shared" ref="AB5:AB8" si="1">SUM(O5:R5)</f>
+      <c r="W5" s="116">
+        <v>1126</v>
+      </c>
+      <c r="AC5" s="31">
+        <f t="shared" ref="AC5:AC8" si="1">SUM(O5:R5)</f>
         <v>3269.5219999999999</v>
       </c>
-      <c r="AC5" s="74">
+      <c r="AD5" s="31">
         <f t="shared" si="0"/>
         <v>4112.1049999999996</v>
       </c>
-      <c r="AD5" s="46"/>
-    </row>
-    <row r="6" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE5" s="46"/>
+    </row>
+    <row r="6" spans="2:40" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="32" t="s">
         <v>73</v>
       </c>
@@ -2596,63 +2635,63 @@
         <f>V4+V5</f>
         <v>1734.9780000000001</v>
       </c>
-      <c r="W6" s="87">
-        <f>V6*(1+W24)</f>
-        <v>2220.7718400000003</v>
-      </c>
-      <c r="AA6" s="32">
+      <c r="W6" s="117">
+        <f>SUM(W4:W5)</f>
+        <v>1508</v>
+      </c>
+      <c r="AB6" s="32">
         <v>2929.491</v>
       </c>
-      <c r="AB6" s="32">
-        <f>AB4+AB5</f>
+      <c r="AC6" s="32">
+        <f>AC4+AC5</f>
         <v>4611.8559999999998</v>
       </c>
-      <c r="AC6" s="75">
+      <c r="AD6" s="56">
         <f t="shared" si="0"/>
         <v>5599.8640000000005</v>
       </c>
-      <c r="AD6" s="51">
-        <f>AC6*(1+AD24)</f>
+      <c r="AE6" s="51">
+        <f>AD6*(1+AE24)</f>
         <v>7279.8232000000007</v>
       </c>
-      <c r="AE6" s="56">
-        <f t="shared" ref="AE6:AM6" si="3">AD6*(1+AE24)</f>
+      <c r="AF6" s="56">
+        <f t="shared" ref="AF6:AN6" si="3">AE6*(1+AF24)</f>
         <v>10191.752480000001</v>
       </c>
-      <c r="AF6" s="56">
+      <c r="AG6" s="56">
         <f t="shared" si="3"/>
         <v>15287.628720000001</v>
       </c>
-      <c r="AG6" s="56">
+      <c r="AH6" s="56">
         <f t="shared" si="3"/>
         <v>22167.061644000001</v>
       </c>
-      <c r="AH6" s="56">
+      <c r="AI6" s="56">
         <f t="shared" si="3"/>
         <v>31033.8863016</v>
       </c>
-      <c r="AI6" s="56">
+      <c r="AJ6" s="56">
         <f t="shared" si="3"/>
         <v>40344.052192080002</v>
       </c>
-      <c r="AJ6" s="56">
+      <c r="AK6" s="56">
         <f t="shared" si="3"/>
         <v>48412.862630495998</v>
       </c>
-      <c r="AK6" s="56">
+      <c r="AL6" s="56">
         <f t="shared" si="3"/>
         <v>57127.177903985277</v>
       </c>
-      <c r="AL6" s="56">
+      <c r="AM6" s="56">
         <f t="shared" si="3"/>
         <v>64553.711031503357</v>
       </c>
-      <c r="AM6" s="56">
+      <c r="AN6" s="56">
         <f t="shared" si="3"/>
         <v>69718.007914023634</v>
       </c>
     </row>
-    <row r="7" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:40" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="30" t="s">
         <v>74</v>
       </c>
@@ -2689,18 +2728,20 @@
       <c r="V7" s="31">
         <v>85.771000000000001</v>
       </c>
-      <c r="W7" s="46"/>
-      <c r="AB7" s="31">
+      <c r="W7" s="116">
+        <v>84</v>
+      </c>
+      <c r="AC7" s="31">
         <f t="shared" si="1"/>
         <v>264.351</v>
       </c>
-      <c r="AC7" s="74">
+      <c r="AD7" s="31">
         <f t="shared" si="0"/>
         <v>330.86700000000002</v>
       </c>
-      <c r="AD7" s="46"/>
-    </row>
-    <row r="8" spans="2:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE7" s="46"/>
+    </row>
+    <row r="8" spans="2:40" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="30" t="s">
         <v>75</v>
       </c>
@@ -2737,18 +2778,20 @@
       <c r="V8" s="31">
         <v>850.69899999999996</v>
       </c>
-      <c r="W8" s="46"/>
-      <c r="AB8" s="31">
+      <c r="W8" s="116">
+        <v>707</v>
+      </c>
+      <c r="AC8" s="31">
         <f t="shared" si="1"/>
         <v>1866.3610000000001</v>
       </c>
-      <c r="AC8" s="74">
+      <c r="AD8" s="31">
         <f t="shared" si="0"/>
         <v>2514.8780000000002</v>
       </c>
-      <c r="AD8" s="46"/>
-    </row>
-    <row r="9" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE8" s="46"/>
+    </row>
+    <row r="9" spans="2:40" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="33" t="s">
         <v>76</v>
       </c>
@@ -2832,65 +2875,66 @@
         <f>V7+V8</f>
         <v>936.46999999999991</v>
       </c>
-      <c r="W9" s="81">
-        <f>W6*(1-W29)</f>
-        <v>1199.2167936000003</v>
+      <c r="W9" s="118">
+        <f>W7+W8</f>
+        <v>791</v>
       </c>
       <c r="X9" s="31"/>
       <c r="Y9" s="31"/>
-      <c r="AA9" s="33">
+      <c r="Z9" s="31"/>
+      <c r="AB9" s="33">
         <v>1387.971</v>
       </c>
-      <c r="AB9" s="33">
-        <f>AB7+AB8</f>
+      <c r="AC9" s="33">
+        <f>AC7+AC8</f>
         <v>2130.712</v>
       </c>
-      <c r="AC9" s="74">
+      <c r="AD9" s="31">
         <f t="shared" si="0"/>
         <v>2845.7449999999999</v>
       </c>
-      <c r="AD9" s="81">
-        <f t="shared" ref="AD9:AM9" si="5">AD6*(1-AD29)</f>
+      <c r="AE9" s="74">
+        <f t="shared" ref="AE9:AN9" si="5">AE6*(1-AE29)</f>
         <v>3785.5080640000006</v>
       </c>
-      <c r="AE9" s="33">
+      <c r="AF9" s="33">
         <f t="shared" si="5"/>
         <v>4993.9587152000004</v>
       </c>
-      <c r="AF9" s="33">
+      <c r="AG9" s="33">
         <f t="shared" si="5"/>
         <v>7490.9380728000006</v>
       </c>
-      <c r="AG9" s="33">
+      <c r="AH9" s="33">
         <f t="shared" si="5"/>
         <v>10640.18958912</v>
       </c>
-      <c r="AH9" s="33">
+      <c r="AI9" s="33">
         <f t="shared" si="5"/>
         <v>14585.926561752</v>
       </c>
-      <c r="AI9" s="33">
+      <c r="AJ9" s="33">
         <f t="shared" si="5"/>
         <v>18154.823486435998</v>
       </c>
-      <c r="AJ9" s="33">
+      <c r="AK9" s="33">
         <f t="shared" si="5"/>
         <v>21785.788183723198</v>
       </c>
-      <c r="AK9" s="33">
+      <c r="AL9" s="33">
         <f t="shared" si="5"/>
         <v>25707.230056793371</v>
       </c>
-      <c r="AL9" s="33">
+      <c r="AM9" s="33">
         <f t="shared" si="5"/>
         <v>29049.169964176508</v>
       </c>
-      <c r="AM9" s="33">
+      <c r="AN9" s="33">
         <f t="shared" si="5"/>
         <v>31373.103561310632</v>
       </c>
     </row>
-    <row r="10" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:40" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="32" t="s">
         <v>77</v>
       </c>
@@ -2974,64 +3018,64 @@
         <f>V6-V9</f>
         <v>798.50800000000015</v>
       </c>
-      <c r="W10" s="87">
+      <c r="W10" s="117">
         <f>W6-W9</f>
-        <v>1021.5550464</v>
-      </c>
-      <c r="AA10" s="32">
-        <f>AA6-AA9</f>
-        <v>1541.52</v>
+        <v>717</v>
       </c>
       <c r="AB10" s="32">
         <f>AB6-AB9</f>
+        <v>1541.52</v>
+      </c>
+      <c r="AC10" s="32">
+        <f>AC6-AC9</f>
         <v>2481.1439999999998</v>
       </c>
-      <c r="AC10" s="75">
-        <f>AC6-AC9</f>
+      <c r="AD10" s="56">
+        <f>AD6-AD9</f>
         <v>2754.1190000000006</v>
       </c>
-      <c r="AD10" s="51">
-        <f>AD6-AD9</f>
+      <c r="AE10" s="51">
+        <f>AE6-AE9</f>
         <v>3494.3151360000002</v>
       </c>
-      <c r="AE10" s="56">
-        <f t="shared" ref="AE10:AM10" si="7">AE6-AE9</f>
+      <c r="AF10" s="56">
+        <f t="shared" ref="AF10:AN10" si="7">AF6-AF9</f>
         <v>5197.7937648000006</v>
       </c>
-      <c r="AF10" s="56">
+      <c r="AG10" s="56">
         <f t="shared" si="7"/>
         <v>7796.6906472000001</v>
       </c>
-      <c r="AG10" s="56">
+      <c r="AH10" s="56">
         <f t="shared" si="7"/>
         <v>11526.872054880001</v>
       </c>
-      <c r="AH10" s="56">
+      <c r="AI10" s="56">
         <f t="shared" si="7"/>
         <v>16447.959739848</v>
       </c>
-      <c r="AI10" s="56">
+      <c r="AJ10" s="56">
         <f t="shared" si="7"/>
         <v>22189.228705644004</v>
       </c>
-      <c r="AJ10" s="56">
+      <c r="AK10" s="56">
         <f t="shared" si="7"/>
         <v>26627.0744467728</v>
       </c>
-      <c r="AK10" s="56">
+      <c r="AL10" s="56">
         <f t="shared" si="7"/>
         <v>31419.947847191906</v>
       </c>
-      <c r="AL10" s="56">
+      <c r="AM10" s="56">
         <f t="shared" si="7"/>
         <v>35504.541067326849</v>
       </c>
-      <c r="AM10" s="56">
+      <c r="AN10" s="56">
         <f t="shared" si="7"/>
         <v>38344.904352712998</v>
       </c>
     </row>
-    <row r="11" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:40" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="33" t="s">
         <v>78</v>
       </c>
@@ -3068,60 +3112,63 @@
       <c r="V11" s="33">
         <v>297.74099999999999</v>
       </c>
-      <c r="W11" s="81"/>
+      <c r="W11" s="118">
+        <v>287</v>
+      </c>
       <c r="X11" s="36"/>
       <c r="Y11" s="36"/>
       <c r="Z11" s="36"/>
-      <c r="AB11" s="33">
+      <c r="AA11" s="36"/>
+      <c r="AC11" s="33">
         <f>SUM(O11:R11)</f>
         <v>901.55700000000013</v>
       </c>
-      <c r="AC11" s="74">
+      <c r="AD11" s="31">
         <f>SUM(S11:V11)</f>
         <v>1230.4899999999998</v>
       </c>
-      <c r="AD11" s="81">
-        <f>AD6*0.18</f>
+      <c r="AE11" s="74">
+        <f>AE6*0.18</f>
         <v>1310.3681760000002</v>
       </c>
-      <c r="AE11" s="33">
-        <f>AE6*0.15</f>
+      <c r="AF11" s="33">
+        <f>AF6*0.15</f>
         <v>1528.762872</v>
       </c>
-      <c r="AF11" s="33">
-        <f t="shared" ref="AF11:AG11" si="8">AF6*0.15</f>
+      <c r="AG11" s="33">
+        <f t="shared" ref="AG11:AH11" si="8">AG6*0.15</f>
         <v>2293.1443079999999</v>
       </c>
-      <c r="AG11" s="33">
+      <c r="AH11" s="33">
         <f t="shared" si="8"/>
         <v>3325.0592466000003</v>
       </c>
-      <c r="AH11" s="33">
-        <f>AH6*0.1</f>
+      <c r="AI11" s="33">
+        <f>AI6*0.1</f>
         <v>3103.38863016</v>
       </c>
-      <c r="AI11" s="33">
-        <f t="shared" ref="AI11:AM11" si="9">AI6*0.1</f>
+      <c r="AJ11" s="33">
+        <f t="shared" ref="AJ11:AN11" si="9">AJ6*0.1</f>
         <v>4034.4052192080003</v>
       </c>
-      <c r="AJ11" s="33">
+      <c r="AK11" s="33">
         <f t="shared" si="9"/>
         <v>4841.2862630496002</v>
       </c>
-      <c r="AK11" s="33">
+      <c r="AL11" s="33">
         <f t="shared" si="9"/>
         <v>5712.7177903985285</v>
       </c>
-      <c r="AL11" s="33">
+      <c r="AM11" s="33">
         <f t="shared" si="9"/>
         <v>6455.3711031503362</v>
       </c>
-      <c r="AM11" s="33">
+      <c r="AN11" s="33">
         <f t="shared" si="9"/>
         <v>6971.8007914023638</v>
       </c>
     </row>
-    <row r="12" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:40" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="33" t="s">
         <v>79</v>
       </c>
@@ -3158,57 +3205,59 @@
       <c r="V12" s="33">
         <v>440.54700000000003</v>
       </c>
-      <c r="W12" s="81"/>
-      <c r="AB12" s="33">
-        <f t="shared" ref="AB12:AB14" si="10">SUM(O12:R12)</f>
+      <c r="W12" s="118">
+        <v>458</v>
+      </c>
+      <c r="AC12" s="33">
+        <f t="shared" ref="AC12:AC14" si="10">SUM(O12:R12)</f>
         <v>854.38300000000004</v>
       </c>
-      <c r="AC12" s="74">
-        <f t="shared" ref="AC12:AC19" si="11">SUM(S12:V12)</f>
+      <c r="AD12" s="31">
+        <f t="shared" ref="AD12:AD19" si="11">SUM(S12:V12)</f>
         <v>1503.2339999999999</v>
       </c>
-      <c r="AD12" s="46">
-        <f>AD6*AD36</f>
+      <c r="AE12" s="46">
+        <f>AE6*AE36</f>
         <v>1819.9558000000002</v>
       </c>
-      <c r="AE12" s="31">
-        <f t="shared" ref="AE12:AM12" si="12">AE6*AE36</f>
+      <c r="AF12" s="31">
+        <f t="shared" ref="AF12:AN12" si="12">AF6*AF36</f>
         <v>2547.9381200000003</v>
       </c>
-      <c r="AF12" s="31">
+      <c r="AG12" s="31">
         <f t="shared" si="12"/>
         <v>3057.5257440000005</v>
       </c>
-      <c r="AG12" s="31">
+      <c r="AH12" s="31">
         <f t="shared" si="12"/>
         <v>3990.0710959200001</v>
       </c>
-      <c r="AH12" s="31">
+      <c r="AI12" s="31">
         <f t="shared" si="12"/>
         <v>5586.0995342879996</v>
       </c>
-      <c r="AI12" s="31">
+      <c r="AJ12" s="31">
         <f t="shared" si="12"/>
         <v>6051.6078288119998</v>
       </c>
-      <c r="AJ12" s="31">
+      <c r="AK12" s="31">
         <f t="shared" si="12"/>
         <v>7261.9293945743993</v>
       </c>
-      <c r="AK12" s="31">
+      <c r="AL12" s="31">
         <f t="shared" si="12"/>
         <v>8569.0766855977909</v>
       </c>
-      <c r="AL12" s="31">
+      <c r="AM12" s="31">
         <f t="shared" si="12"/>
         <v>9683.0566547255039</v>
       </c>
-      <c r="AM12" s="31">
+      <c r="AN12" s="31">
         <f t="shared" si="12"/>
         <v>10457.701187103545</v>
       </c>
     </row>
-    <row r="13" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:40" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="33" t="s">
         <v>80</v>
       </c>
@@ -3245,59 +3294,62 @@
       <c r="V13" s="33">
         <v>214.65100000000001</v>
       </c>
-      <c r="W13" s="101"/>
+      <c r="W13" s="118">
+        <v>123</v>
+      </c>
       <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
-      <c r="AB13" s="33">
+      <c r="Z13" s="36"/>
+      <c r="AC13" s="33">
         <f t="shared" si="10"/>
         <v>374.84399999999994</v>
       </c>
-      <c r="AC13" s="74">
+      <c r="AD13" s="31">
         <f t="shared" si="11"/>
         <v>707.7650000000001</v>
       </c>
-      <c r="AD13" s="46">
-        <f>AD6*0.28</f>
+      <c r="AE13" s="46">
+        <f>AE6*0.28</f>
         <v>2038.3504960000005</v>
       </c>
-      <c r="AE13" s="31">
-        <f>AE6*0.28</f>
+      <c r="AF13" s="31">
+        <f>AF6*0.28</f>
         <v>2853.6906944000007</v>
       </c>
-      <c r="AF13" s="31">
-        <f>AF6*0.225</f>
+      <c r="AG13" s="31">
+        <f>AG6*0.225</f>
         <v>3439.7164620000003</v>
       </c>
-      <c r="AG13" s="31">
-        <f t="shared" ref="AG13:AM13" si="13">AG6*0.225</f>
+      <c r="AH13" s="31">
+        <f t="shared" ref="AH13:AN13" si="13">AH6*0.225</f>
         <v>4987.5888699000006</v>
       </c>
-      <c r="AH13" s="31">
+      <c r="AI13" s="31">
         <f t="shared" si="13"/>
         <v>6982.62441786</v>
       </c>
-      <c r="AI13" s="31">
+      <c r="AJ13" s="31">
         <f t="shared" si="13"/>
         <v>9077.411743218001</v>
       </c>
-      <c r="AJ13" s="31">
+      <c r="AK13" s="31">
         <f t="shared" si="13"/>
         <v>10892.894091861599</v>
       </c>
-      <c r="AK13" s="31">
+      <c r="AL13" s="31">
         <f t="shared" si="13"/>
         <v>12853.615028396687</v>
       </c>
-      <c r="AL13" s="31">
+      <c r="AM13" s="31">
         <f t="shared" si="13"/>
         <v>14524.584982088256</v>
       </c>
-      <c r="AM13" s="31">
+      <c r="AN13" s="31">
         <f t="shared" si="13"/>
         <v>15686.551780655318</v>
       </c>
     </row>
-    <row r="14" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:40" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="33" t="s">
         <v>81</v>
       </c>
@@ -3334,25 +3386,23 @@
       <c r="V14" s="33">
         <v>34.317999999999998</v>
       </c>
-      <c r="W14" s="81"/>
-      <c r="AB14" s="33">
+      <c r="W14" s="118">
+        <v>42</v>
+      </c>
+      <c r="AC14" s="33">
         <f t="shared" si="10"/>
         <v>81.716999999999999</v>
       </c>
-      <c r="AC14" s="74">
+      <c r="AD14" s="31">
         <f t="shared" si="11"/>
         <v>134.929</v>
       </c>
-      <c r="AD14" s="46">
-        <f>AVERAGE(Y14:AC14)</f>
+      <c r="AE14" s="46">
+        <f>AVERAGE(Z14:AD14)</f>
         <v>108.32300000000001</v>
       </c>
-      <c r="AE14" s="31">
-        <f t="shared" ref="AE14:AM14" si="14">AVERAGE(Z14:AD14)</f>
-        <v>108.32300000000002</v>
-      </c>
       <c r="AF14" s="31">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AF14:AN14" si="14">AVERAGE(AA14:AE14)</f>
         <v>108.32300000000002</v>
       </c>
       <c r="AG14" s="31">
@@ -3361,30 +3411,34 @@
       </c>
       <c r="AH14" s="31">
         <f t="shared" si="14"/>
-        <v>113.64420000000003</v>
+        <v>108.32300000000002</v>
       </c>
       <c r="AI14" s="31">
         <f t="shared" si="14"/>
-        <v>109.38724000000002</v>
+        <v>113.64420000000003</v>
       </c>
       <c r="AJ14" s="31">
         <f t="shared" si="14"/>
-        <v>109.600088</v>
+        <v>109.38724000000002</v>
       </c>
       <c r="AK14" s="31">
         <f t="shared" si="14"/>
-        <v>109.85550560000001</v>
+        <v>109.600088</v>
       </c>
       <c r="AL14" s="31">
         <f t="shared" si="14"/>
-        <v>110.16200672000002</v>
+        <v>109.85550560000001</v>
       </c>
       <c r="AM14" s="31">
         <f t="shared" si="14"/>
+        <v>110.16200672000002</v>
+      </c>
+      <c r="AN14" s="31">
+        <f t="shared" si="14"/>
         <v>110.52980806400001</v>
       </c>
     </row>
-    <row r="15" spans="2:39" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:40" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="33" t="s">
         <v>82</v>
       </c>
@@ -3465,60 +3519,63 @@
         <v>1007.6980000000001</v>
       </c>
       <c r="V15" s="33">
-        <f t="shared" ref="V15" si="16">SUM(V11:V14)</f>
+        <f t="shared" ref="V15:W15" si="16">SUM(V11:V14)</f>
         <v>987.25700000000006</v>
       </c>
-      <c r="W15" s="81"/>
-      <c r="AB15" s="33">
-        <f>SUM(AB11:AB14)</f>
+      <c r="W15" s="33">
+        <f t="shared" si="16"/>
+        <v>910</v>
+      </c>
+      <c r="AC15" s="33">
+        <f>SUM(AC11:AC14)</f>
         <v>2212.5010000000002</v>
       </c>
-      <c r="AC15" s="74">
-        <f>SUM(AC11:AC14)</f>
+      <c r="AD15" s="31">
+        <f>SUM(AD11:AD14)</f>
         <v>3576.4179999999997</v>
       </c>
-      <c r="AD15" s="46">
-        <f t="shared" ref="AD15:AM15" si="17">SUM(AD11:AD14)</f>
+      <c r="AE15" s="46">
+        <f t="shared" ref="AE15:AN15" si="17">SUM(AE11:AE14)</f>
         <v>5276.9974720000009</v>
       </c>
-      <c r="AE15" s="31">
+      <c r="AF15" s="31">
         <f t="shared" si="17"/>
         <v>7038.7146864000006</v>
       </c>
-      <c r="AF15" s="31">
+      <c r="AG15" s="31">
         <f t="shared" si="17"/>
         <v>8898.7095140000019</v>
       </c>
-      <c r="AG15" s="31">
+      <c r="AH15" s="31">
         <f t="shared" si="17"/>
         <v>12411.042212420001</v>
       </c>
-      <c r="AH15" s="31">
+      <c r="AI15" s="31">
         <f t="shared" si="17"/>
         <v>15785.756782308001</v>
       </c>
-      <c r="AI15" s="31">
+      <c r="AJ15" s="31">
         <f t="shared" si="17"/>
         <v>19272.812031238002</v>
       </c>
-      <c r="AJ15" s="31">
+      <c r="AK15" s="31">
         <f t="shared" si="17"/>
         <v>23105.7098374856</v>
       </c>
-      <c r="AK15" s="31">
+      <c r="AL15" s="31">
         <f t="shared" si="17"/>
         <v>27245.265009993007</v>
       </c>
-      <c r="AL15" s="31">
+      <c r="AM15" s="31">
         <f t="shared" si="17"/>
         <v>30773.174746684097</v>
       </c>
-      <c r="AM15" s="31">
+      <c r="AN15" s="31">
         <f t="shared" si="17"/>
         <v>33226.583567225221</v>
       </c>
     </row>
-    <row r="16" spans="2:39" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:40" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
         <v>83</v>
       </c>
@@ -3599,60 +3656,63 @@
         <v>-345.36599999999999</v>
       </c>
       <c r="V16" s="32">
-        <f t="shared" ref="V16" si="19">V10-V15</f>
+        <f t="shared" ref="V16:W16" si="19">V10-V15</f>
         <v>-188.74899999999991</v>
       </c>
-      <c r="W16" s="87"/>
-      <c r="AB16" s="32">
-        <f>AB10-AB15</f>
+      <c r="W16" s="32">
+        <f t="shared" si="19"/>
+        <v>-193</v>
+      </c>
+      <c r="AC16" s="32">
+        <f>AC10-AC15</f>
         <v>268.64299999999957</v>
       </c>
-      <c r="AC16" s="75">
-        <f>AC10-AC15</f>
+      <c r="AD16" s="56">
+        <f>AD10-AD15</f>
         <v>-822.29899999999907</v>
       </c>
-      <c r="AD16" s="51">
-        <f t="shared" ref="AD16:AM16" si="20">AD10-AD15</f>
+      <c r="AE16" s="51">
+        <f t="shared" ref="AE16:AN16" si="20">AE10-AE15</f>
         <v>-1782.6823360000008</v>
       </c>
-      <c r="AE16" s="56">
+      <c r="AF16" s="56">
         <f t="shared" si="20"/>
         <v>-1840.9209215999999</v>
       </c>
-      <c r="AF16" s="56">
+      <c r="AG16" s="56">
         <f t="shared" si="20"/>
         <v>-1102.0188668000019</v>
       </c>
-      <c r="AG16" s="56">
+      <c r="AH16" s="56">
         <f t="shared" si="20"/>
         <v>-884.17015754000022</v>
       </c>
-      <c r="AH16" s="56">
+      <c r="AI16" s="56">
         <f t="shared" si="20"/>
         <v>662.20295753999926</v>
       </c>
-      <c r="AI16" s="56">
+      <c r="AJ16" s="56">
         <f t="shared" si="20"/>
         <v>2916.4166744060021</v>
       </c>
-      <c r="AJ16" s="56">
+      <c r="AK16" s="56">
         <f t="shared" si="20"/>
         <v>3521.3646092872004</v>
       </c>
-      <c r="AK16" s="56">
+      <c r="AL16" s="56">
         <f t="shared" si="20"/>
         <v>4174.6828371988995</v>
       </c>
-      <c r="AL16" s="56">
+      <c r="AM16" s="56">
         <f t="shared" si="20"/>
         <v>4731.3663206427518</v>
       </c>
-      <c r="AM16" s="56">
+      <c r="AN16" s="56">
         <f t="shared" si="20"/>
         <v>5118.3207854877764</v>
       </c>
     </row>
-    <row r="17" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:88" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="33" t="s">
         <v>84</v>
       </c>
@@ -3689,25 +3749,23 @@
       <c r="V17" s="33">
         <v>-425.85899999999998</v>
       </c>
-      <c r="W17" s="81"/>
-      <c r="AB17" s="33">
-        <f t="shared" ref="AB17" si="21">SUM(O17:R17)</f>
+      <c r="W17" s="118">
+        <v>269</v>
+      </c>
+      <c r="AC17" s="33">
+        <f t="shared" ref="AC17" si="21">SUM(O17:R17)</f>
         <v>2871.9490000000001</v>
       </c>
-      <c r="AC17" s="74">
+      <c r="AD17" s="31">
         <f t="shared" si="11"/>
         <v>-2800.549</v>
       </c>
-      <c r="AD17" s="46">
-        <f>AVERAGE(Y17:AC17)</f>
+      <c r="AE17" s="46">
+        <f>AVERAGE(Z17:AD17)</f>
         <v>35.700000000000045</v>
       </c>
-      <c r="AE17" s="31">
-        <f t="shared" ref="AE17:AM17" si="22">AVERAGE(Z17:AD17)</f>
-        <v>35.700000000000045</v>
-      </c>
       <c r="AF17" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AF17:AN17" si="22">AVERAGE(AA17:AE17)</f>
         <v>35.700000000000045</v>
       </c>
       <c r="AG17" s="31">
@@ -3716,30 +3774,34 @@
       </c>
       <c r="AH17" s="31">
         <f t="shared" si="22"/>
-        <v>-531.54980000000012</v>
+        <v>35.700000000000045</v>
       </c>
       <c r="AI17" s="31">
         <f t="shared" si="22"/>
-        <v>-77.749959999999987</v>
+        <v>-531.54980000000012</v>
       </c>
       <c r="AJ17" s="31">
         <f t="shared" si="22"/>
-        <v>-100.43995199999999</v>
+        <v>-77.749959999999987</v>
       </c>
       <c r="AK17" s="31">
         <f t="shared" si="22"/>
-        <v>-127.66794239999999</v>
+        <v>-100.43995199999999</v>
       </c>
       <c r="AL17" s="31">
         <f t="shared" si="22"/>
-        <v>-160.34153087999999</v>
+        <v>-127.66794239999999</v>
       </c>
       <c r="AM17" s="31">
         <f t="shared" si="22"/>
+        <v>-160.34153087999999</v>
+      </c>
+      <c r="AN17" s="31">
+        <f t="shared" si="22"/>
         <v>-199.54983705600003</v>
       </c>
     </row>
-    <row r="18" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:88" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="33" t="s">
         <v>85</v>
       </c>
@@ -3820,60 +3882,63 @@
         <v>-157.13299999999998</v>
       </c>
       <c r="V18" s="33">
-        <f t="shared" ref="V18" si="24">V16+V17</f>
+        <f t="shared" ref="V18:W18" si="24">V16+V17</f>
         <v>-614.60799999999995</v>
       </c>
-      <c r="W18" s="81"/>
-      <c r="AB18" s="33">
-        <f>AB16+AB17</f>
+      <c r="W18" s="33">
+        <f t="shared" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="AC18" s="33">
+        <f>AC16+AC17</f>
         <v>3140.5919999999996</v>
       </c>
-      <c r="AC18" s="74">
-        <f>AC16+AC17</f>
+      <c r="AD18" s="31">
+        <f>AD16+AD17</f>
         <v>-3622.847999999999</v>
       </c>
-      <c r="AD18" s="46">
-        <f t="shared" ref="AD18:AM18" si="25">AD16+AD17</f>
+      <c r="AE18" s="46">
+        <f t="shared" ref="AE18:AN18" si="25">AE16+AE17</f>
         <v>-1746.9823360000007</v>
       </c>
-      <c r="AE18" s="31">
+      <c r="AF18" s="31">
         <f t="shared" si="25"/>
         <v>-1805.2209215999999</v>
       </c>
-      <c r="AF18" s="31">
+      <c r="AG18" s="31">
         <f t="shared" si="25"/>
         <v>-1066.3188668000018</v>
       </c>
-      <c r="AG18" s="31">
+      <c r="AH18" s="31">
         <f t="shared" si="25"/>
         <v>-848.47015754000017</v>
       </c>
-      <c r="AH18" s="31">
+      <c r="AI18" s="31">
         <f t="shared" si="25"/>
         <v>130.65315753999914</v>
       </c>
-      <c r="AI18" s="31">
+      <c r="AJ18" s="31">
         <f t="shared" si="25"/>
         <v>2838.666714406002</v>
       </c>
-      <c r="AJ18" s="31">
+      <c r="AK18" s="31">
         <f t="shared" si="25"/>
         <v>3420.9246572872003</v>
       </c>
-      <c r="AK18" s="31">
+      <c r="AL18" s="31">
         <f t="shared" si="25"/>
         <v>4047.0148947988996</v>
       </c>
-      <c r="AL18" s="31">
+      <c r="AM18" s="31">
         <f t="shared" si="25"/>
         <v>4571.0247897627514</v>
       </c>
-      <c r="AM18" s="31">
+      <c r="AN18" s="31">
         <f t="shared" si="25"/>
         <v>4918.7709484317766</v>
       </c>
     </row>
-    <row r="19" spans="2:87" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:88" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="33" t="s">
         <v>86</v>
       </c>
@@ -3910,57 +3975,59 @@
       <c r="V19" s="33">
         <v>9.0860000000000003</v>
       </c>
-      <c r="W19" s="81"/>
-      <c r="AB19" s="33">
-        <f t="shared" ref="AB19" si="26">SUM(O19:R19)</f>
+      <c r="W19" s="118">
+        <v>8</v>
+      </c>
+      <c r="AC19" s="33">
+        <f t="shared" ref="AC19" si="26">SUM(O19:R19)</f>
         <v>225.93299999999999</v>
       </c>
-      <c r="AC19" s="74">
+      <c r="AD19" s="31">
         <f t="shared" si="11"/>
         <v>-162.42999999999998</v>
       </c>
-      <c r="AD19" s="46">
-        <f>AD18*AD36</f>
+      <c r="AE19" s="46">
+        <f>AE18*AE36</f>
         <v>-436.74558400000018</v>
       </c>
-      <c r="AE19" s="31">
-        <f t="shared" ref="AE19:AM19" si="27">AE18*AE36</f>
+      <c r="AF19" s="31">
+        <f t="shared" ref="AF19:AN19" si="27">AF18*AF36</f>
         <v>-451.30523039999997</v>
       </c>
-      <c r="AF19" s="31">
+      <c r="AG19" s="31">
         <f t="shared" si="27"/>
         <v>-213.26377336000039</v>
       </c>
-      <c r="AG19" s="31">
+      <c r="AH19" s="31">
         <f t="shared" si="27"/>
         <v>-152.72462835720003</v>
       </c>
-      <c r="AH19" s="31">
+      <c r="AI19" s="31">
         <f t="shared" si="27"/>
         <v>23.517568357199846</v>
       </c>
-      <c r="AI19" s="31">
+      <c r="AJ19" s="31">
         <f t="shared" si="27"/>
         <v>425.80000716090029</v>
       </c>
-      <c r="AJ19" s="31">
+      <c r="AK19" s="31">
         <f t="shared" si="27"/>
         <v>513.13869859307999</v>
       </c>
-      <c r="AK19" s="31">
+      <c r="AL19" s="31">
         <f t="shared" si="27"/>
         <v>607.05223421983487</v>
       </c>
-      <c r="AL19" s="31">
+      <c r="AM19" s="31">
         <f t="shared" si="27"/>
         <v>685.65371846441269</v>
       </c>
-      <c r="AM19" s="31">
+      <c r="AN19" s="31">
         <f t="shared" si="27"/>
         <v>737.81564226476644</v>
       </c>
     </row>
-    <row r="20" spans="2:87" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:88" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="32" t="s">
         <v>87</v>
       </c>
@@ -4041,252 +4108,255 @@
         <v>-158.40899999999999</v>
       </c>
       <c r="V20" s="32">
-        <f t="shared" ref="V20" si="29">V18-V19</f>
+        <f t="shared" ref="V20:W20" si="29">V18-V19</f>
         <v>-623.69399999999996</v>
       </c>
-      <c r="W20" s="87"/>
-      <c r="AB20" s="32">
-        <f>AB18-AB19</f>
+      <c r="W20" s="32">
+        <f t="shared" si="29"/>
+        <v>68</v>
+      </c>
+      <c r="AC20" s="32">
+        <f>AC18-AC19</f>
         <v>2914.6589999999997</v>
       </c>
-      <c r="AC20" s="75">
-        <f>AC18-AC19</f>
+      <c r="AD20" s="56">
+        <f>AD18-AD19</f>
         <v>-3460.4179999999992</v>
       </c>
-      <c r="AD20" s="51">
-        <f t="shared" ref="AD20:AM20" si="30">AD18-AD19</f>
+      <c r="AE20" s="51">
+        <f t="shared" ref="AE20:AN20" si="30">AE18-AE19</f>
         <v>-1310.2367520000005</v>
       </c>
-      <c r="AE20" s="56">
+      <c r="AF20" s="56">
         <f t="shared" si="30"/>
         <v>-1353.9156911999999</v>
       </c>
-      <c r="AF20" s="56">
+      <c r="AG20" s="56">
         <f t="shared" si="30"/>
         <v>-853.05509344000143</v>
       </c>
-      <c r="AG20" s="56">
+      <c r="AH20" s="56">
         <f t="shared" si="30"/>
         <v>-695.74552918280017</v>
       </c>
-      <c r="AH20" s="56">
+      <c r="AI20" s="56">
         <f t="shared" si="30"/>
         <v>107.13558918279929</v>
       </c>
-      <c r="AI20" s="56">
+      <c r="AJ20" s="56">
         <f t="shared" si="30"/>
         <v>2412.8667072451017</v>
       </c>
-      <c r="AJ20" s="56">
+      <c r="AK20" s="56">
         <f t="shared" si="30"/>
         <v>2907.7859586941204</v>
       </c>
-      <c r="AK20" s="56">
+      <c r="AL20" s="56">
         <f t="shared" si="30"/>
         <v>3439.9626605790645</v>
       </c>
-      <c r="AL20" s="56">
+      <c r="AM20" s="56">
         <f t="shared" si="30"/>
         <v>3885.3710712983388</v>
       </c>
-      <c r="AM20" s="56">
+      <c r="AN20" s="56">
         <f t="shared" si="30"/>
         <v>4180.9553061670103</v>
       </c>
-      <c r="AN20" s="32">
-        <f>AM20*(1+$AP$23)</f>
+      <c r="AO20" s="32">
+        <f>AN20*(1+$AQ$23)</f>
         <v>4264.5744122903507</v>
       </c>
-      <c r="AO20" s="32">
-        <f t="shared" ref="AO20:CI20" si="31">AN20*(1+$AP$23)</f>
+      <c r="AP20" s="32">
+        <f t="shared" ref="AP20:CJ20" si="31">AO20*(1+$AQ$23)</f>
         <v>4349.8659005361578</v>
       </c>
-      <c r="AP20" s="32">
+      <c r="AQ20" s="32">
         <f t="shared" si="31"/>
         <v>4436.8632185468814</v>
       </c>
-      <c r="AQ20" s="32">
+      <c r="AR20" s="32">
         <f t="shared" si="31"/>
         <v>4525.6004829178191</v>
       </c>
-      <c r="AR20" s="32">
+      <c r="AS20" s="32">
         <f t="shared" si="31"/>
         <v>4616.112492576176</v>
       </c>
-      <c r="AS20" s="32">
+      <c r="AT20" s="32">
         <f t="shared" si="31"/>
         <v>4708.4347424276993</v>
       </c>
-      <c r="AT20" s="32">
+      <c r="AU20" s="32">
         <f t="shared" si="31"/>
         <v>4802.6034372762533</v>
       </c>
-      <c r="AU20" s="32">
+      <c r="AV20" s="32">
         <f t="shared" si="31"/>
         <v>4898.6555060217788</v>
       </c>
-      <c r="AV20" s="32">
+      <c r="AW20" s="32">
         <f t="shared" si="31"/>
         <v>4996.6286161422149</v>
       </c>
-      <c r="AW20" s="32">
+      <c r="AX20" s="32">
         <f t="shared" si="31"/>
         <v>5096.5611884650589</v>
       </c>
-      <c r="AX20" s="32">
+      <c r="AY20" s="32">
         <f t="shared" si="31"/>
         <v>5198.49241223436</v>
       </c>
-      <c r="AY20" s="32">
+      <c r="AZ20" s="32">
         <f t="shared" si="31"/>
         <v>5302.4622604790475</v>
       </c>
-      <c r="AZ20" s="32">
+      <c r="BA20" s="32">
         <f t="shared" si="31"/>
         <v>5408.5115056886289</v>
       </c>
-      <c r="BA20" s="32">
+      <c r="BB20" s="32">
         <f t="shared" si="31"/>
         <v>5516.6817358024018</v>
       </c>
-      <c r="BB20" s="32">
+      <c r="BC20" s="32">
         <f t="shared" si="31"/>
         <v>5627.0153705184503</v>
       </c>
-      <c r="BC20" s="32">
+      <c r="BD20" s="32">
         <f t="shared" si="31"/>
         <v>5739.555677928819</v>
       </c>
-      <c r="BD20" s="32">
+      <c r="BE20" s="32">
         <f t="shared" si="31"/>
         <v>5854.3467914873954</v>
       </c>
-      <c r="BE20" s="32">
+      <c r="BF20" s="32">
         <f t="shared" si="31"/>
         <v>5971.4337273171432</v>
       </c>
-      <c r="BF20" s="32">
+      <c r="BG20" s="32">
         <f t="shared" si="31"/>
         <v>6090.8624018634864</v>
       </c>
-      <c r="BG20" s="32">
+      <c r="BH20" s="32">
         <f t="shared" si="31"/>
         <v>6212.679649900756</v>
       </c>
-      <c r="BH20" s="32">
+      <c r="BI20" s="32">
         <f t="shared" si="31"/>
         <v>6336.9332428987709</v>
       </c>
-      <c r="BI20" s="32">
+      <c r="BJ20" s="32">
         <f t="shared" si="31"/>
         <v>6463.6719077567468</v>
       </c>
-      <c r="BJ20" s="32">
+      <c r="BK20" s="32">
         <f t="shared" si="31"/>
         <v>6592.9453459118822</v>
       </c>
-      <c r="BK20" s="32">
+      <c r="BL20" s="32">
         <f t="shared" si="31"/>
         <v>6724.8042528301203</v>
       </c>
-      <c r="BL20" s="32">
+      <c r="BM20" s="32">
         <f t="shared" si="31"/>
         <v>6859.3003378867224</v>
       </c>
-      <c r="BM20" s="32">
+      <c r="BN20" s="32">
         <f t="shared" si="31"/>
         <v>6996.4863446444569</v>
       </c>
-      <c r="BN20" s="32">
+      <c r="BO20" s="32">
         <f t="shared" si="31"/>
         <v>7136.4160715373464</v>
       </c>
-      <c r="BO20" s="32">
+      <c r="BP20" s="32">
         <f t="shared" si="31"/>
         <v>7279.1443929680936</v>
       </c>
-      <c r="BP20" s="32">
+      <c r="BQ20" s="32">
         <f t="shared" si="31"/>
         <v>7424.7272808274556</v>
       </c>
-      <c r="BQ20" s="32">
+      <c r="BR20" s="32">
         <f t="shared" si="31"/>
         <v>7573.2218264440053</v>
       </c>
-      <c r="BR20" s="32">
+      <c r="BS20" s="32">
         <f t="shared" si="31"/>
         <v>7724.6862629728857</v>
       </c>
-      <c r="BS20" s="32">
+      <c r="BT20" s="32">
         <f t="shared" si="31"/>
         <v>7879.1799882323439</v>
       </c>
-      <c r="BT20" s="32">
+      <c r="BU20" s="32">
         <f t="shared" si="31"/>
         <v>8036.7635879969912</v>
       </c>
-      <c r="BU20" s="32">
+      <c r="BV20" s="32">
         <f t="shared" si="31"/>
         <v>8197.4988597569318</v>
       </c>
-      <c r="BV20" s="32">
+      <c r="BW20" s="32">
         <f t="shared" si="31"/>
         <v>8361.4488369520714</v>
       </c>
-      <c r="BW20" s="32">
+      <c r="BX20" s="32">
         <f t="shared" si="31"/>
         <v>8528.6778136911125</v>
       </c>
-      <c r="BX20" s="32">
+      <c r="BY20" s="32">
         <f t="shared" si="31"/>
         <v>8699.2513699649353</v>
       </c>
-      <c r="BY20" s="32">
+      <c r="BZ20" s="32">
         <f t="shared" si="31"/>
         <v>8873.236397364235</v>
       </c>
-      <c r="BZ20" s="32">
+      <c r="CA20" s="32">
         <f t="shared" si="31"/>
         <v>9050.7011253115197</v>
       </c>
-      <c r="CA20" s="32">
+      <c r="CB20" s="32">
         <f t="shared" si="31"/>
         <v>9231.7151478177511</v>
       </c>
-      <c r="CB20" s="32">
+      <c r="CC20" s="32">
         <f t="shared" si="31"/>
         <v>9416.349450774107</v>
       </c>
-      <c r="CC20" s="32">
+      <c r="CD20" s="32">
         <f t="shared" si="31"/>
         <v>9604.6764397895895</v>
       </c>
-      <c r="CD20" s="32">
+      <c r="CE20" s="32">
         <f t="shared" si="31"/>
         <v>9796.7699685853822</v>
       </c>
-      <c r="CE20" s="32">
+      <c r="CF20" s="32">
         <f t="shared" si="31"/>
         <v>9992.7053679570909</v>
       </c>
-      <c r="CF20" s="32">
+      <c r="CG20" s="32">
         <f t="shared" si="31"/>
         <v>10192.559475316233</v>
       </c>
-      <c r="CG20" s="32">
+      <c r="CH20" s="32">
         <f t="shared" si="31"/>
         <v>10396.410664822559</v>
       </c>
-      <c r="CH20" s="32">
+      <c r="CI20" s="32">
         <f t="shared" si="31"/>
         <v>10604.33887811901</v>
       </c>
-      <c r="CI20" s="32">
+      <c r="CJ20" s="32">
         <f t="shared" si="31"/>
         <v>10816.425655681391</v>
       </c>
     </row>
-    <row r="21" spans="2:87" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:88" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
@@ -4311,7 +4381,7 @@
         <v>7.058293271184958</v>
       </c>
       <c r="Q21" s="36">
-        <f t="shared" ref="Q21:V21" si="34">Q20/Q22</f>
+        <f t="shared" ref="Q21:W21" si="34">Q20/Q22</f>
         <v>9.1822067160645613</v>
       </c>
       <c r="R21" s="29">
@@ -4334,57 +4404,62 @@
         <f t="shared" si="34"/>
         <v>-0.48980993749720042</v>
       </c>
+      <c r="W21" s="29">
+        <f t="shared" si="34"/>
+        <v>5.3254611489494785E-2</v>
+      </c>
       <c r="X21" s="33"/>
-      <c r="AB21" s="33">
-        <f>AB20/AB22</f>
+      <c r="Y21" s="33"/>
+      <c r="AC21" s="33">
+        <f>AC20/AC22</f>
         <v>23.181013077887648</v>
       </c>
-      <c r="AC21" s="76">
-        <f>AC20/AC22</f>
+      <c r="AD21" s="71">
+        <f>AD20/AD22</f>
         <v>-2.732768715959693</v>
       </c>
-      <c r="AD21" s="82">
-        <f>AD20/AD22</f>
+      <c r="AE21" s="75">
+        <f>AE20/AE22</f>
         <v>-1.0347229746135411</v>
       </c>
-      <c r="AE21" s="59">
-        <f t="shared" ref="AE21:AM21" si="35">AE20/AE22</f>
+      <c r="AF21" s="59">
+        <f t="shared" ref="AF21:AN21" si="35">AF20/AF22</f>
         <v>-1.0692172000487525</v>
       </c>
-      <c r="AF21" s="59">
+      <c r="AG21" s="59">
         <f t="shared" si="35"/>
         <v>-0.67367649582880129</v>
       </c>
-      <c r="AG21" s="59">
+      <c r="AH21" s="59">
         <f t="shared" si="35"/>
         <v>-0.54944564975086196</v>
       </c>
-      <c r="AH21" s="59">
+      <c r="AI21" s="59">
         <f t="shared" si="35"/>
         <v>8.4607346998155614E-2</v>
       </c>
-      <c r="AI21" s="59">
+      <c r="AJ21" s="59">
         <f t="shared" si="35"/>
         <v>1.9054942649529885</v>
       </c>
-      <c r="AJ21" s="59">
+      <c r="AK21" s="59">
         <f t="shared" si="35"/>
         <v>2.2963429564365221</v>
       </c>
-      <c r="AK21" s="59">
+      <c r="AL21" s="59">
         <f t="shared" si="35"/>
         <v>2.716614681492219</v>
       </c>
-      <c r="AL21" s="59">
+      <c r="AM21" s="59">
         <f t="shared" si="35"/>
         <v>3.0683635657712163</v>
       </c>
-      <c r="AM21" s="59">
+      <c r="AN21" s="59">
         <f t="shared" si="35"/>
         <v>3.3017929809401316</v>
       </c>
     </row>
-    <row r="22" spans="2:87" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:88" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -4432,24 +4507,24 @@
       <c r="V22" s="33">
         <v>1273.338804</v>
       </c>
+      <c r="W22" s="118">
+        <v>1276.884726</v>
+      </c>
       <c r="X22" s="33"/>
-      <c r="AB22" s="33">
+      <c r="Y22" s="33"/>
+      <c r="AC22" s="33">
         <f>R22</f>
         <v>125.73475500000001</v>
       </c>
-      <c r="AC22" s="74">
+      <c r="AD22" s="31">
         <v>1266.268155</v>
       </c>
-      <c r="AD22" s="46">
-        <f>AC22</f>
+      <c r="AE22" s="46">
+        <f>AD22</f>
         <v>1266.268155</v>
       </c>
-      <c r="AE22" s="31">
-        <f t="shared" ref="AE22:AM22" si="36">AD22</f>
-        <v>1266.268155</v>
-      </c>
       <c r="AF22" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AF22:AN22" si="36">AE22</f>
         <v>1266.268155</v>
       </c>
       <c r="AG22" s="31">
@@ -4480,16 +4555,20 @@
         <f t="shared" si="36"/>
         <v>1266.268155</v>
       </c>
-    </row>
-    <row r="23" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="AO23" s="60" t="s">
+      <c r="AN22" s="31">
+        <f t="shared" si="36"/>
+        <v>1266.268155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:88" x14ac:dyDescent="0.15">
+      <c r="AP23" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="AP23" s="66">
+      <c r="AQ23" s="66">
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="2:87" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:88" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
@@ -4521,55 +4600,55 @@
         <f>V6/R6-1</f>
         <v>0.25720857028573407</v>
       </c>
-      <c r="W24" s="90">
+      <c r="W24" s="120">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AB24" s="34">
-        <f>AB6/AA6-1</f>
+      <c r="AC24" s="34">
+        <f>AC6/AB6-1</f>
         <v>0.57428577182862139</v>
       </c>
-      <c r="AC24" s="78">
-        <f>AC6/AB6-1</f>
+      <c r="AD24" s="57">
+        <f>AD6/AC6-1</f>
         <v>0.21423218764853047</v>
       </c>
-      <c r="AD24" s="53">
+      <c r="AE24" s="53">
         <v>0.3</v>
       </c>
-      <c r="AE24" s="57">
+      <c r="AF24" s="57">
         <v>0.4</v>
       </c>
-      <c r="AF24" s="57">
+      <c r="AG24" s="57">
         <v>0.5</v>
       </c>
-      <c r="AG24" s="57">
+      <c r="AH24" s="57">
         <v>0.45</v>
       </c>
-      <c r="AH24" s="57">
+      <c r="AI24" s="57">
         <v>0.4</v>
       </c>
-      <c r="AI24" s="57">
+      <c r="AJ24" s="57">
         <v>0.3</v>
       </c>
-      <c r="AJ24" s="57">
+      <c r="AK24" s="57">
         <v>0.2</v>
       </c>
-      <c r="AK24" s="57">
+      <c r="AL24" s="57">
         <v>0.18</v>
       </c>
-      <c r="AL24" s="57">
+      <c r="AM24" s="57">
         <v>0.13</v>
       </c>
-      <c r="AM24" s="57">
+      <c r="AN24" s="57">
         <v>0.08</v>
       </c>
-      <c r="AO24" s="61" t="s">
+      <c r="AP24" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="AP24" s="63">
+      <c r="AQ24" s="63">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:87" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:88" x14ac:dyDescent="0.15">
       <c r="B25" s="27" t="s">
         <v>90</v>
       </c>
@@ -4601,19 +4680,23 @@
         <f t="shared" ref="V25:V26" si="47">V4/R4-1</f>
         <v>0.13964943850937339</v>
       </c>
-      <c r="AC25" s="79">
-        <f>AC4/AB4-1</f>
+      <c r="W25" s="35">
+        <f t="shared" ref="W25:W26" si="48">W4/S4-1</f>
+        <v>0.10801395749519216</v>
+      </c>
+      <c r="AD25" s="41">
+        <f>AD4/AC4-1</f>
         <v>0.10833741825804899</v>
       </c>
-      <c r="AO25" s="61" t="s">
+      <c r="AP25" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="AP25" s="67">
-        <f>NPV(AP24,AC20:CI20)</f>
+      <c r="AQ25" s="67">
+        <f>NPV(AQ24,AD20:CJ20)</f>
         <v>38915.346323985468</v>
       </c>
     </row>
-    <row r="26" spans="2:87" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:88" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>91</v>
       </c>
@@ -4645,45 +4728,49 @@
         <f t="shared" si="47"/>
         <v>0.29733985474564917</v>
       </c>
-      <c r="AC26" s="79">
-        <f>AC5/AB5-1</f>
+      <c r="W26" s="35">
+        <f t="shared" si="48"/>
+        <v>0.31103716312981611</v>
+      </c>
+      <c r="AD26" s="41">
+        <f>AD5/AC5-1</f>
         <v>0.25770831332531174</v>
       </c>
-      <c r="AO26" s="61" t="s">
+      <c r="AP26" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AP26" s="68">
+      <c r="AQ26" s="68">
         <f>Main!C11</f>
-        <v>4139.6379999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:87" x14ac:dyDescent="0.2">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="27" spans="2:88" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="35">
-        <f t="shared" ref="N27" si="48">N6/M6-1</f>
+        <f t="shared" ref="N27" si="49">N6/M6-1</f>
         <v>0.27409125559515513</v>
       </c>
       <c r="O27" s="35">
-        <f t="shared" ref="O27:Q27" si="49">O6/N6-1</f>
+        <f t="shared" ref="O27:Q27" si="50">O6/N6-1</f>
         <v>1.1151180677150707E-2</v>
       </c>
       <c r="P27" s="35">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.13230000192181834</v>
       </c>
       <c r="Q27" s="35">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>3.8367226616762284E-3</v>
       </c>
       <c r="R27" s="35">
-        <f t="shared" ref="R27:S27" si="50">R6/Q6-1</f>
+        <f t="shared" ref="R27:S27" si="51">R6/Q6-1</f>
         <v>0.22806343104276805</v>
       </c>
       <c r="S27" s="35">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-0.12782458855788015</v>
       </c>
       <c r="T27" s="35">
@@ -4698,47 +4785,51 @@
         <f>V6/U6-1</f>
         <v>0.26992973210364513</v>
       </c>
-      <c r="AB27" s="20" t="s">
+      <c r="W27" s="35">
+        <f t="shared" ref="W27" si="52">W6/V6-1</f>
+        <v>-0.13082471362749271</v>
+      </c>
+      <c r="AC27" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AC27" s="103" t="s">
+      <c r="AD27" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="AO27" s="61" t="s">
+      <c r="AP27" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="AP27" s="67">
-        <f>AP25-AP26</f>
-        <v>34775.708323985469</v>
-      </c>
-    </row>
-    <row r="28" spans="2:87" x14ac:dyDescent="0.2">
-      <c r="AO28" s="3" t="s">
+      <c r="AQ27" s="67">
+        <f>AQ25-AQ26</f>
+        <v>34966.346323985468</v>
+      </c>
+    </row>
+    <row r="28" spans="2:88" x14ac:dyDescent="0.15">
+      <c r="AP28" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="AP28" s="69">
-        <f>AP27/Main!C7</f>
-        <v>27.310648363768447</v>
-      </c>
-    </row>
-    <row r="29" spans="2:87" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ28" s="69">
+        <f>AQ27/Main!C7</f>
+        <v>27.384105716043681</v>
+      </c>
+    </row>
+    <row r="29" spans="2:88" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="34" t="s">
         <v>93</v>
       </c>
       <c r="M29" s="34">
-        <f t="shared" ref="M29" si="51">M10/M6</f>
+        <f t="shared" ref="M29" si="53">M10/M6</f>
         <v>0.52794547859344154</v>
       </c>
       <c r="N29" s="34">
-        <f t="shared" ref="N29:O29" si="52">N10/N6</f>
+        <f t="shared" ref="N29:O29" si="54">N10/N6</f>
         <v>0.51586918457183062</v>
       </c>
       <c r="O29" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.56513194294829194</v>
       </c>
       <c r="P29" s="34">
-        <f t="shared" ref="P29" si="53">P10/P6</f>
+        <f t="shared" ref="P29" si="55">P10/P6</f>
         <v>0.55461411681681538</v>
       </c>
       <c r="Q29" s="34">
@@ -4746,15 +4837,15 @@
         <v>0.54185932689056182</v>
       </c>
       <c r="R29" s="34">
-        <f t="shared" ref="R29" si="54">R10/R6</f>
+        <f t="shared" ref="R29" si="56">R10/R6</f>
         <v>0.501918082584071</v>
       </c>
       <c r="S29" s="34">
-        <f t="shared" ref="S29" si="55">S10/S6</f>
+        <f t="shared" ref="S29" si="57">S10/S6</f>
         <v>0.52976471868683139</v>
       </c>
       <c r="T29" s="34">
-        <f t="shared" ref="T29" si="56">T10/T6</f>
+        <f t="shared" ref="T29" si="58">T10/T6</f>
         <v>0.50626262969446278</v>
       </c>
       <c r="U29" s="34">
@@ -4762,37 +4853,34 @@
         <v>0.48479871175523354</v>
       </c>
       <c r="V29" s="34">
-        <f t="shared" ref="V29" si="57">V10/V6</f>
+        <f t="shared" ref="V29" si="59">V10/V6</f>
         <v>0.46024099441030381</v>
       </c>
-      <c r="W29" s="90">
+      <c r="W29" s="120">
         <v>0.46</v>
       </c>
-      <c r="AB29" s="34">
-        <f>AB10/AB6</f>
+      <c r="AC29" s="34">
+        <f>AC10/AC6</f>
         <v>0.53799251320943231</v>
       </c>
-      <c r="AC29" s="34">
-        <f t="shared" ref="AC29" si="58">AC10/AC6</f>
+      <c r="AD29" s="34">
+        <f t="shared" ref="AD29" si="60">AD10/AD6</f>
         <v>0.49181890845920551</v>
       </c>
-      <c r="AD29" s="53">
+      <c r="AE29" s="53">
         <v>0.48</v>
-      </c>
-      <c r="AE29" s="57">
-        <v>0.51</v>
       </c>
       <c r="AF29" s="57">
         <v>0.51</v>
       </c>
       <c r="AG29" s="57">
+        <v>0.51</v>
+      </c>
+      <c r="AH29" s="57">
         <v>0.52</v>
       </c>
-      <c r="AH29" s="57">
+      <c r="AI29" s="57">
         <v>0.53</v>
-      </c>
-      <c r="AI29" s="57">
-        <v>0.55000000000000004</v>
       </c>
       <c r="AJ29" s="57">
         <v>0.55000000000000004</v>
@@ -4806,32 +4894,35 @@
       <c r="AM29" s="57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AO29" s="62" t="s">
+      <c r="AN29" s="57">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AP29" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AP29" s="70">
+      <c r="AQ29" s="70">
         <f>Main!C6</f>
-        <v>48.2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.2">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:88" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="40" t="s">
         <v>110</v>
       </c>
       <c r="M30" s="41">
-        <f t="shared" ref="M30" si="59">(M4-M7)/M4</f>
+        <f t="shared" ref="M30" si="61">(M4-M7)/M4</f>
         <v>0.78729910222852806</v>
       </c>
       <c r="N30" s="41">
-        <f t="shared" ref="N30:O30" si="60">(N4-N7)/N4</f>
+        <f t="shared" ref="N30:O30" si="62">(N4-N7)/N4</f>
         <v>0.78796879473232173</v>
       </c>
       <c r="O30" s="41">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0.81794368858772426</v>
       </c>
       <c r="P30" s="41">
-        <f t="shared" ref="P30" si="61">(P4-P7)/P4</f>
+        <f t="shared" ref="P30" si="63">(P4-P7)/P4</f>
         <v>0.81143021269338833</v>
       </c>
       <c r="Q30" s="41">
@@ -4839,15 +4930,15 @@
         <v>0.79966270879931467</v>
       </c>
       <c r="R30" s="41">
-        <f t="shared" ref="R30:R31" si="62">(R4-R7)/R4</f>
+        <f t="shared" ref="R30:R31" si="64">(R4-R7)/R4</f>
         <v>0.78477995945422663</v>
       </c>
       <c r="S30" s="41">
-        <f t="shared" ref="S30" si="63">(S4-S7)/S4</f>
+        <f t="shared" ref="S30" si="65">(S4-S7)/S4</f>
         <v>0.77507606718857414</v>
       </c>
       <c r="T30" s="41">
-        <f t="shared" ref="T30" si="64">(T4-T7)/T4</f>
+        <f t="shared" ref="T30" si="66">(T4-T7)/T4</f>
         <v>0.76739083568249356</v>
       </c>
       <c r="U30" s="41">
@@ -4855,45 +4946,48 @@
         <v>0.78125755711518174</v>
       </c>
       <c r="V30" s="41">
-        <f t="shared" ref="V30:V31" si="65">(V4-V7)/V4</f>
+        <f t="shared" ref="V30:W31" si="67">(V4-V7)/V4</f>
         <v>0.78570857505484015</v>
       </c>
-      <c r="W30" s="47"/>
-      <c r="AB30" s="41">
-        <f>(AB4-AB7)/AB4</f>
+      <c r="W30" s="41">
+        <f t="shared" si="67"/>
+        <v>0.78010471204188481</v>
+      </c>
+      <c r="AC30" s="41">
+        <f>(AC4-AC7)/AC4</f>
         <v>0.80306615194132025</v>
       </c>
-      <c r="AC30" s="41">
-        <f t="shared" ref="AC30:AC31" si="66">(AC4-AC7)/AC4</f>
+      <c r="AD30" s="41">
+        <f t="shared" ref="AD30:AD31" si="68">(AD4-AD7)/AD4</f>
         <v>0.77760712588530811</v>
       </c>
-      <c r="AD30" s="47"/>
-      <c r="AO30" s="64" t="s">
+      <c r="AE30" s="47"/>
+      <c r="AP30" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="AP30" s="65">
-        <f>AP28/AP29-1</f>
-        <v>-0.43338903809609031</v>
-      </c>
-    </row>
-    <row r="31" spans="2:87" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ30" s="65">
+        <f>AQ28/AQ29-1</f>
+        <v>-0.522092395880564</v>
+      </c>
+    </row>
+    <row r="31" spans="2:88" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="40" t="s">
         <v>111</v>
       </c>
       <c r="M31" s="41">
-        <f t="shared" ref="M31" si="67">(M5-M8)/M5</f>
+        <f t="shared" ref="M31" si="69">(M5-M8)/M5</f>
         <v>0.406112642229632</v>
       </c>
       <c r="N31" s="41">
-        <f t="shared" ref="N31:O31" si="68">(N5-N8)/N5</f>
+        <f t="shared" ref="N31:O31" si="70">(N5-N8)/N5</f>
         <v>0.40698320502245439</v>
       </c>
       <c r="O31" s="41">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.4437606105699991</v>
       </c>
       <c r="P31" s="41">
-        <f t="shared" ref="P31" si="69">(P5-P8)/P5</f>
+        <f t="shared" ref="P31" si="71">(P5-P8)/P5</f>
         <v>0.44529602347403491</v>
       </c>
       <c r="Q31" s="41">
@@ -4901,15 +4995,15 @@
         <v>0.43179959671480017</v>
       </c>
       <c r="R31" s="41">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>0.40535722617066611</v>
       </c>
       <c r="S31" s="41">
-        <f t="shared" ref="S31" si="70">(S5-S8)/S5</f>
+        <f t="shared" ref="S31" si="72">(S5-S8)/S5</f>
         <v>0.43129280373331225</v>
       </c>
       <c r="T31" s="41">
-        <f t="shared" ref="T31" si="71">(T5-T8)/T5</f>
+        <f t="shared" ref="T31" si="73">(T5-T8)/T5</f>
         <v>0.40321875471129204</v>
       </c>
       <c r="U31" s="41">
@@ -4917,38 +5011,41 @@
         <v>0.37210260844793264</v>
       </c>
       <c r="V31" s="41">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.36264051594187263</v>
       </c>
-      <c r="W31" s="47"/>
-      <c r="AB31" s="41">
-        <f>(AB5-AB8)/AB5</f>
+      <c r="W31" s="41">
+        <f t="shared" si="67"/>
+        <v>0.37211367673179396</v>
+      </c>
+      <c r="AC31" s="41">
+        <f>(AC5-AC8)/AC5</f>
         <v>0.42916395730018025</v>
       </c>
-      <c r="AC31" s="41">
-        <f t="shared" si="66"/>
+      <c r="AD31" s="41">
+        <f t="shared" si="68"/>
         <v>0.38842077232950023</v>
       </c>
-      <c r="AD31" s="47"/>
-    </row>
-    <row r="32" spans="2:87" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE31" s="47"/>
+    </row>
+    <row r="32" spans="2:88" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="35" t="s">
         <v>94</v>
       </c>
       <c r="M32" s="35">
-        <f t="shared" ref="M32" si="72">M16/M6</f>
+        <f t="shared" ref="M32" si="74">M16/M6</f>
         <v>6.5885679660674656E-2</v>
       </c>
       <c r="N32" s="35">
-        <f t="shared" ref="N32:O32" si="73">N16/N6</f>
+        <f t="shared" ref="N32:O32" si="75">N16/N6</f>
         <v>0.11510272627599857</v>
       </c>
       <c r="O32" s="35">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>0.12026436129376804</v>
       </c>
       <c r="P32" s="35">
-        <f t="shared" ref="P32" si="74">P16/P6</f>
+        <f t="shared" ref="P32" si="76">P16/P6</f>
         <v>0.12456261808306789</v>
       </c>
       <c r="Q32" s="35">
@@ -4956,15 +5053,15 @@
         <v>-3.6494206844999723E-3</v>
       </c>
       <c r="R32" s="35">
-        <f t="shared" ref="R32" si="75">R16/R6</f>
+        <f t="shared" ref="R32" si="77">R16/R6</f>
         <v>1.0437499637687623E-2</v>
       </c>
       <c r="S32" s="35">
-        <f t="shared" ref="S32" si="76">S16/S6</f>
+        <f t="shared" ref="S32" si="78">S16/S6</f>
         <v>-8.1400903771363525E-2</v>
       </c>
       <c r="T32" s="35">
-        <f t="shared" ref="T32" si="77">T16/T6</f>
+        <f t="shared" ref="T32" si="79">T16/T6</f>
         <v>-0.14687161937295712</v>
       </c>
       <c r="U32" s="35">
@@ -4972,77 +5069,80 @@
         <v>-0.2527931488801054</v>
       </c>
       <c r="V32" s="35">
-        <f t="shared" ref="V32" si="78">V16/V6</f>
+        <f t="shared" ref="V32:W32" si="80">V16/V6</f>
         <v>-0.10879042846652805</v>
       </c>
-      <c r="W32" s="83"/>
-      <c r="AB32" s="35">
-        <f>AB16/AB6</f>
+      <c r="W32" s="35">
+        <f t="shared" si="80"/>
+        <v>-0.12798408488063662</v>
+      </c>
+      <c r="AC32" s="35">
+        <f>AC16/AC6</f>
         <v>5.8250517795872113E-2</v>
       </c>
-      <c r="AC32" s="35">
-        <f t="shared" ref="AC32" si="79">AC16/AC6</f>
+      <c r="AD32" s="35">
+        <f t="shared" ref="AD32" si="81">AD16/AD6</f>
         <v>-0.14684267332206621</v>
       </c>
-      <c r="AD32" s="47">
-        <f>AD16/AD6</f>
+      <c r="AE32" s="47">
+        <f>AE16/AE6</f>
         <v>-0.24487989433589549</v>
       </c>
-      <c r="AE32" s="41">
-        <f t="shared" ref="AE32:AM32" si="80">AE16/AE6</f>
+      <c r="AF32" s="41">
+        <f t="shared" ref="AF32:AN32" si="82">AF16/AF6</f>
         <v>-0.18062849595421099</v>
       </c>
-      <c r="AF32" s="41">
-        <f t="shared" si="80"/>
+      <c r="AG32" s="41">
+        <f t="shared" si="82"/>
         <v>-7.208566396947412E-2</v>
       </c>
-      <c r="AG32" s="41">
-        <f t="shared" si="80"/>
+      <c r="AH32" s="41">
+        <f t="shared" si="82"/>
         <v>-3.9886664806533807E-2</v>
       </c>
-      <c r="AH32" s="41">
-        <f t="shared" si="80"/>
+      <c r="AI32" s="41">
+        <f t="shared" si="82"/>
         <v>2.1338060953901811E-2</v>
       </c>
-      <c r="AI32" s="41">
-        <f t="shared" si="80"/>
+      <c r="AJ32" s="41">
+        <f t="shared" si="82"/>
         <v>7.2288640231794266E-2</v>
       </c>
-      <c r="AJ32" s="41">
-        <f t="shared" si="80"/>
+      <c r="AK32" s="41">
+        <f t="shared" si="82"/>
         <v>7.2736137008949334E-2</v>
       </c>
-      <c r="AK32" s="41">
-        <f t="shared" si="80"/>
+      <c r="AL32" s="41">
+        <f t="shared" si="82"/>
         <v>7.3077001006690151E-2</v>
       </c>
-      <c r="AL32" s="41">
-        <f t="shared" si="80"/>
+      <c r="AM32" s="41">
+        <f t="shared" si="82"/>
         <v>7.3293482977822316E-2</v>
       </c>
-      <c r="AM32" s="41">
-        <f t="shared" si="80"/>
+      <c r="AN32" s="41">
+        <f t="shared" si="82"/>
         <v>7.3414616088854662E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:41" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="35" t="s">
         <v>95</v>
       </c>
       <c r="M33" s="35">
-        <f t="shared" ref="M33" si="81">M20/M6</f>
+        <f t="shared" ref="M33" si="83">M20/M6</f>
         <v>0.24897935249314254</v>
       </c>
       <c r="N33" s="35">
-        <f t="shared" ref="N33:O33" si="82">N20/N6</f>
+        <f t="shared" ref="N33:O33" si="84">N20/N6</f>
         <v>0.12669164934788651</v>
       </c>
       <c r="O33" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.272896190450181</v>
       </c>
       <c r="P33" s="35">
-        <f t="shared" ref="P33" si="83">P20/P6</f>
+        <f t="shared" ref="P33" si="85">P20/P6</f>
         <v>0.78529360531334724</v>
       </c>
       <c r="Q33" s="35">
@@ -5050,15 +5150,15 @@
         <v>1.0219730542652217</v>
       </c>
       <c r="R33" s="35">
-        <f t="shared" ref="R33" si="84">R20/R6</f>
+        <f t="shared" ref="R33" si="86">R20/R6</f>
         <v>-0.26906126270267744</v>
       </c>
       <c r="S33" s="35">
-        <f t="shared" ref="S33" si="85">S20/S6</f>
+        <f t="shared" ref="S33" si="87">S20/S6</f>
         <v>-1.2249749298576047</v>
       </c>
       <c r="T33" s="35">
-        <f t="shared" ref="T33" si="86">T20/T6</f>
+        <f t="shared" ref="T33" si="88">T20/T6</f>
         <v>-0.9296126906567479</v>
       </c>
       <c r="U33" s="35">
@@ -5066,77 +5166,80 @@
         <v>-0.11594861660079051</v>
       </c>
       <c r="V33" s="35">
-        <f t="shared" ref="V33" si="87">V20/V6</f>
+        <f t="shared" ref="V33:W33" si="89">V20/V6</f>
         <v>-0.35948236807613693</v>
       </c>
-      <c r="W33" s="83"/>
-      <c r="AB33" s="35">
-        <f>AB20/AB6</f>
+      <c r="W33" s="35">
+        <f t="shared" si="89"/>
+        <v>4.5092838196286469E-2</v>
+      </c>
+      <c r="AC33" s="35">
+        <f>AC20/AC6</f>
         <v>0.63199262943162138</v>
       </c>
-      <c r="AC33" s="35">
-        <f t="shared" ref="AC33" si="88">AC20/AC6</f>
+      <c r="AD33" s="35">
+        <f t="shared" ref="AD33" si="90">AD20/AD6</f>
         <v>-0.61794679299354394</v>
       </c>
-      <c r="AD33" s="83">
-        <f t="shared" ref="AD33:AM33" si="89">AD20/AD6</f>
+      <c r="AE33" s="76">
+        <f t="shared" ref="AE33:AN33" si="91">AE20/AE6</f>
         <v>-0.17998194681431279</v>
       </c>
-      <c r="AE33" s="35">
-        <f t="shared" si="89"/>
+      <c r="AF33" s="35">
+        <f t="shared" si="91"/>
         <v>-0.13284424772450906</v>
       </c>
-      <c r="AF33" s="35">
-        <f t="shared" si="89"/>
+      <c r="AG33" s="35">
+        <f t="shared" si="91"/>
         <v>-5.5800353937428784E-2</v>
       </c>
-      <c r="AG33" s="35">
-        <f t="shared" si="89"/>
+      <c r="AH33" s="35">
+        <f t="shared" si="91"/>
         <v>-3.1386457093699603E-2</v>
       </c>
-      <c r="AH33" s="35">
-        <f t="shared" si="89"/>
+      <c r="AI33" s="35">
+        <f t="shared" si="91"/>
         <v>3.4522131112298287E-3</v>
       </c>
-      <c r="AI33" s="35">
-        <f t="shared" si="89"/>
+      <c r="AJ33" s="35">
+        <f t="shared" si="91"/>
         <v>5.9807247317580435E-2</v>
       </c>
-      <c r="AJ33" s="35">
-        <f t="shared" si="89"/>
+      <c r="AK33" s="35">
+        <f t="shared" si="91"/>
         <v>6.0062260331254648E-2</v>
       </c>
-      <c r="AK33" s="35">
-        <f t="shared" si="89"/>
+      <c r="AL33" s="35">
+        <f t="shared" si="91"/>
         <v>6.0215868992525318E-2</v>
       </c>
-      <c r="AL33" s="35">
-        <f t="shared" si="89"/>
+      <c r="AM33" s="35">
+        <f t="shared" si="91"/>
         <v>6.0188190720781472E-2</v>
       </c>
-      <c r="AM33" s="35">
-        <f t="shared" si="89"/>
+      <c r="AN33" s="35">
+        <f t="shared" si="91"/>
         <v>5.9969517650632985E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:41" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="35" t="s">
         <v>96</v>
       </c>
       <c r="M34" s="35">
-        <f t="shared" ref="M34" si="90">M19/M18</f>
+        <f t="shared" ref="M34" si="92">M19/M18</f>
         <v>-2.5224422778710814E-2</v>
       </c>
       <c r="N34" s="35">
-        <f t="shared" ref="N34:O34" si="91">N19/N18</f>
+        <f t="shared" ref="N34:O34" si="93">N19/N18</f>
         <v>-0.12864340838063659</v>
       </c>
       <c r="O34" s="35">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>8.1121161496089222E-2</v>
       </c>
       <c r="P34" s="35">
-        <f t="shared" ref="P34" si="92">P19/P18</f>
+        <f t="shared" ref="P34" si="94">P19/P18</f>
         <v>4.3752141540168502E-2</v>
       </c>
       <c r="Q34" s="35">
@@ -5144,15 +5247,15 @@
         <v>0.14325018725027078</v>
       </c>
       <c r="R34" s="35">
-        <f t="shared" ref="R34" si="93">R19/R18</f>
+        <f t="shared" ref="R34" si="95">R19/R18</f>
         <v>0.24023620935547843</v>
       </c>
       <c r="S34" s="35">
-        <f t="shared" ref="S34" si="94">S19/S18</f>
+        <f t="shared" ref="S34" si="96">S19/S18</f>
         <v>0.10796396784476819</v>
       </c>
       <c r="T34" s="35">
-        <f t="shared" ref="T34" si="95">T19/T18</f>
+        <f t="shared" ref="T34" si="97">T19/T18</f>
         <v>-4.7210515334863345E-3</v>
       </c>
       <c r="U34" s="35">
@@ -5160,29 +5263,29 @@
         <v>-8.1205093774064027E-3</v>
       </c>
       <c r="V34" s="35">
-        <f t="shared" ref="V34" si="96">V19/V18</f>
+        <f t="shared" ref="V34:W34" si="98">V19/V18</f>
         <v>-1.4783406659203918E-2</v>
       </c>
-      <c r="W34" s="83"/>
-      <c r="AB34" s="35">
-        <f>AB19/AB18</f>
+      <c r="W34" s="35">
+        <f t="shared" si="98"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="AC34" s="35">
+        <f>AC19/AC18</f>
         <v>7.1939621574531182E-2</v>
       </c>
-      <c r="AC34" s="35">
-        <f t="shared" ref="AC34" si="97">AC19/AC18</f>
+      <c r="AD34" s="35">
+        <f t="shared" ref="AD34" si="99">AD19/AD18</f>
         <v>4.4834892327803987E-2</v>
       </c>
-      <c r="AD34" s="47">
+      <c r="AE34" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AE34" s="41">
+      <c r="AF34" s="41">
         <v>0.1</v>
       </c>
-      <c r="AF34" s="41">
+      <c r="AG34" s="41">
         <v>0.15</v>
-      </c>
-      <c r="AG34" s="41">
-        <v>0.25</v>
       </c>
       <c r="AH34" s="41">
         <v>0.25</v>
@@ -5202,25 +5305,29 @@
       <c r="AM34" s="41">
         <v>0.25</v>
       </c>
-      <c r="AN34" s="41"/>
-    </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="AC35" s="1"/>
-    </row>
-    <row r="36" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN34" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="AO34" s="41"/>
+    </row>
+    <row r="35" spans="2:41" x14ac:dyDescent="0.15">
+      <c r="W35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="2:41" s="35" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="35" t="s">
         <v>97</v>
       </c>
       <c r="M36" s="35">
-        <f t="shared" ref="M36" si="98">M12/M6</f>
+        <f t="shared" ref="M36" si="100">M12/M6</f>
         <v>0.18689870407411993</v>
       </c>
       <c r="N36" s="35">
-        <f t="shared" ref="N36:O36" si="99">N12/N6</f>
+        <f t="shared" ref="N36:O36" si="101">N12/N6</f>
         <v>0.1626980068402363</v>
       </c>
       <c r="O36" s="35">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>0.17790576414028467</v>
       </c>
       <c r="P36" s="35">
@@ -5232,15 +5339,15 @@
         <v>0.19668962571413315</v>
       </c>
       <c r="R36" s="35">
-        <f t="shared" ref="R36" si="100">R12/R6</f>
+        <f t="shared" ref="R36" si="102">R12/R6</f>
         <v>0.19848350463470196</v>
       </c>
       <c r="S36" s="35">
-        <f t="shared" ref="S36" si="101">S12/S6</f>
+        <f t="shared" ref="S36" si="103">S12/S6</f>
         <v>0.25228913040046591</v>
       </c>
       <c r="T36" s="35">
-        <f t="shared" ref="T36" si="102">T12/T6</f>
+        <f t="shared" ref="T36" si="104">T12/T6</f>
         <v>0.26768350265585533</v>
       </c>
       <c r="U36" s="35">
@@ -5248,35 +5355,35 @@
         <v>0.30182916117698722</v>
       </c>
       <c r="V36" s="35">
-        <f t="shared" ref="V36" si="103">V12/V6</f>
+        <f t="shared" ref="V36:W36" si="105">V12/V6</f>
         <v>0.25392079899572212</v>
       </c>
-      <c r="W36" s="83"/>
-      <c r="AB36" s="35">
-        <f>AB12/AB6</f>
+      <c r="W36" s="35">
+        <f t="shared" si="105"/>
+        <v>0.30371352785145889</v>
+      </c>
+      <c r="AC36" s="35">
+        <f>AC12/AC6</f>
         <v>0.1852579525466537</v>
       </c>
-      <c r="AC36" s="35">
-        <f t="shared" ref="AC36" si="104">AC12/AC6</f>
+      <c r="AD36" s="35">
+        <f t="shared" ref="AD36" si="106">AD12/AD6</f>
         <v>0.26844116214250913</v>
       </c>
-      <c r="AD36" s="47">
+      <c r="AE36" s="47">
         <v>0.25</v>
       </c>
-      <c r="AE36" s="41">
+      <c r="AF36" s="41">
         <v>0.25</v>
       </c>
-      <c r="AF36" s="41">
+      <c r="AG36" s="41">
         <v>0.2</v>
-      </c>
-      <c r="AG36" s="41">
-        <v>0.18</v>
       </c>
       <c r="AH36" s="41">
         <v>0.18</v>
       </c>
       <c r="AI36" s="41">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="AJ36" s="41">
         <v>0.15</v>
@@ -5290,11 +5397,13 @@
       <c r="AM36" s="41">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="37" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="W37" s="83"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="41"/>
+      <c r="AN36" s="41">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:41" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="W37" s="121"/>
+      <c r="AE37" s="47"/>
       <c r="AF37" s="41"/>
       <c r="AG37" s="41"/>
       <c r="AH37" s="41"/>
@@ -5303,14 +5412,14 @@
       <c r="AK37" s="41"/>
       <c r="AL37" s="41"/>
       <c r="AM37" s="41"/>
-    </row>
-    <row r="38" spans="2:40" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="121" t="s">
+      <c r="AN37" s="41"/>
+    </row>
+    <row r="38" spans="2:41" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="W38" s="83"/>
-      <c r="AD38" s="47"/>
-      <c r="AE38" s="41"/>
+      <c r="W38" s="121"/>
+      <c r="AE38" s="47"/>
       <c r="AF38" s="41"/>
       <c r="AG38" s="41"/>
       <c r="AH38" s="41"/>
@@ -5319,45 +5428,46 @@
       <c r="AK38" s="41"/>
       <c r="AL38" s="41"/>
       <c r="AM38" s="41"/>
-    </row>
-    <row r="39" spans="2:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN38" s="41"/>
+    </row>
+    <row r="39" spans="2:41" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="16" t="s">
         <v>158</v>
       </c>
       <c r="W39" s="122"/>
-      <c r="AA39" s="16">
+      <c r="AB39" s="16">
         <v>7000</v>
       </c>
-      <c r="AB39" s="16">
+      <c r="AC39" s="16">
         <v>10000</v>
       </c>
-      <c r="AC39" s="16">
+      <c r="AD39" s="16">
         <v>11600</v>
       </c>
-      <c r="AD39" s="123"/>
-      <c r="AE39" s="124"/>
-      <c r="AF39" s="124"/>
-      <c r="AG39" s="124"/>
-      <c r="AH39" s="124"/>
-      <c r="AI39" s="124"/>
-      <c r="AJ39" s="124"/>
-      <c r="AK39" s="124"/>
-      <c r="AL39" s="124"/>
-      <c r="AM39" s="124"/>
-    </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="AI42" s="71"/>
+      <c r="AE39" s="97"/>
+      <c r="AF39" s="98"/>
+      <c r="AG39" s="98"/>
+      <c r="AH39" s="98"/>
+      <c r="AI39" s="98"/>
+      <c r="AJ39" s="98"/>
+      <c r="AK39" s="98"/>
+      <c r="AL39" s="98"/>
+      <c r="AM39" s="98"/>
+      <c r="AN39" s="98"/>
+    </row>
+    <row r="42" spans="2:41" x14ac:dyDescent="0.15">
       <c r="AJ42" s="71"/>
       <c r="AK42" s="71"/>
       <c r="AL42" s="71"/>
       <c r="AM42" s="71"/>
-    </row>
-    <row r="43" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AN42" s="71"/>
+    </row>
+    <row r="43" spans="2:41" x14ac:dyDescent="0.15">
       <c r="B43" s="37" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
@@ -5379,17 +5489,18 @@
       <c r="V44" s="32">
         <v>1649.328</v>
       </c>
-      <c r="W44" s="102"/>
-      <c r="AB44" s="32">
+      <c r="W44" s="117">
+        <v>1738</v>
+      </c>
+      <c r="AC44" s="32">
         <f>R44</f>
         <v>2502.9920000000002</v>
       </c>
-      <c r="AC44" s="75">
+      <c r="AD44" s="56">
         <f>V44</f>
         <v>1649.328</v>
       </c>
-      <c r="AD44" s="52"/>
-      <c r="AE44" s="58"/>
+      <c r="AE44" s="52"/>
       <c r="AF44" s="58"/>
       <c r="AG44" s="58"/>
       <c r="AH44" s="58"/>
@@ -5398,8 +5509,9 @@
       <c r="AK44" s="58"/>
       <c r="AL44" s="58"/>
       <c r="AM44" s="58"/>
-    </row>
-    <row r="45" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN44" s="58"/>
+    </row>
+    <row r="45" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
         <v>112</v>
       </c>
@@ -5421,17 +5533,18 @@
       <c r="V45" s="32">
         <v>3403.6219999999998</v>
       </c>
-      <c r="W45" s="102"/>
-      <c r="AB45" s="32">
+      <c r="W45" s="117">
+        <v>3125</v>
+      </c>
+      <c r="AC45" s="32">
         <f>R45</f>
         <v>5265.1009999999997</v>
       </c>
-      <c r="AC45" s="75">
+      <c r="AD45" s="56">
         <f>V45</f>
         <v>3403.6219999999998</v>
       </c>
-      <c r="AD45" s="52"/>
-      <c r="AE45" s="58"/>
+      <c r="AE45" s="52"/>
       <c r="AF45" s="58"/>
       <c r="AG45" s="58"/>
       <c r="AH45" s="58"/>
@@ -5440,8 +5553,9 @@
       <c r="AK45" s="58"/>
       <c r="AL45" s="58"/>
       <c r="AM45" s="58"/>
-    </row>
-    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AN45" s="58"/>
+    </row>
+    <row r="46" spans="2:41" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>113</v>
       </c>
@@ -5463,16 +5577,19 @@
       <c r="V46" s="33">
         <v>273.05500000000001</v>
       </c>
-      <c r="AB46" s="33">
+      <c r="W46" s="118">
+        <v>276</v>
+      </c>
+      <c r="AC46" s="33">
         <f>R46</f>
         <v>192.209</v>
       </c>
-      <c r="AC46" s="74">
+      <c r="AD46" s="31">
         <f>V46</f>
         <v>273.05500000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:41" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>114</v>
       </c>
@@ -5494,16 +5611,19 @@
       <c r="V47" s="33">
         <v>580.11400000000003</v>
       </c>
-      <c r="AB47" s="33">
-        <f t="shared" ref="AB47:AB67" si="105">R47</f>
+      <c r="W47" s="118">
+        <v>629</v>
+      </c>
+      <c r="AC47" s="33">
+        <f t="shared" ref="AC47:AC67" si="107">R47</f>
         <v>470.72199999999998</v>
       </c>
-      <c r="AC47" s="74">
-        <f t="shared" ref="AC47:AC49" si="106">V47</f>
+      <c r="AD47" s="31">
+        <f t="shared" ref="AD47:AD49" si="108">V47</f>
         <v>580.11400000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:41" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>115</v>
       </c>
@@ -5525,16 +5645,19 @@
       <c r="V48" s="33">
         <v>4.6950000000000003</v>
       </c>
-      <c r="AB48" s="33">
-        <f t="shared" si="105"/>
+      <c r="W48" s="118">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="33">
+        <f t="shared" si="107"/>
         <v>5.0229999999999997</v>
       </c>
-      <c r="AC48" s="74">
-        <f t="shared" si="106"/>
+      <c r="AD48" s="31">
+        <f t="shared" si="108"/>
         <v>4.6950000000000003</v>
       </c>
     </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>116</v>
       </c>
@@ -5556,89 +5679,92 @@
       <c r="V49" s="33">
         <v>139.65899999999999</v>
       </c>
-      <c r="AB49" s="33">
-        <f t="shared" si="105"/>
+      <c r="W49" s="33">
+        <v>159</v>
+      </c>
+      <c r="AC49" s="33">
+        <f t="shared" si="107"/>
         <v>103.273</v>
       </c>
-      <c r="AC49" s="74">
-        <f t="shared" si="106"/>
+      <c r="AD49" s="31">
+        <f t="shared" si="108"/>
         <v>139.65899999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" ref="C50:T50" si="107">SUM(C44:C49)</f>
+        <f t="shared" ref="C50:T50" si="109">SUM(C44:C49)</f>
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="M50" s="33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>6613.2169999999996</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="R50" s="33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>8539.3199999999979</v>
       </c>
       <c r="S50" s="33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>8074.8810000000003</v>
       </c>
       <c r="T50" s="33">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>7857.7640000000001</v>
       </c>
       <c r="U50" s="33">
@@ -5649,16 +5775,20 @@
         <f>SUM(V44:V49)</f>
         <v>6050.473</v>
       </c>
-      <c r="AB50" s="33">
-        <f>SUM(AB44:AB49)</f>
-        <v>8539.3199999999979</v>
+      <c r="W50" s="33">
+        <f>SUM(W44:W49)</f>
+        <v>5927</v>
       </c>
       <c r="AC50" s="33">
         <f>SUM(AC44:AC49)</f>
+        <v>8539.3199999999979</v>
+      </c>
+      <c r="AD50" s="33">
+        <f>SUM(AD44:AD49)</f>
         <v>6050.473</v>
       </c>
     </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>118</v>
       </c>
@@ -5680,16 +5810,19 @@
       <c r="V51" s="33">
         <v>130.821</v>
       </c>
-      <c r="AB51" s="33">
-        <f t="shared" si="105"/>
+      <c r="W51" s="118">
+        <v>137</v>
+      </c>
+      <c r="AC51" s="33">
+        <f t="shared" si="107"/>
         <v>105.526</v>
       </c>
-      <c r="AC51" s="74">
-        <f t="shared" ref="AC51:AC67" si="108">V51</f>
+      <c r="AD51" s="31">
+        <f t="shared" ref="AD51:AD67" si="110">V51</f>
         <v>130.821</v>
       </c>
     </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>119</v>
       </c>
@@ -5711,16 +5844,19 @@
       <c r="V52" s="33">
         <v>355.14499999999998</v>
       </c>
-      <c r="AB52" s="33">
-        <f t="shared" si="105"/>
+      <c r="W52" s="118">
+        <v>345</v>
+      </c>
+      <c r="AC52" s="33">
+        <f t="shared" si="107"/>
         <v>196.38800000000001</v>
       </c>
-      <c r="AC52" s="74">
-        <f t="shared" si="108"/>
+      <c r="AD52" s="31">
+        <f t="shared" si="110"/>
         <v>355.14499999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>120</v>
       </c>
@@ -5742,16 +5878,19 @@
       <c r="V53" s="33">
         <v>390.14800000000002</v>
       </c>
-      <c r="AB53" s="33">
-        <f t="shared" si="105"/>
+      <c r="W53" s="118">
+        <v>372</v>
+      </c>
+      <c r="AC53" s="33">
+        <f t="shared" si="107"/>
         <v>138.49600000000001</v>
       </c>
-      <c r="AC53" s="74">
-        <f t="shared" si="108"/>
+      <c r="AD53" s="31">
+        <f t="shared" si="110"/>
         <v>390.14800000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>121</v>
       </c>
@@ -5773,16 +5912,19 @@
       <c r="V54" s="33">
         <v>40.822000000000003</v>
       </c>
-      <c r="AB54" s="33">
-        <f t="shared" si="105"/>
+      <c r="W54" s="118">
+        <v>41</v>
+      </c>
+      <c r="AC54" s="33">
+        <f t="shared" si="107"/>
         <v>48.369</v>
       </c>
-      <c r="AC54" s="74">
-        <f t="shared" si="108"/>
+      <c r="AD54" s="31">
+        <f t="shared" si="110"/>
         <v>40.822000000000003</v>
       </c>
     </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>122</v>
       </c>
@@ -5804,16 +5946,19 @@
       <c r="V55" s="33">
         <v>1953.46</v>
       </c>
-      <c r="AB55" s="33">
-        <f t="shared" si="105"/>
+      <c r="W55" s="118">
+        <v>2277</v>
+      </c>
+      <c r="AC55" s="33">
+        <f t="shared" si="107"/>
         <v>3955.5450000000001</v>
       </c>
-      <c r="AC55" s="74">
-        <f t="shared" si="108"/>
+      <c r="AD55" s="31">
+        <f t="shared" si="110"/>
         <v>1953.46</v>
       </c>
     </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>123</v>
       </c>
@@ -5835,89 +5980,92 @@
       <c r="V56" s="33">
         <v>1836.2819999999999</v>
       </c>
-      <c r="AB56" s="33">
-        <f t="shared" si="105"/>
+      <c r="W56" s="118">
+        <v>1865</v>
+      </c>
+      <c r="AC56" s="33">
+        <f t="shared" si="107"/>
         <v>356.52800000000002</v>
       </c>
-      <c r="AC56" s="74">
-        <f t="shared" si="108"/>
+      <c r="AD56" s="31">
+        <f t="shared" si="110"/>
         <v>1836.2819999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" ref="C57:T57" si="109">SUM(C51:C56)+C50</f>
+        <f t="shared" ref="C57:T57" si="111">SUM(C51:C56)+C50</f>
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="M57" s="33">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>7462.0309999999999</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="R57" s="33">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>13340.171999999999</v>
       </c>
       <c r="S57" s="33">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>11834.457</v>
       </c>
       <c r="T57" s="33">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>10747.630000000001</v>
       </c>
       <c r="U57" s="33">
@@ -5928,31 +6076,35 @@
         <f>SUM(V51:V56)+V50</f>
         <v>10757.151</v>
       </c>
-      <c r="AB57" s="33">
-        <f>SUM(AB51:AB56)+AB50</f>
-        <v>13340.171999999999</v>
+      <c r="W57" s="33">
+        <f>SUM(W51:W56)+W50</f>
+        <v>10964</v>
       </c>
       <c r="AC57" s="33">
         <f>SUM(AC51:AC56)+AC50</f>
+        <v>13340.171999999999</v>
+      </c>
+      <c r="AD57" s="33">
+        <f>SUM(AD51:AD56)+AD50</f>
         <v>10757.151</v>
       </c>
     </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:30" x14ac:dyDescent="0.15">
       <c r="M58" s="33"/>
       <c r="R58" s="33"/>
       <c r="S58" s="33"/>
       <c r="T58" s="33"/>
       <c r="U58" s="33"/>
-      <c r="AB58" s="33">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="AC58" s="74">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC58" s="33">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="AD58" s="31">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>125</v>
       </c>
@@ -5974,16 +6126,19 @@
       <c r="V59" s="33">
         <v>532.56899999999996</v>
       </c>
-      <c r="AB59" s="33">
-        <f t="shared" si="105"/>
+      <c r="W59" s="118">
+        <v>535</v>
+      </c>
+      <c r="AC59" s="33">
+        <f t="shared" si="107"/>
         <v>456.68799999999999</v>
       </c>
-      <c r="AC59" s="74">
-        <f t="shared" si="108"/>
+      <c r="AD59" s="31">
+        <f t="shared" si="110"/>
         <v>532.56899999999996</v>
       </c>
     </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>126</v>
       </c>
@@ -6005,16 +6160,19 @@
       <c r="V60" s="33">
         <v>9.39</v>
       </c>
-      <c r="AB60" s="33">
-        <f t="shared" si="105"/>
+      <c r="W60" s="118">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="33">
+        <f t="shared" si="107"/>
         <v>13.505000000000001</v>
       </c>
-      <c r="AC60" s="74">
-        <f t="shared" si="108"/>
+      <c r="AD60" s="31">
+        <f t="shared" si="110"/>
         <v>9.39</v>
       </c>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>127</v>
       </c>
@@ -6036,16 +6194,19 @@
       <c r="V61" s="33">
         <v>295.88799999999998</v>
       </c>
-      <c r="AB61" s="33">
-        <f t="shared" si="105"/>
+      <c r="W61" s="118">
+        <v>324</v>
+      </c>
+      <c r="AC61" s="33">
+        <f t="shared" si="107"/>
         <v>216.792</v>
       </c>
-      <c r="AC61" s="74">
-        <f t="shared" si="108"/>
+      <c r="AD61" s="31">
+        <f t="shared" si="110"/>
         <v>295.88799999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
@@ -6067,89 +6228,92 @@
       <c r="V62" s="33">
         <v>18.161000000000001</v>
       </c>
-      <c r="AB62" s="33">
-        <f t="shared" si="105"/>
+      <c r="W62" s="118">
+        <v>24</v>
+      </c>
+      <c r="AC62" s="33">
+        <f t="shared" si="107"/>
         <v>15.747999999999999</v>
       </c>
-      <c r="AC62" s="74">
-        <f t="shared" si="108"/>
+      <c r="AD62" s="31">
+        <f t="shared" si="110"/>
         <v>18.161000000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" ref="C63:T63" si="110">SUM(C59:C62)</f>
+        <f t="shared" ref="C63:T63" si="112">SUM(C59:C62)</f>
         <v>0</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="M63" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>370.13099999999997</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="O63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="R63" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>702.73300000000006</v>
       </c>
       <c r="S63" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>681.93200000000002</v>
       </c>
       <c r="T63" s="33">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>703.20799999999997</v>
       </c>
       <c r="U63" s="33">
@@ -6160,16 +6324,20 @@
         <f>SUM(V59:V62)</f>
         <v>856.00800000000004</v>
       </c>
-      <c r="AB63" s="33">
-        <f>SUM(AB59:AB62)</f>
-        <v>702.73300000000006</v>
+      <c r="W63" s="33">
+        <f>SUM(W59:W62)</f>
+        <v>883</v>
       </c>
       <c r="AC63" s="33">
         <f>SUM(AC59:AC62)</f>
+        <v>702.73300000000006</v>
+      </c>
+      <c r="AD63" s="33">
+        <f>SUM(AD59:AD62)</f>
         <v>856.00800000000004</v>
       </c>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>127</v>
       </c>
@@ -6191,16 +6359,19 @@
       <c r="V64" s="33">
         <v>267.51299999999998</v>
       </c>
-      <c r="AB64" s="33">
-        <f t="shared" si="105"/>
+      <c r="W64" s="118">
+        <v>232</v>
+      </c>
+      <c r="AC64" s="33">
+        <f t="shared" si="107"/>
         <v>162.93199999999999</v>
       </c>
-      <c r="AC64" s="74">
-        <f t="shared" si="108"/>
+      <c r="AD64" s="31">
+        <f t="shared" si="110"/>
         <v>267.51299999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>128</v>
       </c>
@@ -6222,16 +6393,19 @@
       <c r="V65" s="33">
         <v>465.13499999999999</v>
       </c>
-      <c r="AB65" s="33">
-        <f t="shared" si="105"/>
+      <c r="W65" s="118">
+        <v>461</v>
+      </c>
+      <c r="AC65" s="33">
+        <f t="shared" si="107"/>
         <v>246.77600000000001</v>
       </c>
-      <c r="AC65" s="74">
-        <f t="shared" si="108"/>
+      <c r="AD65" s="31">
+        <f t="shared" si="110"/>
         <v>465.13499999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
         <v>130</v>
       </c>
@@ -6253,17 +6427,18 @@
       <c r="V66" s="32">
         <v>913.31200000000001</v>
       </c>
-      <c r="W66" s="102"/>
-      <c r="AB66" s="32">
+      <c r="W66" s="117">
+        <v>914</v>
+      </c>
+      <c r="AC66" s="32">
         <f>R66</f>
         <v>910.96299999999997</v>
       </c>
-      <c r="AC66" s="75">
-        <f t="shared" si="108"/>
+      <c r="AD66" s="56">
+        <f t="shared" si="110"/>
         <v>913.31200000000001</v>
       </c>
-      <c r="AD66" s="52"/>
-      <c r="AE66" s="58"/>
+      <c r="AE66" s="52"/>
       <c r="AF66" s="58"/>
       <c r="AG66" s="58"/>
       <c r="AH66" s="58"/>
@@ -6272,8 +6447,9 @@
       <c r="AK66" s="58"/>
       <c r="AL66" s="58"/>
       <c r="AM66" s="58"/>
-    </row>
-    <row r="67" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AN66" s="58"/>
+    </row>
+    <row r="67" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>121</v>
       </c>
@@ -6295,89 +6471,92 @@
       <c r="V67" s="33">
         <v>16.294</v>
       </c>
-      <c r="AB67" s="33">
-        <f t="shared" si="105"/>
+      <c r="W67" s="118">
+        <v>17</v>
+      </c>
+      <c r="AC67" s="33">
+        <f t="shared" si="107"/>
         <v>183.42699999999999</v>
       </c>
-      <c r="AC67" s="74">
-        <f t="shared" si="108"/>
+      <c r="AD67" s="31">
+        <f t="shared" si="110"/>
         <v>16.294</v>
       </c>
     </row>
-    <row r="68" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" ref="C68:T68" si="111">SUM(C64:C67)+C63</f>
+        <f t="shared" ref="C68:T68" si="113">SUM(C64:C67)+C63</f>
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="M68" s="33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>1285.2019999999998</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="O68" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="P68" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="R68" s="33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2206.8309999999997</v>
       </c>
       <c r="S68" s="33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2044.8620000000001</v>
       </c>
       <c r="T68" s="33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>2030.502</v>
       </c>
       <c r="U68" s="33">
@@ -6388,21 +6567,25 @@
         <f>SUM(V64:V67)+V63</f>
         <v>2518.2620000000002</v>
       </c>
-      <c r="AB68" s="33">
-        <f>SUM(AB64:AB67)+AB63</f>
-        <v>2206.8309999999997</v>
+      <c r="W68" s="33">
+        <f>SUM(W64:W67)+W63</f>
+        <v>2507</v>
       </c>
       <c r="AC68" s="33">
         <f>SUM(AC64:AC67)+AC63</f>
+        <v>2206.8309999999997</v>
+      </c>
+      <c r="AD68" s="33">
+        <f>SUM(AD64:AD67)+AD63</f>
         <v>2518.2620000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:40" x14ac:dyDescent="0.15">
       <c r="S69" s="33"/>
       <c r="T69" s="33"/>
       <c r="U69" s="33"/>
     </row>
-    <row r="70" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>132</v>
       </c>
@@ -6424,16 +6607,19 @@
       <c r="V70" s="33">
         <v>8238.8889999999992</v>
       </c>
-      <c r="AB70" s="33">
+      <c r="W70" s="33">
+        <v>8457</v>
+      </c>
+      <c r="AC70" s="33">
         <f>R70</f>
         <v>11133.341</v>
       </c>
-      <c r="AC70" s="74">
+      <c r="AD70" s="31">
         <f>V70</f>
         <v>8238.8889999999992</v>
       </c>
     </row>
-    <row r="71" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>133</v>
       </c>
@@ -6461,33 +6647,37 @@
         <f>V70+V68</f>
         <v>10757.151</v>
       </c>
-      <c r="AB71" s="33">
-        <f>AB70+AB68</f>
-        <v>13340.172</v>
+      <c r="W71" s="33">
+        <f t="shared" ref="W71" si="114">W70+W68</f>
+        <v>10964</v>
       </c>
       <c r="AC71" s="33">
         <f>AC70+AC68</f>
+        <v>13340.172</v>
+      </c>
+      <c r="AD71" s="33">
+        <f>AD70+AD68</f>
         <v>10757.151</v>
       </c>
     </row>
-    <row r="73" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>134</v>
       </c>
       <c r="M73" s="33">
-        <f t="shared" ref="M73" si="112">M57-M68</f>
+        <f t="shared" ref="M73" si="115">M57-M68</f>
         <v>6176.8289999999997</v>
       </c>
       <c r="R73" s="33">
-        <f t="shared" ref="R73" si="113">R57-R68</f>
+        <f t="shared" ref="R73" si="116">R57-R68</f>
         <v>11133.340999999999</v>
       </c>
       <c r="S73" s="33">
-        <f t="shared" ref="S73:T73" si="114">S57-S68</f>
+        <f t="shared" ref="S73:T73" si="117">S57-S68</f>
         <v>9789.5950000000012</v>
       </c>
       <c r="T73" s="33">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>8717.1280000000006</v>
       </c>
       <c r="U73" s="33">
@@ -6495,36 +6685,40 @@
         <v>8693.0079999999998</v>
       </c>
       <c r="V73" s="33">
-        <f t="shared" ref="V73" si="115">V57-V68</f>
+        <f t="shared" ref="V73:W73" si="118">V57-V68</f>
         <v>8238.8889999999992</v>
       </c>
-      <c r="AB73" s="33">
-        <f>AB57-AB68</f>
+      <c r="W73" s="33">
+        <f t="shared" si="118"/>
+        <v>8457</v>
+      </c>
+      <c r="AC73" s="33">
+        <f>AC57-AC68</f>
         <v>11133.340999999999</v>
       </c>
-      <c r="AC73" s="33">
-        <f t="shared" ref="AC73" si="116">AC57-AC68</f>
+      <c r="AD73" s="33">
+        <f t="shared" ref="AD73" si="119">AD57-AD68</f>
         <v>8238.8889999999992</v>
       </c>
     </row>
-    <row r="74" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>135</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" ref="M74" si="117">M73/M22</f>
+        <f t="shared" ref="M74" si="120">M73/M22</f>
         <v>51.25510694067961</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" ref="R74:S74" si="118">R73/R22</f>
+        <f t="shared" ref="R74:S74" si="121">R73/R22</f>
         <v>88.546249602983664</v>
       </c>
       <c r="S74" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>77.687142379346611</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" ref="T74" si="119">T73/T22</f>
+        <f t="shared" ref="T74" si="122">T73/T22</f>
         <v>6.9073275958982521</v>
       </c>
       <c r="U74" s="1">
@@ -6532,36 +6726,43 @@
         <v>6.8479874371111631</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" ref="V74" si="120">V73/V22</f>
+        <f t="shared" ref="V74:W74" si="123">V73/V22</f>
         <v>6.4703038767991545</v>
       </c>
-      <c r="AB74" s="1">
-        <f>AB73/AB22</f>
+      <c r="W74" s="1">
+        <f t="shared" si="123"/>
+        <v>6.6231507259802562</v>
+      </c>
+      <c r="AC74" s="1">
+        <f>AC73/AC22</f>
         <v>88.546249602983664</v>
       </c>
-      <c r="AC74" s="1">
-        <f t="shared" ref="AC74" si="121">AC73/AC22</f>
+      <c r="AD74" s="1">
+        <f t="shared" ref="AD74" si="124">AD73/AD22</f>
         <v>6.5064330706476614</v>
       </c>
     </row>
-    <row r="76" spans="2:39" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="W75" s="1"/>
+    </row>
+    <row r="76" spans="2:40" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="28" t="s">
         <v>6</v>
       </c>
       <c r="M76" s="31">
-        <f t="shared" ref="M76" si="122">M44+M45</f>
+        <f t="shared" ref="M76" si="125">M44+M45</f>
         <v>6121.1610000000001</v>
       </c>
       <c r="R76" s="31">
-        <f t="shared" ref="R76:S76" si="123">R44+R45</f>
+        <f t="shared" ref="R76:S76" si="126">R44+R45</f>
         <v>7768.0929999999998</v>
       </c>
       <c r="S76" s="31">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>7246.6900000000005</v>
       </c>
       <c r="T76" s="31">
-        <f t="shared" ref="T76" si="124">T44+T45</f>
+        <f t="shared" ref="T76" si="127">T44+T45</f>
         <v>6954.7910000000002</v>
       </c>
       <c r="U76" s="31">
@@ -6569,38 +6770,41 @@
         <v>4941.4319999999998</v>
       </c>
       <c r="V76" s="31">
-        <f t="shared" ref="V76" si="125">V44+V45</f>
+        <f t="shared" ref="V76:W76" si="128">V44+V45</f>
         <v>5052.95</v>
       </c>
-      <c r="W76" s="48"/>
-      <c r="AB76" s="31">
-        <f>AB44+AB45</f>
+      <c r="W76" s="31">
+        <f t="shared" si="128"/>
+        <v>4863</v>
+      </c>
+      <c r="AC76" s="31">
+        <f>AC44+AC45</f>
         <v>7768.0929999999998</v>
       </c>
-      <c r="AC76" s="31">
-        <f t="shared" ref="AC76" si="126">AC44+AC45</f>
+      <c r="AD76" s="31">
+        <f t="shared" ref="AD76" si="129">AD44+AD45</f>
         <v>5052.95</v>
       </c>
-      <c r="AD76" s="48"/>
-    </row>
-    <row r="77" spans="2:39" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE76" s="48"/>
+    </row>
+    <row r="77" spans="2:40" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="28" t="s">
         <v>7</v>
       </c>
       <c r="M77" s="31">
-        <f t="shared" ref="M77" si="127">M66</f>
+        <f t="shared" ref="M77" si="130">M66</f>
         <v>750.452</v>
       </c>
       <c r="R77" s="31">
-        <f t="shared" ref="R77:S77" si="128">R66</f>
+        <f t="shared" ref="R77:S77" si="131">R66</f>
         <v>910.96299999999997</v>
       </c>
       <c r="S77" s="31">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>911.54899999999998</v>
       </c>
       <c r="T77" s="31">
-        <f t="shared" ref="T77" si="129">T66</f>
+        <f t="shared" ref="T77" si="132">T66</f>
         <v>912.13699999999994</v>
       </c>
       <c r="U77" s="31">
@@ -6608,38 +6812,41 @@
         <v>912.72400000000005</v>
       </c>
       <c r="V77" s="31">
-        <f t="shared" ref="V77" si="130">V66</f>
+        <f t="shared" ref="V77:W77" si="133">V66</f>
         <v>913.31200000000001</v>
       </c>
-      <c r="W77" s="48"/>
-      <c r="AB77" s="31">
-        <f>AB66</f>
+      <c r="W77" s="31">
+        <f t="shared" si="133"/>
+        <v>914</v>
+      </c>
+      <c r="AC77" s="31">
+        <f>AC66</f>
         <v>910.96299999999997</v>
       </c>
-      <c r="AC77" s="31">
-        <f t="shared" ref="AC77" si="131">AC66</f>
+      <c r="AD77" s="31">
+        <f t="shared" ref="AD77" si="134">AD66</f>
         <v>913.31200000000001</v>
       </c>
-      <c r="AD77" s="48"/>
-    </row>
-    <row r="78" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AE77" s="48"/>
+    </row>
+    <row r="78" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M78" s="33">
-        <f t="shared" ref="M78" si="132">M76-M77</f>
+        <f t="shared" ref="M78" si="135">M76-M77</f>
         <v>5370.7089999999998</v>
       </c>
       <c r="R78" s="33">
-        <f t="shared" ref="R78:S78" si="133">R76-R77</f>
+        <f t="shared" ref="R78:S78" si="136">R76-R77</f>
         <v>6857.13</v>
       </c>
       <c r="S78" s="33">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>6335.1410000000005</v>
       </c>
       <c r="T78" s="33">
-        <f t="shared" ref="T78" si="134">T76-T77</f>
+        <f t="shared" ref="T78" si="137">T76-T77</f>
         <v>6042.6540000000005</v>
       </c>
       <c r="U78" s="33">
@@ -6647,19 +6854,23 @@
         <v>4028.7079999999996</v>
       </c>
       <c r="V78" s="33">
-        <f t="shared" ref="V78" si="135">V76-V77</f>
+        <f t="shared" ref="V78:W78" si="138">V76-V77</f>
         <v>4139.6379999999999</v>
       </c>
-      <c r="AB78" s="33">
-        <f>AB76-AB77</f>
+      <c r="W78" s="33">
+        <f t="shared" si="138"/>
+        <v>3949</v>
+      </c>
+      <c r="AC78" s="33">
+        <f>AC76-AC77</f>
         <v>6857.13</v>
       </c>
-      <c r="AC78" s="33">
-        <f t="shared" ref="AC78" si="136">AC76-AC77</f>
+      <c r="AD78" s="33">
+        <f t="shared" ref="AD78" si="139">AD76-AD77</f>
         <v>4139.6379999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>136</v>
       </c>
@@ -6684,33 +6895,36 @@
       <c r="V80" s="1">
         <v>34.17</v>
       </c>
-      <c r="AB80" s="33">
+      <c r="W80" s="119">
+        <v>47.94</v>
+      </c>
+      <c r="AC80" s="33">
         <f>R80</f>
         <v>1377.4299999999998</v>
       </c>
-      <c r="AC80" s="77">
+      <c r="AD80" s="28">
         <f>V80</f>
         <v>34.17</v>
       </c>
     </row>
-    <row r="81" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
         <v>137</v>
       </c>
       <c r="M81" s="33">
-        <f t="shared" ref="M81" si="137">M80*M22</f>
+        <f t="shared" ref="M81" si="140">M80*M22</f>
         <v>37563.429562800004</v>
       </c>
       <c r="R81" s="33">
-        <f t="shared" ref="R81:T81" si="138">R80*R22</f>
+        <f t="shared" ref="R81:T81" si="141">R80*R22</f>
         <v>173190.82357964999</v>
       </c>
       <c r="S81" s="33">
-        <f t="shared" ref="S81" si="139">S80*S22</f>
+        <f t="shared" ref="S81" si="142">S80*S22</f>
         <v>85184.832616</v>
       </c>
       <c r="T81" s="33">
-        <f t="shared" si="138"/>
+        <f t="shared" si="141"/>
         <v>39425.244414599998</v>
       </c>
       <c r="U81" s="33">
@@ -6718,36 +6932,40 @@
         <v>34198.315588440004</v>
       </c>
       <c r="V81" s="33">
-        <f t="shared" ref="V81" si="140">V80*V22</f>
+        <f t="shared" ref="V81:W81" si="143">V80*V22</f>
         <v>43509.986932680004</v>
       </c>
-      <c r="AB81" s="33">
-        <f t="shared" ref="AB81:AC81" si="141">AB80*AB22</f>
+      <c r="W81" s="33">
+        <f t="shared" si="143"/>
+        <v>61213.853764439998</v>
+      </c>
+      <c r="AC81" s="33">
+        <f t="shared" ref="AC81:AD81" si="144">AC80*AC22</f>
         <v>173190.82357964999</v>
       </c>
-      <c r="AC81" s="33">
-        <f t="shared" si="141"/>
+      <c r="AD81" s="33">
+        <f t="shared" si="144"/>
         <v>43268.382856349999</v>
       </c>
     </row>
-    <row r="82" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M82" s="33">
-        <f t="shared" ref="M82" si="142">M81-M78</f>
+        <f t="shared" ref="M82" si="145">M81-M78</f>
         <v>32192.720562800005</v>
       </c>
       <c r="R82" s="33">
-        <f t="shared" ref="R82:T82" si="143">R81-R78</f>
+        <f t="shared" ref="R82:T82" si="146">R81-R78</f>
         <v>166333.69357964999</v>
       </c>
       <c r="S82" s="33">
-        <f t="shared" ref="S82" si="144">S81-S78</f>
+        <f t="shared" ref="S82" si="147">S81-S78</f>
         <v>78849.691615999996</v>
       </c>
       <c r="T82" s="33">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>33382.590414599996</v>
       </c>
       <c r="U82" s="33">
@@ -6755,19 +6973,23 @@
         <v>30169.607588440005</v>
       </c>
       <c r="V82" s="33">
-        <f t="shared" ref="V82" si="145">V81-V78</f>
+        <f t="shared" ref="V82:W82" si="148">V81-V78</f>
         <v>39370.348932680005</v>
       </c>
-      <c r="AB82" s="33">
-        <f t="shared" ref="AB82:AC82" si="146">AB81-AB78</f>
+      <c r="W82" s="33">
+        <f t="shared" si="148"/>
+        <v>57264.853764439998</v>
+      </c>
+      <c r="AC82" s="33">
+        <f t="shared" ref="AC82:AD82" si="149">AC81-AC78</f>
         <v>166333.69357964999</v>
       </c>
-      <c r="AC82" s="33">
-        <f t="shared" si="146"/>
+      <c r="AD82" s="33">
+        <f t="shared" si="149"/>
         <v>39128.74485635</v>
       </c>
     </row>
-    <row r="84" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>22</v>
       </c>
@@ -6780,11 +7002,11 @@
         <v>15.556051285921271</v>
       </c>
       <c r="S84" s="43">
-        <f t="shared" ref="S84" si="147">S80/S74</f>
+        <f t="shared" ref="S84" si="150">S80/S74</f>
         <v>8.7015686160663428</v>
       </c>
       <c r="T84" s="43">
-        <f t="shared" ref="T84" si="148">T80/T74</f>
+        <f t="shared" ref="T84" si="151">T80/T74</f>
         <v>4.5227332229835326</v>
       </c>
       <c r="U84" s="43">
@@ -6792,32 +7014,36 @@
         <v>3.9340025441642301</v>
       </c>
       <c r="V84" s="43">
-        <f t="shared" ref="V84" si="149">V80/V74</f>
+        <f t="shared" ref="V84:W84" si="152">V80/V74</f>
         <v>5.2810502645053248</v>
       </c>
-      <c r="AB84" s="43">
-        <f>AB80/AB74</f>
+      <c r="W84" s="43">
+        <f t="shared" si="152"/>
+        <v>7.2382468682085834</v>
+      </c>
+      <c r="AC84" s="43">
+        <f>AC80/AC74</f>
         <v>15.556051285921271</v>
       </c>
-      <c r="AC84" s="43">
-        <f t="shared" ref="AC84" si="150">AC80/AC74</f>
+      <c r="AD84" s="43">
+        <f t="shared" ref="AD84" si="153">AD80/AD74</f>
         <v>5.2517254275849581</v>
       </c>
     </row>
-    <row r="85" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B85" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R85" s="43">
-        <f t="shared" ref="R85:T85" si="151">R81/SUM(O6:R6)</f>
+        <f t="shared" ref="R85:T85" si="154">R81/SUM(O6:R6)</f>
         <v>37.553389260126508</v>
       </c>
       <c r="S85" s="43">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>17.64818676432078</v>
       </c>
       <c r="T85" s="43">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>7.8811871012403909</v>
       </c>
       <c r="U85" s="43">
@@ -6825,32 +7051,36 @@
         <v>6.5202864469437998</v>
       </c>
       <c r="V85" s="43">
-        <f t="shared" ref="V85" si="152">V81/SUM(S6:V6)</f>
+        <f t="shared" ref="V85" si="155">V81/SUM(S6:V6)</f>
         <v>7.7698292195453318</v>
       </c>
-      <c r="AB85" s="43">
-        <f>AB81/AB6</f>
+      <c r="W85" s="43">
+        <f t="shared" ref="W85" si="156">W81/SUM(T6:W6)</f>
+        <v>10.367776952946196</v>
+      </c>
+      <c r="AC85" s="43">
+        <f>AC81/AC6</f>
         <v>37.553389260126508</v>
       </c>
-      <c r="AC85" s="43">
-        <f t="shared" ref="AC85" si="153">AC81/AC6</f>
+      <c r="AD85" s="43">
+        <f t="shared" ref="AD85" si="157">AD81/AD6</f>
         <v>7.7266845866881759</v>
       </c>
     </row>
-    <row r="86" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R86" s="43">
-        <f t="shared" ref="R86:T86" si="154">R82/SUM(O6:R6)</f>
+        <f t="shared" ref="R86:T86" si="158">R82/SUM(O6:R6)</f>
         <v>36.066541015081562</v>
       </c>
       <c r="S86" s="43">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>16.335702509637791</v>
       </c>
       <c r="T86" s="43">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>6.673248191306258</v>
       </c>
       <c r="U86" s="43">
@@ -6858,19 +7088,23 @@
         <v>5.752168786202243</v>
       </c>
       <c r="V86" s="43">
-        <f t="shared" ref="V86" si="155">V82/SUM(S6:V6)</f>
+        <f t="shared" ref="V86" si="159">V82/SUM(S6:V6)</f>
         <v>7.0305901951690259</v>
       </c>
-      <c r="AB86" s="43">
-        <f>AB82/AB6</f>
-        <v>36.066541015081562</v>
+      <c r="W86" s="43">
+        <f t="shared" ref="W86" si="160">W82/SUM(T6:W6)</f>
+        <v>9.6989356912158566</v>
       </c>
       <c r="AC86" s="43">
         <f>AC82/AC6</f>
+        <v>36.066541015081562</v>
+      </c>
+      <c r="AD86" s="43">
+        <f>AD82/AD6</f>
         <v>6.9874455623118701</v>
       </c>
     </row>
-    <row r="87" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B87" s="1" t="s">
         <v>25</v>
       </c>
@@ -6891,32 +7125,36 @@
         <v>-1.7123991298146535</v>
       </c>
       <c r="V87" s="43">
-        <f t="shared" ref="V87" si="156">V80/SUM(S21:V21)</f>
+        <f t="shared" ref="V87" si="161">V80/SUM(S21:V21)</f>
         <v>-2.5751763691867708</v>
       </c>
-      <c r="AB87" s="43">
-        <f>AB80/AB21</f>
+      <c r="W87" s="43">
+        <f t="shared" ref="W87" si="162">W80/SUM(T21:W21)</f>
+        <v>-31.637257943123146</v>
+      </c>
+      <c r="AC87" s="43">
+        <f>AC80/AC21</f>
         <v>59.42061269591057</v>
       </c>
-      <c r="AC87" s="43">
-        <f t="shared" ref="AC87" si="157">AC80/AC21</f>
+      <c r="AD87" s="43">
+        <f t="shared" ref="AD87" si="163">AD80/AD21</f>
         <v>-12.503802389292279</v>
       </c>
     </row>
-    <row r="88" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B88" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R88" s="43">
-        <f t="shared" ref="R88:T88" si="158">R82/SUM(O20:R20)</f>
+        <f t="shared" ref="R88:T88" si="164">R82/SUM(O20:R20)</f>
         <v>57.067977276123884</v>
       </c>
       <c r="S88" s="43">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>433.7023619462492</v>
       </c>
       <c r="T88" s="43">
-        <f t="shared" si="158"/>
+        <f t="shared" si="164"/>
         <v>-17.558750140490666</v>
       </c>
       <c r="U88" s="43">
@@ -6924,29 +7162,33 @@
         <v>-9.4043885395390046</v>
       </c>
       <c r="V88" s="43">
-        <f t="shared" ref="V88" si="159">V82/SUM(S20:V20)</f>
+        <f t="shared" ref="V88" si="165">V82/SUM(S20:V20)</f>
         <v>-11.377339076573989</v>
       </c>
-      <c r="AB88" s="43">
-        <f>AB82/AB20</f>
+      <c r="W88" s="43">
+        <f t="shared" ref="W88" si="166">W82/SUM(T20:W20)</f>
+        <v>-29.856389572755099</v>
+      </c>
+      <c r="AC88" s="43">
+        <f>AC82/AC20</f>
         <v>57.067977276123898</v>
       </c>
-      <c r="AC88" s="43">
-        <f t="shared" ref="AC88" si="160">AC82/AC20</f>
+      <c r="AD88" s="43">
+        <f t="shared" ref="AD88" si="167">AD82/AD20</f>
         <v>-11.307519743669697</v>
       </c>
     </row>
-    <row r="89" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B89" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B91" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="2" t="s">
         <v>100</v>
       </c>
@@ -7014,10 +7256,11 @@
         <f>-136.448-SUM(S94:U94)</f>
         <v>255.38500000000002</v>
       </c>
-      <c r="W94" s="102"/>
-      <c r="AC94" s="80"/>
-      <c r="AD94" s="52"/>
-      <c r="AE94" s="58"/>
+      <c r="W94" s="125">
+        <v>100</v>
+      </c>
+      <c r="AD94" s="58"/>
+      <c r="AE94" s="52"/>
       <c r="AF94" s="58"/>
       <c r="AG94" s="58"/>
       <c r="AH94" s="58"/>
@@ -7026,14 +7269,16 @@
       <c r="AK94" s="58"/>
       <c r="AL94" s="58"/>
       <c r="AM94" s="58"/>
-    </row>
-    <row r="95" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AN94" s="58"/>
+    </row>
+    <row r="95" spans="2:40" x14ac:dyDescent="0.15">
       <c r="O95" s="33"/>
       <c r="S95" s="33"/>
       <c r="T95" s="33"/>
       <c r="V95" s="33"/>
-    </row>
-    <row r="96" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="W95" s="126"/>
+    </row>
+    <row r="96" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
         <v>139</v>
       </c>
@@ -7059,8 +7304,11 @@
         <f>5011.129-SUM(S96:U96)</f>
         <v>1442.9000000000005</v>
       </c>
-    </row>
-    <row r="97" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="W96" s="126">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="97" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
@@ -7086,8 +7334,11 @@
         <f>6890.167-SUM(S97:U97)</f>
         <v>1616.223</v>
       </c>
-    </row>
-    <row r="98" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="W97" s="126">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="98" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>141</v>
       </c>
@@ -7113,8 +7364,11 @@
         <f>635.156-SUM(S98:U98)</f>
         <v>5.0209999999999582</v>
       </c>
-    </row>
-    <row r="99" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="W98" s="126">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="99" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B99" s="1" t="s">
         <v>142</v>
       </c>
@@ -7140,9 +7394,11 @@
         <f>50.018-SUM(S99:U99)</f>
         <v>7.6240000000000023</v>
       </c>
-      <c r="W99" s="81"/>
-    </row>
-    <row r="100" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="W99" s="127">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>143</v>
       </c>
@@ -7166,95 +7422,100 @@
         <f>1753.748-SUM(S100:U100)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W100" s="126">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C101" s="2">
-        <f t="shared" ref="C101:V101" si="161">SUM(C96:C100)</f>
+        <f t="shared" ref="C101:W101" si="168">SUM(C96:C100)</f>
         <v>0</v>
       </c>
       <c r="D101" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="E101" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="K101" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="L101" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="M101" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="N101" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="O101" s="32">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>-1608.0029999999997</v>
       </c>
       <c r="P101" s="32">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>-508.85200000000003</v>
       </c>
       <c r="Q101" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="R101" s="2">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
       <c r="S101" s="32">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>935.57500000000005</v>
       </c>
       <c r="T101" s="32">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>1349.0449999999998</v>
       </c>
       <c r="U101" s="32">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>8983.83</v>
       </c>
       <c r="V101" s="32">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>3071.768</v>
       </c>
-      <c r="W101" s="102"/>
-      <c r="AC101" s="80"/>
-      <c r="AD101" s="52"/>
-      <c r="AE101" s="58"/>
+      <c r="W101" s="128">
+        <f t="shared" si="168"/>
+        <v>2360</v>
+      </c>
+      <c r="AD101" s="58"/>
+      <c r="AE101" s="52"/>
       <c r="AF101" s="58"/>
       <c r="AG101" s="58"/>
       <c r="AH101" s="58"/>
@@ -7263,88 +7524,90 @@
       <c r="AK101" s="58"/>
       <c r="AL101" s="58"/>
       <c r="AM101" s="58"/>
-    </row>
-    <row r="102" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AN101" s="58"/>
+    </row>
+    <row r="102" spans="2:40" x14ac:dyDescent="0.15">
       <c r="O102" s="33"/>
       <c r="P102" s="33"/>
       <c r="S102" s="33"/>
       <c r="T102" s="33"/>
       <c r="V102" s="33"/>
-    </row>
-    <row r="103" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="W102" s="126"/>
+    </row>
+    <row r="103" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" ref="C103:T103" si="162">C99+C100</f>
+        <f t="shared" ref="C103:T103" si="169">C99+C100</f>
         <v>0</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="I103" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="J103" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="L103" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="M103" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="N103" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="O103" s="33">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>5.1879999999999997</v>
       </c>
       <c r="P103" s="33">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>-8.2630000000000017</v>
       </c>
       <c r="Q103" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="R103" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="S103" s="33">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>15.94</v>
       </c>
       <c r="T103" s="33">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>42.557000000000002</v>
       </c>
       <c r="U103" s="33">
@@ -7352,83 +7615,88 @@
         <v>1737.645</v>
       </c>
       <c r="V103" s="33">
-        <f t="shared" ref="V103" si="163">V99+V100</f>
+        <f t="shared" ref="V103:W103" si="170">V99+V100</f>
         <v>7.6240000000000023</v>
       </c>
-    </row>
-    <row r="104" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="W103" s="129">
+        <f t="shared" si="170"/>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="104" spans="2:40" x14ac:dyDescent="0.15">
       <c r="O104" s="33"/>
       <c r="P104" s="33"/>
       <c r="S104" s="33"/>
       <c r="T104" s="33"/>
       <c r="V104" s="33"/>
-    </row>
-    <row r="105" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W104" s="129"/>
+    </row>
+    <row r="105" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B105" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C105" s="32">
-        <f t="shared" ref="C105:R105" si="164">C103-C94</f>
+        <f t="shared" ref="C105:R105" si="171">C103-C94</f>
         <v>0</v>
       </c>
       <c r="D105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="E105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="F105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="G105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="H105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="I105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="J105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="K105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="L105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="M105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="N105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="O105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>-130.495</v>
       </c>
       <c r="P105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>-74.684000000000026</v>
       </c>
       <c r="Q105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="R105" s="32">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>0</v>
       </c>
       <c r="S105" s="32">
@@ -7436,21 +7704,23 @@
         <v>69.5</v>
       </c>
       <c r="T105" s="32">
-        <f t="shared" ref="T105:U105" si="165">T103-T94</f>
+        <f t="shared" ref="T105:U105" si="172">T103-T94</f>
         <v>166.72399999999999</v>
       </c>
       <c r="U105" s="32">
-        <f t="shared" si="165"/>
+        <f t="shared" si="172"/>
         <v>1951.751</v>
       </c>
       <c r="V105" s="32">
-        <f t="shared" ref="V105" si="166">V103-V94</f>
+        <f t="shared" ref="V105:W105" si="173">V103-V94</f>
         <v>-247.76100000000002</v>
       </c>
-      <c r="W105" s="102"/>
-      <c r="AC105" s="80"/>
-      <c r="AD105" s="52"/>
-      <c r="AE105" s="58"/>
+      <c r="W105" s="128">
+        <f t="shared" si="173"/>
+        <v>-145</v>
+      </c>
+      <c r="AD105" s="58"/>
+      <c r="AE105" s="52"/>
       <c r="AF105" s="58"/>
       <c r="AG105" s="58"/>
       <c r="AH105" s="58"/>
@@ -7459,6 +7729,7 @@
       <c r="AK105" s="58"/>
       <c r="AL105" s="58"/>
       <c r="AM105" s="58"/>
+      <c r="AN105" s="58"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7466,20 +7737,21 @@
     <hyperlink ref="T1" r:id="rId2" xr:uid="{335B983C-A4C2-42BB-8F6F-7630B3853F22}"/>
     <hyperlink ref="S1" r:id="rId3" xr:uid="{885FA998-5ED9-44A3-A0F1-8874199F4566}"/>
     <hyperlink ref="R1" r:id="rId4" xr:uid="{10D4EEA5-9810-034E-8889-73BE2548332A}"/>
-    <hyperlink ref="AB1" r:id="rId5" xr:uid="{097AF3B0-7BBE-48F1-A2C9-FE0198607796}"/>
+    <hyperlink ref="AC1" r:id="rId5" xr:uid="{097AF3B0-7BBE-48F1-A2C9-FE0198607796}"/>
     <hyperlink ref="M1" r:id="rId6" xr:uid="{240B947B-C305-4D02-B35A-139D4A74064D}"/>
     <hyperlink ref="V1" r:id="rId7" xr:uid="{6123133E-08C5-6C4D-9572-9C1E621E3D72}"/>
-    <hyperlink ref="AC1" r:id="rId8" xr:uid="{C21B9DFA-3DDC-46B6-A8BC-0AD1FBB058A6}"/>
+    <hyperlink ref="AD1" r:id="rId8" xr:uid="{C21B9DFA-3DDC-46B6-A8BC-0AD1FBB058A6}"/>
+    <hyperlink ref="W1" r:id="rId9" xr:uid="{51C816EE-CF81-8040-A7E9-E6F10A0BD302}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
   <ignoredErrors>
-    <ignoredError sqref="AB19 AC11:AC17 AC19:AC20 AC4:AC5 AC7:AC8" formulaRange="1"/>
-    <ignoredError sqref="AB4:AB18 AC18" formula="1" formulaRange="1"/>
-    <ignoredError sqref="AB2:AB3 AC10 AB50:AC50 AB57:AB67 AC57 AC63" formula="1"/>
+    <ignoredError sqref="AC19 AD11:AD17 AD19:AD20 AD4:AD5 AD7:AD8 W6" formulaRange="1"/>
+    <ignoredError sqref="AC4:AC18 AD18" formula="1" formulaRange="1"/>
+    <ignoredError sqref="AC2:AC3 AD10 AC50:AD50 AC57:AC67 AD57 AD63" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <drawing r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -7491,402 +7763,402 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B1" s="21"/>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="92" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="22"/>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="93" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" s="22"/>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="91"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="84"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" s="30" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="46"/>
-      <c r="E4" s="92">
+      <c r="E4" s="85">
         <v>400.25400000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="46"/>
-      <c r="E5" s="92">
+      <c r="E5" s="85">
         <v>1334.7239999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="80">
         <v>1707.75</v>
       </c>
-      <c r="E6" s="93">
+      <c r="E6" s="86">
         <v>1734.9780000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="46"/>
-      <c r="E7" s="92">
+      <c r="E7" s="85">
         <v>85.771000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" s="30" t="s">
         <v>75</v>
       </c>
       <c r="D8" s="46"/>
-      <c r="E8" s="92">
+      <c r="E8" s="85">
         <v>850.69899999999996</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="74">
         <v>853.875</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="87">
         <v>936.46999999999991</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="80">
         <v>853.875</v>
       </c>
-      <c r="E10" s="93">
+      <c r="E10" s="86">
         <v>798.50800000000015</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="81">
+      <c r="D11" s="74">
         <v>392.78250000000003</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="87">
         <v>297.74099999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="74">
         <v>512.32499999999993</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="87">
         <v>440.54700000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="74">
         <v>324.47250000000003</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="87">
         <v>214.65100000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="74">
         <v>30.747199999999999</v>
       </c>
-      <c r="E14" s="94">
+      <c r="E14" s="87">
         <v>34.317999999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="74">
         <v>1260.3271999999999</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="87">
         <v>987.25700000000006</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="87">
+      <c r="D16" s="80">
         <v>-406.45219999999995</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="86">
         <v>-188.74899999999991</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="81">
+      <c r="D17" s="74">
         <v>-719.45324999999991</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="87">
         <v>-425.85899999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="81">
+      <c r="D18" s="74">
         <v>-1125.9054499999997</v>
       </c>
-      <c r="E18" s="94">
+      <c r="E18" s="87">
         <v>-614.60799999999995</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="74">
         <v>-281.47636249999994</v>
       </c>
-      <c r="E19" s="94">
+      <c r="E19" s="87">
         <v>9.0860000000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="80">
         <v>-844.42908749999981</v>
       </c>
-      <c r="E20" s="93">
+      <c r="E20" s="86">
         <v>-623.69399999999996</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D21" s="81">
         <v>-0.66520585080920691</v>
       </c>
-      <c r="E21" s="95">
+      <c r="E21" s="88">
         <v>-0.48980993749720042</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="74">
         <v>1269.4252260000001</v>
       </c>
-      <c r="E22" s="94">
+      <c r="E22" s="87">
         <v>1273.338804</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D23" s="89"/>
-      <c r="E23" s="91"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D23" s="82"/>
+      <c r="E23" s="84"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="83">
         <v>0.23747847863515403</v>
       </c>
-      <c r="E24" s="96">
+      <c r="E24" s="89">
         <v>0.25720857028573407</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B25" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="97">
+      <c r="D25" s="76"/>
+      <c r="E25" s="90">
         <v>0.13964943850937339</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="97">
+      <c r="D26" s="76"/>
+      <c r="E26" s="90">
         <v>0.29733985474564917</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D27" s="76">
         <v>0.25</v>
       </c>
-      <c r="E27" s="97">
+      <c r="E27" s="90">
         <v>0.26992973210364513</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D28" s="89"/>
-      <c r="E28" s="91"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D28" s="82"/>
+      <c r="E28" s="84"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B29" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="90">
+      <c r="D29" s="83">
         <v>0.5</v>
       </c>
-      <c r="E29" s="96">
+      <c r="E29" s="89">
         <v>0.46024099441030381</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B30" s="40" t="s">
         <v>110</v>
       </c>
       <c r="D30" s="47"/>
-      <c r="E30" s="98">
+      <c r="E30" s="91">
         <v>0.78570857505484015</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B31" s="40" t="s">
         <v>111</v>
       </c>
       <c r="D31" s="47"/>
-      <c r="E31" s="98">
+      <c r="E31" s="91">
         <v>0.36264051594187263</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="83">
+      <c r="D32" s="76">
         <v>-0.23800450885668273</v>
       </c>
-      <c r="E32" s="97">
+      <c r="E32" s="90">
         <v>-0.10879042846652805</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="83">
+      <c r="D33" s="76">
         <v>-0.49446879666227483</v>
       </c>
-      <c r="E33" s="97">
+      <c r="E33" s="90">
         <v>-0.35948236807613693</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="83">
+      <c r="D34" s="76">
         <v>0.25</v>
       </c>
-      <c r="E34" s="97">
+      <c r="E34" s="90">
         <v>-1.4783406659203918E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D35" s="89"/>
-      <c r="E35" s="91"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D35" s="82"/>
+      <c r="E35" s="84"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B36" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="83">
+      <c r="D36" s="76">
         <v>0.3</v>
       </c>
-      <c r="E36" s="97">
+      <c r="E36" s="90">
         <v>0.25392079899572212</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B40" s="37"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B73" s="28"/>
       <c r="D73" s="28"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B74" s="28"/>
       <c r="D74" s="28"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B88" s="37"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B91" s="2"/>
       <c r="D91" s="2"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D97" s="33"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B102" s="2"/>
       <c r="D102" s="2"/>
     </row>
